--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO1"/>
+  <dimension ref="A1:AO16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -640,6 +640,2031 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Australian A-League Men</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>05:00:00</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Sydney FC</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Auckland FC</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N2" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Turkish 1 Lig</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Hatayspor</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76 Igdir Belediyespor</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Turkish 1 Lig</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>11:00:00</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Umraniyespor</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Boluspor</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Turkish 1 Lig</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>14:00:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Istanbulspor</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Erokspor A.S</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="G5" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>14:45:00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Galatasaray</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>50</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>English National League</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Sutton Utd</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Woking</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>English National League</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Wealdstone</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Hartlepool</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>English National League</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Rochdale</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Scunthorpe</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>English National League</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Yeovil</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Aldershot</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>English National League</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>FC Halifax Town</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Gateshead</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I11" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K11" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>970</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>46</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Paris St-G</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G13" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K13" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>27</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>180</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Alianza FC Valledupar</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Cucuta Deportivo</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I15" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Jaguares de Cordoba</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Santa Fe</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G16" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-17.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.62</v>
+        <v>2.88</v>
       </c>
       <c r="G2" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>2.72</v>
+        <v>2.6</v>
       </c>
       <c r="I2" t="n">
-        <v>2.86</v>
+        <v>2.64</v>
       </c>
       <c r="J2" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K2" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="L2" t="n">
         <v>1.31</v>
@@ -697,37 +697,37 @@
         <v>1.26</v>
       </c>
       <c r="P2" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="R2" t="n">
         <v>1.46</v>
       </c>
       <c r="S2" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="T2" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U2" t="n">
         <v>2.4</v>
       </c>
       <c r="V2" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="W2" t="n">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
@@ -739,22 +739,22 @@
         <v>8.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
@@ -766,10 +766,10 @@
         <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AN2" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="I4" t="n">
         <v>2.86</v>
-      </c>
-      <c r="G4" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.76</v>
       </c>
       <c r="J4" t="n">
         <v>3.5</v>
       </c>
       <c r="K4" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>3.95</v>
       </c>
       <c r="G5" t="n">
-        <v>5.3</v>
+        <v>4.7</v>
       </c>
       <c r="H5" t="n">
         <v>1.78</v>
@@ -1213,16 +1213,16 @@
         <v>3.75</v>
       </c>
       <c r="H6" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="I6" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="J6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K6" t="n">
         <v>3.65</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.7</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.84</v>
+        <v>2</v>
       </c>
       <c r="Q6" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1249,10 +1249,10 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="U6" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1261,46 +1261,46 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="Z6" t="n">
         <v>14</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AB6" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="AD6" t="n">
         <v>10.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AF6" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AK6" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AL6" t="n">
         <v>55</v>
@@ -1312,7 +1312,7 @@
         <v>50</v>
       </c>
       <c r="AO6" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="7">
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="G7" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="H7" t="n">
-        <v>2.82</v>
+        <v>3.05</v>
       </c>
       <c r="I7" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="J7" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K7" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.78</v>
+        <v>1.89</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1480,10 +1480,10 @@
         <v>2.26</v>
       </c>
       <c r="G8" t="n">
-        <v>2.56</v>
+        <v>2.68</v>
       </c>
       <c r="H8" t="n">
-        <v>2.78</v>
+        <v>2.52</v>
       </c>
       <c r="I8" t="n">
         <v>3.5</v>
@@ -1750,7 +1750,7 @@
         <v>2.98</v>
       </c>
       <c r="G10" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H10" t="n">
         <v>2.34</v>
@@ -2020,19 +2020,19 @@
         <v>2.08</v>
       </c>
       <c r="G12" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H12" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I12" t="n">
         <v>3.85</v>
       </c>
       <c r="J12" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="K12" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q12" t="n">
         <v>1.73</v>
@@ -2059,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U12" t="n">
         <v>2.44</v>
@@ -2071,13 +2071,13 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y12" t="n">
-        <v>970</v>
+        <v>18.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="AA12" t="n">
         <v>1000</v>
@@ -2095,7 +2095,7 @@
         <v>42</v>
       </c>
       <c r="AF12" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AG12" t="n">
         <v>11</v>
@@ -2107,22 +2107,22 @@
         <v>46</v>
       </c>
       <c r="AJ12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK12" t="n">
         <v>21</v>
       </c>
       <c r="AL12" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="AM12" t="n">
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13">
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="G13" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="H13" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="I13" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="J13" t="n">
         <v>4.8</v>
       </c>
       <c r="K13" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2182,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="Q13" t="n">
         <v>1.56</v>
@@ -2194,10 +2194,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="U13" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2215,10 +2215,10 @@
         <v>12</v>
       </c>
       <c r="AA13" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC13" t="n">
         <v>11.5</v>
@@ -2227,13 +2227,13 @@
         <v>10</v>
       </c>
       <c r="AE13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF13" t="n">
         <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH13" t="n">
         <v>19.5</v>
@@ -2242,19 +2242,19 @@
         <v>27</v>
       </c>
       <c r="AJ13" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AK13" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM13" t="n">
         <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AO13" t="n">
         <v>6</v>
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="G14" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="H14" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="I14" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="J14" t="n">
         <v>4.1</v>
@@ -2317,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="Q14" t="n">
         <v>1.6</v>
@@ -2332,7 +2332,7 @@
         <v>1.58</v>
       </c>
       <c r="U14" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2344,13 +2344,13 @@
         <v>25</v>
       </c>
       <c r="Y14" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z14" t="n">
         <v>15</v>
       </c>
       <c r="AA14" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="AB14" t="n">
         <v>21</v>
@@ -2365,31 +2365,31 @@
         <v>18</v>
       </c>
       <c r="AF14" t="n">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>19.5</v>
+        <v>16</v>
       </c>
       <c r="AI14" t="n">
         <v>28</v>
       </c>
       <c r="AJ14" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AK14" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AL14" t="n">
         <v>42</v>
       </c>
       <c r="AM14" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN14" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AO14" t="n">
         <v>9</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="G15" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="H15" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="I15" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="J15" t="n">
         <v>3.3</v>
       </c>
       <c r="K15" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2455,7 +2455,7 @@
         <v>1.58</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-17.xlsx
@@ -667,94 +667,94 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="G2" t="n">
         <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="I2" t="n">
         <v>2.64</v>
       </c>
       <c r="J2" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K2" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="L2" t="n">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O2" t="n">
         <v>1.26</v>
       </c>
       <c r="P2" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="Q2" t="n">
         <v>1.78</v>
       </c>
       <c r="R2" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S2" t="n">
         <v>2.96</v>
       </c>
       <c r="T2" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="U2" t="n">
         <v>2.4</v>
       </c>
       <c r="V2" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="W2" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="X2" t="n">
         <v>21</v>
       </c>
       <c r="Y2" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AC2" t="n">
         <v>8.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AF2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH2" t="n">
         <v>16.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
@@ -766,13 +766,13 @@
         <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN2" t="n">
         <v>24</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="3">
@@ -943,7 +943,7 @@
         <v>3.25</v>
       </c>
       <c r="H4" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="I4" t="n">
         <v>2.86</v>
@@ -1072,10 +1072,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="G5" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="H5" t="n">
         <v>1.78</v>
@@ -1084,10 +1084,10 @@
         <v>1.97</v>
       </c>
       <c r="J5" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K5" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2.42</v>
+        <v>2.34</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="G6" t="n">
         <v>3.75</v>
       </c>
       <c r="H6" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="I6" t="n">
         <v>2.18</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2.2</v>
       </c>
       <c r="J6" t="n">
         <v>3.6</v>
@@ -1297,7 +1297,7 @@
         <v>36</v>
       </c>
       <c r="AJ6" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AK6" t="n">
         <v>55</v>
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G7" t="n">
-        <v>2.68</v>
+        <v>2.56</v>
       </c>
       <c r="H7" t="n">
         <v>3.05</v>
@@ -1354,7 +1354,7 @@
         <v>3.85</v>
       </c>
       <c r="J7" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="K7" t="n">
         <v>3.9</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="Q7" t="n">
         <v>1.89</v>
@@ -1486,7 +1486,7 @@
         <v>2.52</v>
       </c>
       <c r="I8" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="J8" t="n">
         <v>3.4</v>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.83</v>
+        <v>1.96</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="G9" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="H9" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="I9" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="J9" t="n">
         <v>3.75</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.86</v>
+        <v>2.04</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>2.1</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>2.14</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2026,13 +2026,13 @@
         <v>3.75</v>
       </c>
       <c r="I12" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="J12" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K12" t="n">
         <v>3.9</v>
-      </c>
-      <c r="K12" t="n">
-        <v>4</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="U12" t="n">
         <v>2.44</v>
@@ -2074,25 +2074,25 @@
         <v>20</v>
       </c>
       <c r="Y12" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Z12" t="n">
         <v>32</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB12" t="n">
         <v>12.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD12" t="n">
         <v>16</v>
       </c>
       <c r="AE12" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
         <v>14.5</v>
@@ -2104,16 +2104,16 @@
         <v>16.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
         <v>26</v>
       </c>
       <c r="AK12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL12" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AM12" t="n">
         <v>1000</v>
@@ -2122,7 +2122,7 @@
         <v>11.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13">
@@ -2152,10 +2152,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="G13" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="H13" t="n">
         <v>1.57</v>
@@ -2212,7 +2212,7 @@
         <v>12</v>
       </c>
       <c r="Z13" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AA13" t="n">
         <v>15.5</v>
@@ -2332,7 +2332,7 @@
         <v>1.58</v>
       </c>
       <c r="U14" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y14" t="n">
         <v>13.5</v>
@@ -2365,7 +2365,7 @@
         <v>18</v>
       </c>
       <c r="AF14" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AG14" t="n">
         <v>16.5</v>
@@ -2587,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="Q16" t="n">
         <v>2.34</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-17.xlsx
@@ -673,7 +673,7 @@
         <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="I2" t="n">
         <v>2.64</v>
@@ -709,7 +709,7 @@
         <v>2.96</v>
       </c>
       <c r="T2" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U2" t="n">
         <v>2.4</v>
@@ -802,10 +802,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.1</v>
+        <v>11</v>
       </c>
       <c r="G3" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="H3" t="n">
         <v>1.15</v>
@@ -817,19 +817,19 @@
         <v>8.199999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="P3" t="n">
         <v>3.2</v>
@@ -838,76 +838,76 @@
         <v>1.29</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="4">
@@ -940,10 +940,10 @@
         <v>2.62</v>
       </c>
       <c r="G4" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="H4" t="n">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="I4" t="n">
         <v>2.86</v>
@@ -1252,7 +1252,7 @@
         <v>1.76</v>
       </c>
       <c r="U6" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1261,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y6" t="n">
         <v>10</v>
@@ -1276,7 +1276,7 @@
         <v>14.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD6" t="n">
         <v>10.5</v>
@@ -1285,7 +1285,7 @@
         <v>25</v>
       </c>
       <c r="AF6" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AG6" t="n">
         <v>15.5</v>
@@ -1294,7 +1294,7 @@
         <v>17.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AJ6" t="n">
         <v>80</v>
@@ -1312,7 +1312,7 @@
         <v>50</v>
       </c>
       <c r="AO6" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
@@ -1345,13 +1345,13 @@
         <v>2.26</v>
       </c>
       <c r="G7" t="n">
-        <v>2.56</v>
+        <v>2.72</v>
       </c>
       <c r="H7" t="n">
         <v>3.05</v>
       </c>
       <c r="I7" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="J7" t="n">
         <v>3.3</v>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.82</v>
+        <v>1.71</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1645,7 +1645,7 @@
         <v>2.04</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="G11" t="n">
-        <v>1.77</v>
+        <v>1.69</v>
       </c>
       <c r="H11" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="I11" t="n">
         <v>6.4</v>
       </c>
       <c r="J11" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="K11" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>2.14</v>
+        <v>2.28</v>
       </c>
       <c r="Q11" t="n">
         <v>1.65</v>
@@ -2026,7 +2026,7 @@
         <v>3.75</v>
       </c>
       <c r="I12" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="J12" t="n">
         <v>3.8</v>
@@ -2050,7 +2050,7 @@
         <v>2.3</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2071,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y12" t="n">
         <v>18</v>
@@ -2080,49 +2080,49 @@
         <v>32</v>
       </c>
       <c r="AA12" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AB12" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD12" t="n">
         <v>16</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AF12" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AG12" t="n">
         <v>11</v>
       </c>
       <c r="AH12" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AJ12" t="n">
         <v>26</v>
       </c>
       <c r="AK12" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AL12" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN12" t="n">
         <v>11.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13">
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="G13" t="n">
         <v>6.6</v>
       </c>
       <c r="H13" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="I13" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="J13" t="n">
         <v>4.8</v>
@@ -2212,7 +2212,7 @@
         <v>12</v>
       </c>
       <c r="Z13" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AA13" t="n">
         <v>15.5</v>
@@ -2233,13 +2233,13 @@
         <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH13" t="n">
         <v>19.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ13" t="n">
         <v>160</v>
@@ -2248,16 +2248,16 @@
         <v>75</v>
       </c>
       <c r="AL13" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AN13" t="n">
         <v>65</v>
       </c>
       <c r="AO13" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="14">
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="G16" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="H16" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="I16" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="J16" t="n">
         <v>3</v>
       </c>
       <c r="K16" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2587,10 +2587,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-17.xlsx
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="H2" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="I2" t="n">
         <v>2.64</v>
       </c>
       <c r="J2" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K2" t="n">
         <v>3.85</v>
@@ -691,70 +691,70 @@
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="O2" t="n">
         <v>1.26</v>
       </c>
       <c r="P2" t="n">
-        <v>2.18</v>
+        <v>2.02</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="R2" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="S2" t="n">
-        <v>2.96</v>
+        <v>2.78</v>
       </c>
       <c r="T2" t="n">
-        <v>1.66</v>
+        <v>1.58</v>
       </c>
       <c r="U2" t="n">
         <v>2.4</v>
       </c>
       <c r="V2" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="W2" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="X2" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AB2" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.6</v>
+        <v>10.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="AF2" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
@@ -763,16 +763,16 @@
         <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM2" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="AN2" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -802,52 +802,52 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>11</v>
+        <v>1.11</v>
       </c>
       <c r="G3" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="H3" t="n">
         <v>1.15</v>
       </c>
       <c r="I3" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="J3" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="K3" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="L3" t="n">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>7.6</v>
+        <v>3.1</v>
       </c>
       <c r="O3" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="P3" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="R3" t="n">
-        <v>2.02</v>
+        <v>1.34</v>
       </c>
       <c r="S3" t="n">
-        <v>1.71</v>
+        <v>1.23</v>
       </c>
       <c r="T3" t="n">
-        <v>1.95</v>
+        <v>1.01</v>
       </c>
       <c r="U3" t="n">
-        <v>1.68</v>
+        <v>1.01</v>
       </c>
       <c r="V3" t="n">
         <v>5.5</v>
@@ -856,40 +856,40 @@
         <v>1.03</v>
       </c>
       <c r="X3" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
         <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
@@ -907,7 +907,7 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>2.98</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.62</v>
+        <v>2.4</v>
       </c>
       <c r="G4" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="H4" t="n">
-        <v>2.54</v>
+        <v>2.36</v>
       </c>
       <c r="I4" t="n">
-        <v>2.86</v>
+        <v>3.2</v>
       </c>
       <c r="J4" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="K4" t="n">
-        <v>4.1</v>
+        <v>7</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="P4" t="n">
-        <v>2.1</v>
+        <v>1.94</v>
       </c>
       <c r="Q4" t="n">
         <v>1.63</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1075,109 +1075,109 @@
         <v>4</v>
       </c>
       <c r="G5" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="H5" t="n">
         <v>1.78</v>
       </c>
       <c r="I5" t="n">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="J5" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="K5" t="n">
         <v>4.7</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="P5" t="n">
         <v>2.34</v>
       </c>
       <c r="Q5" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="T5" t="n">
         <v>1.6</v>
       </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K6" t="n">
         <v>3.7</v>
-      </c>
-      <c r="G6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.65</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>2</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1252,7 +1252,7 @@
         <v>1.76</v>
       </c>
       <c r="U6" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1261,16 +1261,16 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB6" t="n">
         <v>14.5</v>
@@ -1282,10 +1282,10 @@
         <v>10.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF6" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AG6" t="n">
         <v>15.5</v>
@@ -1297,22 +1297,22 @@
         <v>42</v>
       </c>
       <c r="AJ6" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AK6" t="n">
         <v>55</v>
       </c>
       <c r="AL6" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM6" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN6" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AO6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="G7" t="n">
-        <v>2.72</v>
+        <v>2.56</v>
       </c>
       <c r="H7" t="n">
         <v>3.05</v>
       </c>
       <c r="I7" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="J7" t="n">
         <v>3.3</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>1.89</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1384,10 +1384,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1396,58 +1396,58 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8">
@@ -1477,28 +1477,28 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.26</v>
+        <v>2.08</v>
       </c>
       <c r="G8" t="n">
-        <v>2.68</v>
+        <v>2.86</v>
       </c>
       <c r="H8" t="n">
-        <v>2.52</v>
+        <v>2.7</v>
       </c>
       <c r="I8" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J8" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="K8" t="n">
-        <v>4</v>
+        <v>6.6</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.71</v>
+        <v>1.83</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1519,10 +1519,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1531,58 +1531,58 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1615,7 +1615,7 @@
         <v>1.79</v>
       </c>
       <c r="G9" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="H9" t="n">
         <v>4.7</v>
@@ -1627,7 +1627,7 @@
         <v>3.75</v>
       </c>
       <c r="K9" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1645,7 +1645,7 @@
         <v>2.04</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.68</v>
+        <v>1.8</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1654,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1666,58 +1666,58 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="G10" t="n">
         <v>3.25</v>
@@ -1756,19 +1756,19 @@
         <v>2.34</v>
       </c>
       <c r="I10" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="J10" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K10" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -1780,19 +1780,19 @@
         <v>2.1</v>
       </c>
       <c r="Q10" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
         <v>1.65</v>
       </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1801,58 +1801,58 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11">
@@ -1882,28 +1882,28 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="G11" t="n">
         <v>1.69</v>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="I11" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J11" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K11" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1924,10 +1924,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1936,58 +1936,58 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12">
@@ -2023,13 +2023,13 @@
         <v>2.1</v>
       </c>
       <c r="H12" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I12" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J12" t="n">
         <v>3.85</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.8</v>
       </c>
       <c r="K12" t="n">
         <v>3.9</v>
@@ -2062,7 +2062,7 @@
         <v>1.65</v>
       </c>
       <c r="U12" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2074,13 +2074,13 @@
         <v>21</v>
       </c>
       <c r="Y12" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA12" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AB12" t="n">
         <v>12</v>
@@ -2089,16 +2089,16 @@
         <v>9</v>
       </c>
       <c r="AD12" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AE12" t="n">
         <v>42</v>
       </c>
       <c r="AF12" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH12" t="n">
         <v>16</v>
@@ -2116,7 +2116,7 @@
         <v>32</v>
       </c>
       <c r="AM12" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN12" t="n">
         <v>11.5</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="G13" t="n">
         <v>6.6</v>
       </c>
       <c r="H13" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="I13" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="J13" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="K13" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2194,10 +2194,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="U13" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2209,16 +2209,16 @@
         <v>28</v>
       </c>
       <c r="Y13" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC13" t="n">
         <v>11.5</v>
@@ -2230,10 +2230,10 @@
         <v>15</v>
       </c>
       <c r="AF13" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AG13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH13" t="n">
         <v>19.5</v>
@@ -2242,7 +2242,7 @@
         <v>28</v>
       </c>
       <c r="AJ13" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AK13" t="n">
         <v>75</v>
@@ -2257,7 +2257,7 @@
         <v>65</v>
       </c>
       <c r="AO13" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="G14" t="n">
         <v>3.8</v>
       </c>
-      <c r="G14" t="n">
-        <v>3.9</v>
-      </c>
       <c r="H14" t="n">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="I14" t="n">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="J14" t="n">
         <v>4.1</v>
       </c>
       <c r="K14" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2317,10 +2317,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>2.6</v>
+        <v>2.44</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2329,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="U14" t="n">
         <v>2.62</v>
@@ -2341,43 +2341,43 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Y14" t="n">
         <v>13.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AA14" t="n">
         <v>25</v>
       </c>
       <c r="AB14" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD14" t="n">
         <v>11</v>
       </c>
       <c r="AE14" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AF14" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AG14" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AH14" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI14" t="n">
         <v>28</v>
       </c>
       <c r="AJ14" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AK14" t="n">
         <v>40</v>
@@ -2386,13 +2386,13 @@
         <v>42</v>
       </c>
       <c r="AM14" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AN14" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -2434,7 +2434,7 @@
         <v>5.4</v>
       </c>
       <c r="J15" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="K15" t="n">
         <v>3.55</v>
@@ -2455,7 +2455,7 @@
         <v>1.58</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.44</v>
+        <v>2.26</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2557,28 +2557,28 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.65</v>
+        <v>3.2</v>
       </c>
       <c r="G16" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="H16" t="n">
-        <v>2.14</v>
+        <v>1.97</v>
       </c>
       <c r="I16" t="n">
-        <v>2.42</v>
+        <v>2.62</v>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="K16" t="n">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -2587,10 +2587,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.57</v>
+        <v>1.45</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.42</v>
+        <v>2.24</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2599,10 +2599,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2611,58 +2611,58 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-17.xlsx
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.86</v>
+        <v>2.8</v>
       </c>
       <c r="G2" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="H2" t="n">
         <v>2.58</v>
@@ -679,10 +679,10 @@
         <v>2.64</v>
       </c>
       <c r="J2" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="K2" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L2" t="n">
         <v>1.36</v>
@@ -691,70 +691,70 @@
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="O2" t="n">
         <v>1.26</v>
       </c>
       <c r="P2" t="n">
-        <v>2.02</v>
+        <v>2.18</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.7</v>
+        <v>1.79</v>
       </c>
       <c r="R2" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="S2" t="n">
-        <v>2.78</v>
+        <v>2.96</v>
       </c>
       <c r="T2" t="n">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="U2" t="n">
         <v>2.4</v>
       </c>
       <c r="V2" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="W2" t="n">
         <v>1.52</v>
       </c>
       <c r="X2" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA2" t="n">
         <v>1000</v>
       </c>
-      <c r="Y2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>50</v>
-      </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AC2" t="n">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE2" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
@@ -763,16 +763,16 @@
         <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="3">
@@ -802,94 +802,94 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.11</v>
+        <v>13</v>
       </c>
       <c r="G3" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="H3" t="n">
         <v>1.15</v>
       </c>
       <c r="I3" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="J3" t="n">
         <v>8</v>
       </c>
       <c r="K3" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="M3" t="n">
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>3.1</v>
+        <v>7.6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="P3" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="R3" t="n">
-        <v>1.34</v>
+        <v>2.02</v>
       </c>
       <c r="S3" t="n">
-        <v>1.23</v>
+        <v>1.72</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="V3" t="n">
         <v>5.5</v>
       </c>
       <c r="W3" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AF3" t="n">
         <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
@@ -907,7 +907,7 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="4">
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.4</v>
+        <v>2.56</v>
       </c>
       <c r="G4" t="n">
-        <v>3.3</v>
+        <v>2.96</v>
       </c>
       <c r="H4" t="n">
-        <v>2.36</v>
+        <v>2.52</v>
       </c>
       <c r="I4" t="n">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="J4" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="K4" t="n">
-        <v>7</v>
+        <v>4.1</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>1.94</v>
+        <v>4.2</v>
       </c>
       <c r="O4" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P4" t="n">
-        <v>1.94</v>
+        <v>2.12</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.63</v>
+        <v>1.72</v>
       </c>
       <c r="R4" t="n">
-        <v>1.18</v>
+        <v>1.44</v>
       </c>
       <c r="S4" t="n">
-        <v>1.63</v>
+        <v>2.8</v>
       </c>
       <c r="T4" t="n">
-        <v>1.01</v>
+        <v>1.61</v>
       </c>
       <c r="U4" t="n">
-        <v>1.01</v>
+        <v>2.28</v>
       </c>
       <c r="V4" t="n">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="W4" t="n">
-        <v>1.43</v>
+        <v>1.51</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
@@ -1072,25 +1072,25 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="G5" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="H5" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="I5" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="K5" t="n">
         <v>4.7</v>
       </c>
       <c r="L5" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M5" t="n">
         <v>1.03</v>
@@ -1099,10 +1099,10 @@
         <v>4.9</v>
       </c>
       <c r="O5" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P5" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="Q5" t="n">
         <v>1.59</v>
@@ -1111,19 +1111,19 @@
         <v>1.54</v>
       </c>
       <c r="S5" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="T5" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="U5" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="V5" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="W5" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="X5" t="n">
         <v>28</v>
@@ -1132,10 +1132,10 @@
         <v>15</v>
       </c>
       <c r="Z5" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AA5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB5" t="n">
         <v>25</v>
@@ -1150,31 +1150,31 @@
         <v>22</v>
       </c>
       <c r="AF5" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI5" t="n">
         <v>34</v>
       </c>
       <c r="AJ5" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AK5" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AL5" t="n">
         <v>60</v>
       </c>
       <c r="AM5" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN5" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AO5" t="n">
         <v>11</v>
@@ -1210,7 +1210,7 @@
         <v>3.6</v>
       </c>
       <c r="G6" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="H6" t="n">
         <v>2.2</v>
@@ -1240,7 +1240,7 @@
         <v>2</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1249,10 +1249,10 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="U6" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1342,28 +1342,28 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.28</v>
+        <v>2.44</v>
       </c>
       <c r="G7" t="n">
-        <v>2.56</v>
+        <v>2.74</v>
       </c>
       <c r="H7" t="n">
-        <v>3.05</v>
+        <v>2.84</v>
       </c>
       <c r="I7" t="n">
-        <v>3.85</v>
+        <v>3.25</v>
       </c>
       <c r="J7" t="n">
         <v>3.3</v>
       </c>
       <c r="K7" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>1.89</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>1.71</v>
       </c>
       <c r="U7" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1399,25 +1399,25 @@
         <v>17</v>
       </c>
       <c r="Y7" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AA7" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AB7" t="n">
         <v>12.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AF7" t="n">
         <v>18.5</v>
@@ -1426,7 +1426,7 @@
         <v>13.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI7" t="n">
         <v>55</v>
@@ -1441,13 +1441,13 @@
         <v>44</v>
       </c>
       <c r="AM7" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN7" t="n">
         <v>23</v>
       </c>
       <c r="AO7" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
@@ -1477,28 +1477,28 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.08</v>
+        <v>2.26</v>
       </c>
       <c r="G8" t="n">
-        <v>2.86</v>
+        <v>2.7</v>
       </c>
       <c r="H8" t="n">
-        <v>2.7</v>
+        <v>2.98</v>
       </c>
       <c r="I8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K8" t="n">
         <v>4</v>
       </c>
-      <c r="J8" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K8" t="n">
-        <v>6.6</v>
-      </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -1510,7 +1510,7 @@
         <v>1.99</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1519,10 +1519,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>1.01</v>
+        <v>1.67</v>
       </c>
       <c r="U8" t="n">
-        <v>2.02</v>
+        <v>2.16</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1531,58 +1531,58 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AD8" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH8" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9">
@@ -1612,19 +1612,19 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="G9" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="H9" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="I9" t="n">
         <v>5.2</v>
       </c>
       <c r="J9" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="K9" t="n">
         <v>4.2</v>
@@ -1645,7 +1645,7 @@
         <v>2.04</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="U9" t="n">
         <v>2.08</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y9" t="n">
         <v>23</v>
@@ -1678,7 +1678,7 @@
         <v>140</v>
       </c>
       <c r="AB9" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC9" t="n">
         <v>11</v>
@@ -1753,22 +1753,22 @@
         <v>3.25</v>
       </c>
       <c r="H10" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="I10" t="n">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="J10" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="K10" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.1</v>
+        <v>1.96</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1789,10 +1789,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="U10" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1801,22 +1801,22 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="Y10" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA10" t="n">
         <v>40</v>
       </c>
       <c r="AB10" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AC10" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD10" t="n">
         <v>14.5</v>
@@ -1825,22 +1825,22 @@
         <v>30</v>
       </c>
       <c r="AF10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG10" t="n">
-        <v>970</v>
+        <v>16.5</v>
       </c>
       <c r="AH10" t="n">
         <v>970</v>
       </c>
       <c r="AI10" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AJ10" t="n">
         <v>60</v>
       </c>
       <c r="AK10" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AL10" t="n">
         <v>48</v>
@@ -1882,28 +1882,28 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
       <c r="G11" t="n">
         <v>1.69</v>
       </c>
       <c r="H11" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="I11" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="J11" t="n">
         <v>4.3</v>
       </c>
       <c r="K11" t="n">
-        <v>5.8</v>
+        <v>4.8</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>2.32</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1924,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U11" t="n">
         <v>2.2</v>
@@ -1936,16 +1936,16 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z11" t="n">
         <v>55</v>
       </c>
       <c r="AA11" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AB11" t="n">
         <v>12.5</v>
@@ -1963,7 +1963,7 @@
         <v>13.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH11" t="n">
         <v>970</v>
@@ -2029,7 +2029,7 @@
         <v>3.9</v>
       </c>
       <c r="J12" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K12" t="n">
         <v>3.9</v>
@@ -2062,7 +2062,7 @@
         <v>1.65</v>
       </c>
       <c r="U12" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2074,7 +2074,7 @@
         <v>21</v>
       </c>
       <c r="Y12" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Z12" t="n">
         <v>30</v>
@@ -2086,7 +2086,7 @@
         <v>12</v>
       </c>
       <c r="AC12" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD12" t="n">
         <v>16.5</v>
@@ -2098,7 +2098,7 @@
         <v>14.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH12" t="n">
         <v>16</v>
@@ -2110,7 +2110,7 @@
         <v>26</v>
       </c>
       <c r="AK12" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AL12" t="n">
         <v>32</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="G13" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="H13" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="I13" t="n">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="J13" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="K13" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2194,10 +2194,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="U13" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2206,58 +2206,58 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y13" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z13" t="n">
         <v>12.5</v>
       </c>
-      <c r="Z13" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AA13" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AB13" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AC13" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD13" t="n">
         <v>10</v>
       </c>
       <c r="AE13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF13" t="n">
         <v>60</v>
       </c>
       <c r="AG13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH13" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ13" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AK13" t="n">
+        <v>70</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM13" t="n">
         <v>75</v>
       </c>
-      <c r="AL13" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>80</v>
-      </c>
       <c r="AN13" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AO13" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="14">
@@ -2287,19 +2287,19 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="G14" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H14" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="J14" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K14" t="n">
         <v>4.2</v>
@@ -2317,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="Q14" t="n">
         <v>1.65</v>
@@ -2332,7 +2332,7 @@
         <v>1.59</v>
       </c>
       <c r="U14" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2347,7 +2347,7 @@
         <v>13.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AA14" t="n">
         <v>25</v>
@@ -2356,13 +2356,13 @@
         <v>19.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD14" t="n">
         <v>11</v>
       </c>
       <c r="AE14" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AF14" t="n">
         <v>30</v>
@@ -2371,10 +2371,10 @@
         <v>16</v>
       </c>
       <c r="AH14" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AI14" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ14" t="n">
         <v>75</v>
@@ -2392,7 +2392,7 @@
         <v>29</v>
       </c>
       <c r="AO14" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="15">
@@ -2422,13 +2422,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="G15" t="n">
         <v>2.02</v>
       </c>
       <c r="H15" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="I15" t="n">
         <v>5.4</v>
@@ -2452,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.26</v>
+        <v>2.44</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2557,28 +2557,28 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.2</v>
+        <v>3.65</v>
       </c>
       <c r="G16" t="n">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="H16" t="n">
-        <v>1.97</v>
+        <v>2.14</v>
       </c>
       <c r="I16" t="n">
-        <v>2.62</v>
+        <v>2.46</v>
       </c>
       <c r="J16" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="K16" t="n">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -2587,10 +2587,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.45</v>
+        <v>1.57</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.24</v>
+        <v>2.4</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2599,10 +2599,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="U16" t="n">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2611,52 +2611,52 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="Z16" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AA16" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AB16" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC16" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD16" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE16" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AF16" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AG16" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AH16" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI16" t="n">
         <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AK16" t="n">
         <v>1000</v>
       </c>
       <c r="AL16" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AN16" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO16"/>
+  <dimension ref="A1:AO17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,19 +670,19 @@
         <v>2.8</v>
       </c>
       <c r="G2" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="H2" t="n">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="I2" t="n">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="J2" t="n">
         <v>3.6</v>
       </c>
       <c r="K2" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L2" t="n">
         <v>1.36</v>
@@ -715,10 +715,10 @@
         <v>2.4</v>
       </c>
       <c r="V2" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="W2" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="X2" t="n">
         <v>20</v>
@@ -955,7 +955,7 @@
         <v>4.1</v>
       </c>
       <c r="L4" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
@@ -967,7 +967,7 @@
         <v>1.24</v>
       </c>
       <c r="P4" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="Q4" t="n">
         <v>1.72</v>
@@ -1075,7 +1075,7 @@
         <v>3.85</v>
       </c>
       <c r="G5" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="H5" t="n">
         <v>1.81</v>
@@ -1084,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="K5" t="n">
         <v>4.7</v>
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="G6" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="H6" t="n">
         <v>2.2</v>
@@ -1225,100 +1225,100 @@
         <v>3.7</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="M6" t="n">
         <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="P6" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="T6" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="U6" t="n">
         <v>2.2</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="X6" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y6" t="n">
         <v>10.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AA6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB6" t="n">
         <v>14.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD6" t="n">
         <v>10.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AF6" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AG6" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH6" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI6" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AJ6" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AK6" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL6" t="n">
         <v>55</v>
       </c>
-      <c r="AL6" t="n">
-        <v>60</v>
-      </c>
       <c r="AM6" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN6" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AO6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,123 +1328,123 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Sutton Utd</t>
+          <t>Stade Briochin</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Fleury Merogis</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.44</v>
+        <v>3.1</v>
       </c>
       <c r="G7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I7" t="n">
         <v>2.74</v>
       </c>
-      <c r="H7" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3.25</v>
-      </c>
       <c r="J7" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="K7" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="P7" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T7" t="n">
         <v>1.89</v>
       </c>
-      <c r="Q7" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.71</v>
-      </c>
       <c r="U7" t="n">
-        <v>2.14</v>
+        <v>1.9</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X7" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z7" t="n">
         <v>17</v>
       </c>
-      <c r="Y7" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Z7" t="n">
+      <c r="AA7" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH7" t="n">
         <v>24</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AI7" t="n">
         <v>60</v>
       </c>
-      <c r="AB7" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>55</v>
-      </c>
       <c r="AJ7" t="n">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="AK7" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="AL7" t="n">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AM7" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="AN7" t="n">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="AO7" t="n">
         <v>32</v>
@@ -1468,37 +1468,37 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Sutton Utd</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Hartlepool</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.26</v>
+        <v>2.44</v>
       </c>
       <c r="G8" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="H8" t="n">
-        <v>2.98</v>
+        <v>2.84</v>
       </c>
       <c r="I8" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="J8" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K8" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -1507,22 +1507,22 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.99</v>
+        <v>1.9</v>
       </c>
       <c r="Q8" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
         <v>1.71</v>
       </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.67</v>
-      </c>
       <c r="U8" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1531,49 +1531,49 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="Y8" t="n">
-        <v>16.5</v>
+        <v>13</v>
       </c>
       <c r="Z8" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AA8" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG8" t="n">
         <v>13.5</v>
       </c>
-      <c r="AC8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>44</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>970</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>14</v>
-      </c>
       <c r="AH8" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AI8" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AJ8" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AK8" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL8" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM8" t="n">
         <v>100</v>
@@ -1582,7 +1582,7 @@
         <v>23</v>
       </c>
       <c r="AO8" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -1603,37 +1603,37 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Scunthorpe</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.78</v>
+        <v>2.28</v>
       </c>
       <c r="G9" t="n">
-        <v>1.86</v>
+        <v>2.68</v>
       </c>
       <c r="H9" t="n">
-        <v>4.6</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>5.2</v>
+        <v>3.85</v>
       </c>
       <c r="J9" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K9" t="n">
         <v>3.9</v>
       </c>
-      <c r="K9" t="n">
-        <v>4.2</v>
-      </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>2.04</v>
+        <v>1.92</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.81</v>
+        <v>1.9</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1654,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>1.78</v>
+        <v>1.71</v>
       </c>
       <c r="U9" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1666,58 +1666,58 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="Z9" t="n">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="AA9" t="n">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="AB9" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="AC9" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AE9" t="n">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="AF9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG9" t="n">
         <v>14</v>
       </c>
-      <c r="AG9" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AH9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI9" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="AJ9" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="AK9" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="AL9" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AM9" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AN9" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AO9" t="n">
-        <v>80</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10">
@@ -1738,37 +1738,37 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Yeovil</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Scunthorpe</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3</v>
+        <v>1.78</v>
       </c>
       <c r="G10" t="n">
-        <v>3.25</v>
+        <v>1.86</v>
       </c>
       <c r="H10" t="n">
-        <v>2.36</v>
+        <v>4.6</v>
       </c>
       <c r="I10" t="n">
-        <v>2.58</v>
+        <v>5.2</v>
       </c>
       <c r="J10" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="K10" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.96</v>
+        <v>2.04</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.74</v>
+        <v>1.81</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1789,10 +1789,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="U10" t="n">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1801,58 +1801,58 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>970</v>
+        <v>20</v>
       </c>
       <c r="Y10" t="n">
-        <v>13.5</v>
+        <v>23</v>
       </c>
       <c r="Z10" t="n">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="AA10" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="AB10" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AD10" t="n">
-        <v>14.5</v>
+        <v>24</v>
       </c>
       <c r="AE10" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="AF10" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="AG10" t="n">
-        <v>16.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="AI10" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL10" t="n">
         <v>42</v>
       </c>
-      <c r="AJ10" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>48</v>
-      </c>
       <c r="AM10" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AN10" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="AO10" t="n">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11">
@@ -1873,37 +1873,37 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>FC Halifax Town</t>
+          <t>Yeovil</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.63</v>
+        <v>3</v>
       </c>
       <c r="G11" t="n">
-        <v>1.69</v>
+        <v>3.25</v>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>2.38</v>
       </c>
       <c r="I11" t="n">
-        <v>5.8</v>
+        <v>2.58</v>
       </c>
       <c r="J11" t="n">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="K11" t="n">
-        <v>4.8</v>
+        <v>3.75</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>2.32</v>
+        <v>1.96</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.58</v>
+        <v>1.74</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1936,64 +1936,64 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="Y11" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF11" t="n">
         <v>26</v>
       </c>
-      <c r="Z11" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>140</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>970</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>25</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AG11" t="n">
-        <v>11.5</v>
+        <v>16.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>970</v>
+        <v>19.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="AJ11" t="n">
-        <v>970</v>
+        <v>60</v>
       </c>
       <c r="AK11" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="AL11" t="n">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="AM11" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AN11" t="n">
-        <v>8.800000000000001</v>
+        <v>32</v>
       </c>
       <c r="AO11" t="n">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,42 +2003,42 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>FC Halifax Town</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.08</v>
+        <v>1.63</v>
       </c>
       <c r="G12" t="n">
-        <v>2.1</v>
+        <v>1.69</v>
       </c>
       <c r="H12" t="n">
-        <v>3.8</v>
+        <v>5.1</v>
       </c>
       <c r="I12" t="n">
-        <v>3.9</v>
+        <v>5.8</v>
       </c>
       <c r="J12" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="K12" t="n">
-        <v>3.9</v>
+        <v>4.8</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.72</v>
+        <v>1.58</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2059,10 +2059,10 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>1.65</v>
+        <v>1.71</v>
       </c>
       <c r="U12" t="n">
-        <v>2.46</v>
+        <v>2.2</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2071,58 +2071,58 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y12" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="Z12" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="AA12" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>970</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI12" t="n">
         <v>70</v>
       </c>
-      <c r="AB12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC12" t="n">
+      <c r="AJ12" t="n">
+        <v>970</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>970</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN12" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="AD12" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>20</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM12" t="n">
+      <c r="AO12" t="n">
         <v>70</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="13">
@@ -2143,37 +2143,37 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>5.9</v>
+        <v>2.08</v>
       </c>
       <c r="G13" t="n">
-        <v>6.2</v>
+        <v>2.12</v>
       </c>
       <c r="H13" t="n">
-        <v>1.6</v>
+        <v>3.8</v>
       </c>
       <c r="I13" t="n">
-        <v>1.63</v>
+        <v>3.9</v>
       </c>
       <c r="J13" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="K13" t="n">
-        <v>4.8</v>
+        <v>3.9</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.64</v>
+        <v>2.3</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.57</v>
+        <v>1.72</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2194,10 +2194,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="U13" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2206,58 +2206,58 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="Y13" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB13" t="n">
         <v>12</v>
       </c>
-      <c r="Z13" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>29</v>
-      </c>
       <c r="AC13" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG13" t="n">
         <v>11</v>
       </c>
-      <c r="AD13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>24</v>
-      </c>
       <c r="AH13" t="n">
-        <v>18.5</v>
+        <v>15</v>
       </c>
       <c r="AI13" t="n">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="AJ13" t="n">
-        <v>150</v>
+        <v>26</v>
       </c>
       <c r="AK13" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM13" t="n">
         <v>70</v>
       </c>
-      <c r="AL13" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>75</v>
-      </c>
       <c r="AN13" t="n">
-        <v>60</v>
+        <v>11.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>6.4</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14">
@@ -2278,37 +2278,37 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Paris St-G</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.8</v>
+        <v>5.9</v>
       </c>
       <c r="G14" t="n">
-        <v>3.9</v>
+        <v>6.2</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="I14" t="n">
-        <v>2.04</v>
+        <v>1.64</v>
       </c>
       <c r="J14" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="K14" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -2317,10 +2317,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>2.48</v>
+        <v>2.62</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2329,10 +2329,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1.59</v>
+        <v>1.66</v>
       </c>
       <c r="U14" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2341,64 +2341,64 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="Y14" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="Z14" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AA14" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="AB14" t="n">
-        <v>19.5</v>
+        <v>29</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="AD14" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE14" t="n">
-        <v>19</v>
+        <v>15.5</v>
       </c>
       <c r="AF14" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AG14" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AH14" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AJ14" t="n">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="AK14" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="AL14" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="AM14" t="n">
         <v>75</v>
       </c>
       <c r="AN14" t="n">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="AO14" t="n">
-        <v>9.6</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,42 +2408,42 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Alianza FC Valledupar</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Cucuta Deportivo</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.91</v>
+        <v>3.85</v>
       </c>
       <c r="G15" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" t="n">
         <v>2.02</v>
       </c>
-      <c r="H15" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="I15" t="n">
-        <v>5.4</v>
-      </c>
       <c r="J15" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="K15" t="n">
-        <v>3.55</v>
+        <v>4.2</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -2452,22 +2452,22 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
         <v>1.59</v>
       </c>
-      <c r="Q15" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2476,58 +2476,58 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AM15" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AO15" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="16">
@@ -2543,125 +2543,260 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Alianza FC Valledupar</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Cucuta Deportivo</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I16" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>20:00:00</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>Jaguares de Cordoba</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>Santa Fe</t>
         </is>
       </c>
-      <c r="F16" t="n">
+      <c r="F17" t="n">
         <v>3.65</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G17" t="n">
         <v>4.4</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H17" t="n">
         <v>2.14</v>
       </c>
-      <c r="I16" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="J16" t="n">
+      <c r="I17" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="J17" t="n">
         <v>3</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K17" t="n">
         <v>3.5</v>
       </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
         <v>1.09</v>
       </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
         <v>1.57</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="Q17" t="n">
         <v>2.4</v>
       </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
         <v>2.02</v>
       </c>
-      <c r="U16" t="n">
+      <c r="U17" t="n">
         <v>1.79</v>
       </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" t="n">
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
         <v>11.5</v>
       </c>
-      <c r="Y16" t="n">
+      <c r="Y17" t="n">
         <v>9</v>
       </c>
-      <c r="Z16" t="n">
+      <c r="Z17" t="n">
         <v>970</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AA17" t="n">
         <v>40</v>
       </c>
-      <c r="AB16" t="n">
+      <c r="AB17" t="n">
         <v>970</v>
       </c>
-      <c r="AC16" t="n">
+      <c r="AC17" t="n">
         <v>9</v>
       </c>
-      <c r="AD16" t="n">
+      <c r="AD17" t="n">
         <v>970</v>
       </c>
-      <c r="AE16" t="n">
+      <c r="AE17" t="n">
         <v>38</v>
       </c>
-      <c r="AF16" t="n">
+      <c r="AF17" t="n">
         <v>34</v>
       </c>
-      <c r="AG16" t="n">
+      <c r="AG17" t="n">
         <v>21</v>
       </c>
-      <c r="AH16" t="n">
+      <c r="AH17" t="n">
         <v>28</v>
       </c>
-      <c r="AI16" t="n">
+      <c r="AI17" t="n">
         <v>1000</v>
       </c>
-      <c r="AJ16" t="n">
+      <c r="AJ17" t="n">
         <v>110</v>
       </c>
-      <c r="AK16" t="n">
+      <c r="AK17" t="n">
         <v>1000</v>
       </c>
-      <c r="AL16" t="n">
+      <c r="AL17" t="n">
         <v>100</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AM17" t="n">
         <v>210</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AN17" t="n">
         <v>1000</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AO17" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO17"/>
+  <dimension ref="A1:AO22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,7 +670,7 @@
         <v>2.8</v>
       </c>
       <c r="G2" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="H2" t="n">
         <v>2.66</v>
@@ -679,16 +679,16 @@
         <v>2.7</v>
       </c>
       <c r="J2" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K2" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="L2" t="n">
         <v>1.36</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
         <v>4.4</v>
@@ -709,16 +709,16 @@
         <v>2.96</v>
       </c>
       <c r="T2" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U2" t="n">
         <v>2.4</v>
       </c>
       <c r="V2" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="W2" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="X2" t="n">
         <v>20</v>
@@ -745,13 +745,13 @@
         <v>28</v>
       </c>
       <c r="AF2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG2" t="n">
         <v>13.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI2" t="n">
         <v>36</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="G4" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>2.52</v>
+        <v>2.42</v>
       </c>
       <c r="I4" t="n">
-        <v>2.88</v>
+        <v>2.76</v>
       </c>
       <c r="J4" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K4" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L4" t="n">
         <v>1.29</v>
@@ -985,10 +985,10 @@
         <v>2.28</v>
       </c>
       <c r="V4" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="W4" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="X4" t="n">
         <v>23</v>
@@ -1075,7 +1075,7 @@
         <v>3.85</v>
       </c>
       <c r="G5" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="H5" t="n">
         <v>1.81</v>
@@ -1084,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="K5" t="n">
         <v>4.7</v>
@@ -1123,7 +1123,7 @@
         <v>2</v>
       </c>
       <c r="W5" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="X5" t="n">
         <v>28</v>
@@ -1207,31 +1207,31 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="G6" t="n">
         <v>3.65</v>
       </c>
       <c r="H6" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="I6" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="J6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K6" t="n">
         <v>3.65</v>
       </c>
-      <c r="K6" t="n">
-        <v>3.7</v>
-      </c>
       <c r="L6" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="M6" t="n">
         <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="O6" t="n">
         <v>1.31</v>
@@ -1240,13 +1240,13 @@
         <v>2.04</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R6" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S6" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="T6" t="n">
         <v>1.76</v>
@@ -1255,7 +1255,7 @@
         <v>2.2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="W6" t="n">
         <v>1.37</v>
@@ -1360,13 +1360,13 @@
         <v>3.6</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="M7" t="n">
         <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>1.02</v>
+        <v>2.92</v>
       </c>
       <c r="O7" t="n">
         <v>1.41</v>
@@ -1378,10 +1378,10 @@
         <v>2.2</v>
       </c>
       <c r="R7" t="n">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="S7" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="T7" t="n">
         <v>1.89</v>
@@ -1453,7 +1453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Dutch Eredivisie</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Sutton Utd</t>
+          <t>Sparta Rotterdam</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>NEC Nijmegen</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.44</v>
+        <v>1.63</v>
       </c>
       <c r="G8" t="n">
-        <v>2.74</v>
+        <v>2.56</v>
       </c>
       <c r="H8" t="n">
-        <v>2.84</v>
+        <v>2.94</v>
       </c>
       <c r="I8" t="n">
-        <v>3.2</v>
+        <v>1000</v>
       </c>
       <c r="J8" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="K8" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="P8" t="n">
-        <v>1.9</v>
+        <v>2.06</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="T8" t="n">
-        <v>1.71</v>
+        <v>1.01</v>
       </c>
       <c r="U8" t="n">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="X8" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Scottish League Two</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1603,127 +1603,127 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Elgin City FC</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Hartlepool</t>
+          <t>East Kilbride</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.28</v>
+        <v>2.42</v>
       </c>
       <c r="G9" t="n">
-        <v>2.68</v>
+        <v>3.95</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>1.96</v>
       </c>
       <c r="I9" t="n">
-        <v>3.85</v>
+        <v>3.15</v>
       </c>
       <c r="J9" t="n">
-        <v>3.35</v>
+        <v>2.34</v>
       </c>
       <c r="K9" t="n">
-        <v>3.9</v>
+        <v>1000</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="P9" t="n">
-        <v>1.92</v>
+        <v>1.08</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.9</v>
+        <v>1.18</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="T9" t="n">
-        <v>1.71</v>
+        <v>1.01</v>
       </c>
       <c r="U9" t="n">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="X9" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AD9" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Scottish League One</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,127 +1738,127 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Cove Rangers</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Scunthorpe</t>
+          <t>Montrose</t>
         </is>
       </c>
       <c r="F10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N10" t="n">
         <v>1.78</v>
       </c>
-      <c r="G10" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="H10" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="I10" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K10" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="P10" t="n">
-        <v>2.04</v>
+        <v>1.78</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="T10" t="n">
-        <v>1.78</v>
+        <v>1.5</v>
       </c>
       <c r="U10" t="n">
-        <v>2.08</v>
+        <v>1.79</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="X10" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AD10" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH10" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,121 +1873,121 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Yeovil</t>
+          <t>Morton</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Dunfermline</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="G11" t="n">
-        <v>3.25</v>
+        <v>3.95</v>
       </c>
       <c r="H11" t="n">
-        <v>2.38</v>
+        <v>2.46</v>
       </c>
       <c r="I11" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N11" t="n">
         <v>2.58</v>
       </c>
-      <c r="J11" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="P11" t="n">
-        <v>1.96</v>
+        <v>1.64</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.74</v>
+        <v>2.14</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="T11" t="n">
-        <v>1.71</v>
+        <v>1.92</v>
       </c>
       <c r="U11" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="X11" t="n">
         <v>970</v>
       </c>
       <c r="Y11" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="Z11" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="AA11" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AB11" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.800000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD11" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AE11" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AF11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG11" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="AH11" t="n">
-        <v>19.5</v>
+        <v>25</v>
       </c>
       <c r="AI11" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>80</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>65</v>
+      </c>
+      <c r="AO11" t="n">
         <v>42</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>32</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>21</v>
       </c>
     </row>
     <row r="12">
@@ -2023,10 +2023,10 @@
         <v>1.69</v>
       </c>
       <c r="H12" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="I12" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="J12" t="n">
         <v>4.2</v>
@@ -2035,49 +2035,49 @@
         <v>4.8</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="M12" t="n">
         <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="P12" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="T12" t="n">
         <v>1.71</v>
       </c>
       <c r="U12" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="X12" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Y12" t="n">
         <v>26</v>
       </c>
       <c r="Z12" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AA12" t="n">
         <v>140</v>
@@ -2086,16 +2086,16 @@
         <v>12.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="AD12" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AE12" t="n">
         <v>75</v>
       </c>
       <c r="AF12" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AG12" t="n">
         <v>11.5</v>
@@ -2113,13 +2113,13 @@
         <v>970</v>
       </c>
       <c r="AL12" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM12" t="n">
         <v>100</v>
       </c>
       <c r="AN12" t="n">
-        <v>8.800000000000001</v>
+        <v>970</v>
       </c>
       <c r="AO12" t="n">
         <v>70</v>
@@ -2128,7 +2128,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Yeovil</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.08</v>
+        <v>2.98</v>
       </c>
       <c r="G13" t="n">
-        <v>2.12</v>
+        <v>3.25</v>
       </c>
       <c r="H13" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K13" t="n">
         <v>3.8</v>
       </c>
-      <c r="I13" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3.9</v>
-      </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="P13" t="n">
-        <v>2.3</v>
+        <v>1.96</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.72</v>
+        <v>1.88</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="T13" t="n">
-        <v>1.64</v>
+        <v>1.71</v>
       </c>
       <c r="U13" t="n">
-        <v>2.46</v>
+        <v>2.18</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="X13" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="Y13" t="n">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="Z13" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="AA13" t="n">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="AB13" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.800000000000001</v>
+        <v>970</v>
       </c>
       <c r="AD13" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AE13" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AH13" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AI13" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AL13" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="AN13" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>Scunthorpe</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>5.9</v>
+        <v>1.78</v>
       </c>
       <c r="G14" t="n">
-        <v>6.2</v>
+        <v>1.86</v>
       </c>
       <c r="H14" t="n">
-        <v>1.62</v>
+        <v>4.6</v>
       </c>
       <c r="I14" t="n">
-        <v>1.64</v>
+        <v>5.2</v>
       </c>
       <c r="J14" t="n">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="K14" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P14" t="n">
-        <v>2.62</v>
+        <v>2.04</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="T14" t="n">
-        <v>1.66</v>
+        <v>1.78</v>
       </c>
       <c r="U14" t="n">
-        <v>2.4</v>
+        <v>2.08</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="X14" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="Y14" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="Z14" t="n">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="AA14" t="n">
-        <v>17</v>
+        <v>140</v>
       </c>
       <c r="AB14" t="n">
-        <v>29</v>
+        <v>11.5</v>
       </c>
       <c r="AC14" t="n">
         <v>11</v>
       </c>
       <c r="AD14" t="n">
-        <v>9.800000000000001</v>
+        <v>24</v>
       </c>
       <c r="AE14" t="n">
-        <v>15.5</v>
+        <v>70</v>
       </c>
       <c r="AF14" t="n">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="AG14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH14" t="n">
         <v>23</v>
       </c>
-      <c r="AH14" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AI14" t="n">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="AJ14" t="n">
-        <v>150</v>
+        <v>24</v>
       </c>
       <c r="AK14" t="n">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="AL14" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="AM14" t="n">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="AN14" t="n">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="AO14" t="n">
-        <v>6.4</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="F15" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K15" t="n">
         <v>3.85</v>
       </c>
-      <c r="G15" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="J15" t="n">
-        <v>4</v>
-      </c>
-      <c r="K15" t="n">
-        <v>4.2</v>
-      </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="P15" t="n">
-        <v>2.46</v>
+        <v>1.93</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.65</v>
+        <v>1.9</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="T15" t="n">
-        <v>1.59</v>
+        <v>1.72</v>
       </c>
       <c r="U15" t="n">
-        <v>2.6</v>
+        <v>2.12</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="X15" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="Y15" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="Z15" t="n">
-        <v>14.5</v>
+        <v>23</v>
       </c>
       <c r="AA15" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="AB15" t="n">
-        <v>19.5</v>
+        <v>970</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>10.5</v>
+        <v>17</v>
       </c>
       <c r="AE15" t="n">
-        <v>18.5</v>
+        <v>40</v>
       </c>
       <c r="AF15" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO15" t="n">
         <v>34</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>75</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>42</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>32</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,260 +2543,935 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Alianza FC Valledupar</t>
+          <t>Sutton Utd</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Cucuta Deportivo</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.91</v>
+        <v>2.44</v>
       </c>
       <c r="G16" t="n">
-        <v>2.02</v>
+        <v>2.74</v>
       </c>
       <c r="H16" t="n">
-        <v>4.6</v>
+        <v>2.84</v>
       </c>
       <c r="I16" t="n">
-        <v>5.4</v>
+        <v>3.2</v>
       </c>
       <c r="J16" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K16" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P16" t="n">
-        <v>1.59</v>
+        <v>1.9</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.44</v>
+        <v>1.9</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Z16" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AK16" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AM16" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AO16" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>Scottish League One</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Hamilton</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>East Fife</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I17" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="X17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N18" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="X18" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Paris St-G</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="G19" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="J19" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K19" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N19" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="X19" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>140</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>55</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="G20" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="J20" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N20" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>27</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
           <t>Colombian Primera A</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>2026-02-17</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Alianza FC Valledupar</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Cucuta Deportivo</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H21" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I21" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
         <is>
           <t>20:00:00</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>Jaguares de Cordoba</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>Santa Fe</t>
         </is>
       </c>
-      <c r="F17" t="n">
+      <c r="F22" t="n">
         <v>3.65</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G22" t="n">
         <v>4.4</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H22" t="n">
         <v>2.14</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I22" t="n">
         <v>2.56</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J22" t="n">
         <v>3</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K22" t="n">
         <v>3.5</v>
       </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
         <v>1.09</v>
       </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
         <v>1.57</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="Q22" t="n">
         <v>2.4</v>
       </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
         <v>2.02</v>
       </c>
-      <c r="U17" t="n">
+      <c r="U22" t="n">
         <v>1.79</v>
       </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
         <v>11.5</v>
       </c>
-      <c r="Y17" t="n">
+      <c r="Y22" t="n">
         <v>9</v>
       </c>
-      <c r="Z17" t="n">
+      <c r="Z22" t="n">
         <v>970</v>
       </c>
-      <c r="AA17" t="n">
+      <c r="AA22" t="n">
         <v>40</v>
       </c>
-      <c r="AB17" t="n">
+      <c r="AB22" t="n">
         <v>970</v>
       </c>
-      <c r="AC17" t="n">
+      <c r="AC22" t="n">
         <v>9</v>
       </c>
-      <c r="AD17" t="n">
+      <c r="AD22" t="n">
         <v>970</v>
       </c>
-      <c r="AE17" t="n">
+      <c r="AE22" t="n">
         <v>38</v>
       </c>
-      <c r="AF17" t="n">
+      <c r="AF22" t="n">
         <v>34</v>
       </c>
-      <c r="AG17" t="n">
+      <c r="AG22" t="n">
         <v>21</v>
       </c>
-      <c r="AH17" t="n">
+      <c r="AH22" t="n">
         <v>28</v>
       </c>
-      <c r="AI17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ17" t="n">
+      <c r="AI22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ22" t="n">
         <v>110</v>
       </c>
-      <c r="AK17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL17" t="n">
+      <c r="AK22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL22" t="n">
         <v>100</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AM22" t="n">
         <v>210</v>
       </c>
-      <c r="AN17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO17" t="n">
+      <c r="AN22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO22" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-17.xlsx
@@ -670,7 +670,7 @@
         <v>2.8</v>
       </c>
       <c r="G2" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H2" t="n">
         <v>2.66</v>
@@ -679,7 +679,7 @@
         <v>2.7</v>
       </c>
       <c r="J2" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K2" t="n">
         <v>3.65</v>
@@ -691,7 +691,7 @@
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.26</v>
@@ -700,13 +700,13 @@
         <v>2.18</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="R2" t="n">
         <v>1.47</v>
       </c>
       <c r="S2" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="T2" t="n">
         <v>1.66</v>
@@ -718,16 +718,16 @@
         <v>1.58</v>
       </c>
       <c r="W2" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="X2" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="Y2" t="n">
         <v>13.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
@@ -760,7 +760,7 @@
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -1072,16 +1072,16 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="G5" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="H5" t="n">
         <v>1.81</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="J5" t="n">
         <v>3.9</v>
@@ -1120,7 +1120,7 @@
         <v>2.34</v>
       </c>
       <c r="V5" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="W5" t="n">
         <v>1.24</v>
@@ -1210,13 +1210,13 @@
         <v>3.6</v>
       </c>
       <c r="G6" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="H6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I6" t="n">
         <v>2.22</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2.24</v>
       </c>
       <c r="J6" t="n">
         <v>3.6</v>
@@ -1225,7 +1225,7 @@
         <v>3.65</v>
       </c>
       <c r="L6" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M6" t="n">
         <v>1.07</v>
@@ -1237,10 +1237,10 @@
         <v>1.31</v>
       </c>
       <c r="P6" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="R6" t="n">
         <v>1.39</v>
@@ -1255,16 +1255,16 @@
         <v>2.2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="W6" t="n">
         <v>1.37</v>
       </c>
       <c r="X6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y6" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z6" t="n">
         <v>14</v>
@@ -1273,7 +1273,7 @@
         <v>29</v>
       </c>
       <c r="AB6" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC6" t="n">
         <v>8</v>
@@ -1285,22 +1285,22 @@
         <v>22</v>
       </c>
       <c r="AF6" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AG6" t="n">
         <v>15</v>
       </c>
       <c r="AH6" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI6" t="n">
         <v>38</v>
       </c>
       <c r="AJ6" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AK6" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AL6" t="n">
         <v>55</v>
@@ -1384,7 +1384,7 @@
         <v>3.75</v>
       </c>
       <c r="T7" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U7" t="n">
         <v>1.9</v>
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.63</v>
+        <v>2.54</v>
       </c>
       <c r="G8" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="H8" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="I8" t="n">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="J8" t="n">
         <v>3.6</v>
@@ -1504,7 +1504,7 @@
         <v>2.06</v>
       </c>
       <c r="O8" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="P8" t="n">
         <v>2.06</v>
@@ -1525,13 +1525,13 @@
         <v>1.01</v>
       </c>
       <c r="V8" t="n">
-        <v>1.12</v>
+        <v>1.5</v>
       </c>
       <c r="W8" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="Y8" t="n">
         <v>1000</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="G9" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="H9" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="I9" t="n">
         <v>3.15</v>
       </c>
       <c r="J9" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="K9" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
@@ -1636,22 +1636,22 @@
         <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="O9" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P9" t="n">
-        <v>1.08</v>
+        <v>2.02</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="R9" t="n">
-        <v>1.08</v>
+        <v>1.41</v>
       </c>
       <c r="S9" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="T9" t="n">
         <v>1.01</v>
@@ -1663,7 +1663,7 @@
         <v>1.46</v>
       </c>
       <c r="W9" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="G10" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="H10" t="n">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="I10" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J10" t="n">
         <v>3</v>
       </c>
       <c r="K10" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
@@ -1771,31 +1771,31 @@
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="O10" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P10" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="R10" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="S10" t="n">
-        <v>2.58</v>
+        <v>2.84</v>
       </c>
       <c r="T10" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="U10" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="V10" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="W10" t="n">
         <v>1.58</v>
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="G11" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="H11" t="n">
         <v>2.46</v>
       </c>
       <c r="I11" t="n">
-        <v>3.1</v>
+        <v>2.94</v>
       </c>
       <c r="J11" t="n">
         <v>2.72</v>
@@ -1900,7 +1900,7 @@
         <v>3.4</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M11" t="n">
         <v>1.1</v>
@@ -1930,7 +1930,7 @@
         <v>1.9</v>
       </c>
       <c r="V11" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="W11" t="n">
         <v>1.36</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="G12" t="n">
         <v>1.69</v>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="I12" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="J12" t="n">
         <v>4.2</v>
@@ -2041,7 +2041,7 @@
         <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O12" t="n">
         <v>1.21</v>
@@ -2068,7 +2068,7 @@
         <v>1.2</v>
       </c>
       <c r="W12" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="X12" t="n">
         <v>25</v>
@@ -2083,7 +2083,7 @@
         <v>140</v>
       </c>
       <c r="AB12" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC12" t="n">
         <v>12</v>
@@ -2152,25 +2152,25 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="G13" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H13" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="I13" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="J13" t="n">
         <v>3.4</v>
       </c>
       <c r="K13" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L13" t="n">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="M13" t="n">
         <v>1.06</v>
@@ -2191,7 +2191,7 @@
         <v>1.39</v>
       </c>
       <c r="S13" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="T13" t="n">
         <v>1.71</v>
@@ -2305,10 +2305,10 @@
         <v>4.2</v>
       </c>
       <c r="L14" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M14" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N14" t="n">
         <v>3.75</v>
@@ -2440,7 +2440,7 @@
         <v>3.85</v>
       </c>
       <c r="L15" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M15" t="n">
         <v>1.06</v>
@@ -2467,7 +2467,7 @@
         <v>1.72</v>
       </c>
       <c r="U15" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V15" t="n">
         <v>1.4</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="G16" t="n">
-        <v>2.74</v>
+        <v>2.6</v>
       </c>
       <c r="H16" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="I16" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J16" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="K16" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="L16" t="n">
         <v>1.39</v>
@@ -2602,13 +2602,13 @@
         <v>1.71</v>
       </c>
       <c r="U16" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V16" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="W16" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="X16" t="n">
         <v>17</v>
@@ -2827,46 +2827,46 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G18" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="H18" t="n">
         <v>3.8</v>
       </c>
       <c r="I18" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="J18" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K18" t="n">
         <v>3.85</v>
       </c>
-      <c r="K18" t="n">
-        <v>3.9</v>
-      </c>
       <c r="L18" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M18" t="n">
         <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="O18" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="P18" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q18" t="n">
         <v>1.76</v>
       </c>
       <c r="R18" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S18" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="T18" t="n">
         <v>1.65</v>
@@ -2878,10 +2878,10 @@
         <v>1.35</v>
       </c>
       <c r="W18" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="X18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y18" t="n">
         <v>17.5</v>
@@ -2911,7 +2911,7 @@
         <v>10.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AI18" t="n">
         <v>44</v>
@@ -2920,7 +2920,7 @@
         <v>25</v>
       </c>
       <c r="AK18" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AL18" t="n">
         <v>30</v>
@@ -2962,13 +2962,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="G19" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="H19" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="I19" t="n">
         <v>1.64</v>
@@ -2980,19 +2980,19 @@
         <v>4.7</v>
       </c>
       <c r="L19" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="M19" t="n">
         <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="O19" t="n">
         <v>1.19</v>
       </c>
       <c r="P19" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="Q19" t="n">
         <v>1.57</v>
@@ -3010,10 +3010,10 @@
         <v>2.4</v>
       </c>
       <c r="V19" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="W19" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="X19" t="n">
         <v>24</v>
@@ -3064,7 +3064,7 @@
         <v>75</v>
       </c>
       <c r="AN19" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AO19" t="n">
         <v>6.4</v>
@@ -3097,16 +3097,16 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="G20" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="I20" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="J20" t="n">
         <v>4.1</v>
@@ -3115,7 +3115,7 @@
         <v>4.2</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="M20" t="n">
         <v>1.04</v>
@@ -3127,7 +3127,7 @@
         <v>1.21</v>
       </c>
       <c r="P20" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="Q20" t="n">
         <v>1.64</v>
@@ -3136,40 +3136,40 @@
         <v>1.6</v>
       </c>
       <c r="S20" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="T20" t="n">
         <v>1.61</v>
       </c>
       <c r="U20" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="X20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y20" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z20" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AA20" t="n">
         <v>24</v>
       </c>
       <c r="AB20" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AC20" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AD20" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AE20" t="n">
         <v>17.5</v>
@@ -3184,13 +3184,13 @@
         <v>15</v>
       </c>
       <c r="AI20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ20" t="n">
         <v>75</v>
       </c>
       <c r="AK20" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AL20" t="n">
         <v>42</v>
@@ -3199,10 +3199,10 @@
         <v>65</v>
       </c>
       <c r="AN20" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AO20" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="21">
@@ -3235,7 +3235,7 @@
         <v>1.91</v>
       </c>
       <c r="G21" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="H21" t="n">
         <v>4.8</v>
@@ -3250,16 +3250,16 @@
         <v>3.55</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="P21" t="n">
         <v>1.58</v>
@@ -3268,76 +3268,76 @@
         <v>2.44</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AK21" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AL21" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AM21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22">
@@ -3376,10 +3376,10 @@
         <v>2.14</v>
       </c>
       <c r="I22" t="n">
-        <v>2.56</v>
+        <v>2.44</v>
       </c>
       <c r="J22" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K22" t="n">
         <v>3.5</v>
@@ -3412,7 +3412,7 @@
         <v>2.02</v>
       </c>
       <c r="U22" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -3430,7 +3430,7 @@
         <v>970</v>
       </c>
       <c r="AA22" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AB22" t="n">
         <v>970</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-17.xlsx
@@ -688,7 +688,7 @@
         <v>1.36</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
         <v>4.5</v>
@@ -721,7 +721,7 @@
         <v>1.53</v>
       </c>
       <c r="X2" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Y2" t="n">
         <v>13.5</v>
@@ -730,10 +730,10 @@
         <v>20</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AB2" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC2" t="n">
         <v>8.4</v>
@@ -751,28 +751,28 @@
         <v>13.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI2" t="n">
         <v>36</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AK2" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM2" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AN2" t="n">
         <v>23</v>
       </c>
       <c r="AO2" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G3" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H3" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="I3" t="n">
         <v>1.21</v>
       </c>
       <c r="J3" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="L3" t="n">
         <v>1.17</v>
@@ -826,7 +826,7 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="O3" t="n">
         <v>1.11</v>
@@ -841,13 +841,13 @@
         <v>2.02</v>
       </c>
       <c r="S3" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="T3" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U3" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="V3" t="n">
         <v>5.5</v>
@@ -907,7 +907,7 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -937,13 +937,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="G4" t="n">
         <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="I4" t="n">
         <v>2.76</v>
@@ -970,7 +970,7 @@
         <v>2.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="R4" t="n">
         <v>1.44</v>
@@ -994,55 +994,55 @@
         <v>23</v>
       </c>
       <c r="Y4" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA4" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AB4" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="AC4" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="AD4" t="n">
-        <v>970</v>
+        <v>14.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AF4" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AG4" t="n">
         <v>970</v>
       </c>
       <c r="AH4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>25</v>
+      </c>
+      <c r="AO4" t="n">
         <v>970</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>38</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>42</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>85</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>21</v>
       </c>
     </row>
     <row r="5">
@@ -1072,19 +1072,19 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="G5" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="H5" t="n">
         <v>1.81</v>
       </c>
       <c r="I5" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K5" t="n">
         <v>4.7</v>
@@ -1096,40 +1096,40 @@
         <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P5" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="Q5" t="n">
         <v>1.59</v>
       </c>
       <c r="R5" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="S5" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="T5" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="U5" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="V5" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="W5" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="X5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Y5" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Z5" t="n">
         <v>17</v>
@@ -1162,13 +1162,13 @@
         <v>34</v>
       </c>
       <c r="AJ5" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AK5" t="n">
         <v>55</v>
       </c>
       <c r="AL5" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM5" t="n">
         <v>80</v>
@@ -1210,13 +1210,13 @@
         <v>3.6</v>
       </c>
       <c r="G6" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="H6" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="I6" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="J6" t="n">
         <v>3.6</v>
@@ -1240,7 +1240,7 @@
         <v>2.02</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="R6" t="n">
         <v>1.39</v>
@@ -1252,10 +1252,10 @@
         <v>1.76</v>
       </c>
       <c r="U6" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V6" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="W6" t="n">
         <v>1.37</v>
@@ -1270,7 +1270,7 @@
         <v>14</v>
       </c>
       <c r="AA6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB6" t="n">
         <v>14</v>
@@ -1285,7 +1285,7 @@
         <v>22</v>
       </c>
       <c r="AF6" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AG6" t="n">
         <v>15</v>
@@ -1294,7 +1294,7 @@
         <v>17.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AJ6" t="n">
         <v>65</v>
@@ -1303,16 +1303,16 @@
         <v>42</v>
       </c>
       <c r="AL6" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM6" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN6" t="n">
         <v>38</v>
       </c>
       <c r="AO6" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="7">
@@ -1342,19 +1342,19 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="G7" t="n">
         <v>4.5</v>
       </c>
       <c r="H7" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="I7" t="n">
         <v>2.74</v>
       </c>
       <c r="J7" t="n">
-        <v>3.05</v>
+        <v>2.84</v>
       </c>
       <c r="K7" t="n">
         <v>3.6</v>
@@ -1372,7 +1372,7 @@
         <v>1.41</v>
       </c>
       <c r="P7" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="Q7" t="n">
         <v>2.2</v>
@@ -1381,7 +1381,7 @@
         <v>1.24</v>
       </c>
       <c r="S7" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="T7" t="n">
         <v>1.9</v>
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="G8" t="n">
         <v>2.54</v>
       </c>
-      <c r="G8" t="n">
-        <v>2.58</v>
-      </c>
       <c r="H8" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J8" t="n">
         <v>3.6</v>
@@ -1495,7 +1495,7 @@
         <v>3.7</v>
       </c>
       <c r="L8" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="M8" t="n">
         <v>1.01</v>
@@ -1507,13 +1507,13 @@
         <v>1.01</v>
       </c>
       <c r="P8" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="Q8" t="n">
         <v>1.73</v>
       </c>
       <c r="R8" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="S8" t="n">
         <v>1.73</v>
@@ -1525,55 +1525,55 @@
         <v>1.01</v>
       </c>
       <c r="V8" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="W8" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="X8" t="n">
         <v>650</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AA8" t="n">
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AC8" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE8" t="n">
         <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="G9" t="n">
-        <v>3.9</v>
+        <v>1000</v>
       </c>
       <c r="H9" t="n">
         <v>2.02</v>
       </c>
       <c r="I9" t="n">
-        <v>3.15</v>
+        <v>3.65</v>
       </c>
       <c r="J9" t="n">
-        <v>2.36</v>
+        <v>1.03</v>
       </c>
       <c r="K9" t="n">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
@@ -1636,34 +1636,34 @@
         <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>1.02</v>
+        <v>3.1</v>
       </c>
       <c r="O9" t="n">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="P9" t="n">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.19</v>
+        <v>1.39</v>
       </c>
       <c r="R9" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="V9" t="n">
         <v>1.41</v>
       </c>
-      <c r="S9" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.46</v>
-      </c>
       <c r="W9" t="n">
-        <v>1.35</v>
+        <v>1.04</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.24</v>
+        <v>2.04</v>
       </c>
       <c r="G10" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="H10" t="n">
-        <v>2.92</v>
+        <v>2.64</v>
       </c>
       <c r="I10" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K10" t="n">
-        <v>3.7</v>
+        <v>7.6</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
@@ -1771,34 +1771,34 @@
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>1.81</v>
+        <v>1.03</v>
       </c>
       <c r="O10" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P10" t="n">
-        <v>1.67</v>
+        <v>1.23</v>
       </c>
       <c r="Q10" t="n">
         <v>1.87</v>
       </c>
       <c r="R10" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S10" t="n">
-        <v>2.84</v>
+        <v>2.9</v>
       </c>
       <c r="T10" t="n">
         <v>1.01</v>
       </c>
       <c r="U10" t="n">
-        <v>1.8</v>
+        <v>1.01</v>
       </c>
       <c r="V10" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="W10" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
@@ -1882,46 +1882,46 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.1</v>
+        <v>2.78</v>
       </c>
       <c r="G11" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="H11" t="n">
         <v>2.46</v>
       </c>
       <c r="I11" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="J11" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="K11" t="n">
         <v>3.4</v>
       </c>
       <c r="L11" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="M11" t="n">
         <v>1.1</v>
       </c>
       <c r="N11" t="n">
-        <v>2.58</v>
+        <v>2.88</v>
       </c>
       <c r="O11" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="P11" t="n">
-        <v>1.64</v>
+        <v>1.27</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.14</v>
+        <v>2.22</v>
       </c>
       <c r="R11" t="n">
         <v>1.24</v>
       </c>
       <c r="S11" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="T11" t="n">
         <v>1.92</v>
@@ -1930,64 +1930,64 @@
         <v>1.9</v>
       </c>
       <c r="V11" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="W11" t="n">
         <v>1.36</v>
       </c>
       <c r="X11" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
         <v>970</v>
       </c>
       <c r="Z11" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
         <v>970</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.800000000000001</v>
+        <v>970</v>
       </c>
       <c r="AD11" t="n">
         <v>970</v>
       </c>
       <c r="AE11" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AF11" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
         <v>970</v>
       </c>
       <c r="AH11" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
@@ -2017,52 +2017,52 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="G12" t="n">
         <v>1.69</v>
       </c>
       <c r="H12" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="I12" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J12" t="n">
         <v>4.2</v>
       </c>
       <c r="K12" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="L12" t="n">
-        <v>1.23</v>
+        <v>1.01</v>
       </c>
       <c r="M12" t="n">
         <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="O12" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P12" t="n">
         <v>2.28</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="R12" t="n">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="S12" t="n">
-        <v>2.66</v>
+        <v>2.56</v>
       </c>
       <c r="T12" t="n">
         <v>1.71</v>
       </c>
       <c r="U12" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V12" t="n">
         <v>1.2</v>
@@ -2074,19 +2074,19 @@
         <v>25</v>
       </c>
       <c r="Y12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Z12" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AA12" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AB12" t="n">
         <v>12</v>
       </c>
       <c r="AC12" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="AD12" t="n">
         <v>22</v>
@@ -2095,16 +2095,16 @@
         <v>75</v>
       </c>
       <c r="AF12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG12" t="n">
         <v>970</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>11.5</v>
       </c>
       <c r="AH12" t="n">
         <v>970</v>
       </c>
       <c r="AI12" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ12" t="n">
         <v>970</v>
@@ -2122,7 +2122,7 @@
         <v>970</v>
       </c>
       <c r="AO12" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13">
@@ -2170,19 +2170,19 @@
         <v>3.75</v>
       </c>
       <c r="L13" t="n">
-        <v>1.37</v>
+        <v>1.31</v>
       </c>
       <c r="M13" t="n">
         <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O13" t="n">
         <v>1.29</v>
       </c>
       <c r="P13" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="Q13" t="n">
         <v>1.88</v>
@@ -2212,19 +2212,19 @@
         <v>970</v>
       </c>
       <c r="Z13" t="n">
-        <v>970</v>
+        <v>20</v>
       </c>
       <c r="AA13" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AB13" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
       <c r="AC13" t="n">
-        <v>970</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD13" t="n">
-        <v>970</v>
+        <v>14.5</v>
       </c>
       <c r="AE13" t="n">
         <v>1000</v>
@@ -2305,16 +2305,16 @@
         <v>4.2</v>
       </c>
       <c r="L14" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N14" t="n">
+        <v>4</v>
+      </c>
+      <c r="O14" t="n">
         <v>1.28</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N14" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.25</v>
       </c>
       <c r="P14" t="n">
         <v>2.04</v>
@@ -2425,22 +2425,22 @@
         <v>2.28</v>
       </c>
       <c r="G15" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="H15" t="n">
         <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="J15" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="K15" t="n">
         <v>3.85</v>
       </c>
       <c r="L15" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="M15" t="n">
         <v>1.06</v>
@@ -2449,16 +2449,16 @@
         <v>3.7</v>
       </c>
       <c r="O15" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P15" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="R15" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="S15" t="n">
         <v>3.3</v>
@@ -2467,52 +2467,52 @@
         <v>1.72</v>
       </c>
       <c r="U15" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V15" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="W15" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="X15" t="n">
         <v>18</v>
       </c>
       <c r="Y15" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AA15" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB15" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.4</v>
+        <v>9.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AF15" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="AG15" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH15" t="n">
         <v>21</v>
       </c>
       <c r="AI15" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AJ15" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AK15" t="n">
         <v>32</v>
@@ -2521,13 +2521,13 @@
         <v>46</v>
       </c>
       <c r="AM15" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN15" t="n">
         <v>21</v>
       </c>
       <c r="AO15" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16">
@@ -2575,13 +2575,13 @@
         <v>3.7</v>
       </c>
       <c r="L16" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="M16" t="n">
         <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="O16" t="n">
         <v>1.3</v>
@@ -2590,13 +2590,13 @@
         <v>1.9</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="R16" t="n">
         <v>1.34</v>
       </c>
       <c r="S16" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T16" t="n">
         <v>1.71</v>
@@ -2617,37 +2617,37 @@
         <v>14</v>
       </c>
       <c r="Z16" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AA16" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC16" t="n">
         <v>8.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AE16" t="n">
         <v>36</v>
       </c>
       <c r="AF16" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AG16" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH16" t="n">
         <v>18</v>
       </c>
       <c r="AI16" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AJ16" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AK16" t="n">
         <v>30</v>
@@ -2656,10 +2656,10 @@
         <v>42</v>
       </c>
       <c r="AM16" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO16" t="n">
         <v>32</v>
@@ -2692,28 +2692,28 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.9</v>
+        <v>1.78</v>
       </c>
       <c r="G17" t="n">
-        <v>2.12</v>
+        <v>2.28</v>
       </c>
       <c r="H17" t="n">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="I17" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="J17" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K17" t="n">
-        <v>4.7</v>
+        <v>5.5</v>
       </c>
       <c r="L17" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M17" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N17" t="n">
         <v>1.83</v>
@@ -2722,28 +2722,28 @@
         <v>1.27</v>
       </c>
       <c r="P17" t="n">
-        <v>1.83</v>
+        <v>1.38</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="R17" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="S17" t="n">
-        <v>2.46</v>
+        <v>1.71</v>
       </c>
       <c r="T17" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U17" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="W17" t="n">
         <v>1.78</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="W17" t="n">
-        <v>1.89</v>
       </c>
       <c r="X17" t="n">
         <v>1000</v>
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="F18" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="G18" t="n">
         <v>2.1</v>
-      </c>
-      <c r="G18" t="n">
-        <v>2.12</v>
       </c>
       <c r="H18" t="n">
         <v>3.8</v>
@@ -2842,7 +2842,7 @@
         <v>3.8</v>
       </c>
       <c r="K18" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L18" t="n">
         <v>1.33</v>
@@ -2881,7 +2881,7 @@
         <v>1.9</v>
       </c>
       <c r="X18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y18" t="n">
         <v>17.5</v>
@@ -2965,7 +2965,7 @@
         <v>5.8</v>
       </c>
       <c r="G19" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="H19" t="n">
         <v>1.63</v>
@@ -3001,7 +3001,7 @@
         <v>1.66</v>
       </c>
       <c r="S19" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="T19" t="n">
         <v>1.67</v>
@@ -3028,7 +3028,7 @@
         <v>16.5</v>
       </c>
       <c r="AB19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC19" t="n">
         <v>11</v>
@@ -3040,7 +3040,7 @@
         <v>14.5</v>
       </c>
       <c r="AF19" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AG19" t="n">
         <v>22</v>
@@ -3049,10 +3049,10 @@
         <v>17.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ19" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AK19" t="n">
         <v>65</v>
@@ -3061,10 +3061,10 @@
         <v>60</v>
       </c>
       <c r="AM19" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN19" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AO19" t="n">
         <v>6.4</v>
@@ -3097,13 +3097,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="G20" t="n">
         <v>4</v>
       </c>
       <c r="H20" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="I20" t="n">
         <v>1.99</v>
@@ -3160,7 +3160,7 @@
         <v>14</v>
       </c>
       <c r="AA20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AB20" t="n">
         <v>20</v>
@@ -3181,7 +3181,7 @@
         <v>15.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AI20" t="n">
         <v>26</v>
@@ -3238,13 +3238,13 @@
         <v>2.04</v>
       </c>
       <c r="H21" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="I21" t="n">
         <v>5.4</v>
       </c>
       <c r="J21" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K21" t="n">
         <v>3.55</v>
@@ -3253,10 +3253,10 @@
         <v>1.01</v>
       </c>
       <c r="M21" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N21" t="n">
-        <v>1.58</v>
+        <v>1.94</v>
       </c>
       <c r="O21" t="n">
         <v>1.48</v>
@@ -3271,13 +3271,13 @@
         <v>1.16</v>
       </c>
       <c r="S21" t="n">
-        <v>4.3</v>
+        <v>2.44</v>
       </c>
       <c r="T21" t="n">
-        <v>1.83</v>
+        <v>2.14</v>
       </c>
       <c r="U21" t="n">
-        <v>1.53</v>
+        <v>1.75</v>
       </c>
       <c r="V21" t="n">
         <v>1.23</v>
@@ -3286,55 +3286,55 @@
         <v>1.96</v>
       </c>
       <c r="X21" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y21" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AA21" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AB21" t="n">
-        <v>9.199999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="AC21" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AD21" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AE21" t="n">
         <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="AI21" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ21" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AK21" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AL21" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AM21" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AN21" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AO21" t="n">
         <v>1000</v>
@@ -3367,46 +3367,46 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.65</v>
+        <v>3</v>
       </c>
       <c r="G22" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="H22" t="n">
-        <v>2.14</v>
+        <v>1.93</v>
       </c>
       <c r="I22" t="n">
-        <v>2.44</v>
+        <v>2.56</v>
       </c>
       <c r="J22" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K22" t="n">
-        <v>3.5</v>
+        <v>1000</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M22" t="n">
         <v>1.09</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="P22" t="n">
-        <v>1.57</v>
+        <v>1.46</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.4</v>
+        <v>2.26</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="T22" t="n">
         <v>2.02</v>
@@ -3415,58 +3415,58 @@
         <v>1.78</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="X22" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Y22" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="Z22" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AA22" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC22" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AD22" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE22" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AG22" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AH22" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AI22" t="n">
         <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AK22" t="n">
         <v>1000</v>
       </c>
       <c r="AL22" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AM22" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AN22" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO22"/>
+  <dimension ref="A1:AO23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="G2" t="n">
         <v>2.88</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="G3" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H3" t="n">
         <v>1.16</v>
       </c>
       <c r="I3" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="J3" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="L3" t="n">
         <v>1.17</v>
@@ -826,7 +826,7 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="O3" t="n">
         <v>1.11</v>
@@ -850,13 +850,13 @@
         <v>1.76</v>
       </c>
       <c r="V3" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="W3" t="n">
         <v>1.04</v>
       </c>
       <c r="X3" t="n">
-        <v>60</v>
+        <v>970</v>
       </c>
       <c r="Y3" t="n">
         <v>970</v>
@@ -865,13 +865,13 @@
         <v>970</v>
       </c>
       <c r="AA3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB3" t="n">
         <v>970</v>
       </c>
-      <c r="AB3" t="n">
-        <v>90</v>
-      </c>
       <c r="AC3" t="n">
-        <v>27</v>
+        <v>970</v>
       </c>
       <c r="AD3" t="n">
         <v>970</v>
@@ -883,10 +883,10 @@
         <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>85</v>
+        <v>970</v>
       </c>
       <c r="AH3" t="n">
-        <v>48</v>
+        <v>970</v>
       </c>
       <c r="AI3" t="n">
         <v>48</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="H4" t="n">
         <v>2.48</v>
       </c>
       <c r="I4" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="J4" t="n">
         <v>3.6</v>
       </c>
       <c r="K4" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
         <v>1.29</v>
@@ -964,13 +964,13 @@
         <v>4.2</v>
       </c>
       <c r="O4" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P4" t="n">
         <v>2.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="R4" t="n">
         <v>1.44</v>
@@ -979,28 +979,28 @@
         <v>2.8</v>
       </c>
       <c r="T4" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="U4" t="n">
         <v>2.28</v>
       </c>
       <c r="V4" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="W4" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="X4" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="Z4" t="n">
         <v>23</v>
       </c>
       <c r="AA4" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AB4" t="n">
         <v>17</v>
@@ -1012,7 +1012,7 @@
         <v>14.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AF4" t="n">
         <v>25</v>
@@ -1090,7 +1090,7 @@
         <v>4.7</v>
       </c>
       <c r="L5" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
         <v>1.03</v>
@@ -1108,13 +1108,13 @@
         <v>1.59</v>
       </c>
       <c r="R5" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="S5" t="n">
         <v>2.44</v>
       </c>
       <c r="T5" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="U5" t="n">
         <v>2.36</v>
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="G6" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="H6" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="I6" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="J6" t="n">
         <v>3.6</v>
@@ -1252,13 +1252,13 @@
         <v>1.76</v>
       </c>
       <c r="U6" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="W6" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="X6" t="n">
         <v>14</v>
@@ -1267,13 +1267,13 @@
         <v>10</v>
       </c>
       <c r="Z6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AA6" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AB6" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC6" t="n">
         <v>8</v>
@@ -1285,7 +1285,7 @@
         <v>22</v>
       </c>
       <c r="AF6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG6" t="n">
         <v>15</v>
@@ -1297,7 +1297,7 @@
         <v>36</v>
       </c>
       <c r="AJ6" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AK6" t="n">
         <v>42</v>
@@ -1309,10 +1309,10 @@
         <v>90</v>
       </c>
       <c r="AN6" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AO6" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="7">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="G7" t="n">
         <v>4.5</v>
@@ -1366,25 +1366,25 @@
         <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="O7" t="n">
         <v>1.41</v>
       </c>
       <c r="P7" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="R7" t="n">
         <v>1.24</v>
       </c>
       <c r="S7" t="n">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="T7" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="U7" t="n">
         <v>1.9</v>
@@ -1402,10 +1402,10 @@
         <v>10.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AB7" t="n">
         <v>14</v>
@@ -1420,19 +1420,19 @@
         <v>36</v>
       </c>
       <c r="AF7" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
       <c r="AI7" t="n">
         <v>60</v>
       </c>
       <c r="AJ7" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AK7" t="n">
         <v>65</v>
@@ -1447,7 +1447,7 @@
         <v>75</v>
       </c>
       <c r="AO7" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
@@ -1504,7 +1504,7 @@
         <v>2.06</v>
       </c>
       <c r="O8" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="P8" t="n">
         <v>2.04</v>
@@ -1513,10 +1513,10 @@
         <v>1.73</v>
       </c>
       <c r="R8" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="S8" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="T8" t="n">
         <v>1.01</v>
@@ -1561,7 +1561,7 @@
         <v>13.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI8" t="n">
         <v>42</v>
@@ -1570,10 +1570,10 @@
         <v>36</v>
       </c>
       <c r="AK8" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AL8" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
@@ -1615,13 +1615,13 @@
         <v>2.5</v>
       </c>
       <c r="G9" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="H9" t="n">
         <v>2.02</v>
       </c>
       <c r="I9" t="n">
-        <v>3.65</v>
+        <v>1000</v>
       </c>
       <c r="J9" t="n">
         <v>1.03</v>
@@ -1660,10 +1660,10 @@
         <v>1.05</v>
       </c>
       <c r="V9" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="W9" t="n">
-        <v>1.04</v>
+        <v>1.22</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -1771,28 +1771,28 @@
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>1.03</v>
+        <v>2.66</v>
       </c>
       <c r="O10" t="n">
         <v>1.33</v>
       </c>
       <c r="P10" t="n">
-        <v>1.23</v>
+        <v>1.64</v>
       </c>
       <c r="Q10" t="n">
         <v>1.87</v>
       </c>
       <c r="R10" t="n">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="S10" t="n">
-        <v>2.9</v>
+        <v>2.52</v>
       </c>
       <c r="T10" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U10" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V10" t="n">
         <v>1.28</v>
@@ -1885,7 +1885,7 @@
         <v>2.78</v>
       </c>
       <c r="G11" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="H11" t="n">
         <v>2.46</v>
@@ -1894,7 +1894,7 @@
         <v>3.05</v>
       </c>
       <c r="J11" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="K11" t="n">
         <v>3.4</v>
@@ -1912,10 +1912,10 @@
         <v>1.44</v>
       </c>
       <c r="P11" t="n">
-        <v>1.27</v>
+        <v>1.64</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="R11" t="n">
         <v>1.24</v>
@@ -1933,7 +1933,7 @@
         <v>1.5</v>
       </c>
       <c r="W11" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X11" t="n">
         <v>1000</v>
@@ -1951,7 +1951,7 @@
         <v>970</v>
       </c>
       <c r="AC11" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="AD11" t="n">
         <v>970</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="G12" t="n">
         <v>1.69</v>
@@ -2062,7 +2062,7 @@
         <v>1.71</v>
       </c>
       <c r="U12" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V12" t="n">
         <v>1.2</v>
@@ -2071,10 +2071,10 @@
         <v>2.44</v>
       </c>
       <c r="X12" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
       <c r="Y12" t="n">
-        <v>27</v>
+        <v>970</v>
       </c>
       <c r="Z12" t="n">
         <v>55</v>
@@ -2089,7 +2089,7 @@
         <v>970</v>
       </c>
       <c r="AD12" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AE12" t="n">
         <v>75</v>
@@ -2158,10 +2158,10 @@
         <v>3.2</v>
       </c>
       <c r="H13" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="I13" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="J13" t="n">
         <v>3.4</v>
@@ -2206,7 +2206,7 @@
         <v>1.45</v>
       </c>
       <c r="X13" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="Y13" t="n">
         <v>970</v>
@@ -2305,7 +2305,7 @@
         <v>4.2</v>
       </c>
       <c r="L14" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M14" t="n">
         <v>1.06</v>
@@ -2323,13 +2323,13 @@
         <v>1.8</v>
       </c>
       <c r="R14" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="S14" t="n">
-        <v>2.74</v>
+        <v>3.05</v>
       </c>
       <c r="T14" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="U14" t="n">
         <v>2.08</v>
@@ -2467,7 +2467,7 @@
         <v>1.72</v>
       </c>
       <c r="U15" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V15" t="n">
         <v>1.39</v>
@@ -2506,7 +2506,7 @@
         <v>14.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AI15" t="n">
         <v>48</v>
@@ -2587,10 +2587,10 @@
         <v>1.3</v>
       </c>
       <c r="P16" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="Q16" t="n">
         <v>1.9</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.92</v>
       </c>
       <c r="R16" t="n">
         <v>1.34</v>
@@ -2692,58 +2692,58 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="G17" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="H17" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="I17" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="J17" t="n">
         <v>3.15</v>
       </c>
       <c r="K17" t="n">
-        <v>5.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L17" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="M17" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N17" t="n">
-        <v>1.83</v>
+        <v>2.66</v>
       </c>
       <c r="O17" t="n">
         <v>1.27</v>
       </c>
       <c r="P17" t="n">
-        <v>1.38</v>
+        <v>1.77</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.71</v>
+        <v>1.51</v>
       </c>
       <c r="R17" t="n">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
       <c r="S17" t="n">
-        <v>1.71</v>
+        <v>2.4</v>
       </c>
       <c r="T17" t="n">
-        <v>1.53</v>
+        <v>1.05</v>
       </c>
       <c r="U17" t="n">
-        <v>1.8</v>
+        <v>1.05</v>
       </c>
       <c r="V17" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W17" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="X17" t="n">
         <v>1000</v>
@@ -2836,7 +2836,7 @@
         <v>3.8</v>
       </c>
       <c r="I18" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="J18" t="n">
         <v>3.8</v>
@@ -2845,7 +2845,7 @@
         <v>3.9</v>
       </c>
       <c r="L18" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M18" t="n">
         <v>1.05</v>
@@ -2875,13 +2875,13 @@
         <v>2.46</v>
       </c>
       <c r="V18" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="W18" t="n">
         <v>1.9</v>
       </c>
       <c r="X18" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y18" t="n">
         <v>17.5</v>
@@ -2890,7 +2890,7 @@
         <v>29</v>
       </c>
       <c r="AA18" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AB18" t="n">
         <v>12</v>
@@ -2962,10 +2962,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="G19" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="H19" t="n">
         <v>1.63</v>
@@ -3010,7 +3010,7 @@
         <v>2.4</v>
       </c>
       <c r="V19" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="W19" t="n">
         <v>1.2</v>
@@ -3103,7 +3103,7 @@
         <v>4</v>
       </c>
       <c r="H20" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="I20" t="n">
         <v>1.99</v>
@@ -3121,7 +3121,7 @@
         <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="O20" t="n">
         <v>1.21</v>
@@ -3133,10 +3133,10 @@
         <v>1.64</v>
       </c>
       <c r="R20" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="S20" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="T20" t="n">
         <v>1.61</v>
@@ -3235,10 +3235,10 @@
         <v>1.91</v>
       </c>
       <c r="G21" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="H21" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="I21" t="n">
         <v>5.4</v>
@@ -3253,10 +3253,10 @@
         <v>1.01</v>
       </c>
       <c r="M21" t="n">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>1.94</v>
+        <v>2.36</v>
       </c>
       <c r="O21" t="n">
         <v>1.48</v>
@@ -3268,7 +3268,7 @@
         <v>2.44</v>
       </c>
       <c r="R21" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="S21" t="n">
         <v>2.44</v>
@@ -3283,7 +3283,7 @@
         <v>1.23</v>
       </c>
       <c r="W21" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="X21" t="n">
         <v>11</v>
@@ -3316,7 +3316,7 @@
         <v>11.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
       <c r="AI21" t="n">
         <v>120</v>
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3</v>
+        <v>3.65</v>
       </c>
       <c r="G22" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="H22" t="n">
-        <v>1.93</v>
+        <v>2.14</v>
       </c>
       <c r="I22" t="n">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="J22" t="n">
         <v>3.15</v>
       </c>
       <c r="K22" t="n">
-        <v>1000</v>
+        <v>3.5</v>
       </c>
       <c r="L22" t="n">
         <v>1.01</v>
@@ -3391,19 +3391,19 @@
         <v>1.09</v>
       </c>
       <c r="N22" t="n">
-        <v>1.46</v>
+        <v>2.58</v>
       </c>
       <c r="O22" t="n">
         <v>1.47</v>
       </c>
       <c r="P22" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.26</v>
+        <v>2.42</v>
       </c>
       <c r="R22" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="S22" t="n">
         <v>4.2</v>
@@ -3415,16 +3415,16 @@
         <v>1.78</v>
       </c>
       <c r="V22" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="W22" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="X22" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z22" t="n">
         <v>1000</v>
@@ -3436,7 +3436,7 @@
         <v>1000</v>
       </c>
       <c r="AC22" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD22" t="n">
         <v>1000</v>
@@ -3457,13 +3457,13 @@
         <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AK22" t="n">
         <v>1000</v>
       </c>
       <c r="AL22" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AM22" t="n">
         <v>1000</v>
@@ -3472,6 +3472,141 @@
         <v>1000</v>
       </c>
       <c r="AO22" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Colombian Primera B</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>22:10:00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Boca Juniors de Cali</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Orsomarso</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I23" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N23" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="X23" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO23" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-17.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="G2" t="n">
         <v>2.88</v>
       </c>
       <c r="H2" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="I2" t="n">
         <v>2.66</v>
       </c>
-      <c r="I2" t="n">
-        <v>2.7</v>
-      </c>
       <c r="J2" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K2" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L2" t="n">
         <v>1.36</v>
@@ -697,7 +697,7 @@
         <v>1.26</v>
       </c>
       <c r="P2" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="Q2" t="n">
         <v>1.8</v>
@@ -715,7 +715,7 @@
         <v>2.4</v>
       </c>
       <c r="V2" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="W2" t="n">
         <v>1.53</v>
@@ -727,7 +727,7 @@
         <v>13.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AA2" t="n">
         <v>40</v>
@@ -766,13 +766,13 @@
         <v>38</v>
       </c>
       <c r="AM2" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN2" t="n">
         <v>23</v>
       </c>
       <c r="AO2" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="3">
@@ -802,13 +802,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="G3" t="n">
         <v>28</v>
       </c>
       <c r="H3" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="I3" t="n">
         <v>1.19</v>
@@ -817,7 +817,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="L3" t="n">
         <v>1.17</v>
@@ -850,7 +850,7 @@
         <v>1.76</v>
       </c>
       <c r="V3" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="W3" t="n">
         <v>1.04</v>
@@ -859,25 +859,25 @@
         <v>970</v>
       </c>
       <c r="Y3" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
         <v>970</v>
       </c>
       <c r="AC3" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AD3" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
         <v>1000</v>
@@ -886,10 +886,10 @@
         <v>970</v>
       </c>
       <c r="AH3" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AI3" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
@@ -937,19 +937,19 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="G4" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="I4" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="J4" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K4" t="n">
         <v>4</v>
@@ -964,85 +964,85 @@
         <v>4.2</v>
       </c>
       <c r="O4" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P4" t="n">
         <v>2.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="R4" t="n">
         <v>1.44</v>
       </c>
       <c r="S4" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="T4" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="U4" t="n">
         <v>2.28</v>
       </c>
       <c r="V4" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="W4" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="X4" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="Y4" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="Z4" t="n">
         <v>23</v>
       </c>
       <c r="AA4" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AB4" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD4" t="n">
         <v>14.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AF4" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AG4" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AJ4" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AK4" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AL4" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AM4" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AO4" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
@@ -1072,16 +1072,16 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="G5" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="H5" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="J5" t="n">
         <v>3.95</v>
@@ -1093,49 +1093,49 @@
         <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N5" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="O5" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P5" t="n">
         <v>2.38</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="R5" t="n">
         <v>1.55</v>
       </c>
       <c r="S5" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="T5" t="n">
-        <v>1.59</v>
+        <v>1.05</v>
       </c>
       <c r="U5" t="n">
-        <v>2.36</v>
+        <v>1.05</v>
       </c>
       <c r="V5" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="W5" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="X5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Y5" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z5" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AB5" t="n">
         <v>25</v>
@@ -1153,7 +1153,7 @@
         <v>42</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH5" t="n">
         <v>20</v>
@@ -1162,7 +1162,7 @@
         <v>34</v>
       </c>
       <c r="AJ5" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AK5" t="n">
         <v>55</v>
@@ -1171,13 +1171,13 @@
         <v>55</v>
       </c>
       <c r="AM5" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AN5" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AO5" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="6">
@@ -1213,10 +1213,10 @@
         <v>3.8</v>
       </c>
       <c r="H6" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="I6" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="J6" t="n">
         <v>3.6</v>
@@ -1225,55 +1225,55 @@
         <v>3.65</v>
       </c>
       <c r="L6" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="M6" t="n">
         <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O6" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P6" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="R6" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S6" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="T6" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="U6" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="V6" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="W6" t="n">
         <v>1.35</v>
       </c>
       <c r="X6" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y6" t="n">
         <v>10</v>
       </c>
       <c r="Z6" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AA6" t="n">
         <v>26</v>
       </c>
       <c r="AB6" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC6" t="n">
         <v>8</v>
@@ -1294,7 +1294,7 @@
         <v>17.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ6" t="n">
         <v>70</v>
@@ -1306,13 +1306,13 @@
         <v>50</v>
       </c>
       <c r="AM6" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN6" t="n">
         <v>40</v>
       </c>
       <c r="AO6" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="G7" t="n">
         <v>4.5</v>
@@ -1354,7 +1354,7 @@
         <v>2.74</v>
       </c>
       <c r="J7" t="n">
-        <v>2.84</v>
+        <v>2.76</v>
       </c>
       <c r="K7" t="n">
         <v>3.6</v>
@@ -1366,13 +1366,13 @@
         <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="O7" t="n">
         <v>1.41</v>
       </c>
       <c r="P7" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="Q7" t="n">
         <v>2.18</v>
@@ -1384,7 +1384,7 @@
         <v>3.75</v>
       </c>
       <c r="T7" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="U7" t="n">
         <v>1.9</v>
@@ -1402,10 +1402,10 @@
         <v>10.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AA7" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AB7" t="n">
         <v>14</v>
@@ -1417,37 +1417,37 @@
         <v>14</v>
       </c>
       <c r="AE7" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AF7" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AG7" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AH7" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AI7" t="n">
         <v>60</v>
       </c>
       <c r="AJ7" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
         <v>65</v>
       </c>
       <c r="AL7" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
         <v>75</v>
       </c>
       <c r="AO7" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
     </row>
     <row r="8">
@@ -1480,10 +1480,10 @@
         <v>2.48</v>
       </c>
       <c r="G8" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="H8" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
         <v>3.1</v>
@@ -1495,7 +1495,7 @@
         <v>3.7</v>
       </c>
       <c r="L8" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="M8" t="n">
         <v>1.01</v>
@@ -1528,7 +1528,7 @@
         <v>1.48</v>
       </c>
       <c r="W8" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="X8" t="n">
         <v>650</v>
@@ -1615,16 +1615,16 @@
         <v>2.5</v>
       </c>
       <c r="G9" t="n">
-        <v>23</v>
+        <v>5.4</v>
       </c>
       <c r="H9" t="n">
         <v>2.02</v>
       </c>
       <c r="I9" t="n">
-        <v>1000</v>
+        <v>3.5</v>
       </c>
       <c r="J9" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="K9" t="n">
         <v>1000</v>
@@ -1660,10 +1660,10 @@
         <v>1.05</v>
       </c>
       <c r="V9" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W9" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -1882,19 +1882,19 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.78</v>
+        <v>2.94</v>
       </c>
       <c r="G11" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="H11" t="n">
         <v>2.46</v>
       </c>
       <c r="I11" t="n">
-        <v>3.05</v>
+        <v>2.88</v>
       </c>
       <c r="J11" t="n">
-        <v>2.72</v>
+        <v>2.88</v>
       </c>
       <c r="K11" t="n">
         <v>3.4</v>
@@ -1906,40 +1906,40 @@
         <v>1.1</v>
       </c>
       <c r="N11" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="O11" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P11" t="n">
         <v>1.64</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="R11" t="n">
         <v>1.24</v>
       </c>
       <c r="S11" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="T11" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="U11" t="n">
         <v>1.9</v>
       </c>
       <c r="V11" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="W11" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="X11" t="n">
         <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
         <v>1000</v>
@@ -1948,22 +1948,22 @@
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
         <v>10.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AF11" t="n">
         <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
         <v>1000</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="G12" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="H12" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="I12" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="J12" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K12" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="L12" t="n">
         <v>1.01</v>
@@ -2047,28 +2047,28 @@
         <v>1.22</v>
       </c>
       <c r="P12" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="Q12" t="n">
         <v>1.64</v>
       </c>
       <c r="R12" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S12" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="T12" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="U12" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V12" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="W12" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="X12" t="n">
         <v>970</v>
@@ -2095,7 +2095,7 @@
         <v>75</v>
       </c>
       <c r="AF12" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AG12" t="n">
         <v>970</v>
@@ -2113,7 +2113,7 @@
         <v>970</v>
       </c>
       <c r="AL12" t="n">
-        <v>30</v>
+        <v>970</v>
       </c>
       <c r="AM12" t="n">
         <v>100</v>
@@ -2158,7 +2158,7 @@
         <v>3.2</v>
       </c>
       <c r="H13" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="I13" t="n">
         <v>2.58</v>
@@ -2182,7 +2182,7 @@
         <v>1.29</v>
       </c>
       <c r="P13" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="Q13" t="n">
         <v>1.88</v>
@@ -2209,13 +2209,13 @@
         <v>19</v>
       </c>
       <c r="Y13" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z13" t="n">
         <v>20</v>
       </c>
       <c r="AA13" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AB13" t="n">
         <v>16</v>
@@ -2230,13 +2230,13 @@
         <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AG13" t="n">
         <v>17</v>
       </c>
       <c r="AH13" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AI13" t="n">
         <v>1000</v>
@@ -2257,7 +2257,7 @@
         <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
@@ -2323,13 +2323,13 @@
         <v>1.8</v>
       </c>
       <c r="R14" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S14" t="n">
         <v>3.05</v>
       </c>
       <c r="T14" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="U14" t="n">
         <v>2.08</v>
@@ -2383,7 +2383,7 @@
         <v>23</v>
       </c>
       <c r="AL14" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM14" t="n">
         <v>120</v>
@@ -2467,7 +2467,7 @@
         <v>1.72</v>
       </c>
       <c r="U15" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V15" t="n">
         <v>1.39</v>
@@ -2482,7 +2482,7 @@
         <v>15.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>27</v>
+        <v>970</v>
       </c>
       <c r="AA15" t="n">
         <v>60</v>
@@ -2497,7 +2497,7 @@
         <v>17.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>46</v>
+        <v>970</v>
       </c>
       <c r="AF15" t="n">
         <v>19</v>
@@ -2509,25 +2509,25 @@
         <v>970</v>
       </c>
       <c r="AI15" t="n">
-        <v>48</v>
+        <v>970</v>
       </c>
       <c r="AJ15" t="n">
-        <v>42</v>
+        <v>970</v>
       </c>
       <c r="AK15" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="AL15" t="n">
-        <v>46</v>
+        <v>970</v>
       </c>
       <c r="AM15" t="n">
         <v>110</v>
       </c>
       <c r="AN15" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AO15" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
     </row>
     <row r="16">
@@ -2581,7 +2581,7 @@
         <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O16" t="n">
         <v>1.3</v>
@@ -2593,10 +2593,10 @@
         <v>1.9</v>
       </c>
       <c r="R16" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S16" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="T16" t="n">
         <v>1.71</v>
@@ -2623,7 +2623,7 @@
         <v>55</v>
       </c>
       <c r="AB16" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AC16" t="n">
         <v>8.4</v>
@@ -2644,7 +2644,7 @@
         <v>18</v>
       </c>
       <c r="AI16" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ16" t="n">
         <v>44</v>
@@ -2656,7 +2656,7 @@
         <v>42</v>
       </c>
       <c r="AM16" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN16" t="n">
         <v>24</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="G17" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="H17" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I17" t="n">
         <v>5.8</v>
       </c>
       <c r="J17" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K17" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="L17" t="n">
         <v>1.01</v>
@@ -2722,16 +2722,16 @@
         <v>1.27</v>
       </c>
       <c r="P17" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.51</v>
+        <v>1.01</v>
       </c>
       <c r="R17" t="n">
         <v>1.27</v>
       </c>
       <c r="S17" t="n">
-        <v>2.4</v>
+        <v>1.05</v>
       </c>
       <c r="T17" t="n">
         <v>1.05</v>
@@ -2743,7 +2743,7 @@
         <v>1.21</v>
       </c>
       <c r="W17" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="X17" t="n">
         <v>1000</v>
@@ -2833,7 +2833,7 @@
         <v>2.1</v>
       </c>
       <c r="H18" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I18" t="n">
         <v>3.9</v>
@@ -2878,7 +2878,7 @@
         <v>1.34</v>
       </c>
       <c r="W18" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="X18" t="n">
         <v>17.5</v>
@@ -2968,10 +2968,10 @@
         <v>6</v>
       </c>
       <c r="H19" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="I19" t="n">
         <v>1.63</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1.64</v>
       </c>
       <c r="J19" t="n">
         <v>4.6</v>
@@ -2992,7 +2992,7 @@
         <v>1.19</v>
       </c>
       <c r="P19" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="Q19" t="n">
         <v>1.57</v>
@@ -3001,7 +3001,7 @@
         <v>1.66</v>
       </c>
       <c r="S19" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="T19" t="n">
         <v>1.67</v>
@@ -3103,7 +3103,7 @@
         <v>4</v>
       </c>
       <c r="H20" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="I20" t="n">
         <v>1.99</v>
@@ -3235,16 +3235,16 @@
         <v>1.91</v>
       </c>
       <c r="G21" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="H21" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="I21" t="n">
         <v>5.4</v>
       </c>
       <c r="J21" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K21" t="n">
         <v>3.55</v>
@@ -3283,7 +3283,7 @@
         <v>1.23</v>
       </c>
       <c r="W21" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="X21" t="n">
         <v>11</v>
@@ -3367,16 +3367,16 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="G22" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="H22" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="I22" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="J22" t="n">
         <v>3.15</v>
@@ -3391,7 +3391,7 @@
         <v>1.09</v>
       </c>
       <c r="N22" t="n">
-        <v>2.58</v>
+        <v>2.42</v>
       </c>
       <c r="O22" t="n">
         <v>1.47</v>
@@ -3406,7 +3406,7 @@
         <v>1.17</v>
       </c>
       <c r="S22" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="T22" t="n">
         <v>2.02</v>
@@ -3415,16 +3415,16 @@
         <v>1.78</v>
       </c>
       <c r="V22" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="W22" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="X22" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Y22" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="Z22" t="n">
         <v>1000</v>
@@ -3433,13 +3433,13 @@
         <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AC22" t="n">
         <v>9</v>
       </c>
       <c r="AD22" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE22" t="n">
         <v>1000</v>
@@ -3457,16 +3457,16 @@
         <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AK22" t="n">
         <v>1000</v>
       </c>
       <c r="AL22" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AM22" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AN22" t="n">
         <v>1000</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="G23" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="H23" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="I23" t="n">
         <v>4.2</v>
       </c>
       <c r="J23" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K23" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L23" t="n">
         <v>1.01</v>
@@ -3526,40 +3526,40 @@
         <v>1.11</v>
       </c>
       <c r="N23" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="O23" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="P23" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="R23" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S23" t="n">
-        <v>2.96</v>
+        <v>2.68</v>
       </c>
       <c r="T23" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="U23" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="V23" t="n">
         <v>1.31</v>
       </c>
       <c r="W23" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="X23" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="Y23" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z23" t="n">
         <v>1000</v>
@@ -3568,10 +3568,10 @@
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD23" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-17.xlsx
@@ -676,7 +676,7 @@
         <v>2.64</v>
       </c>
       <c r="I2" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="J2" t="n">
         <v>3.65</v>
@@ -691,7 +691,7 @@
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O2" t="n">
         <v>1.26</v>
@@ -715,52 +715,52 @@
         <v>2.4</v>
       </c>
       <c r="V2" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="W2" t="n">
         <v>1.53</v>
       </c>
       <c r="X2" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Y2" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB2" t="n">
         <v>13.5</v>
       </c>
-      <c r="Z2" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>40</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AC2" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG2" t="n">
         <v>13</v>
       </c>
-      <c r="AE2" t="n">
-        <v>28</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AH2" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI2" t="n">
         <v>36</v>
       </c>
       <c r="AJ2" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AK2" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AL2" t="n">
         <v>38</v>
@@ -769,10 +769,10 @@
         <v>75</v>
       </c>
       <c r="AN2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO2" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>16.5</v>
+        <v>7.8</v>
       </c>
       <c r="G3" t="n">
         <v>28</v>
@@ -817,7 +817,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="L3" t="n">
         <v>1.17</v>
@@ -841,7 +841,7 @@
         <v>2.02</v>
       </c>
       <c r="S3" t="n">
-        <v>1.73</v>
+        <v>1.82</v>
       </c>
       <c r="T3" t="n">
         <v>2.08</v>
@@ -850,7 +850,7 @@
         <v>1.76</v>
       </c>
       <c r="V3" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="W3" t="n">
         <v>1.04</v>
@@ -943,7 +943,7 @@
         <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="I4" t="n">
         <v>2.74</v>
@@ -970,10 +970,10 @@
         <v>2.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R4" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="S4" t="n">
         <v>2.84</v>
@@ -982,7 +982,7 @@
         <v>1.61</v>
       </c>
       <c r="U4" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V4" t="n">
         <v>1.57</v>
@@ -991,7 +991,7 @@
         <v>1.5</v>
       </c>
       <c r="X4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
         <v>15.5</v>
@@ -1072,19 +1072,19 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="G5" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="H5" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="I5" t="n">
         <v>1.88</v>
       </c>
       <c r="J5" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K5" t="n">
         <v>4.7</v>
@@ -1093,10 +1093,10 @@
         <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O5" t="n">
         <v>1.2</v>
@@ -1114,46 +1114,46 @@
         <v>2.48</v>
       </c>
       <c r="T5" t="n">
-        <v>1.05</v>
+        <v>1.6</v>
       </c>
       <c r="U5" t="n">
-        <v>1.05</v>
+        <v>2.34</v>
       </c>
       <c r="V5" t="n">
         <v>2.04</v>
       </c>
       <c r="W5" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="X5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y5" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AA5" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AB5" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AC5" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF5" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH5" t="n">
         <v>20</v>
@@ -1165,19 +1165,19 @@
         <v>100</v>
       </c>
       <c r="AK5" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AL5" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AM5" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN5" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AO5" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1213,10 +1213,10 @@
         <v>3.8</v>
       </c>
       <c r="H6" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="I6" t="n">
         <v>2.18</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2.2</v>
       </c>
       <c r="J6" t="n">
         <v>3.6</v>
@@ -1231,31 +1231,31 @@
         <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O6" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P6" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="R6" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S6" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="T6" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="U6" t="n">
         <v>2.24</v>
       </c>
       <c r="V6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="W6" t="n">
         <v>1.35</v>
@@ -1264,7 +1264,7 @@
         <v>14.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Z6" t="n">
         <v>13.5</v>
@@ -1291,7 +1291,7 @@
         <v>15</v>
       </c>
       <c r="AH6" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI6" t="n">
         <v>34</v>
@@ -1303,7 +1303,7 @@
         <v>42</v>
       </c>
       <c r="AL6" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM6" t="n">
         <v>85</v>
@@ -1312,7 +1312,7 @@
         <v>40</v>
       </c>
       <c r="AO6" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="7">
@@ -1357,7 +1357,7 @@
         <v>2.76</v>
       </c>
       <c r="K7" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L7" t="n">
         <v>1.47</v>
@@ -1366,28 +1366,28 @@
         <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="O7" t="n">
         <v>1.41</v>
       </c>
       <c r="P7" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R7" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S7" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="T7" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U7" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V7" t="n">
         <v>1.01</v>
@@ -1402,7 +1402,7 @@
         <v>10.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AA7" t="n">
         <v>980</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="G8" t="n">
         <v>2.52</v>
@@ -1495,7 +1495,7 @@
         <v>3.7</v>
       </c>
       <c r="L8" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="M8" t="n">
         <v>1.01</v>
@@ -1525,13 +1525,13 @@
         <v>1.01</v>
       </c>
       <c r="V8" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="W8" t="n">
         <v>1.65</v>
       </c>
       <c r="X8" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
         <v>18</v>
@@ -1612,58 +1612,58 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.5</v>
+        <v>2.64</v>
       </c>
       <c r="G9" t="n">
-        <v>5.4</v>
+        <v>3.3</v>
       </c>
       <c r="H9" t="n">
-        <v>2.02</v>
+        <v>2.38</v>
       </c>
       <c r="I9" t="n">
-        <v>3.5</v>
+        <v>2.92</v>
       </c>
       <c r="J9" t="n">
-        <v>1.01</v>
+        <v>2.82</v>
       </c>
       <c r="K9" t="n">
-        <v>1000</v>
+        <v>4.3</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="O9" t="n">
         <v>1.23</v>
       </c>
       <c r="P9" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.39</v>
+        <v>1.6</v>
       </c>
       <c r="R9" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="S9" t="n">
-        <v>2.12</v>
+        <v>2.5</v>
       </c>
       <c r="T9" t="n">
-        <v>1.05</v>
+        <v>1.58</v>
       </c>
       <c r="U9" t="n">
-        <v>1.05</v>
+        <v>2.34</v>
       </c>
       <c r="V9" t="n">
-        <v>1.41</v>
+        <v>1.56</v>
       </c>
       <c r="W9" t="n">
-        <v>1.29</v>
+        <v>1.43</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -1681,7 +1681,7 @@
         <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD9" t="n">
         <v>1000</v>
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.94</v>
+        <v>3.1</v>
       </c>
       <c r="G11" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="H11" t="n">
         <v>2.46</v>
       </c>
       <c r="I11" t="n">
-        <v>2.88</v>
+        <v>2.74</v>
       </c>
       <c r="J11" t="n">
         <v>2.88</v>
@@ -1951,7 +1951,7 @@
         <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
         <v>1000</v>
@@ -2035,7 +2035,7 @@
         <v>5</v>
       </c>
       <c r="L12" t="n">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="M12" t="n">
         <v>1.04</v>
@@ -2158,7 +2158,7 @@
         <v>3.2</v>
       </c>
       <c r="H13" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="I13" t="n">
         <v>2.58</v>
@@ -2212,7 +2212,7 @@
         <v>1000</v>
       </c>
       <c r="Z13" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AA13" t="n">
         <v>980</v>
@@ -2287,10 +2287,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="G14" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="H14" t="n">
         <v>4.6</v>
@@ -2329,16 +2329,16 @@
         <v>3.05</v>
       </c>
       <c r="T14" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="U14" t="n">
         <v>2.08</v>
       </c>
       <c r="V14" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W14" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="X14" t="n">
         <v>21</v>
@@ -2449,7 +2449,7 @@
         <v>3.7</v>
       </c>
       <c r="O15" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P15" t="n">
         <v>1.91</v>
@@ -2473,7 +2473,7 @@
         <v>1.39</v>
       </c>
       <c r="W15" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="X15" t="n">
         <v>18</v>
@@ -2581,7 +2581,7 @@
         <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="O16" t="n">
         <v>1.3</v>
@@ -2716,7 +2716,7 @@
         <v>1.03</v>
       </c>
       <c r="N17" t="n">
-        <v>2.66</v>
+        <v>1.1</v>
       </c>
       <c r="O17" t="n">
         <v>1.27</v>
@@ -2725,13 +2725,13 @@
         <v>1.78</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="R17" t="n">
         <v>1.27</v>
       </c>
       <c r="S17" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="T17" t="n">
         <v>1.05</v>
@@ -2833,10 +2833,10 @@
         <v>2.1</v>
       </c>
       <c r="H18" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I18" t="n">
         <v>3.85</v>
-      </c>
-      <c r="I18" t="n">
-        <v>3.9</v>
       </c>
       <c r="J18" t="n">
         <v>3.8</v>
@@ -2866,16 +2866,16 @@
         <v>1.53</v>
       </c>
       <c r="S18" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="T18" t="n">
         <v>1.65</v>
       </c>
       <c r="U18" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="V18" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W18" t="n">
         <v>1.91</v>
@@ -2884,13 +2884,13 @@
         <v>17.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Z18" t="n">
         <v>29</v>
       </c>
       <c r="AA18" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AB18" t="n">
         <v>12</v>
@@ -2899,10 +2899,10 @@
         <v>8.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE18" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AF18" t="n">
         <v>14.5</v>
@@ -2971,13 +2971,13 @@
         <v>1.61</v>
       </c>
       <c r="I19" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="J19" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K19" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L19" t="n">
         <v>1.29</v>
@@ -2995,10 +2995,10 @@
         <v>2.68</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="R19" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="S19" t="n">
         <v>2.42</v>
@@ -3007,10 +3007,10 @@
         <v>1.67</v>
       </c>
       <c r="U19" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="V19" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="W19" t="n">
         <v>1.2</v>
@@ -3031,7 +3031,7 @@
         <v>28</v>
       </c>
       <c r="AC19" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD19" t="n">
         <v>9.6</v>
@@ -3067,7 +3067,7 @@
         <v>48</v>
       </c>
       <c r="AO19" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="20">
@@ -3103,10 +3103,10 @@
         <v>4</v>
       </c>
       <c r="H20" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="I20" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="J20" t="n">
         <v>4.1</v>
@@ -3115,28 +3115,28 @@
         <v>4.2</v>
       </c>
       <c r="L20" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M20" t="n">
         <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="O20" t="n">
         <v>1.21</v>
       </c>
       <c r="P20" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="R20" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="S20" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="T20" t="n">
         <v>1.61</v>
@@ -3145,7 +3145,7 @@
         <v>2.56</v>
       </c>
       <c r="V20" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="W20" t="n">
         <v>1.33</v>
@@ -3166,7 +3166,7 @@
         <v>20</v>
       </c>
       <c r="AC20" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD20" t="n">
         <v>10</v>
@@ -3202,7 +3202,7 @@
         <v>29</v>
       </c>
       <c r="AO20" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -3232,49 +3232,49 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="G21" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="H21" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="I21" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="J21" t="n">
         <v>3.3</v>
       </c>
       <c r="K21" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L21" t="n">
         <v>1.01</v>
       </c>
       <c r="M21" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N21" t="n">
-        <v>2.36</v>
+        <v>2.72</v>
       </c>
       <c r="O21" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="P21" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="R21" t="n">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="S21" t="n">
-        <v>2.44</v>
+        <v>5.1</v>
       </c>
       <c r="T21" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="U21" t="n">
         <v>1.75</v>
@@ -3283,19 +3283,19 @@
         <v>1.23</v>
       </c>
       <c r="W21" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="X21" t="n">
         <v>11</v>
       </c>
       <c r="Y21" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z21" t="n">
         <v>44</v>
       </c>
       <c r="AA21" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AB21" t="n">
         <v>6.8</v>
@@ -3313,7 +3313,7 @@
         <v>12.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH21" t="n">
         <v>970</v>
@@ -3373,13 +3373,13 @@
         <v>4</v>
       </c>
       <c r="H22" t="n">
-        <v>2.16</v>
+        <v>2.28</v>
       </c>
       <c r="I22" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="J22" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K22" t="n">
         <v>3.5</v>
@@ -3391,10 +3391,10 @@
         <v>1.09</v>
       </c>
       <c r="N22" t="n">
-        <v>2.42</v>
+        <v>2.74</v>
       </c>
       <c r="O22" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="P22" t="n">
         <v>1.57</v>
@@ -3403,28 +3403,28 @@
         <v>2.42</v>
       </c>
       <c r="R22" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="S22" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="T22" t="n">
         <v>2.02</v>
       </c>
       <c r="U22" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="V22" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="W22" t="n">
         <v>1.36</v>
       </c>
       <c r="X22" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Y22" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z22" t="n">
         <v>1000</v>
@@ -3433,13 +3433,13 @@
         <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AD22" t="n">
-        <v>970</v>
+        <v>14.5</v>
       </c>
       <c r="AE22" t="n">
         <v>1000</v>
@@ -3505,10 +3505,10 @@
         <v>2.22</v>
       </c>
       <c r="G23" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="H23" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I23" t="n">
         <v>4.2</v>
@@ -3532,16 +3532,16 @@
         <v>1.52</v>
       </c>
       <c r="P23" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="R23" t="n">
         <v>1.19</v>
       </c>
       <c r="S23" t="n">
-        <v>2.68</v>
+        <v>1.05</v>
       </c>
       <c r="T23" t="n">
         <v>2.12</v>
@@ -3550,10 +3550,10 @@
         <v>1.75</v>
       </c>
       <c r="V23" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W23" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="X23" t="n">
         <v>11</v>
@@ -3568,7 +3568,7 @@
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC23" t="n">
         <v>8.800000000000001</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-17.xlsx
@@ -676,19 +676,19 @@
         <v>2.64</v>
       </c>
       <c r="I2" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="J2" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K2" t="n">
         <v>3.65</v>
       </c>
-      <c r="K2" t="n">
-        <v>3.7</v>
-      </c>
       <c r="L2" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
         <v>4.4</v>
@@ -703,28 +703,28 @@
         <v>1.8</v>
       </c>
       <c r="R2" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="S2" t="n">
-        <v>3</v>
+        <v>2.74</v>
       </c>
       <c r="T2" t="n">
         <v>1.66</v>
       </c>
       <c r="U2" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="V2" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="W2" t="n">
         <v>1.53</v>
       </c>
       <c r="X2" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z2" t="n">
         <v>19</v>
@@ -751,7 +751,7 @@
         <v>13</v>
       </c>
       <c r="AH2" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI2" t="n">
         <v>36</v>
@@ -772,7 +772,7 @@
         <v>22</v>
       </c>
       <c r="AO2" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="3">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>7.8</v>
+        <v>14.5</v>
       </c>
       <c r="G3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H3" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="I3" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="J3" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="L3" t="n">
         <v>1.17</v>
@@ -826,10 +826,10 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="O3" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="P3" t="n">
         <v>3.5</v>
@@ -838,25 +838,25 @@
         <v>1.29</v>
       </c>
       <c r="R3" t="n">
-        <v>2.02</v>
+        <v>1.96</v>
       </c>
       <c r="S3" t="n">
-        <v>1.82</v>
+        <v>1.73</v>
       </c>
       <c r="T3" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="U3" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="V3" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="W3" t="n">
         <v>1.04</v>
       </c>
       <c r="X3" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
         <v>1000</v>
@@ -868,7 +868,7 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
         <v>980</v>
@@ -883,13 +883,13 @@
         <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
@@ -907,7 +907,7 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>3</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="4">
@@ -937,13 +937,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="G4" t="n">
         <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="I4" t="n">
         <v>2.74</v>
@@ -952,7 +952,7 @@
         <v>3.55</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L4" t="n">
         <v>1.29</v>
@@ -979,7 +979,7 @@
         <v>2.84</v>
       </c>
       <c r="T4" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="U4" t="n">
         <v>2.3</v>
@@ -994,34 +994,34 @@
         <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AA4" t="n">
         <v>980</v>
       </c>
       <c r="AB4" t="n">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="AC4" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AD4" t="n">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE4" t="n">
         <v>980</v>
       </c>
       <c r="AF4" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AI4" t="n">
         <v>980</v>
@@ -1039,10 +1039,10 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AO4" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="G5" t="n">
         <v>4.7</v>
       </c>
       <c r="H5" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="I5" t="n">
         <v>1.88</v>
@@ -1087,10 +1087,10 @@
         <v>3.9</v>
       </c>
       <c r="K5" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="M5" t="n">
         <v>1.03</v>
@@ -1102,16 +1102,16 @@
         <v>1.2</v>
       </c>
       <c r="P5" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="R5" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="S5" t="n">
-        <v>2.48</v>
+        <v>2.28</v>
       </c>
       <c r="T5" t="n">
         <v>1.6</v>
@@ -1126,58 +1126,58 @@
         <v>1.27</v>
       </c>
       <c r="X5" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Y5" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Z5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AA5" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="AB5" t="n">
         <v>22</v>
       </c>
       <c r="AC5" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AF5" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH5" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ5" t="n">
         <v>100</v>
       </c>
       <c r="AK5" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AL5" t="n">
-        <v>48</v>
+        <v>970</v>
       </c>
       <c r="AM5" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AN5" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AO5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="G6" t="n">
         <v>3.8</v>
@@ -1219,10 +1219,10 @@
         <v>2.18</v>
       </c>
       <c r="J6" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K6" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L6" t="n">
         <v>1.39</v>
@@ -1243,13 +1243,13 @@
         <v>1.89</v>
       </c>
       <c r="R6" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S6" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="T6" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="U6" t="n">
         <v>2.24</v>
@@ -1261,7 +1261,7 @@
         <v>1.35</v>
       </c>
       <c r="X6" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y6" t="n">
         <v>10.5</v>
@@ -1285,7 +1285,7 @@
         <v>22</v>
       </c>
       <c r="AF6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG6" t="n">
         <v>15</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="G7" t="n">
         <v>4.5</v>
@@ -1351,10 +1351,10 @@
         <v>2.22</v>
       </c>
       <c r="I7" t="n">
-        <v>2.74</v>
+        <v>2.5</v>
       </c>
       <c r="J7" t="n">
-        <v>2.76</v>
+        <v>3.05</v>
       </c>
       <c r="K7" t="n">
         <v>3.55</v>
@@ -1381,7 +1381,7 @@
         <v>1.25</v>
       </c>
       <c r="S7" t="n">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="T7" t="n">
         <v>1.9</v>
@@ -1477,43 +1477,43 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.44</v>
+        <v>2.52</v>
       </c>
       <c r="G8" t="n">
-        <v>2.52</v>
+        <v>1000</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>1.39</v>
       </c>
       <c r="I8" t="n">
-        <v>3.1</v>
+        <v>2.98</v>
       </c>
       <c r="J8" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K8" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L8" t="n">
         <v>1.4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>2.06</v>
+        <v>2.26</v>
       </c>
       <c r="O8" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="P8" t="n">
-        <v>2.04</v>
+        <v>2.26</v>
       </c>
       <c r="Q8" t="n">
         <v>1.73</v>
       </c>
       <c r="R8" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="S8" t="n">
         <v>1.74</v>
@@ -1525,10 +1525,10 @@
         <v>1.01</v>
       </c>
       <c r="V8" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="W8" t="n">
-        <v>1.65</v>
+        <v>1.02</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1543,46 +1543,46 @@
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.4</v>
+        <v>13</v>
       </c>
       <c r="AD8" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE8" t="n">
         <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>17.5</v>
+        <v>38</v>
       </c>
       <c r="AI8" t="n">
         <v>42</v>
       </c>
       <c r="AJ8" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>36</v>
+        <v>220</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AN8" t="n">
         <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9">
@@ -1612,37 +1612,37 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="G9" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H9" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="I9" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="J9" t="n">
-        <v>2.82</v>
+        <v>3.35</v>
       </c>
       <c r="K9" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M9" t="n">
         <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="O9" t="n">
         <v>1.23</v>
       </c>
       <c r="P9" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="Q9" t="n">
         <v>1.6</v>
@@ -1651,19 +1651,19 @@
         <v>1.47</v>
       </c>
       <c r="S9" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="T9" t="n">
         <v>1.58</v>
       </c>
       <c r="U9" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="V9" t="n">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="W9" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -1681,7 +1681,7 @@
         <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD9" t="n">
         <v>1000</v>
@@ -1747,58 +1747,58 @@
         </is>
       </c>
       <c r="F10" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U10" t="n">
         <v>2.04</v>
       </c>
-      <c r="G10" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="I10" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K10" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N10" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.05</v>
-      </c>
       <c r="V10" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="W10" t="n">
-        <v>1.56</v>
+        <v>1.68</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
@@ -1885,22 +1885,22 @@
         <v>3.1</v>
       </c>
       <c r="G11" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="H11" t="n">
         <v>2.46</v>
       </c>
       <c r="I11" t="n">
-        <v>2.74</v>
+        <v>2.82</v>
       </c>
       <c r="J11" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="K11" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L11" t="n">
-        <v>1.43</v>
+        <v>1.52</v>
       </c>
       <c r="M11" t="n">
         <v>1.1</v>
@@ -1912,7 +1912,7 @@
         <v>1.45</v>
       </c>
       <c r="P11" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="Q11" t="n">
         <v>2.32</v>
@@ -1924,16 +1924,16 @@
         <v>3.95</v>
       </c>
       <c r="T11" t="n">
-        <v>1.94</v>
+        <v>1.05</v>
       </c>
       <c r="U11" t="n">
-        <v>1.9</v>
+        <v>1.05</v>
       </c>
       <c r="V11" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="W11" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="X11" t="n">
         <v>1000</v>
@@ -2020,34 +2020,34 @@
         <v>1.58</v>
       </c>
       <c r="G12" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="H12" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="I12" t="n">
         <v>6.4</v>
       </c>
       <c r="J12" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K12" t="n">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="L12" t="n">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="M12" t="n">
         <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O12" t="n">
         <v>1.22</v>
       </c>
       <c r="P12" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="Q12" t="n">
         <v>1.64</v>
@@ -2056,73 +2056,73 @@
         <v>1.52</v>
       </c>
       <c r="S12" t="n">
-        <v>2.54</v>
+        <v>2.64</v>
       </c>
       <c r="T12" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="U12" t="n">
         <v>2.16</v>
       </c>
       <c r="V12" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W12" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="X12" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
         <v>970</v>
       </c>
       <c r="Z12" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AA12" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="AD12" t="n">
         <v>970</v>
       </c>
       <c r="AE12" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AF12" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="AH12" t="n">
         <v>970</v>
       </c>
       <c r="AI12" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AJ12" t="n">
         <v>970</v>
       </c>
       <c r="AK12" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="AL12" t="n">
         <v>970</v>
       </c>
       <c r="AM12" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
@@ -2164,40 +2164,40 @@
         <v>2.58</v>
       </c>
       <c r="J13" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="K13" t="n">
         <v>3.75</v>
       </c>
       <c r="L13" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="O13" t="n">
         <v>1.29</v>
       </c>
       <c r="P13" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="R13" t="n">
         <v>1.39</v>
       </c>
       <c r="S13" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="T13" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="U13" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V13" t="n">
         <v>1.63</v>
@@ -2206,37 +2206,37 @@
         <v>1.45</v>
       </c>
       <c r="X13" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Y13" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Z13" t="n">
-        <v>19.5</v>
+        <v>24</v>
       </c>
       <c r="AA13" t="n">
         <v>980</v>
       </c>
       <c r="AB13" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE13" t="n">
         <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AH13" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI13" t="n">
         <v>1000</v>
@@ -2251,7 +2251,7 @@
         <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
         <v>1000</v>
@@ -2293,19 +2293,19 @@
         <v>1.87</v>
       </c>
       <c r="H14" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I14" t="n">
         <v>5.2</v>
       </c>
       <c r="J14" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="K14" t="n">
         <v>4.2</v>
       </c>
       <c r="L14" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="M14" t="n">
         <v>1.06</v>
@@ -2320,16 +2320,16 @@
         <v>2.04</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="R14" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="S14" t="n">
         <v>3.05</v>
       </c>
       <c r="T14" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="U14" t="n">
         <v>2.08</v>
@@ -2341,58 +2341,58 @@
         <v>2.14</v>
       </c>
       <c r="X14" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Y14" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Z14" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AA14" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AD14" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AE14" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="AF14" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AG14" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AH14" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AI14" t="n">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="AJ14" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AK14" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AL14" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AM14" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
@@ -2425,85 +2425,85 @@
         <v>2.28</v>
       </c>
       <c r="G15" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="H15" t="n">
         <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="J15" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="K15" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L15" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M15" t="n">
         <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O15" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P15" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="R15" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S15" t="n">
         <v>3.3</v>
       </c>
       <c r="T15" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U15" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="V15" t="n">
         <v>1.39</v>
       </c>
       <c r="W15" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="X15" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="Z15" t="n">
-        <v>970</v>
+        <v>27</v>
       </c>
       <c r="AA15" t="n">
         <v>60</v>
       </c>
       <c r="AB15" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AE15" t="n">
         <v>970</v>
       </c>
       <c r="AF15" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="AG15" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AH15" t="n">
         <v>970</v>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="G16" t="n">
         <v>2.6</v>
@@ -2581,28 +2581,28 @@
         <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O16" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P16" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="Q16" t="n">
         <v>1.9</v>
       </c>
       <c r="R16" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="S16" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T16" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U16" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="V16" t="n">
         <v>1.47</v>
@@ -2611,55 +2611,55 @@
         <v>1.62</v>
       </c>
       <c r="X16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y16" t="n">
         <v>17</v>
       </c>
-      <c r="Y16" t="n">
-        <v>14</v>
-      </c>
       <c r="Z16" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AA16" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AB16" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.4</v>
+        <v>11</v>
       </c>
       <c r="AD16" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AF16" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AG16" t="n">
         <v>14</v>
       </c>
       <c r="AH16" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AI16" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AJ16" t="n">
         <v>44</v>
       </c>
       <c r="AK16" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AL16" t="n">
-        <v>42</v>
+        <v>970</v>
       </c>
       <c r="AM16" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AO16" t="n">
         <v>32</v>
@@ -2692,58 +2692,58 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.71</v>
+        <v>1.83</v>
       </c>
       <c r="G17" t="n">
-        <v>2.18</v>
+        <v>2.04</v>
       </c>
       <c r="H17" t="n">
-        <v>3.2</v>
+        <v>1.04</v>
       </c>
       <c r="I17" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="J17" t="n">
         <v>3.2</v>
       </c>
       <c r="K17" t="n">
-        <v>9.6</v>
+        <v>110</v>
       </c>
       <c r="L17" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M17" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>1.1</v>
+        <v>3.35</v>
       </c>
       <c r="O17" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P17" t="n">
-        <v>1.78</v>
+        <v>1.96</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="R17" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="S17" t="n">
-        <v>1.06</v>
+        <v>2.58</v>
       </c>
       <c r="T17" t="n">
-        <v>1.05</v>
+        <v>1.73</v>
       </c>
       <c r="U17" t="n">
-        <v>1.05</v>
+        <v>2.08</v>
       </c>
       <c r="V17" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="W17" t="n">
-        <v>1.84</v>
+        <v>1.96</v>
       </c>
       <c r="X17" t="n">
         <v>1000</v>
@@ -2827,19 +2827,19 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G18" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="H18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I18" t="n">
         <v>3.8</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>3.85</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3.8</v>
       </c>
       <c r="K18" t="n">
         <v>3.9</v>
@@ -2872,22 +2872,22 @@
         <v>1.65</v>
       </c>
       <c r="U18" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="V18" t="n">
         <v>1.35</v>
       </c>
       <c r="W18" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="X18" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="Y18" t="n">
         <v>17</v>
       </c>
       <c r="Z18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA18" t="n">
         <v>70</v>
@@ -2914,7 +2914,7 @@
         <v>15.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ18" t="n">
         <v>25</v>
@@ -2968,7 +2968,7 @@
         <v>6</v>
       </c>
       <c r="H19" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="I19" t="n">
         <v>1.62</v>
@@ -2992,22 +2992,22 @@
         <v>1.19</v>
       </c>
       <c r="P19" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="R19" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="S19" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="T19" t="n">
         <v>1.67</v>
       </c>
       <c r="U19" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="V19" t="n">
         <v>2.6</v>
@@ -3016,43 +3016,43 @@
         <v>1.2</v>
       </c>
       <c r="X19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y19" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z19" t="n">
         <v>11.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AB19" t="n">
         <v>28</v>
       </c>
       <c r="AC19" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD19" t="n">
         <v>9.6</v>
       </c>
       <c r="AE19" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AF19" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AG19" t="n">
         <v>22</v>
       </c>
       <c r="AH19" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI19" t="n">
         <v>25</v>
       </c>
       <c r="AJ19" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AK19" t="n">
         <v>65</v>
@@ -3064,7 +3064,7 @@
         <v>70</v>
       </c>
       <c r="AN19" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AO19" t="n">
         <v>6.2</v>
@@ -3097,16 +3097,16 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="G20" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H20" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="I20" t="n">
         <v>1.96</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1.98</v>
       </c>
       <c r="J20" t="n">
         <v>4.1</v>
@@ -3124,34 +3124,34 @@
         <v>5.6</v>
       </c>
       <c r="O20" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P20" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="Q20" t="n">
         <v>1.63</v>
       </c>
       <c r="R20" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="S20" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="T20" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="U20" t="n">
         <v>2.56</v>
       </c>
       <c r="V20" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="W20" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="X20" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Y20" t="n">
         <v>13</v>
@@ -3163,7 +3163,7 @@
         <v>23</v>
       </c>
       <c r="AB20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC20" t="n">
         <v>9.4</v>
@@ -3172,13 +3172,13 @@
         <v>10</v>
       </c>
       <c r="AE20" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AF20" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AG20" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AH20" t="n">
         <v>15.5</v>
@@ -3202,7 +3202,7 @@
         <v>29</v>
       </c>
       <c r="AO20" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="21">
@@ -3232,25 +3232,25 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="G21" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="H21" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I21" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="J21" t="n">
         <v>3.3</v>
       </c>
       <c r="K21" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L21" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="M21" t="n">
         <v>1.11</v>
@@ -3259,22 +3259,22 @@
         <v>2.72</v>
       </c>
       <c r="O21" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="P21" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="R21" t="n">
         <v>1.21</v>
       </c>
       <c r="S21" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="T21" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="U21" t="n">
         <v>1.75</v>
@@ -3283,28 +3283,28 @@
         <v>1.23</v>
       </c>
       <c r="W21" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="X21" t="n">
         <v>11</v>
       </c>
       <c r="Y21" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Z21" t="n">
         <v>44</v>
       </c>
       <c r="AA21" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AB21" t="n">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="AC21" t="n">
         <v>9</v>
       </c>
       <c r="AD21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE21" t="n">
         <v>1000</v>
@@ -3313,10 +3313,10 @@
         <v>12.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>970</v>
+        <v>29</v>
       </c>
       <c r="AI21" t="n">
         <v>120</v>
@@ -3331,7 +3331,7 @@
         <v>65</v>
       </c>
       <c r="AM21" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AN21" t="n">
         <v>26</v>
@@ -3367,55 +3367,55 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="G22" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H22" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="I22" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="J22" t="n">
         <v>3.2</v>
       </c>
       <c r="K22" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L22" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="M22" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>2.74</v>
+        <v>2.26</v>
       </c>
       <c r="O22" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="P22" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.42</v>
+        <v>2.24</v>
       </c>
       <c r="R22" t="n">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="S22" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="T22" t="n">
-        <v>2.02</v>
+        <v>1.05</v>
       </c>
       <c r="U22" t="n">
-        <v>1.79</v>
+        <v>1.05</v>
       </c>
       <c r="V22" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="W22" t="n">
         <v>1.36</v>
@@ -3424,7 +3424,7 @@
         <v>1000</v>
       </c>
       <c r="Y22" t="n">
-        <v>8.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="Z22" t="n">
         <v>1000</v>
@@ -3433,13 +3433,13 @@
         <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AC22" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AE22" t="n">
         <v>1000</v>
@@ -3457,16 +3457,16 @@
         <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AK22" t="n">
         <v>1000</v>
       </c>
       <c r="AL22" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AM22" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AN22" t="n">
         <v>1000</v>
@@ -3502,46 +3502,46 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="G23" t="n">
         <v>2.38</v>
       </c>
       <c r="H23" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I23" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J23" t="n">
         <v>3.1</v>
       </c>
       <c r="K23" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="L23" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="M23" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="N23" t="n">
-        <v>2.62</v>
+        <v>2.28</v>
       </c>
       <c r="O23" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="P23" t="n">
         <v>1.52</v>
       </c>
-      <c r="P23" t="n">
-        <v>1.53</v>
-      </c>
       <c r="Q23" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="R23" t="n">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="S23" t="n">
-        <v>1.05</v>
+        <v>3.9</v>
       </c>
       <c r="T23" t="n">
         <v>2.12</v>
@@ -3568,7 +3568,7 @@
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC23" t="n">
         <v>8.800000000000001</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-17.xlsx
@@ -682,16 +682,16 @@
         <v>3.6</v>
       </c>
       <c r="K2" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L2" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.26</v>
@@ -703,19 +703,19 @@
         <v>1.8</v>
       </c>
       <c r="R2" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="S2" t="n">
-        <v>2.74</v>
+        <v>2.34</v>
       </c>
       <c r="T2" t="n">
         <v>1.66</v>
       </c>
       <c r="U2" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="V2" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="W2" t="n">
         <v>1.53</v>
@@ -727,7 +727,7 @@
         <v>13.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AA2" t="n">
         <v>38</v>
@@ -772,7 +772,7 @@
         <v>22</v>
       </c>
       <c r="AO2" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -802,55 +802,55 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>14.5</v>
+        <v>1.04</v>
       </c>
       <c r="G3" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H3" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="I3" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="J3" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="K3" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="L3" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="M3" t="n">
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>7.2</v>
+        <v>1.1</v>
       </c>
       <c r="O3" t="n">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="P3" t="n">
-        <v>3.5</v>
+        <v>2.88</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="R3" t="n">
-        <v>1.96</v>
+        <v>1.87</v>
       </c>
       <c r="S3" t="n">
-        <v>1.73</v>
+        <v>1.98</v>
       </c>
       <c r="T3" t="n">
-        <v>2.06</v>
+        <v>2.18</v>
       </c>
       <c r="U3" t="n">
-        <v>1.79</v>
+        <v>1.72</v>
       </c>
       <c r="V3" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="W3" t="n">
         <v>1.04</v>
@@ -865,7 +865,7 @@
         <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AB3" t="n">
         <v>1000</v>
@@ -886,7 +886,7 @@
         <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
@@ -907,7 +907,7 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>3.45</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="4">
@@ -937,46 +937,46 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.66</v>
+        <v>2.42</v>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="H4" t="n">
         <v>2.5</v>
       </c>
       <c r="I4" t="n">
-        <v>2.74</v>
+        <v>3.25</v>
       </c>
       <c r="J4" t="n">
-        <v>3.55</v>
+        <v>3.15</v>
       </c>
       <c r="K4" t="n">
-        <v>3.95</v>
+        <v>4.5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>4.2</v>
+        <v>2.76</v>
       </c>
       <c r="O4" t="n">
         <v>1.24</v>
       </c>
       <c r="P4" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="Q4" t="n">
         <v>1.73</v>
       </c>
       <c r="R4" t="n">
-        <v>1.43</v>
+        <v>1.29</v>
       </c>
       <c r="S4" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="T4" t="n">
         <v>1.62</v>
@@ -985,43 +985,43 @@
         <v>2.3</v>
       </c>
       <c r="V4" t="n">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="W4" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AA4" t="n">
         <v>980</v>
       </c>
       <c r="AB4" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
         <v>980</v>
       </c>
       <c r="AF4" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AG4" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
         <v>980</v>
@@ -1039,10 +1039,10 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AO4" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1072,112 +1072,112 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="G5" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="H5" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="I5" t="n">
         <v>1.88</v>
       </c>
       <c r="J5" t="n">
-        <v>3.9</v>
+        <v>3.35</v>
       </c>
       <c r="K5" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="L5" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="P5" t="n">
-        <v>2.36</v>
+        <v>2.14</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="R5" t="n">
-        <v>1.54</v>
+        <v>1.45</v>
       </c>
       <c r="S5" t="n">
-        <v>2.28</v>
+        <v>2.5</v>
       </c>
       <c r="T5" t="n">
-        <v>1.6</v>
+        <v>1.66</v>
       </c>
       <c r="U5" t="n">
-        <v>2.34</v>
+        <v>2.2</v>
       </c>
       <c r="V5" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="W5" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="X5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AA5" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AB5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC5" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD5" t="n">
         <v>13</v>
       </c>
       <c r="AE5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF5" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AG5" t="n">
         <v>22</v>
       </c>
       <c r="AH5" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AI5" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="AJ5" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AK5" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>95</v>
+      </c>
+      <c r="AN5" t="n">
         <v>55</v>
       </c>
-      <c r="AL5" t="n">
-        <v>970</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>44</v>
-      </c>
       <c r="AO5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="G6" t="n">
         <v>3.8</v>
       </c>
       <c r="H6" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="I6" t="n">
         <v>2.18</v>
@@ -1231,28 +1231,28 @@
         <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O6" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P6" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="R6" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="S6" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T6" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="U6" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="V6" t="n">
         <v>1.84</v>
@@ -1264,7 +1264,7 @@
         <v>15</v>
       </c>
       <c r="Y6" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z6" t="n">
         <v>13.5</v>
@@ -1273,16 +1273,16 @@
         <v>26</v>
       </c>
       <c r="AB6" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD6" t="n">
         <v>10.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF6" t="n">
         <v>27</v>
@@ -1291,7 +1291,7 @@
         <v>15</v>
       </c>
       <c r="AH6" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI6" t="n">
         <v>34</v>
@@ -1300,16 +1300,16 @@
         <v>70</v>
       </c>
       <c r="AK6" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AL6" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM6" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN6" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AO6" t="n">
         <v>14.5</v>
@@ -1342,19 +1342,19 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.4</v>
+        <v>2.88</v>
       </c>
       <c r="G7" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="H7" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="I7" t="n">
-        <v>2.5</v>
+        <v>2.68</v>
       </c>
       <c r="J7" t="n">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="K7" t="n">
         <v>3.55</v>
@@ -1366,7 +1366,7 @@
         <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="O7" t="n">
         <v>1.41</v>
@@ -1381,7 +1381,7 @@
         <v>1.25</v>
       </c>
       <c r="S7" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="T7" t="n">
         <v>1.9</v>
@@ -1399,16 +1399,16 @@
         <v>13</v>
       </c>
       <c r="Y7" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z7" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AA7" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AB7" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC7" t="n">
         <v>9</v>
@@ -1423,7 +1423,7 @@
         <v>980</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AH7" t="n">
         <v>980</v>
@@ -1477,79 +1477,79 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.52</v>
+        <v>2.7</v>
       </c>
       <c r="G8" t="n">
-        <v>1000</v>
+        <v>2.78</v>
       </c>
       <c r="H8" t="n">
-        <v>1.39</v>
+        <v>2.76</v>
       </c>
       <c r="I8" t="n">
-        <v>2.98</v>
+        <v>2.88</v>
       </c>
       <c r="J8" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="K8" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L8" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>2.26</v>
+        <v>4.5</v>
       </c>
       <c r="O8" t="n">
         <v>1.05</v>
       </c>
       <c r="P8" t="n">
-        <v>2.26</v>
+        <v>2.36</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="R8" t="n">
-        <v>1.09</v>
+        <v>1.5</v>
       </c>
       <c r="S8" t="n">
-        <v>1.74</v>
+        <v>2.8</v>
       </c>
       <c r="T8" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U8" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V8" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W8" t="n">
-        <v>1.02</v>
+        <v>1.56</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AA8" t="n">
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>13</v>
+        <v>8.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE8" t="n">
         <v>1000</v>
@@ -1561,28 +1561,28 @@
         <v>1000</v>
       </c>
       <c r="AH8" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI8" t="n">
         <v>38</v>
       </c>
-      <c r="AI8" t="n">
-        <v>42</v>
-      </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AL8" t="n">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="AM8" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="AN8" t="n">
         <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1612,58 +1612,58 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.62</v>
+        <v>2.36</v>
       </c>
       <c r="G9" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="I9" t="n">
         <v>3.25</v>
       </c>
-      <c r="H9" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2.96</v>
-      </c>
       <c r="J9" t="n">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="K9" t="n">
-        <v>4.2</v>
+        <v>7.6</v>
       </c>
       <c r="L9" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="O9" t="n">
         <v>1.23</v>
       </c>
       <c r="P9" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="R9" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="S9" t="n">
-        <v>2.52</v>
+        <v>2.36</v>
       </c>
       <c r="T9" t="n">
-        <v>1.58</v>
+        <v>1.05</v>
       </c>
       <c r="U9" t="n">
-        <v>2.36</v>
+        <v>1.05</v>
       </c>
       <c r="V9" t="n">
-        <v>1.51</v>
+        <v>1.44</v>
       </c>
       <c r="W9" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -1747,58 +1747,58 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="G10" t="n">
-        <v>2.46</v>
+        <v>2.7</v>
       </c>
       <c r="H10" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="I10" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J10" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="K10" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="L10" t="n">
-        <v>1.34</v>
+        <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="O10" t="n">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="P10" t="n">
-        <v>1.77</v>
+        <v>1.89</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.9</v>
+        <v>1.78</v>
       </c>
       <c r="R10" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V10" t="n">
         <v>1.3</v>
       </c>
-      <c r="S10" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.32</v>
-      </c>
       <c r="W10" t="n">
-        <v>1.68</v>
+        <v>1.58</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
@@ -1885,19 +1885,19 @@
         <v>3.1</v>
       </c>
       <c r="G11" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="H11" t="n">
         <v>2.46</v>
       </c>
       <c r="I11" t="n">
-        <v>2.82</v>
+        <v>2.72</v>
       </c>
       <c r="J11" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="K11" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L11" t="n">
         <v>1.52</v>
@@ -1906,22 +1906,22 @@
         <v>1.1</v>
       </c>
       <c r="N11" t="n">
-        <v>2.86</v>
+        <v>2.38</v>
       </c>
       <c r="O11" t="n">
-        <v>1.45</v>
+        <v>1.08</v>
       </c>
       <c r="P11" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.32</v>
+        <v>2.12</v>
       </c>
       <c r="R11" t="n">
         <v>1.24</v>
       </c>
       <c r="S11" t="n">
-        <v>3.95</v>
+        <v>3.45</v>
       </c>
       <c r="T11" t="n">
         <v>1.05</v>
@@ -1930,16 +1930,16 @@
         <v>1.05</v>
       </c>
       <c r="V11" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="W11" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z11" t="n">
         <v>1000</v>
@@ -1948,7 +1948,7 @@
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AC11" t="n">
         <v>1000</v>
@@ -2020,106 +2020,106 @@
         <v>1.58</v>
       </c>
       <c r="G12" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="H12" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="I12" t="n">
         <v>6.4</v>
       </c>
       <c r="J12" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="K12" t="n">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="L12" t="n">
         <v>1.28</v>
       </c>
       <c r="M12" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>4.8</v>
+        <v>2.42</v>
       </c>
       <c r="O12" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P12" t="n">
-        <v>2.3</v>
+        <v>2.08</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.64</v>
+        <v>1.56</v>
       </c>
       <c r="R12" t="n">
-        <v>1.52</v>
+        <v>1.37</v>
       </c>
       <c r="S12" t="n">
-        <v>2.64</v>
+        <v>2.5</v>
       </c>
       <c r="T12" t="n">
-        <v>1.72</v>
+        <v>1.05</v>
       </c>
       <c r="U12" t="n">
-        <v>2.16</v>
+        <v>1.05</v>
       </c>
       <c r="V12" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="W12" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="X12" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y12" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AD12" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE12" t="n">
         <v>95</v>
       </c>
       <c r="AF12" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AI12" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
         <v>970</v>
       </c>
       <c r="AK12" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2164,16 +2164,16 @@
         <v>2.58</v>
       </c>
       <c r="J13" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="K13" t="n">
         <v>3.75</v>
       </c>
       <c r="L13" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
         <v>3.9</v>
@@ -2218,13 +2218,13 @@
         <v>980</v>
       </c>
       <c r="AB13" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AC13" t="n">
         <v>11.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AE13" t="n">
         <v>1000</v>
@@ -2290,16 +2290,16 @@
         <v>1.79</v>
       </c>
       <c r="G14" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="H14" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="I14" t="n">
         <v>5.2</v>
       </c>
       <c r="J14" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="K14" t="n">
         <v>4.2</v>
@@ -2308,37 +2308,37 @@
         <v>1.27</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="O14" t="n">
         <v>1.28</v>
       </c>
       <c r="P14" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="R14" t="n">
         <v>1.4</v>
       </c>
       <c r="S14" t="n">
-        <v>3.05</v>
+        <v>2.76</v>
       </c>
       <c r="T14" t="n">
-        <v>1.78</v>
+        <v>1.05</v>
       </c>
       <c r="U14" t="n">
-        <v>2.08</v>
+        <v>1.05</v>
       </c>
       <c r="V14" t="n">
         <v>1.25</v>
       </c>
       <c r="W14" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="X14" t="n">
         <v>1000</v>
@@ -2356,7 +2356,7 @@
         <v>13.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AD14" t="n">
         <v>29</v>
@@ -2425,13 +2425,13 @@
         <v>2.28</v>
       </c>
       <c r="G15" t="n">
-        <v>2.68</v>
+        <v>2.6</v>
       </c>
       <c r="H15" t="n">
         <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>3.85</v>
+        <v>3.5</v>
       </c>
       <c r="J15" t="n">
         <v>3.1</v>
@@ -2440,73 +2440,73 @@
         <v>3.9</v>
       </c>
       <c r="L15" t="n">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>3.75</v>
+        <v>1.1</v>
       </c>
       <c r="O15" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="P15" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="R15" t="n">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="S15" t="n">
-        <v>3.3</v>
+        <v>2.22</v>
       </c>
       <c r="T15" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U15" t="n">
         <v>2.16</v>
       </c>
       <c r="V15" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W15" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="X15" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="Y15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z15" t="n">
         <v>970</v>
       </c>
-      <c r="Z15" t="n">
-        <v>27</v>
-      </c>
       <c r="AA15" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="AB15" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC15" t="n">
         <v>11.5</v>
       </c>
-      <c r="AC15" t="n">
-        <v>8.4</v>
-      </c>
       <c r="AD15" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AE15" t="n">
         <v>970</v>
       </c>
       <c r="AF15" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="AG15" t="n">
-        <v>970</v>
+        <v>17.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>970</v>
+        <v>25</v>
       </c>
       <c r="AI15" t="n">
         <v>970</v>
@@ -2521,10 +2521,10 @@
         <v>970</v>
       </c>
       <c r="AM15" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>970</v>
+        <v>29</v>
       </c>
       <c r="AO15" t="n">
         <v>970</v>
@@ -2575,7 +2575,7 @@
         <v>3.7</v>
       </c>
       <c r="L16" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="M16" t="n">
         <v>1.07</v>
@@ -2599,10 +2599,10 @@
         <v>3.3</v>
       </c>
       <c r="T16" t="n">
-        <v>1.72</v>
+        <v>1.05</v>
       </c>
       <c r="U16" t="n">
-        <v>2.12</v>
+        <v>1.05</v>
       </c>
       <c r="V16" t="n">
         <v>1.47</v>
@@ -2611,55 +2611,55 @@
         <v>1.62</v>
       </c>
       <c r="X16" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Z16" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AA16" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AB16" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>11</v>
+        <v>8.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AE16" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ16" t="n">
         <v>40</v>
       </c>
-      <c r="AF16" t="n">
+      <c r="AK16" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN16" t="n">
         <v>24</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>44</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>970</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>27</v>
       </c>
       <c r="AO16" t="n">
         <v>32</v>
@@ -2692,58 +2692,58 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="G17" t="n">
-        <v>2.04</v>
+        <v>2.18</v>
       </c>
       <c r="H17" t="n">
-        <v>1.04</v>
+        <v>3.55</v>
       </c>
       <c r="I17" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="J17" t="n">
         <v>3.2</v>
       </c>
       <c r="K17" t="n">
-        <v>110</v>
+        <v>7.6</v>
       </c>
       <c r="L17" t="n">
         <v>1.29</v>
       </c>
       <c r="M17" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="O17" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P17" t="n">
         <v>1.96</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="R17" t="n">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="S17" t="n">
-        <v>2.58</v>
+        <v>2.4</v>
       </c>
       <c r="T17" t="n">
-        <v>1.73</v>
+        <v>1.05</v>
       </c>
       <c r="U17" t="n">
-        <v>2.08</v>
+        <v>1.05</v>
       </c>
       <c r="V17" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="W17" t="n">
-        <v>1.96</v>
+        <v>1.84</v>
       </c>
       <c r="X17" t="n">
         <v>1000</v>
@@ -2827,22 +2827,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="G18" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="H18" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I18" t="n">
         <v>3.75</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>3.8</v>
       </c>
-      <c r="J18" t="n">
+      <c r="K18" t="n">
         <v>3.85</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3.9</v>
       </c>
       <c r="L18" t="n">
         <v>1.34</v>
@@ -2851,37 +2851,37 @@
         <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="O18" t="n">
         <v>1.24</v>
       </c>
       <c r="P18" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="Q18" t="n">
         <v>1.76</v>
       </c>
       <c r="R18" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="S18" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="T18" t="n">
         <v>1.65</v>
       </c>
       <c r="U18" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="V18" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W18" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="X18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y18" t="n">
         <v>17</v>
@@ -2899,7 +2899,7 @@
         <v>8.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE18" t="n">
         <v>38</v>
@@ -2929,7 +2929,7 @@
         <v>70</v>
       </c>
       <c r="AN18" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AO18" t="n">
         <v>32</v>
@@ -2962,13 +2962,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="G19" t="n">
         <v>6</v>
       </c>
       <c r="H19" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="I19" t="n">
         <v>1.62</v>
@@ -2989,7 +2989,7 @@
         <v>6</v>
       </c>
       <c r="O19" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P19" t="n">
         <v>2.7</v>
@@ -3046,13 +3046,13 @@
         <v>22</v>
       </c>
       <c r="AH19" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI19" t="n">
         <v>25</v>
       </c>
       <c r="AJ19" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AK19" t="n">
         <v>65</v>
@@ -3097,16 +3097,16 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="G20" t="n">
         <v>4.1</v>
       </c>
       <c r="H20" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="I20" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="J20" t="n">
         <v>4.1</v>
@@ -3115,7 +3115,7 @@
         <v>4.2</v>
       </c>
       <c r="L20" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="M20" t="n">
         <v>1.04</v>
@@ -3139,19 +3139,19 @@
         <v>2.56</v>
       </c>
       <c r="T20" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="U20" t="n">
         <v>2.56</v>
       </c>
       <c r="V20" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="W20" t="n">
         <v>1.32</v>
       </c>
       <c r="X20" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Y20" t="n">
         <v>13</v>
@@ -3196,7 +3196,7 @@
         <v>42</v>
       </c>
       <c r="AM20" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN20" t="n">
         <v>29</v>
@@ -3232,28 +3232,28 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="G21" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="H21" t="n">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="I21" t="n">
-        <v>5.4</v>
+        <v>6.2</v>
       </c>
       <c r="J21" t="n">
         <v>3.3</v>
       </c>
       <c r="K21" t="n">
-        <v>3.55</v>
+        <v>950</v>
       </c>
       <c r="L21" t="n">
-        <v>1.47</v>
+        <v>1.01</v>
       </c>
       <c r="M21" t="n">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="N21" t="n">
         <v>2.72</v>
@@ -3265,19 +3265,19 @@
         <v>1.58</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.44</v>
+        <v>2.36</v>
       </c>
       <c r="R21" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="S21" t="n">
         <v>5</v>
       </c>
       <c r="T21" t="n">
-        <v>2.14</v>
+        <v>1.8</v>
       </c>
       <c r="U21" t="n">
-        <v>1.75</v>
+        <v>1.53</v>
       </c>
       <c r="V21" t="n">
         <v>1.23</v>
@@ -3289,10 +3289,10 @@
         <v>11</v>
       </c>
       <c r="Y21" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z21" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AA21" t="n">
         <v>170</v>
@@ -3304,7 +3304,7 @@
         <v>9</v>
       </c>
       <c r="AD21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE21" t="n">
         <v>1000</v>
@@ -3367,16 +3367,16 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="G22" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H22" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="I22" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="J22" t="n">
         <v>3.2</v>
@@ -3385,10 +3385,10 @@
         <v>3.45</v>
       </c>
       <c r="L22" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="M22" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N22" t="n">
         <v>2.26</v>
@@ -3400,13 +3400,13 @@
         <v>1.47</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="R22" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="S22" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T22" t="n">
         <v>1.05</v>
@@ -3415,7 +3415,7 @@
         <v>1.05</v>
       </c>
       <c r="V22" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="W22" t="n">
         <v>1.36</v>
@@ -3424,7 +3424,7 @@
         <v>1000</v>
       </c>
       <c r="Y22" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Z22" t="n">
         <v>1000</v>
@@ -3436,7 +3436,7 @@
         <v>1000</v>
       </c>
       <c r="AC22" t="n">
-        <v>10.5</v>
+        <v>8.6</v>
       </c>
       <c r="AD22" t="n">
         <v>1000</v>
@@ -3457,16 +3457,16 @@
         <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AK22" t="n">
         <v>1000</v>
       </c>
       <c r="AL22" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AM22" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AN22" t="n">
         <v>1000</v>
@@ -3526,7 +3526,7 @@
         <v>1.09</v>
       </c>
       <c r="N23" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="O23" t="n">
         <v>1.51</v>
@@ -3535,10 +3535,10 @@
         <v>1.52</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.3</v>
+        <v>2.06</v>
       </c>
       <c r="R23" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="S23" t="n">
         <v>3.9</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-17.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="G2" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="H2" t="n">
         <v>2.64</v>
       </c>
       <c r="I2" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="J2" t="n">
         <v>3.6</v>
@@ -685,46 +685,46 @@
         <v>3.7</v>
       </c>
       <c r="L2" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O2" t="n">
         <v>1.26</v>
       </c>
       <c r="P2" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="R2" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="S2" t="n">
-        <v>2.34</v>
+        <v>2.98</v>
       </c>
       <c r="T2" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="U2" t="n">
         <v>2.44</v>
       </c>
       <c r="V2" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="W2" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="X2" t="n">
         <v>16.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z2" t="n">
         <v>18</v>
@@ -733,7 +733,7 @@
         <v>38</v>
       </c>
       <c r="AB2" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC2" t="n">
         <v>8.199999999999999</v>
@@ -754,7 +754,7 @@
         <v>15.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ2" t="n">
         <v>44</v>
@@ -766,13 +766,13 @@
         <v>38</v>
       </c>
       <c r="AM2" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN2" t="n">
         <v>22</v>
       </c>
       <c r="AO2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -802,10 +802,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.04</v>
+        <v>16.5</v>
       </c>
       <c r="G3" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H3" t="n">
         <v>1.17</v>
@@ -814,10 +814,10 @@
         <v>1.2</v>
       </c>
       <c r="J3" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>950</v>
+        <v>15.5</v>
       </c>
       <c r="L3" t="n">
         <v>1.19</v>
@@ -826,31 +826,31 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.1</v>
+        <v>6.4</v>
       </c>
       <c r="O3" t="n">
         <v>1.13</v>
       </c>
       <c r="P3" t="n">
-        <v>2.88</v>
+        <v>3.15</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="R3" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="S3" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="T3" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="U3" t="n">
         <v>1.72</v>
       </c>
       <c r="V3" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="W3" t="n">
         <v>1.04</v>
@@ -862,10 +862,10 @@
         <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="AB3" t="n">
         <v>1000</v>
@@ -886,7 +886,7 @@
         <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
@@ -907,7 +907,7 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>3.85</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="4">
@@ -940,19 +940,19 @@
         <v>2.42</v>
       </c>
       <c r="G4" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H4" t="n">
-        <v>2.5</v>
+        <v>2.34</v>
       </c>
       <c r="I4" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="J4" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K4" t="n">
-        <v>4.5</v>
+        <v>6.2</v>
       </c>
       <c r="L4" t="n">
         <v>1.31</v>
@@ -961,34 +961,34 @@
         <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P4" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="R4" t="n">
         <v>1.29</v>
       </c>
       <c r="S4" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="T4" t="n">
-        <v>1.62</v>
+        <v>1.05</v>
       </c>
       <c r="U4" t="n">
         <v>2.3</v>
       </c>
       <c r="V4" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="W4" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1084,7 +1084,7 @@
         <v>1.88</v>
       </c>
       <c r="J5" t="n">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="K5" t="n">
         <v>4.4</v>
@@ -1096,7 +1096,7 @@
         <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="O5" t="n">
         <v>1.24</v>
@@ -1105,13 +1105,13 @@
         <v>2.14</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="R5" t="n">
         <v>1.45</v>
       </c>
       <c r="S5" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="T5" t="n">
         <v>1.66</v>
@@ -1153,7 +1153,7 @@
         <v>42</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH5" t="n">
         <v>21</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="G6" t="n">
         <v>3.8</v>
@@ -1228,31 +1228,31 @@
         <v>1.39</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P6" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="R6" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="S6" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="T6" t="n">
         <v>1.73</v>
       </c>
       <c r="U6" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="V6" t="n">
         <v>1.84</v>
@@ -1261,19 +1261,19 @@
         <v>1.35</v>
       </c>
       <c r="X6" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="Y6" t="n">
         <v>11</v>
       </c>
       <c r="Z6" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AA6" t="n">
         <v>26</v>
       </c>
       <c r="AB6" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC6" t="n">
         <v>8.199999999999999</v>
@@ -1288,16 +1288,16 @@
         <v>27</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH6" t="n">
         <v>16.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ6" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AK6" t="n">
         <v>40</v>
@@ -1312,7 +1312,7 @@
         <v>36</v>
       </c>
       <c r="AO6" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="7">
@@ -1342,19 +1342,19 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="G7" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="H7" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="I7" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="J7" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="K7" t="n">
         <v>3.55</v>
@@ -1381,10 +1381,10 @@
         <v>1.25</v>
       </c>
       <c r="S7" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T7" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="U7" t="n">
         <v>1.91</v>
@@ -1396,7 +1396,7 @@
         <v>1.01</v>
       </c>
       <c r="X7" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y7" t="n">
         <v>10</v>
@@ -1417,10 +1417,10 @@
         <v>14</v>
       </c>
       <c r="AE7" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AF7" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AG7" t="n">
         <v>19.5</v>
@@ -1444,16 +1444,16 @@
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AO7" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Dutch Eredivisie</t>
+          <t>Scottish League Two</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,60 +1463,60 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Sparta Rotterdam</t>
+          <t>Elgin City FC</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>NEC Nijmegen</t>
+          <t>East Kilbride</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.7</v>
+        <v>2.58</v>
       </c>
       <c r="G8" t="n">
-        <v>2.78</v>
+        <v>2.98</v>
       </c>
       <c r="H8" t="n">
-        <v>2.76</v>
+        <v>2.46</v>
       </c>
       <c r="I8" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="J8" t="n">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="K8" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="L8" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>4.5</v>
+        <v>2.32</v>
       </c>
       <c r="O8" t="n">
-        <v>1.05</v>
+        <v>1.23</v>
       </c>
       <c r="P8" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S8" t="n">
         <v>2.36</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S8" t="n">
-        <v>2.8</v>
       </c>
       <c r="T8" t="n">
         <v>1.05</v>
@@ -1525,31 +1525,31 @@
         <v>1.05</v>
       </c>
       <c r="V8" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="W8" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
         <v>1000</v>
@@ -1561,22 +1561,22 @@
         <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
         <v>1000</v>
@@ -1588,7 +1588,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Scottish League Two</t>
+          <t>Scottish League One</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1603,127 +1603,127 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Elgin City FC</t>
+          <t>Cove Rangers</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>East Kilbride</t>
+          <t>Montrose</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="G9" t="n">
-        <v>3.45</v>
+        <v>2.4</v>
       </c>
       <c r="H9" t="n">
-        <v>2.24</v>
+        <v>3.25</v>
       </c>
       <c r="I9" t="n">
-        <v>3.25</v>
+        <v>3.65</v>
       </c>
       <c r="J9" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S9" t="n">
         <v>3.05</v>
       </c>
-      <c r="K9" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2.36</v>
-      </c>
       <c r="T9" t="n">
-        <v>1.05</v>
+        <v>1.73</v>
       </c>
       <c r="U9" t="n">
-        <v>1.05</v>
+        <v>2.16</v>
       </c>
       <c r="V9" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="W9" t="n">
-        <v>1.4</v>
+        <v>1.71</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AC9" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Scottish League One</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,73 +1738,73 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Cove Rangers</t>
+          <t>Morton</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Montrose</t>
+          <t>Dunfermline</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="G10" t="n">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="H10" t="n">
-        <v>2.88</v>
+        <v>2.46</v>
       </c>
       <c r="I10" t="n">
-        <v>4.3</v>
+        <v>2.72</v>
       </c>
       <c r="J10" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N10" t="n">
-        <v>3</v>
+        <v>2.66</v>
       </c>
       <c r="O10" t="n">
-        <v>1.31</v>
+        <v>1.45</v>
       </c>
       <c r="P10" t="n">
-        <v>1.89</v>
+        <v>1.63</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.78</v>
+        <v>2.34</v>
       </c>
       <c r="R10" t="n">
-        <v>1.35</v>
+        <v>1.24</v>
       </c>
       <c r="S10" t="n">
-        <v>2.66</v>
+        <v>3.45</v>
       </c>
       <c r="T10" t="n">
-        <v>1.74</v>
+        <v>1.94</v>
       </c>
       <c r="U10" t="n">
-        <v>2.14</v>
+        <v>1.9</v>
       </c>
       <c r="V10" t="n">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
       <c r="W10" t="n">
-        <v>1.58</v>
+        <v>1.4</v>
       </c>
       <c r="X10" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z10" t="n">
         <v>1000</v>
@@ -1813,16 +1813,16 @@
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD10" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF10" t="n">
         <v>1000</v>
@@ -1858,7 +1858,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Scottish Championship</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,121 +1873,121 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Morton</t>
+          <t>FC Halifax Town</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Dunfermline</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.1</v>
+        <v>1.59</v>
       </c>
       <c r="G11" t="n">
-        <v>3.8</v>
+        <v>1.67</v>
       </c>
       <c r="H11" t="n">
-        <v>2.46</v>
+        <v>5.5</v>
       </c>
       <c r="I11" t="n">
-        <v>2.72</v>
+        <v>6.4</v>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>4.3</v>
       </c>
       <c r="K11" t="n">
-        <v>3.65</v>
+        <v>4.9</v>
       </c>
       <c r="L11" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N11" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="R11" t="n">
         <v>1.52</v>
       </c>
-      <c r="M11" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N11" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.24</v>
-      </c>
       <c r="S11" t="n">
-        <v>3.45</v>
+        <v>2.64</v>
       </c>
       <c r="T11" t="n">
-        <v>1.05</v>
+        <v>1.72</v>
       </c>
       <c r="U11" t="n">
-        <v>1.05</v>
+        <v>2.16</v>
       </c>
       <c r="V11" t="n">
-        <v>1.58</v>
+        <v>1.18</v>
       </c>
       <c r="W11" t="n">
-        <v>1.4</v>
+        <v>2.48</v>
       </c>
       <c r="X11" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AA11" t="n">
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AC11" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE11" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12">
@@ -2008,121 +2008,121 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>FC Halifax Town</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Scunthorpe</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.58</v>
+        <v>1.79</v>
       </c>
       <c r="G12" t="n">
-        <v>1.69</v>
+        <v>1.87</v>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="I12" t="n">
-        <v>6.4</v>
+        <v>5.2</v>
       </c>
       <c r="J12" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="K12" t="n">
-        <v>6.2</v>
+        <v>4.2</v>
       </c>
       <c r="L12" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N12" t="n">
+        <v>4</v>
+      </c>
+      <c r="O12" t="n">
         <v>1.28</v>
       </c>
-      <c r="M12" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N12" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.2</v>
-      </c>
       <c r="P12" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U12" t="n">
         <v>2.08</v>
       </c>
-      <c r="Q12" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="S12" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.05</v>
-      </c>
       <c r="V12" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="W12" t="n">
-        <v>2.46</v>
+        <v>2.14</v>
       </c>
       <c r="X12" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Z12" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AB12" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD12" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AE12" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AF12" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AG12" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ12" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13">
@@ -2143,31 +2143,31 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Yeovil</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="F13" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H13" t="n">
         <v>3</v>
       </c>
-      <c r="G13" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2.38</v>
-      </c>
       <c r="I13" t="n">
-        <v>2.58</v>
+        <v>3.5</v>
       </c>
       <c r="J13" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="K13" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="L13" t="n">
         <v>1.32</v>
@@ -2176,88 +2176,88 @@
         <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="O13" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P13" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.8</v>
+        <v>1.92</v>
       </c>
       <c r="R13" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="S13" t="n">
-        <v>2.84</v>
+        <v>3.3</v>
       </c>
       <c r="T13" t="n">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="U13" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="V13" t="n">
-        <v>1.63</v>
+        <v>1.4</v>
       </c>
       <c r="W13" t="n">
-        <v>1.45</v>
+        <v>1.62</v>
       </c>
       <c r="X13" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Z13" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AA13" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AB13" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>11.5</v>
+        <v>9.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AF13" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="AG13" t="n">
-        <v>20</v>
+        <v>14.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AK13" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
     </row>
     <row r="14">
@@ -2278,121 +2278,121 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Sutton Utd</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Scunthorpe</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.79</v>
+        <v>2.46</v>
       </c>
       <c r="G14" t="n">
-        <v>1.88</v>
+        <v>2.72</v>
       </c>
       <c r="H14" t="n">
-        <v>4.5</v>
+        <v>2.86</v>
       </c>
       <c r="I14" t="n">
-        <v>5.2</v>
+        <v>3.1</v>
       </c>
       <c r="J14" t="n">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="K14" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="L14" t="n">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O14" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="P14" t="n">
-        <v>2.02</v>
+        <v>1.89</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="R14" t="n">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="S14" t="n">
-        <v>2.76</v>
+        <v>3.3</v>
       </c>
       <c r="T14" t="n">
-        <v>1.05</v>
+        <v>1.72</v>
       </c>
       <c r="U14" t="n">
-        <v>1.05</v>
+        <v>2.12</v>
       </c>
       <c r="V14" t="n">
-        <v>1.25</v>
+        <v>1.47</v>
       </c>
       <c r="W14" t="n">
-        <v>2.12</v>
+        <v>1.58</v>
       </c>
       <c r="X14" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Y14" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Z14" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA14" t="n">
         <v>55</v>
       </c>
-      <c r="AA14" t="n">
-        <v>1000</v>
-      </c>
       <c r="AB14" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC14" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="AE14" t="n">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="AF14" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH14" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="AI14" t="n">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="AJ14" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="AK14" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AL14" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AM14" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN14" t="n">
-        <v>15.5</v>
+        <v>24</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15">
@@ -2413,127 +2413,127 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Yeovil</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Hartlepool</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.28</v>
+        <v>2.96</v>
       </c>
       <c r="G15" t="n">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="I15" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="J15" t="n">
         <v>3.5</v>
       </c>
-      <c r="J15" t="n">
-        <v>3.1</v>
-      </c>
       <c r="K15" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L15" t="n">
         <v>1.32</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>1.1</v>
+        <v>3.9</v>
       </c>
       <c r="O15" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="P15" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="R15" t="n">
-        <v>1.28</v>
+        <v>1.39</v>
       </c>
       <c r="S15" t="n">
-        <v>2.22</v>
+        <v>3.15</v>
       </c>
       <c r="T15" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="U15" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="V15" t="n">
-        <v>1.4</v>
+        <v>1.64</v>
       </c>
       <c r="W15" t="n">
-        <v>1.62</v>
+        <v>1.45</v>
       </c>
       <c r="X15" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z15" t="n">
         <v>20</v>
       </c>
-      <c r="Y15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>970</v>
-      </c>
       <c r="AA15" t="n">
-        <v>85</v>
+        <v>980</v>
       </c>
       <c r="AB15" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC15" t="n">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD15" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH15" t="n">
         <v>21</v>
       </c>
-      <c r="AE15" t="n">
-        <v>970</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>25</v>
-      </c>
       <c r="AI15" t="n">
-        <v>970</v>
+        <v>46</v>
       </c>
       <c r="AJ15" t="n">
-        <v>970</v>
+        <v>65</v>
       </c>
       <c r="AK15" t="n">
-        <v>970</v>
+        <v>44</v>
       </c>
       <c r="AL15" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="AM15" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN15" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="AO15" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Scottish League One</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,60 +2543,60 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Sutton Utd</t>
+          <t>Hamilton</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>East Fife</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.46</v>
+        <v>1.83</v>
       </c>
       <c r="G16" t="n">
-        <v>2.6</v>
+        <v>2.24</v>
       </c>
       <c r="H16" t="n">
-        <v>2.88</v>
+        <v>3.8</v>
       </c>
       <c r="I16" t="n">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="J16" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="K16" t="n">
-        <v>3.7</v>
+        <v>4.8</v>
       </c>
       <c r="L16" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M16" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="O16" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="P16" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.9</v>
+        <v>1.71</v>
       </c>
       <c r="R16" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="S16" t="n">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="T16" t="n">
         <v>1.05</v>
@@ -2605,70 +2605,70 @@
         <v>1.05</v>
       </c>
       <c r="V16" t="n">
-        <v>1.47</v>
+        <v>1.25</v>
       </c>
       <c r="W16" t="n">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="X16" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Y16" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Z16" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AA16" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AD16" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AE16" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AG16" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH16" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AI16" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AK16" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AL16" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AM16" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Scottish League One</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Hamilton</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>East Fife</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.71</v>
+        <v>2.14</v>
       </c>
       <c r="G17" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="H17" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="I17" t="n">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="J17" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="K17" t="n">
-        <v>7.6</v>
+        <v>3.8</v>
       </c>
       <c r="L17" t="n">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="M17" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>3.3</v>
+        <v>4.6</v>
       </c>
       <c r="O17" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P17" t="n">
-        <v>1.96</v>
+        <v>2.2</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="R17" t="n">
-        <v>1.3</v>
+        <v>1.48</v>
       </c>
       <c r="S17" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="T17" t="n">
-        <v>1.05</v>
+        <v>1.69</v>
       </c>
       <c r="U17" t="n">
-        <v>1.05</v>
+        <v>2.38</v>
       </c>
       <c r="V17" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="W17" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="X17" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Y17" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AA17" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB17" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AF17" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AG17" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AI17" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AK17" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AL17" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN17" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18">
@@ -2818,121 +2818,121 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Paris St-G</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.12</v>
+        <v>5.9</v>
       </c>
       <c r="G18" t="n">
-        <v>2.16</v>
+        <v>6</v>
       </c>
       <c r="H18" t="n">
-        <v>3.65</v>
+        <v>1.6</v>
       </c>
       <c r="I18" t="n">
-        <v>3.75</v>
+        <v>1.62</v>
       </c>
       <c r="J18" t="n">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
       <c r="K18" t="n">
-        <v>3.85</v>
+        <v>4.8</v>
       </c>
       <c r="L18" t="n">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="M18" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>4.9</v>
+        <v>6.2</v>
       </c>
       <c r="O18" t="n">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="P18" t="n">
-        <v>2.28</v>
+        <v>2.76</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.76</v>
+        <v>1.55</v>
       </c>
       <c r="R18" t="n">
-        <v>1.52</v>
+        <v>1.71</v>
       </c>
       <c r="S18" t="n">
-        <v>2.86</v>
+        <v>2.36</v>
       </c>
       <c r="T18" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="U18" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="V18" t="n">
-        <v>1.36</v>
+        <v>2.62</v>
       </c>
       <c r="W18" t="n">
-        <v>1.87</v>
+        <v>1.2</v>
       </c>
       <c r="X18" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="Y18" t="n">
-        <v>17</v>
+        <v>12.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="AA18" t="n">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="AB18" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="AC18" t="n">
-        <v>8.6</v>
+        <v>11</v>
       </c>
       <c r="AD18" t="n">
-        <v>14.5</v>
+        <v>9.6</v>
       </c>
       <c r="AE18" t="n">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="AF18" t="n">
-        <v>14.5</v>
+        <v>55</v>
       </c>
       <c r="AG18" t="n">
-        <v>10.5</v>
+        <v>22</v>
       </c>
       <c r="AH18" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="AJ18" t="n">
-        <v>25</v>
+        <v>140</v>
       </c>
       <c r="AK18" t="n">
-        <v>19.5</v>
+        <v>65</v>
       </c>
       <c r="AL18" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AM18" t="n">
         <v>70</v>
       </c>
       <c r="AN18" t="n">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="AO18" t="n">
-        <v>32</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="19">
@@ -2953,127 +2953,127 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>5.8</v>
+        <v>3.95</v>
       </c>
       <c r="G19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H19" t="n">
-        <v>1.61</v>
+        <v>1.96</v>
       </c>
       <c r="I19" t="n">
-        <v>1.62</v>
+        <v>1.97</v>
       </c>
       <c r="J19" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="K19" t="n">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="L19" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="M19" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N19" t="n">
-        <v>6</v>
+        <v>5.2</v>
       </c>
       <c r="O19" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="P19" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.57</v>
+        <v>1.69</v>
       </c>
       <c r="R19" t="n">
-        <v>1.68</v>
+        <v>1.56</v>
       </c>
       <c r="S19" t="n">
-        <v>2.4</v>
+        <v>2.72</v>
       </c>
       <c r="T19" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="U19" t="n">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="V19" t="n">
-        <v>2.6</v>
+        <v>2.02</v>
       </c>
       <c r="W19" t="n">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="X19" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Y19" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z19" t="n">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="AA19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH19" t="n">
         <v>16</v>
       </c>
-      <c r="AB19" t="n">
-        <v>28</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>22</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AI19" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AJ19" t="n">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="AK19" t="n">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="AL19" t="n">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="AM19" t="n">
         <v>70</v>
       </c>
       <c r="AN19" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="AO19" t="n">
-        <v>6.2</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Dutch Eredivisie</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,126 +3083,126 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:01:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Sparta Rotterdam</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>NEC Nijmegen</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.95</v>
+        <v>2.58</v>
       </c>
       <c r="G20" t="n">
-        <v>4.1</v>
+        <v>2.62</v>
       </c>
       <c r="H20" t="n">
-        <v>1.96</v>
+        <v>2.96</v>
       </c>
       <c r="I20" t="n">
-        <v>1.97</v>
+        <v>3</v>
       </c>
       <c r="J20" t="n">
-        <v>4.1</v>
+        <v>3.55</v>
       </c>
       <c r="K20" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="L20" t="n">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="M20" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>5.6</v>
+        <v>2.32</v>
       </c>
       <c r="O20" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P20" t="n">
-        <v>2.54</v>
+        <v>2.32</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.63</v>
+        <v>1.72</v>
       </c>
       <c r="R20" t="n">
-        <v>1.62</v>
+        <v>1.08</v>
       </c>
       <c r="S20" t="n">
-        <v>2.56</v>
+        <v>1.73</v>
       </c>
       <c r="T20" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W20" t="n">
         <v>1.61</v>
       </c>
-      <c r="U20" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="V20" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="W20" t="n">
-        <v>1.32</v>
-      </c>
       <c r="X20" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Y20" t="n">
-        <v>13</v>
+        <v>16.5</v>
       </c>
       <c r="Z20" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD20" t="n">
         <v>14</v>
       </c>
-      <c r="AA20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>10</v>
-      </c>
       <c r="AE20" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AF20" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AG20" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AH20" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="AJ20" t="n">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="AK20" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AL20" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AM20" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AN20" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AO20" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
@@ -3232,28 +3232,28 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="G21" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="H21" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="I21" t="n">
-        <v>6.2</v>
+        <v>5.4</v>
       </c>
       <c r="J21" t="n">
         <v>3.3</v>
       </c>
       <c r="K21" t="n">
-        <v>950</v>
+        <v>3.55</v>
       </c>
       <c r="L21" t="n">
         <v>1.01</v>
       </c>
       <c r="M21" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N21" t="n">
         <v>2.72</v>
@@ -3265,19 +3265,19 @@
         <v>1.58</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.36</v>
+        <v>2.44</v>
       </c>
       <c r="R21" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="S21" t="n">
         <v>5</v>
       </c>
       <c r="T21" t="n">
-        <v>1.8</v>
+        <v>2.14</v>
       </c>
       <c r="U21" t="n">
-        <v>1.53</v>
+        <v>1.75</v>
       </c>
       <c r="V21" t="n">
         <v>1.23</v>
@@ -3304,7 +3304,7 @@
         <v>9</v>
       </c>
       <c r="AD21" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AE21" t="n">
         <v>1000</v>
@@ -3331,7 +3331,7 @@
         <v>65</v>
       </c>
       <c r="AM21" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AN21" t="n">
         <v>26</v>
@@ -3370,7 +3370,7 @@
         <v>3.55</v>
       </c>
       <c r="G22" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="H22" t="n">
         <v>2.18</v>
@@ -3388,31 +3388,31 @@
         <v>1.01</v>
       </c>
       <c r="M22" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N22" t="n">
-        <v>2.26</v>
+        <v>2.74</v>
       </c>
       <c r="O22" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="P22" t="n">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.26</v>
+        <v>2.4</v>
       </c>
       <c r="R22" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="S22" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="T22" t="n">
-        <v>1.05</v>
+        <v>2.06</v>
       </c>
       <c r="U22" t="n">
-        <v>1.05</v>
+        <v>1.8</v>
       </c>
       <c r="V22" t="n">
         <v>1.68</v>
@@ -3502,46 +3502,46 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="G23" t="n">
         <v>2.38</v>
       </c>
       <c r="H23" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I23" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J23" t="n">
         <v>3.1</v>
       </c>
       <c r="K23" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="L23" t="n">
         <v>1.46</v>
       </c>
       <c r="M23" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="N23" t="n">
-        <v>2.34</v>
+        <v>2.62</v>
       </c>
       <c r="O23" t="n">
         <v>1.51</v>
       </c>
       <c r="P23" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.06</v>
+        <v>2.4</v>
       </c>
       <c r="R23" t="n">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="S23" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="T23" t="n">
         <v>2.12</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO23"/>
+  <dimension ref="A1:AO24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,16 +670,16 @@
         <v>2.86</v>
       </c>
       <c r="G2" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="H2" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="I2" t="n">
         <v>2.66</v>
       </c>
       <c r="J2" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K2" t="n">
         <v>3.7</v>
@@ -691,67 +691,67 @@
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="P2" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="R2" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S2" t="n">
-        <v>2.98</v>
+        <v>2.88</v>
       </c>
       <c r="T2" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="U2" t="n">
-        <v>2.44</v>
+        <v>2.52</v>
       </c>
       <c r="V2" t="n">
         <v>1.6</v>
       </c>
       <c r="W2" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="X2" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Z2" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AA2" t="n">
         <v>38</v>
       </c>
       <c r="AB2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD2" t="n">
         <v>12</v>
       </c>
       <c r="AE2" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AF2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI2" t="n">
         <v>34</v>
@@ -763,16 +763,16 @@
         <v>28</v>
       </c>
       <c r="AL2" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM2" t="n">
         <v>70</v>
       </c>
       <c r="AN2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -805,7 +805,7 @@
         <v>16.5</v>
       </c>
       <c r="G3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H3" t="n">
         <v>1.17</v>
@@ -814,10 +814,10 @@
         <v>1.2</v>
       </c>
       <c r="J3" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="K3" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="L3" t="n">
         <v>1.19</v>
@@ -826,7 +826,7 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="O3" t="n">
         <v>1.13</v>
@@ -838,19 +838,19 @@
         <v>1.38</v>
       </c>
       <c r="R3" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="S3" t="n">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="T3" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="U3" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="V3" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="W3" t="n">
         <v>1.04</v>
@@ -859,13 +859,13 @@
         <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Z3" t="n">
         <v>10.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AB3" t="n">
         <v>1000</v>
@@ -874,10 +874,10 @@
         <v>980</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AF3" t="n">
         <v>1000</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Tunisian Ligue Professionelle 1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,72 +923,72 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Umraniyespor</t>
+          <t>AS Solimane</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Boluspor</t>
+          <t>Sportive De Tunis</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.42</v>
+        <v>1.04</v>
       </c>
       <c r="G4" t="n">
-        <v>3.35</v>
+        <v>1000</v>
       </c>
       <c r="H4" t="n">
-        <v>2.34</v>
+        <v>1.04</v>
       </c>
       <c r="I4" t="n">
-        <v>3.15</v>
+        <v>990</v>
       </c>
       <c r="J4" t="n">
-        <v>3.2</v>
+        <v>1.03</v>
       </c>
       <c r="K4" t="n">
-        <v>6.2</v>
+        <v>950</v>
       </c>
       <c r="L4" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>2.8</v>
+        <v>1.25</v>
       </c>
       <c r="O4" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>1.81</v>
+        <v>1.24</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.74</v>
+        <v>1.3</v>
       </c>
       <c r="R4" t="n">
-        <v>1.29</v>
+        <v>1.12</v>
       </c>
       <c r="S4" t="n">
-        <v>2.94</v>
+        <v>1.3</v>
       </c>
       <c r="T4" t="n">
         <v>1.05</v>
       </c>
       <c r="U4" t="n">
-        <v>2.3</v>
+        <v>1.05</v>
       </c>
       <c r="V4" t="n">
-        <v>1.47</v>
+        <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>1.43</v>
+        <v>1.01</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -997,10 +997,10 @@
         <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
         <v>1000</v>
@@ -1012,10 +1012,10 @@
         <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
         <v>1000</v>
@@ -1024,22 +1024,22 @@
         <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Istanbulspor</t>
+          <t>Umraniyespor</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Erokspor A.S</t>
+          <t>Boluspor</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.95</v>
+        <v>2.66</v>
       </c>
       <c r="G5" t="n">
-        <v>4.8</v>
+        <v>2.98</v>
       </c>
       <c r="H5" t="n">
-        <v>1.82</v>
+        <v>2.56</v>
       </c>
       <c r="I5" t="n">
-        <v>1.88</v>
+        <v>2.86</v>
       </c>
       <c r="J5" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="K5" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="P5" t="n">
-        <v>2.14</v>
+        <v>1.96</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.7</v>
+        <v>1.86</v>
       </c>
       <c r="R5" t="n">
-        <v>1.45</v>
+        <v>1.37</v>
       </c>
       <c r="S5" t="n">
-        <v>2.52</v>
+        <v>3.2</v>
       </c>
       <c r="T5" t="n">
-        <v>1.66</v>
+        <v>1.74</v>
       </c>
       <c r="U5" t="n">
         <v>2.2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.98</v>
+        <v>1.54</v>
       </c>
       <c r="W5" t="n">
-        <v>1.26</v>
+        <v>1.51</v>
       </c>
       <c r="X5" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z5" t="n">
         <v>23</v>
       </c>
-      <c r="Y5" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>16</v>
-      </c>
       <c r="AA5" t="n">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="AB5" t="n">
-        <v>23</v>
+        <v>14.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD5" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AF5" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>13.5</v>
       </c>
       <c r="AH5" t="n">
         <v>21</v>
       </c>
       <c r="AI5" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK5" t="n">
         <v>38</v>
       </c>
-      <c r="AJ5" t="n">
-        <v>110</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>60</v>
-      </c>
       <c r="AL5" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="AM5" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="AO5" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Istanbulspor</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Erokspor A.S</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
       <c r="H6" t="n">
-        <v>2.14</v>
+        <v>1.83</v>
       </c>
       <c r="I6" t="n">
-        <v>2.18</v>
+        <v>1.88</v>
       </c>
       <c r="J6" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="K6" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.39</v>
+        <v>1.28</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
         <v>4.4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="P6" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="R6" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S6" t="n">
-        <v>3.1</v>
+        <v>2.76</v>
       </c>
       <c r="T6" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="U6" t="n">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.84</v>
+        <v>2</v>
       </c>
       <c r="W6" t="n">
-        <v>1.35</v>
+        <v>1.26</v>
       </c>
       <c r="X6" t="n">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="Y6" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AA6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB6" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.199999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AE6" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>42</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH6" t="n">
         <v>21</v>
       </c>
-      <c r="AF6" t="n">
-        <v>27</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AI6" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AJ6" t="n">
+        <v>110</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL6" t="n">
         <v>65</v>
       </c>
-      <c r="AK6" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL6" t="n">
+      <c r="AM6" t="n">
+        <v>95</v>
+      </c>
+      <c r="AN6" t="n">
         <v>46</v>
       </c>
-      <c r="AM6" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>36</v>
-      </c>
       <c r="AO6" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>French National</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Stade Briochin</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Fleury Merogis</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="F7" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N7" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S7" t="n">
         <v>3.1</v>
       </c>
-      <c r="G7" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S7" t="n">
-        <v>4.2</v>
-      </c>
       <c r="T7" t="n">
-        <v>1.89</v>
+        <v>1.71</v>
       </c>
       <c r="U7" t="n">
-        <v>1.91</v>
+        <v>2.32</v>
       </c>
       <c r="V7" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="W7" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="X7" t="n">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z7" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AA7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK7" t="n">
         <v>40</v>
       </c>
-      <c r="AB7" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE7" t="n">
+      <c r="AL7" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN7" t="n">
         <v>36</v>
       </c>
-      <c r="AF7" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>80</v>
-      </c>
       <c r="AO7" t="n">
-        <v>32</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Scottish League Two</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,114 +1463,114 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Elgin City FC</t>
+          <t>Stade Briochin</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>East Kilbride</t>
+          <t>Fleury Merogis</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.58</v>
+        <v>3.45</v>
       </c>
       <c r="G8" t="n">
-        <v>2.98</v>
+        <v>4.6</v>
       </c>
       <c r="H8" t="n">
-        <v>2.46</v>
+        <v>2.2</v>
       </c>
       <c r="I8" t="n">
-        <v>2.84</v>
+        <v>2.62</v>
       </c>
       <c r="J8" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="K8" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S8" t="n">
         <v>4.2</v>
       </c>
-      <c r="L8" t="n">
+      <c r="T8" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V8" t="n">
         <v>1.01</v>
       </c>
-      <c r="M8" t="n">
+      <c r="W8" t="n">
         <v>1.01</v>
       </c>
-      <c r="N8" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="S8" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.5</v>
-      </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD8" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ8" t="n">
         <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL8" t="n">
         <v>1000</v>
@@ -1579,16 +1579,16 @@
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Scottish League One</t>
+          <t>Scottish League Two</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1603,127 +1603,127 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Cove Rangers</t>
+          <t>Elgin City FC</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Montrose</t>
+          <t>East Kilbride</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.2</v>
+        <v>2.58</v>
       </c>
       <c r="G9" t="n">
-        <v>2.4</v>
+        <v>3.05</v>
       </c>
       <c r="H9" t="n">
-        <v>3.25</v>
+        <v>2.46</v>
       </c>
       <c r="I9" t="n">
-        <v>3.65</v>
+        <v>2.9</v>
       </c>
       <c r="J9" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="K9" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="L9" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="O9" t="n">
-        <v>1.31</v>
+        <v>1.23</v>
       </c>
       <c r="P9" t="n">
-        <v>1.95</v>
+        <v>2.18</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.89</v>
+        <v>1.66</v>
       </c>
       <c r="R9" t="n">
-        <v>1.37</v>
+        <v>1.47</v>
       </c>
       <c r="S9" t="n">
-        <v>3.05</v>
+        <v>2.66</v>
       </c>
       <c r="T9" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="U9" t="n">
-        <v>2.16</v>
+        <v>2.36</v>
       </c>
       <c r="V9" t="n">
-        <v>1.37</v>
+        <v>1.53</v>
       </c>
       <c r="W9" t="n">
-        <v>1.71</v>
+        <v>1.49</v>
       </c>
       <c r="X9" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Scottish Championship</t>
+          <t>Scottish League One</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,127 +1738,127 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Morton</t>
+          <t>Cove Rangers</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Dunfermline</t>
+          <t>Montrose</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.1</v>
+        <v>2.22</v>
       </c>
       <c r="G10" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K10" t="n">
         <v>3.8</v>
       </c>
-      <c r="H10" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.65</v>
-      </c>
       <c r="L10" t="n">
-        <v>1.52</v>
+        <v>1.4</v>
       </c>
       <c r="M10" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>2.66</v>
+        <v>3.7</v>
       </c>
       <c r="O10" t="n">
-        <v>1.45</v>
+        <v>1.31</v>
       </c>
       <c r="P10" t="n">
-        <v>1.63</v>
+        <v>1.93</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.34</v>
+        <v>1.91</v>
       </c>
       <c r="R10" t="n">
-        <v>1.24</v>
+        <v>1.36</v>
       </c>
       <c r="S10" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="T10" t="n">
-        <v>1.94</v>
+        <v>1.73</v>
       </c>
       <c r="U10" t="n">
-        <v>1.9</v>
+        <v>2.16</v>
       </c>
       <c r="V10" t="n">
-        <v>1.58</v>
+        <v>1.37</v>
       </c>
       <c r="W10" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="X10" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Y10" t="n">
-        <v>10.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AB10" t="n">
         <v>12.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.800000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD10" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM10" t="n">
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,121 +1873,121 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>FC Halifax Town</t>
+          <t>Morton</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Dunfermline</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.59</v>
+        <v>3.15</v>
       </c>
       <c r="G11" t="n">
-        <v>1.67</v>
+        <v>3.65</v>
       </c>
       <c r="H11" t="n">
-        <v>5.5</v>
+        <v>2.48</v>
       </c>
       <c r="I11" t="n">
-        <v>6.4</v>
+        <v>2.72</v>
       </c>
       <c r="J11" t="n">
-        <v>4.3</v>
+        <v>3.05</v>
       </c>
       <c r="K11" t="n">
-        <v>4.9</v>
+        <v>3.35</v>
       </c>
       <c r="L11" t="n">
-        <v>1.28</v>
+        <v>1.43</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="N11" t="n">
-        <v>4.8</v>
+        <v>2.86</v>
       </c>
       <c r="O11" t="n">
-        <v>1.22</v>
+        <v>1.46</v>
       </c>
       <c r="P11" t="n">
-        <v>2.32</v>
+        <v>1.63</v>
       </c>
       <c r="Q11" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="V11" t="n">
         <v>1.58</v>
       </c>
-      <c r="R11" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="S11" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.18</v>
-      </c>
       <c r="W11" t="n">
-        <v>2.48</v>
+        <v>1.39</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y11" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="AA11" t="n">
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>970</v>
+        <v>8.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="AE11" t="n">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="AF11" t="n">
-        <v>970</v>
+        <v>27</v>
       </c>
       <c r="AG11" t="n">
-        <v>10.5</v>
+        <v>18</v>
       </c>
       <c r="AH11" t="n">
-        <v>970</v>
+        <v>25</v>
       </c>
       <c r="AI11" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
@@ -2008,121 +2008,121 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>FC Halifax Town</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Scunthorpe</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.79</v>
+        <v>1.59</v>
       </c>
       <c r="G12" t="n">
-        <v>1.87</v>
+        <v>1.68</v>
       </c>
       <c r="H12" t="n">
-        <v>4.7</v>
+        <v>5.5</v>
       </c>
       <c r="I12" t="n">
-        <v>5.2</v>
+        <v>6.6</v>
       </c>
       <c r="J12" t="n">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="K12" t="n">
-        <v>4.2</v>
+        <v>4.9</v>
       </c>
       <c r="L12" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="O12" t="n">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="P12" t="n">
-        <v>2.02</v>
+        <v>2.3</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.83</v>
+        <v>1.58</v>
       </c>
       <c r="R12" t="n">
-        <v>1.4</v>
+        <v>1.52</v>
       </c>
       <c r="S12" t="n">
-        <v>3.05</v>
+        <v>2.64</v>
       </c>
       <c r="T12" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="U12" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="V12" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="W12" t="n">
-        <v>2.14</v>
+        <v>2.46</v>
       </c>
       <c r="X12" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="Z12" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="AA12" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC12" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
       <c r="AE12" t="n">
         <v>80</v>
       </c>
       <c r="AF12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG12" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH12" t="n">
         <v>23</v>
       </c>
       <c r="AI12" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>970</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AO12" t="n">
         <v>80</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>42</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>85</v>
       </c>
     </row>
     <row r="13">
@@ -2143,121 +2143,121 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Hartlepool</t>
+          <t>Scunthorpe</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.28</v>
+        <v>1.79</v>
       </c>
       <c r="G13" t="n">
-        <v>2.6</v>
+        <v>1.88</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>4.7</v>
       </c>
       <c r="I13" t="n">
-        <v>3.5</v>
+        <v>5.3</v>
       </c>
       <c r="J13" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="K13" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="L13" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="M13" t="n">
         <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O13" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="P13" t="n">
-        <v>1.92</v>
+        <v>2.04</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.92</v>
+        <v>1.8</v>
       </c>
       <c r="R13" t="n">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="S13" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="T13" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="U13" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="V13" t="n">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="W13" t="n">
-        <v>1.62</v>
+        <v>2.12</v>
       </c>
       <c r="X13" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="Y13" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="Z13" t="n">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="AA13" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="AB13" t="n">
         <v>11.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.6</v>
+        <v>11</v>
       </c>
       <c r="AD13" t="n">
-        <v>17.5</v>
+        <v>24</v>
       </c>
       <c r="AE13" t="n">
-        <v>970</v>
+        <v>80</v>
       </c>
       <c r="AF13" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AG13" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI13" t="n">
-        <v>970</v>
+        <v>80</v>
       </c>
       <c r="AJ13" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="AK13" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="AL13" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="AM13" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN13" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="AO13" t="n">
-        <v>970</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14">
@@ -2278,112 +2278,112 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Sutton Utd</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.46</v>
+        <v>2.28</v>
       </c>
       <c r="G14" t="n">
-        <v>2.72</v>
+        <v>2.6</v>
       </c>
       <c r="H14" t="n">
-        <v>2.86</v>
+        <v>3</v>
       </c>
       <c r="I14" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="J14" t="n">
         <v>3.3</v>
       </c>
       <c r="K14" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="L14" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="M14" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O14" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P14" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="Q14" t="n">
         <v>1.9</v>
       </c>
       <c r="R14" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="S14" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="T14" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="U14" t="n">
         <v>2.12</v>
       </c>
       <c r="V14" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="W14" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="X14" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="Z14" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AA14" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AB14" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>14</v>
+        <v>17.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AF14" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AG14" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AI14" t="n">
-        <v>55</v>
+        <v>970</v>
       </c>
       <c r="AJ14" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
       <c r="AK14" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AL14" t="n">
-        <v>42</v>
+        <v>970</v>
       </c>
       <c r="AM14" t="n">
         <v>110</v>
@@ -2392,7 +2392,7 @@
         <v>24</v>
       </c>
       <c r="AO14" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
     </row>
     <row r="15">
@@ -2413,127 +2413,127 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Yeovil</t>
+          <t>Sutton Utd</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.96</v>
+        <v>2.5</v>
       </c>
       <c r="G15" t="n">
-        <v>3.25</v>
+        <v>2.74</v>
       </c>
       <c r="H15" t="n">
-        <v>2.38</v>
+        <v>2.86</v>
       </c>
       <c r="I15" t="n">
-        <v>2.56</v>
+        <v>3.2</v>
       </c>
       <c r="J15" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K15" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="L15" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>3.9</v>
+        <v>3.55</v>
       </c>
       <c r="O15" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="P15" t="n">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="R15" t="n">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="S15" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="T15" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U15" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="V15" t="n">
-        <v>1.64</v>
+        <v>1.46</v>
       </c>
       <c r="W15" t="n">
-        <v>1.45</v>
+        <v>1.57</v>
       </c>
       <c r="X15" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y15" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG15" t="n">
         <v>14</v>
       </c>
-      <c r="Z15" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>980</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF15" t="n">
+      <c r="AH15" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN15" t="n">
         <v>27</v>
       </c>
-      <c r="AG15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>44</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN15" t="n">
+      <c r="AO15" t="n">
         <v>36</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>24</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Scottish League One</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,105 +2543,105 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Hamilton</t>
+          <t>Yeovil</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>East Fife</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.83</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
-        <v>2.24</v>
+        <v>3.3</v>
       </c>
       <c r="H16" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K16" t="n">
         <v>3.8</v>
       </c>
-      <c r="I16" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K16" t="n">
-        <v>4.8</v>
-      </c>
       <c r="L16" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O16" t="n">
         <v>1.29</v>
       </c>
-      <c r="M16" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N16" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.27</v>
-      </c>
       <c r="P16" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.71</v>
+        <v>1.87</v>
       </c>
       <c r="R16" t="n">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="S16" t="n">
-        <v>2.4</v>
+        <v>2.84</v>
       </c>
       <c r="T16" t="n">
-        <v>1.05</v>
+        <v>1.7</v>
       </c>
       <c r="U16" t="n">
-        <v>1.05</v>
+        <v>2.2</v>
       </c>
       <c r="V16" t="n">
-        <v>1.25</v>
+        <v>1.67</v>
       </c>
       <c r="W16" t="n">
-        <v>1.8</v>
+        <v>1.43</v>
       </c>
       <c r="X16" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="Y16" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AA16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB16" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AC16" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD16" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF16" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AG16" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AH16" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI16" t="n">
         <v>1000</v>
@@ -2656,19 +2656,19 @@
         <v>1000</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN16" t="n">
         <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Scottish League One</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Hamilton</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>East Fife</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.14</v>
+        <v>1.9</v>
       </c>
       <c r="G17" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="H17" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I17" t="n">
-        <v>3.75</v>
+        <v>5.4</v>
       </c>
       <c r="J17" t="n">
-        <v>3.75</v>
+        <v>3.15</v>
       </c>
       <c r="K17" t="n">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
       <c r="L17" t="n">
-        <v>1.37</v>
+        <v>1.31</v>
       </c>
       <c r="M17" t="n">
         <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>4.6</v>
+        <v>3.35</v>
       </c>
       <c r="O17" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="P17" t="n">
-        <v>2.2</v>
+        <v>1.94</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="R17" t="n">
-        <v>1.48</v>
+        <v>1.37</v>
       </c>
       <c r="S17" t="n">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="T17" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="U17" t="n">
-        <v>2.38</v>
+        <v>2.08</v>
       </c>
       <c r="V17" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="W17" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="X17" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Y17" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Z17" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AA17" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AD17" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AE17" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH17" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AI17" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AL17" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM17" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
@@ -2818,121 +2818,121 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>5.9</v>
+        <v>2.16</v>
       </c>
       <c r="G18" t="n">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="H18" t="n">
-        <v>1.6</v>
+        <v>3.65</v>
       </c>
       <c r="I18" t="n">
-        <v>1.62</v>
+        <v>3.7</v>
       </c>
       <c r="J18" t="n">
-        <v>4.7</v>
+        <v>3.7</v>
       </c>
       <c r="K18" t="n">
-        <v>4.8</v>
+        <v>3.75</v>
       </c>
       <c r="L18" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="M18" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>6.2</v>
+        <v>4.6</v>
       </c>
       <c r="O18" t="n">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="P18" t="n">
-        <v>2.76</v>
+        <v>2.2</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="R18" t="n">
-        <v>1.71</v>
+        <v>1.47</v>
       </c>
       <c r="S18" t="n">
-        <v>2.36</v>
+        <v>3</v>
       </c>
       <c r="T18" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="U18" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="V18" t="n">
-        <v>2.62</v>
+        <v>1.37</v>
       </c>
       <c r="W18" t="n">
-        <v>1.2</v>
+        <v>1.83</v>
       </c>
       <c r="X18" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ18" t="n">
         <v>26</v>
       </c>
-      <c r="Y18" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>16</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>22</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>25</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>140</v>
-      </c>
       <c r="AK18" t="n">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="AL18" t="n">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="AM18" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN18" t="n">
-        <v>50</v>
+        <v>13.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>5.9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
@@ -2953,127 +2953,127 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Paris St-G</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.95</v>
+        <v>6</v>
       </c>
       <c r="G19" t="n">
-        <v>4</v>
+        <v>6.2</v>
       </c>
       <c r="H19" t="n">
-        <v>1.96</v>
+        <v>1.59</v>
       </c>
       <c r="I19" t="n">
-        <v>1.97</v>
+        <v>1.6</v>
       </c>
       <c r="J19" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="K19" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="L19" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="M19" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="O19" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="P19" t="n">
-        <v>2.4</v>
+        <v>2.78</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.69</v>
+        <v>1.55</v>
       </c>
       <c r="R19" t="n">
-        <v>1.56</v>
+        <v>1.72</v>
       </c>
       <c r="S19" t="n">
-        <v>2.72</v>
+        <v>2.36</v>
       </c>
       <c r="T19" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="U19" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="V19" t="n">
-        <v>2.02</v>
+        <v>2.66</v>
       </c>
       <c r="W19" t="n">
-        <v>1.33</v>
+        <v>1.19</v>
       </c>
       <c r="X19" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG19" t="n">
         <v>22</v>
       </c>
-      <c r="Y19" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>14</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE19" t="n">
+      <c r="AH19" t="n">
         <v>17.5</v>
       </c>
-      <c r="AF19" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>16</v>
-      </c>
       <c r="AI19" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AJ19" t="n">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="AK19" t="n">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="AL19" t="n">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="AM19" t="n">
         <v>70</v>
       </c>
       <c r="AN19" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="AO19" t="n">
-        <v>9.6</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Dutch Eredivisie</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>17:01:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Sparta Rotterdam</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>NEC Nijmegen</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.58</v>
+        <v>3.95</v>
       </c>
       <c r="G20" t="n">
-        <v>2.62</v>
+        <v>4.1</v>
       </c>
       <c r="H20" t="n">
-        <v>2.96</v>
+        <v>1.96</v>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>1.97</v>
       </c>
       <c r="J20" t="n">
-        <v>3.55</v>
+        <v>4.1</v>
       </c>
       <c r="K20" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="L20" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M20" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>2.32</v>
+        <v>5.2</v>
       </c>
       <c r="O20" t="n">
         <v>1.22</v>
       </c>
       <c r="P20" t="n">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="R20" t="n">
-        <v>1.08</v>
+        <v>1.56</v>
       </c>
       <c r="S20" t="n">
-        <v>1.73</v>
+        <v>2.72</v>
       </c>
       <c r="T20" t="n">
-        <v>1.05</v>
+        <v>1.63</v>
       </c>
       <c r="U20" t="n">
-        <v>1.05</v>
+        <v>2.48</v>
       </c>
       <c r="V20" t="n">
-        <v>1.5</v>
+        <v>2.02</v>
       </c>
       <c r="W20" t="n">
-        <v>1.61</v>
+        <v>1.32</v>
       </c>
       <c r="X20" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="Y20" t="n">
-        <v>16.5</v>
+        <v>12</v>
       </c>
       <c r="Z20" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="AA20" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AB20" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AC20" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="AD20" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AE20" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AF20" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AG20" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH20" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AI20" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="AJ20" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK20" t="n">
         <v>42</v>
       </c>
-      <c r="AK20" t="n">
-        <v>27</v>
-      </c>
       <c r="AL20" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AM20" t="n">
         <v>70</v>
       </c>
       <c r="AN20" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO20" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Dutch Eredivisie</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,123 +3218,123 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>17:01:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Alianza FC Valledupar</t>
+          <t>Sparta Rotterdam</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Cucuta Deportivo</t>
+          <t>NEC Nijmegen</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.91</v>
+        <v>2.46</v>
       </c>
       <c r="G21" t="n">
-        <v>2.02</v>
+        <v>2.62</v>
       </c>
       <c r="H21" t="n">
-        <v>4.8</v>
+        <v>2.98</v>
       </c>
       <c r="I21" t="n">
-        <v>5.4</v>
+        <v>3.2</v>
       </c>
       <c r="J21" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="K21" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L21" t="n">
         <v>1.01</v>
       </c>
       <c r="M21" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>2.72</v>
+        <v>2.36</v>
       </c>
       <c r="O21" t="n">
-        <v>1.49</v>
+        <v>1.22</v>
       </c>
       <c r="P21" t="n">
-        <v>1.58</v>
+        <v>2.36</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.44</v>
+        <v>1.72</v>
       </c>
       <c r="R21" t="n">
-        <v>1.21</v>
+        <v>1.08</v>
       </c>
       <c r="S21" t="n">
-        <v>5</v>
+        <v>1.73</v>
       </c>
       <c r="T21" t="n">
-        <v>2.14</v>
+        <v>1.05</v>
       </c>
       <c r="U21" t="n">
-        <v>1.75</v>
+        <v>1.05</v>
       </c>
       <c r="V21" t="n">
-        <v>1.23</v>
+        <v>1.46</v>
       </c>
       <c r="W21" t="n">
-        <v>1.98</v>
+        <v>1.62</v>
       </c>
       <c r="X21" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="Y21" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="AA21" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>7.8</v>
+        <v>16.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="AE21" t="n">
         <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AG21" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH21" t="n">
-        <v>29</v>
+        <v>17.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="AJ21" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AK21" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AL21" t="n">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="AM21" t="n">
-        <v>220</v>
+        <v>70</v>
       </c>
       <c r="AN21" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AO21" t="n">
         <v>1000</v>
@@ -3353,123 +3353,123 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Jaguares de Cordoba</t>
+          <t>Alianza FC Valledupar</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Cucuta Deportivo</t>
         </is>
       </c>
       <c r="F22" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I22" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K22" t="n">
         <v>3.55</v>
       </c>
-      <c r="G22" t="n">
-        <v>4</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="J22" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K22" t="n">
-        <v>3.45</v>
-      </c>
       <c r="L22" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="M22" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="N22" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="O22" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="P22" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.4</v>
+        <v>2.28</v>
       </c>
       <c r="R22" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S22" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="T22" t="n">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="U22" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V22" t="n">
-        <v>1.68</v>
+        <v>1.23</v>
       </c>
       <c r="W22" t="n">
-        <v>1.36</v>
+        <v>1.98</v>
       </c>
       <c r="X22" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Y22" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="Z22" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AA22" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AB22" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AD22" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AE22" t="n">
         <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AI22" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ22" t="n">
-        <v>110</v>
+        <v>28</v>
       </c>
       <c r="AK22" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AL22" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="AM22" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="AN22" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AO22" t="n">
         <v>1000</v>
@@ -3478,135 +3478,270 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Jaguares de Cordoba</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Santa Fe</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G23" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N23" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X23" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>110</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>210</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
           <t>Colombian Primera B</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>2026-02-17</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>22:10:00</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>Boca Juniors de Cali</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>Orsomarso</t>
         </is>
       </c>
-      <c r="F23" t="n">
+      <c r="F24" t="n">
         <v>2.22</v>
       </c>
-      <c r="G23" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="H23" t="n">
+      <c r="G24" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="H24" t="n">
         <v>3.6</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I24" t="n">
         <v>4.2</v>
       </c>
-      <c r="J23" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="J24" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K24" t="n">
         <v>3.45</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L24" t="n">
         <v>1.46</v>
       </c>
-      <c r="M23" t="n">
+      <c r="M24" t="n">
         <v>1.11</v>
       </c>
-      <c r="N23" t="n">
+      <c r="N24" t="n">
         <v>2.62</v>
       </c>
-      <c r="O23" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R23" t="n">
+      <c r="O24" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="R24" t="n">
         <v>1.19</v>
       </c>
-      <c r="S23" t="n">
+      <c r="S24" t="n">
         <v>4.5</v>
       </c>
-      <c r="T23" t="n">
+      <c r="T24" t="n">
         <v>2.12</v>
       </c>
-      <c r="U23" t="n">
+      <c r="U24" t="n">
         <v>1.75</v>
       </c>
-      <c r="V23" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="W23" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="X23" t="n">
+      <c r="V24" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X24" t="n">
         <v>11</v>
       </c>
-      <c r="Y23" t="n">
+      <c r="Y24" t="n">
         <v>12.5</v>
       </c>
-      <c r="Z23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB23" t="n">
+      <c r="Z24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB24" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="AC23" t="n">
+      <c r="AC24" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="AD23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO23" t="n">
+      <c r="AD24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO24" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-17.xlsx
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.86</v>
+        <v>2.94</v>
       </c>
       <c r="G2" t="n">
-        <v>2.88</v>
+        <v>2.98</v>
       </c>
       <c r="H2" t="n">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="I2" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="J2" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K2" t="n">
         <v>3.7</v>
@@ -691,46 +691,46 @@
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P2" t="n">
         <v>2.24</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="R2" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W2" t="n">
         <v>1.5</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.53</v>
       </c>
       <c r="X2" t="n">
         <v>18.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z2" t="n">
         <v>18.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB2" t="n">
         <v>15</v>
@@ -742,25 +742,25 @@
         <v>12</v>
       </c>
       <c r="AE2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF2" t="n">
         <v>21</v>
       </c>
       <c r="AG2" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH2" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AI2" t="n">
         <v>34</v>
       </c>
       <c r="AJ2" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AK2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL2" t="n">
         <v>36</v>
@@ -772,7 +772,7 @@
         <v>21</v>
       </c>
       <c r="AO2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -937,19 +937,19 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.04</v>
+        <v>1.5</v>
       </c>
       <c r="G4" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="H4" t="n">
         <v>1.04</v>
       </c>
       <c r="I4" t="n">
-        <v>990</v>
+        <v>12</v>
       </c>
       <c r="J4" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="K4" t="n">
         <v>950</v>
@@ -970,13 +970,13 @@
         <v>1.24</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="R4" t="n">
         <v>1.12</v>
       </c>
       <c r="S4" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="T4" t="n">
         <v>1.05</v>
@@ -985,7 +985,7 @@
         <v>1.05</v>
       </c>
       <c r="V4" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="W4" t="n">
         <v>1.01</v>
@@ -1090,7 +1090,7 @@
         <v>3.9</v>
       </c>
       <c r="L5" t="n">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
@@ -1120,7 +1120,7 @@
         <v>2.2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="W5" t="n">
         <v>1.51</v>
@@ -1138,19 +1138,19 @@
         <v>50</v>
       </c>
       <c r="AB5" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD5" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AE5" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AF5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG5" t="n">
         <v>13.5</v>
@@ -1177,7 +1177,7 @@
         <v>30</v>
       </c>
       <c r="AO5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
@@ -1210,7 +1210,7 @@
         <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="H6" t="n">
         <v>1.83</v>
@@ -1219,7 +1219,7 @@
         <v>1.88</v>
       </c>
       <c r="J6" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K6" t="n">
         <v>4.4</v>
@@ -1231,10 +1231,10 @@
         <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="O6" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="P6" t="n">
         <v>2.16</v>
@@ -1246,25 +1246,25 @@
         <v>1.47</v>
       </c>
       <c r="S6" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="T6" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="U6" t="n">
         <v>2.2</v>
       </c>
       <c r="V6" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="W6" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="X6" t="n">
         <v>20</v>
       </c>
       <c r="Y6" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z6" t="n">
         <v>16</v>
@@ -1345,13 +1345,13 @@
         <v>3.7</v>
       </c>
       <c r="G7" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="H7" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="I7" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="J7" t="n">
         <v>3.65</v>
@@ -1360,7 +1360,7 @@
         <v>3.7</v>
       </c>
       <c r="L7" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M7" t="n">
         <v>1.06</v>
@@ -1372,10 +1372,10 @@
         <v>1.27</v>
       </c>
       <c r="P7" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R7" t="n">
         <v>1.45</v>
@@ -1390,13 +1390,13 @@
         <v>2.32</v>
       </c>
       <c r="V7" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="W7" t="n">
         <v>1.36</v>
       </c>
       <c r="X7" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y7" t="n">
         <v>11</v>
@@ -1420,22 +1420,22 @@
         <v>21</v>
       </c>
       <c r="AF7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG7" t="n">
         <v>14.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI7" t="n">
         <v>32</v>
       </c>
       <c r="AJ7" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AK7" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AL7" t="n">
         <v>46</v>
@@ -1447,7 +1447,7 @@
         <v>36</v>
       </c>
       <c r="AO7" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
@@ -1483,7 +1483,7 @@
         <v>4.6</v>
       </c>
       <c r="H8" t="n">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="I8" t="n">
         <v>2.62</v>
@@ -1516,10 +1516,10 @@
         <v>1.24</v>
       </c>
       <c r="S8" t="n">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="T8" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U8" t="n">
         <v>1.9</v>
@@ -1552,7 +1552,7 @@
         <v>14</v>
       </c>
       <c r="AE8" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AF8" t="n">
         <v>32</v>
@@ -1654,7 +1654,7 @@
         <v>2.66</v>
       </c>
       <c r="T9" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="U9" t="n">
         <v>2.36</v>
@@ -1678,7 +1678,7 @@
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC9" t="n">
         <v>10.5</v>
@@ -1849,7 +1849,7 @@
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO10" t="n">
         <v>46</v>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="G11" t="n">
         <v>3.65</v>
@@ -1891,7 +1891,7 @@
         <v>2.48</v>
       </c>
       <c r="I11" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="J11" t="n">
         <v>3.05</v>
@@ -1900,7 +1900,7 @@
         <v>3.35</v>
       </c>
       <c r="L11" t="n">
-        <v>1.43</v>
+        <v>1.52</v>
       </c>
       <c r="M11" t="n">
         <v>1.1</v>
@@ -1927,7 +1927,7 @@
         <v>1.94</v>
       </c>
       <c r="U11" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="V11" t="n">
         <v>1.58</v>
@@ -1948,7 +1948,7 @@
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC11" t="n">
         <v>8.6</v>
@@ -1957,7 +1957,7 @@
         <v>15</v>
       </c>
       <c r="AE11" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AF11" t="n">
         <v>27</v>
@@ -1975,7 +1975,7 @@
         <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AL11" t="n">
         <v>1000</v>
@@ -1987,7 +1987,7 @@
         <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12">
@@ -2020,7 +2020,7 @@
         <v>1.59</v>
       </c>
       <c r="G12" t="n">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="H12" t="n">
         <v>5.5</v>
@@ -2032,7 +2032,7 @@
         <v>4.3</v>
       </c>
       <c r="K12" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L12" t="n">
         <v>1.28</v>
@@ -2056,7 +2056,7 @@
         <v>1.52</v>
       </c>
       <c r="S12" t="n">
-        <v>2.64</v>
+        <v>2.56</v>
       </c>
       <c r="T12" t="n">
         <v>1.72</v>
@@ -2068,10 +2068,10 @@
         <v>1.18</v>
       </c>
       <c r="W12" t="n">
-        <v>2.46</v>
+        <v>2.56</v>
       </c>
       <c r="X12" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Y12" t="n">
         <v>970</v>
@@ -2155,7 +2155,7 @@
         <v>1.79</v>
       </c>
       <c r="G13" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="H13" t="n">
         <v>4.7</v>
@@ -2170,7 +2170,7 @@
         <v>4.1</v>
       </c>
       <c r="L13" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="M13" t="n">
         <v>1.06</v>
@@ -2194,7 +2194,7 @@
         <v>3.05</v>
       </c>
       <c r="T13" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="U13" t="n">
         <v>2.1</v>
@@ -2203,7 +2203,7 @@
         <v>1.25</v>
       </c>
       <c r="W13" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="X13" t="n">
         <v>21</v>
@@ -2227,7 +2227,7 @@
         <v>24</v>
       </c>
       <c r="AE13" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AF13" t="n">
         <v>14</v>
@@ -2332,7 +2332,7 @@
         <v>1.71</v>
       </c>
       <c r="U14" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V14" t="n">
         <v>1.4</v>
@@ -2353,7 +2353,7 @@
         <v>70</v>
       </c>
       <c r="AB14" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC14" t="n">
         <v>9.6</v>
@@ -2362,7 +2362,7 @@
         <v>17.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>46</v>
+        <v>970</v>
       </c>
       <c r="AF14" t="n">
         <v>19</v>
@@ -2380,7 +2380,7 @@
         <v>970</v>
       </c>
       <c r="AK14" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="AL14" t="n">
         <v>970</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="G15" t="n">
         <v>2.74</v>
       </c>
       <c r="H15" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="I15" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J15" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K15" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="L15" t="n">
         <v>1.35</v>
@@ -2446,7 +2446,7 @@
         <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O15" t="n">
         <v>1.31</v>
@@ -2470,16 +2470,16 @@
         <v>2.12</v>
       </c>
       <c r="V15" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="W15" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="X15" t="n">
         <v>16.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Z15" t="n">
         <v>24</v>
@@ -2506,7 +2506,7 @@
         <v>14</v>
       </c>
       <c r="AH15" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AI15" t="n">
         <v>55</v>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G16" t="n">
         <v>3.3</v>
@@ -2569,10 +2569,10 @@
         <v>2.48</v>
       </c>
       <c r="J16" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K16" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L16" t="n">
         <v>1.31</v>
@@ -2596,7 +2596,7 @@
         <v>1.38</v>
       </c>
       <c r="S16" t="n">
-        <v>2.84</v>
+        <v>3.15</v>
       </c>
       <c r="T16" t="n">
         <v>1.7</v>
@@ -2605,7 +2605,7 @@
         <v>2.2</v>
       </c>
       <c r="V16" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="W16" t="n">
         <v>1.43</v>
@@ -2692,58 +2692,58 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="G17" t="n">
-        <v>2.12</v>
+        <v>2.24</v>
       </c>
       <c r="H17" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I17" t="n">
-        <v>5.4</v>
+        <v>4.4</v>
       </c>
       <c r="J17" t="n">
         <v>3.15</v>
       </c>
       <c r="K17" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="L17" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M17" t="n">
         <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="O17" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P17" t="n">
         <v>1.94</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R17" t="n">
         <v>1.37</v>
       </c>
       <c r="S17" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="T17" t="n">
         <v>1.73</v>
       </c>
       <c r="U17" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V17" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="W17" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="X17" t="n">
         <v>1000</v>
@@ -2827,16 +2827,16 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="G18" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="H18" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I18" t="n">
         <v>3.65</v>
-      </c>
-      <c r="I18" t="n">
-        <v>3.7</v>
       </c>
       <c r="J18" t="n">
         <v>3.7</v>
@@ -2863,7 +2863,7 @@
         <v>1.8</v>
       </c>
       <c r="R18" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S18" t="n">
         <v>3</v>
@@ -2872,40 +2872,40 @@
         <v>1.68</v>
       </c>
       <c r="U18" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="V18" t="n">
         <v>1.37</v>
       </c>
       <c r="W18" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="X18" t="n">
         <v>17</v>
       </c>
       <c r="Y18" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z18" t="n">
         <v>27</v>
       </c>
       <c r="AA18" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AB18" t="n">
         <v>11.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD18" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AE18" t="n">
         <v>38</v>
       </c>
       <c r="AF18" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AG18" t="n">
         <v>10.5</v>
@@ -2917,10 +2917,10 @@
         <v>44</v>
       </c>
       <c r="AJ18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL18" t="n">
         <v>32</v>
@@ -2932,7 +2932,7 @@
         <v>13.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
@@ -2968,16 +2968,16 @@
         <v>6.2</v>
       </c>
       <c r="H19" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="I19" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="J19" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="K19" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="L19" t="n">
         <v>1.28</v>
@@ -2995,13 +2995,13 @@
         <v>2.78</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="R19" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="S19" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="T19" t="n">
         <v>1.67</v>
@@ -3010,7 +3010,7 @@
         <v>2.42</v>
       </c>
       <c r="V19" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="W19" t="n">
         <v>1.19</v>
@@ -3043,16 +3043,16 @@
         <v>55</v>
       </c>
       <c r="AG19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH19" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI19" t="n">
         <v>24</v>
       </c>
       <c r="AJ19" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AK19" t="n">
         <v>65</v>
@@ -3097,16 +3097,16 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="G20" t="n">
         <v>4.1</v>
       </c>
       <c r="H20" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="I20" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="J20" t="n">
         <v>4.1</v>
@@ -3127,25 +3127,25 @@
         <v>1.22</v>
       </c>
       <c r="P20" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="R20" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="S20" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="T20" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U20" t="n">
         <v>2.48</v>
       </c>
       <c r="V20" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="W20" t="n">
         <v>1.32</v>
@@ -3157,7 +3157,7 @@
         <v>12</v>
       </c>
       <c r="Z20" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AA20" t="n">
         <v>23</v>
@@ -3166,7 +3166,7 @@
         <v>19</v>
       </c>
       <c r="AC20" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD20" t="n">
         <v>10</v>
@@ -3199,10 +3199,10 @@
         <v>70</v>
       </c>
       <c r="AN20" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AO20" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="21">
@@ -3232,16 +3232,16 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.46</v>
+        <v>2.54</v>
       </c>
       <c r="G21" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="H21" t="n">
         <v>2.98</v>
       </c>
       <c r="I21" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J21" t="n">
         <v>3.55</v>
@@ -3262,16 +3262,16 @@
         <v>1.22</v>
       </c>
       <c r="P21" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="R21" t="n">
         <v>1.08</v>
       </c>
       <c r="S21" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="T21" t="n">
         <v>1.05</v>
@@ -3280,10 +3280,10 @@
         <v>1.05</v>
       </c>
       <c r="V21" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="W21" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="X21" t="n">
         <v>30</v>
@@ -3328,7 +3328,7 @@
         <v>27</v>
       </c>
       <c r="AL21" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM21" t="n">
         <v>70</v>
@@ -3367,13 +3367,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="G22" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="H22" t="n">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="I22" t="n">
         <v>5.4</v>
@@ -3382,10 +3382,10 @@
         <v>3.3</v>
       </c>
       <c r="K22" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="L22" t="n">
-        <v>1.54</v>
+        <v>1.01</v>
       </c>
       <c r="M22" t="n">
         <v>1.11</v>
@@ -3400,7 +3400,7 @@
         <v>1.59</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.28</v>
+        <v>2.44</v>
       </c>
       <c r="R22" t="n">
         <v>1.21</v>
@@ -3418,7 +3418,7 @@
         <v>1.23</v>
       </c>
       <c r="W22" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="X22" t="n">
         <v>11</v>
@@ -3439,7 +3439,7 @@
         <v>9</v>
       </c>
       <c r="AD22" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AE22" t="n">
         <v>1000</v>
@@ -3466,7 +3466,7 @@
         <v>65</v>
       </c>
       <c r="AM22" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AN22" t="n">
         <v>26</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="G23" t="n">
         <v>4.2</v>
       </c>
       <c r="H23" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="I23" t="n">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="J23" t="n">
         <v>3.25</v>
       </c>
       <c r="K23" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L23" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="M23" t="n">
         <v>1.1</v>
@@ -3535,7 +3535,7 @@
         <v>1.6</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="R23" t="n">
         <v>1.21</v>
@@ -3544,19 +3544,19 @@
         <v>4.7</v>
       </c>
       <c r="T23" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="U23" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="V23" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="W23" t="n">
         <v>1.32</v>
       </c>
       <c r="X23" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Y23" t="n">
         <v>1000</v>
@@ -3640,13 +3640,13 @@
         <v>2.22</v>
       </c>
       <c r="G24" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="H24" t="n">
         <v>3.6</v>
       </c>
       <c r="I24" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J24" t="n">
         <v>3.05</v>
@@ -3688,7 +3688,7 @@
         <v>1.33</v>
       </c>
       <c r="W24" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="X24" t="n">
         <v>11</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-17.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="G2" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="H2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I2" t="n">
         <v>2.56</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2.6</v>
       </c>
       <c r="J2" t="n">
         <v>3.6</v>
@@ -685,10 +685,10 @@
         <v>3.7</v>
       </c>
       <c r="L2" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
         <v>4.7</v>
@@ -697,37 +697,37 @@
         <v>1.25</v>
       </c>
       <c r="P2" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q2" t="n">
         <v>1.76</v>
       </c>
       <c r="R2" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S2" t="n">
         <v>2.92</v>
       </c>
       <c r="T2" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="U2" t="n">
         <v>2.5</v>
       </c>
       <c r="V2" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="W2" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="X2" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Y2" t="n">
         <v>13.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AA2" t="n">
         <v>36</v>
@@ -739,19 +739,19 @@
         <v>8.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE2" t="n">
         <v>24</v>
       </c>
       <c r="AF2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG2" t="n">
         <v>13</v>
       </c>
       <c r="AH2" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI2" t="n">
         <v>34</v>
@@ -766,13 +766,13 @@
         <v>36</v>
       </c>
       <c r="AM2" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO2" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="3">
@@ -805,7 +805,7 @@
         <v>16.5</v>
       </c>
       <c r="G3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H3" t="n">
         <v>1.17</v>
@@ -817,37 +817,37 @@
         <v>8</v>
       </c>
       <c r="K3" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="L3" t="n">
         <v>1.19</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>7.4</v>
+        <v>6.4</v>
       </c>
       <c r="O3" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P3" t="n">
         <v>3.15</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="R3" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="S3" t="n">
-        <v>1.96</v>
+        <v>2.04</v>
       </c>
       <c r="T3" t="n">
-        <v>2.16</v>
+        <v>2.26</v>
       </c>
       <c r="U3" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="V3" t="n">
         <v>6</v>
@@ -859,7 +859,7 @@
         <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Z3" t="n">
         <v>10.5</v>
@@ -943,7 +943,7 @@
         <v>990</v>
       </c>
       <c r="H4" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="I4" t="n">
         <v>12</v>
@@ -961,16 +961,16 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="O4" t="n">
         <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="R4" t="n">
         <v>1.12</v>
@@ -985,7 +985,7 @@
         <v>1.05</v>
       </c>
       <c r="V4" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="W4" t="n">
         <v>1.01</v>
@@ -1072,94 +1072,94 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="G5" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="I5" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="J5" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="K5" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="L5" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O5" t="n">
         <v>1.32</v>
       </c>
-      <c r="M5" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.29</v>
-      </c>
       <c r="P5" t="n">
-        <v>1.96</v>
+        <v>1.84</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.86</v>
+        <v>1.98</v>
       </c>
       <c r="R5" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="S5" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="T5" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="U5" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V5" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="W5" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="X5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y5" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA5" t="n">
         <v>50</v>
       </c>
       <c r="AB5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC5" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AF5" t="n">
         <v>23</v>
       </c>
       <c r="AG5" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH5" t="n">
         <v>21</v>
       </c>
       <c r="AI5" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AJ5" t="n">
         <v>55</v>
@@ -1174,10 +1174,10 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AO5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
@@ -1234,7 +1234,7 @@
         <v>4.3</v>
       </c>
       <c r="O6" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="P6" t="n">
         <v>2.16</v>
@@ -1264,7 +1264,7 @@
         <v>20</v>
       </c>
       <c r="Y6" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="Z6" t="n">
         <v>16</v>
@@ -1300,13 +1300,13 @@
         <v>110</v>
       </c>
       <c r="AK6" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AL6" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AM6" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AN6" t="n">
         <v>46</v>
@@ -1372,7 +1372,7 @@
         <v>1.27</v>
       </c>
       <c r="P7" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="Q7" t="n">
         <v>1.85</v>
@@ -1381,13 +1381,13 @@
         <v>1.45</v>
       </c>
       <c r="S7" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T7" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="U7" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="V7" t="n">
         <v>1.83</v>
@@ -1408,7 +1408,7 @@
         <v>26</v>
       </c>
       <c r="AB7" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC7" t="n">
         <v>8.199999999999999</v>
@@ -1426,7 +1426,7 @@
         <v>14.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI7" t="n">
         <v>32</v>
@@ -1435,7 +1435,7 @@
         <v>65</v>
       </c>
       <c r="AK7" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AL7" t="n">
         <v>46</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="G8" t="n">
         <v>4.6</v>
@@ -1486,34 +1486,34 @@
         <v>2.06</v>
       </c>
       <c r="I8" t="n">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="J8" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K8" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L8" t="n">
-        <v>1.47</v>
+        <v>1.41</v>
       </c>
       <c r="M8" t="n">
         <v>1.09</v>
       </c>
       <c r="N8" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="O8" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P8" t="n">
         <v>1.66</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R8" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S8" t="n">
         <v>3.75</v>
@@ -1579,7 +1579,7 @@
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AO8" t="n">
         <v>980</v>
@@ -1612,43 +1612,43 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.58</v>
+        <v>2.92</v>
       </c>
       <c r="G9" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="H9" t="n">
-        <v>2.46</v>
+        <v>2.26</v>
       </c>
       <c r="I9" t="n">
-        <v>2.9</v>
+        <v>2.56</v>
       </c>
       <c r="J9" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K9" t="n">
         <v>4.2</v>
       </c>
       <c r="L9" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P9" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q9" t="n">
         <v>1.66</v>
       </c>
       <c r="R9" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S9" t="n">
         <v>2.66</v>
@@ -1657,13 +1657,13 @@
         <v>1.59</v>
       </c>
       <c r="U9" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V9" t="n">
-        <v>1.53</v>
+        <v>1.64</v>
       </c>
       <c r="W9" t="n">
-        <v>1.49</v>
+        <v>1.41</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -1678,10 +1678,10 @@
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD9" t="n">
         <v>1000</v>
@@ -1759,7 +1759,7 @@
         <v>3.65</v>
       </c>
       <c r="J10" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="K10" t="n">
         <v>3.8</v>
@@ -1885,13 +1885,13 @@
         <v>3.2</v>
       </c>
       <c r="G11" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="H11" t="n">
         <v>2.48</v>
       </c>
       <c r="I11" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="J11" t="n">
         <v>3.05</v>
@@ -1903,7 +1903,7 @@
         <v>1.52</v>
       </c>
       <c r="M11" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N11" t="n">
         <v>2.86</v>
@@ -1924,13 +1924,13 @@
         <v>4.5</v>
       </c>
       <c r="T11" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="U11" t="n">
         <v>1.9</v>
       </c>
       <c r="V11" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="W11" t="n">
         <v>1.39</v>
@@ -1975,7 +1975,7 @@
         <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
         <v>1000</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="G12" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="H12" t="n">
         <v>5.5</v>
       </c>
       <c r="I12" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="J12" t="n">
         <v>4.3</v>
@@ -2047,7 +2047,7 @@
         <v>1.22</v>
       </c>
       <c r="P12" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q12" t="n">
         <v>1.58</v>
@@ -2059,16 +2059,16 @@
         <v>2.56</v>
       </c>
       <c r="T12" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U12" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V12" t="n">
         <v>1.18</v>
       </c>
       <c r="W12" t="n">
-        <v>2.56</v>
+        <v>2.46</v>
       </c>
       <c r="X12" t="n">
         <v>26</v>
@@ -2077,7 +2077,7 @@
         <v>970</v>
       </c>
       <c r="Z12" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA12" t="n">
         <v>1000</v>
@@ -2086,7 +2086,7 @@
         <v>12</v>
       </c>
       <c r="AC12" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD12" t="n">
         <v>970</v>
@@ -2098,7 +2098,7 @@
         <v>13</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH12" t="n">
         <v>23</v>
@@ -2161,7 +2161,7 @@
         <v>4.7</v>
       </c>
       <c r="I13" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="J13" t="n">
         <v>3.8</v>
@@ -2185,7 +2185,7 @@
         <v>2.04</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="R13" t="n">
         <v>1.41</v>
@@ -2194,7 +2194,7 @@
         <v>3.05</v>
       </c>
       <c r="T13" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="U13" t="n">
         <v>2.1</v>
@@ -2287,25 +2287,25 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="G14" t="n">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="H14" t="n">
         <v>3</v>
       </c>
       <c r="I14" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J14" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="K14" t="n">
         <v>3.9</v>
       </c>
       <c r="L14" t="n">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="M14" t="n">
         <v>1.06</v>
@@ -2323,10 +2323,10 @@
         <v>1.9</v>
       </c>
       <c r="R14" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="S14" t="n">
-        <v>3.25</v>
+        <v>2.94</v>
       </c>
       <c r="T14" t="n">
         <v>1.71</v>
@@ -2335,10 +2335,10 @@
         <v>2.14</v>
       </c>
       <c r="V14" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="W14" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="X14" t="n">
         <v>18.5</v>
@@ -2353,7 +2353,7 @@
         <v>70</v>
       </c>
       <c r="AB14" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AC14" t="n">
         <v>9.6</v>
@@ -2389,7 +2389,7 @@
         <v>110</v>
       </c>
       <c r="AN14" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
       <c r="AO14" t="n">
         <v>970</v>
@@ -2425,13 +2425,13 @@
         <v>2.48</v>
       </c>
       <c r="G15" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="H15" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="I15" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="J15" t="n">
         <v>3.5</v>
@@ -2440,7 +2440,7 @@
         <v>3.65</v>
       </c>
       <c r="L15" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M15" t="n">
         <v>1.07</v>
@@ -2455,19 +2455,19 @@
         <v>1.89</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="R15" t="n">
         <v>1.34</v>
       </c>
       <c r="S15" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T15" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="U15" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V15" t="n">
         <v>1.48</v>
@@ -2479,40 +2479,40 @@
         <v>16.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z15" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AA15" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB15" t="n">
         <v>13</v>
       </c>
       <c r="AC15" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AE15" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AF15" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AG15" t="n">
         <v>14</v>
       </c>
       <c r="AH15" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AI15" t="n">
         <v>55</v>
       </c>
       <c r="AJ15" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AK15" t="n">
         <v>34</v>
@@ -2524,7 +2524,7 @@
         <v>110</v>
       </c>
       <c r="AN15" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AO15" t="n">
         <v>36</v>
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="G16" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H16" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="I16" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="J16" t="n">
         <v>3.55</v>
@@ -2581,7 +2581,7 @@
         <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="O16" t="n">
         <v>1.29</v>
@@ -2590,22 +2590,22 @@
         <v>2</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="R16" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S16" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T16" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="U16" t="n">
         <v>2.2</v>
       </c>
       <c r="V16" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="W16" t="n">
         <v>1.43</v>
@@ -2614,10 +2614,10 @@
         <v>19</v>
       </c>
       <c r="Y16" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="Z16" t="n">
-        <v>20</v>
+        <v>15.5</v>
       </c>
       <c r="AA16" t="n">
         <v>980</v>
@@ -2629,10 +2629,10 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AD16" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="AE16" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF16" t="n">
         <v>27</v>
@@ -2662,7 +2662,7 @@
         <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
@@ -2692,58 +2692,58 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="G17" t="n">
-        <v>2.24</v>
+        <v>2.06</v>
       </c>
       <c r="H17" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="I17" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="J17" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="K17" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="L17" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M17" t="n">
         <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="O17" t="n">
         <v>1.29</v>
       </c>
       <c r="P17" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="Q17" t="n">
         <v>1.73</v>
       </c>
       <c r="R17" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S17" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="T17" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U17" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V17" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="W17" t="n">
-        <v>1.8</v>
+        <v>1.94</v>
       </c>
       <c r="X17" t="n">
         <v>1000</v>
@@ -2827,22 +2827,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="G18" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="H18" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I18" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="J18" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K18" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L18" t="n">
         <v>1.37</v>
@@ -2857,7 +2857,7 @@
         <v>1.26</v>
       </c>
       <c r="P18" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q18" t="n">
         <v>1.8</v>
@@ -2872,16 +2872,16 @@
         <v>1.68</v>
       </c>
       <c r="U18" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="V18" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="W18" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="X18" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Y18" t="n">
         <v>16</v>
@@ -2896,10 +2896,10 @@
         <v>11.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE18" t="n">
         <v>38</v>
@@ -2932,7 +2932,7 @@
         <v>13.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
@@ -2962,19 +2962,19 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="G19" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="H19" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="I19" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="J19" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="K19" t="n">
         <v>5</v>
@@ -2995,25 +2995,25 @@
         <v>2.78</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="R19" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="S19" t="n">
         <v>2.34</v>
       </c>
       <c r="T19" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="U19" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="V19" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="W19" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="X19" t="n">
         <v>26</v>
@@ -3022,16 +3022,16 @@
         <v>12.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AA19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AB19" t="n">
         <v>30</v>
       </c>
       <c r="AC19" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD19" t="n">
         <v>9.800000000000001</v>
@@ -3055,19 +3055,19 @@
         <v>150</v>
       </c>
       <c r="AK19" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AL19" t="n">
         <v>60</v>
       </c>
       <c r="AM19" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN19" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AO19" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="20">
@@ -3097,16 +3097,16 @@
         </is>
       </c>
       <c r="F20" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="G20" t="n">
         <v>4</v>
       </c>
-      <c r="G20" t="n">
-        <v>4.1</v>
-      </c>
       <c r="H20" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="I20" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="J20" t="n">
         <v>4.1</v>
@@ -3118,7 +3118,7 @@
         <v>1.32</v>
       </c>
       <c r="M20" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N20" t="n">
         <v>5.2</v>
@@ -3127,31 +3127,31 @@
         <v>1.22</v>
       </c>
       <c r="P20" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R20" t="n">
         <v>1.57</v>
       </c>
       <c r="S20" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="T20" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="U20" t="n">
         <v>2.48</v>
       </c>
       <c r="V20" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="W20" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="X20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y20" t="n">
         <v>12</v>
@@ -3166,7 +3166,7 @@
         <v>19</v>
       </c>
       <c r="AC20" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD20" t="n">
         <v>10</v>
@@ -3202,7 +3202,7 @@
         <v>34</v>
       </c>
       <c r="AO20" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="21">
@@ -3232,13 +3232,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="G21" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="H21" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="I21" t="n">
         <v>3.1</v>
@@ -3256,22 +3256,22 @@
         <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>2.36</v>
+        <v>2.24</v>
       </c>
       <c r="O21" t="n">
         <v>1.22</v>
       </c>
       <c r="P21" t="n">
-        <v>2.38</v>
+        <v>2.24</v>
       </c>
       <c r="Q21" t="n">
         <v>1.71</v>
       </c>
       <c r="R21" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="S21" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="T21" t="n">
         <v>1.05</v>
@@ -3280,10 +3280,10 @@
         <v>1.05</v>
       </c>
       <c r="V21" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="W21" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="X21" t="n">
         <v>30</v>
@@ -3292,7 +3292,7 @@
         <v>16.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AA21" t="n">
         <v>1000</v>
@@ -3301,10 +3301,10 @@
         <v>16.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE21" t="n">
         <v>1000</v>
@@ -3313,25 +3313,25 @@
         <v>1000</v>
       </c>
       <c r="AG21" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH21" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI21" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AJ21" t="n">
         <v>40</v>
       </c>
       <c r="AK21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL21" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AM21" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AN21" t="n">
         <v>1000</v>
@@ -3367,40 +3367,40 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="G22" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="H22" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="I22" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="J22" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="K22" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L22" t="n">
         <v>1.01</v>
       </c>
       <c r="M22" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N22" t="n">
-        <v>2.72</v>
+        <v>2.66</v>
       </c>
       <c r="O22" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="P22" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="R22" t="n">
         <v>1.21</v>
@@ -3409,34 +3409,34 @@
         <v>5</v>
       </c>
       <c r="T22" t="n">
-        <v>2.14</v>
+        <v>1.97</v>
       </c>
       <c r="U22" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="V22" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W22" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="X22" t="n">
         <v>11</v>
       </c>
       <c r="Y22" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z22" t="n">
         <v>42</v>
       </c>
       <c r="AA22" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AB22" t="n">
         <v>7.8</v>
       </c>
       <c r="AC22" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD22" t="n">
         <v>22</v>
@@ -3505,13 +3505,13 @@
         <v>3.6</v>
       </c>
       <c r="G23" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H23" t="n">
         <v>2.22</v>
       </c>
       <c r="I23" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="J23" t="n">
         <v>3.25</v>
@@ -3520,31 +3520,31 @@
         <v>3.45</v>
       </c>
       <c r="L23" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="M23" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N23" t="n">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="O23" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="P23" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R23" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="S23" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="T23" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="U23" t="n">
         <v>1.78</v>
@@ -3568,7 +3568,7 @@
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AC23" t="n">
         <v>8</v>
@@ -3583,7 +3583,7 @@
         <v>1000</v>
       </c>
       <c r="AG23" t="n">
-        <v>970</v>
+        <v>19.5</v>
       </c>
       <c r="AH23" t="n">
         <v>1000</v>
@@ -3661,13 +3661,13 @@
         <v>1.11</v>
       </c>
       <c r="N24" t="n">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="O24" t="n">
         <v>1.52</v>
       </c>
       <c r="P24" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="Q24" t="n">
         <v>2.56</v>
@@ -3679,10 +3679,10 @@
         <v>4.5</v>
       </c>
       <c r="T24" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="U24" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="V24" t="n">
         <v>1.33</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO24"/>
+  <dimension ref="A1:AO25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,10 +673,10 @@
         <v>3.05</v>
       </c>
       <c r="H2" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="I2" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="J2" t="n">
         <v>3.6</v>
@@ -685,43 +685,43 @@
         <v>3.7</v>
       </c>
       <c r="L2" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P2" t="n">
         <v>2.26</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="R2" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S2" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="T2" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U2" t="n">
         <v>2.5</v>
       </c>
       <c r="V2" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="W2" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="X2" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Y2" t="n">
         <v>13.5</v>
@@ -745,10 +745,10 @@
         <v>24</v>
       </c>
       <c r="AF2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH2" t="n">
         <v>15</v>
@@ -760,7 +760,7 @@
         <v>46</v>
       </c>
       <c r="AK2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL2" t="n">
         <v>36</v>
@@ -811,10 +811,10 @@
         <v>1.17</v>
       </c>
       <c r="I3" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="J3" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K3" t="n">
         <v>14.5</v>
@@ -826,28 +826,28 @@
         <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
         <v>1.14</v>
       </c>
       <c r="P3" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="Q3" t="n">
         <v>1.41</v>
       </c>
       <c r="R3" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="S3" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="T3" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="U3" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="V3" t="n">
         <v>6</v>
@@ -943,13 +943,13 @@
         <v>990</v>
       </c>
       <c r="H4" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="I4" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="K4" t="n">
         <v>950</v>
@@ -961,13 +961,13 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>1.26</v>
+        <v>1.1</v>
       </c>
       <c r="O4" t="n">
         <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="Q4" t="n">
         <v>1.32</v>
@@ -985,7 +985,7 @@
         <v>1.05</v>
       </c>
       <c r="V4" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="W4" t="n">
         <v>1.01</v>
@@ -1072,25 +1072,25 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="H5" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="I5" t="n">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="J5" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K5" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="L5" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
@@ -1117,7 +1117,7 @@
         <v>1.75</v>
       </c>
       <c r="U5" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V5" t="n">
         <v>1.54</v>
@@ -1210,55 +1210,55 @@
         <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="H6" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="I6" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="J6" t="n">
         <v>3.8</v>
       </c>
       <c r="K6" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L6" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M6" t="n">
         <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="O6" t="n">
         <v>1.24</v>
       </c>
       <c r="P6" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="R6" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S6" t="n">
-        <v>2.78</v>
+        <v>2.68</v>
       </c>
       <c r="T6" t="n">
-        <v>1.73</v>
+        <v>1.64</v>
       </c>
       <c r="U6" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="V6" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="W6" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="X6" t="n">
         <v>20</v>
@@ -1267,16 +1267,16 @@
         <v>11.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AA6" t="n">
         <v>23</v>
       </c>
       <c r="AB6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC6" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD6" t="n">
         <v>13</v>
@@ -1285,34 +1285,34 @@
         <v>19.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH6" t="n">
         <v>21</v>
       </c>
       <c r="AI6" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AJ6" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AK6" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AL6" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM6" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN6" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AO6" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="7">
@@ -1366,7 +1366,7 @@
         <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.27</v>
@@ -1396,7 +1396,7 @@
         <v>1.36</v>
       </c>
       <c r="X7" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y7" t="n">
         <v>11</v>
@@ -1426,7 +1426,7 @@
         <v>14.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI7" t="n">
         <v>32</v>
@@ -1435,7 +1435,7 @@
         <v>65</v>
       </c>
       <c r="AK7" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AL7" t="n">
         <v>46</v>
@@ -1444,7 +1444,7 @@
         <v>80</v>
       </c>
       <c r="AN7" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AO7" t="n">
         <v>14</v>
@@ -1477,25 +1477,25 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="G8" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="H8" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="I8" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="J8" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K8" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L8" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M8" t="n">
         <v>1.09</v>
@@ -1507,22 +1507,22 @@
         <v>1.42</v>
       </c>
       <c r="P8" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R8" t="n">
         <v>1.25</v>
       </c>
       <c r="S8" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="T8" t="n">
         <v>1.9</v>
       </c>
       <c r="U8" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="V8" t="n">
         <v>1.01</v>
@@ -1534,7 +1534,7 @@
         <v>13</v>
       </c>
       <c r="Y8" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Z8" t="n">
         <v>17</v>
@@ -1543,7 +1543,7 @@
         <v>980</v>
       </c>
       <c r="AB8" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC8" t="n">
         <v>9</v>
@@ -1558,7 +1558,7 @@
         <v>32</v>
       </c>
       <c r="AG8" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AH8" t="n">
         <v>24</v>
@@ -1570,16 +1570,16 @@
         <v>1000</v>
       </c>
       <c r="AK8" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN8" t="n">
         <v>65</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>80</v>
       </c>
       <c r="AO8" t="n">
         <v>980</v>
@@ -1615,7 +1615,7 @@
         <v>2.92</v>
       </c>
       <c r="G9" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="H9" t="n">
         <v>2.26</v>
@@ -1624,10 +1624,10 @@
         <v>2.56</v>
       </c>
       <c r="J9" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K9" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L9" t="n">
         <v>1.28</v>
@@ -1654,10 +1654,10 @@
         <v>2.66</v>
       </c>
       <c r="T9" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="U9" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="V9" t="n">
         <v>1.64</v>
@@ -1723,7 +1723,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Scottish League One</t>
+          <t>Scottish League Two</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,127 +1738,127 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Cove Rangers</t>
+          <t>Stirling</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Montrose</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.22</v>
+        <v>3</v>
       </c>
       <c r="G10" t="n">
-        <v>2.42</v>
+        <v>4.4</v>
       </c>
       <c r="H10" t="n">
-        <v>3.25</v>
+        <v>1.98</v>
       </c>
       <c r="I10" t="n">
-        <v>3.65</v>
+        <v>2.62</v>
       </c>
       <c r="J10" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="K10" t="n">
-        <v>3.8</v>
+        <v>6.2</v>
       </c>
       <c r="L10" t="n">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>3.7</v>
+        <v>2.74</v>
       </c>
       <c r="O10" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="P10" t="n">
-        <v>1.93</v>
+        <v>1.73</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.91</v>
+        <v>1.59</v>
       </c>
       <c r="R10" t="n">
-        <v>1.36</v>
+        <v>1.24</v>
       </c>
       <c r="S10" t="n">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="T10" t="n">
-        <v>1.73</v>
+        <v>1.05</v>
       </c>
       <c r="U10" t="n">
-        <v>2.16</v>
+        <v>1.05</v>
       </c>
       <c r="V10" t="n">
-        <v>1.37</v>
+        <v>1.61</v>
       </c>
       <c r="W10" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="X10" t="n">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD10" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH10" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Scottish Championship</t>
+          <t>Scottish League One</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,127 +1873,127 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Morton</t>
+          <t>Cove Rangers</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Dunfermline</t>
+          <t>Montrose</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.2</v>
+        <v>2.22</v>
       </c>
       <c r="G11" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I11" t="n">
         <v>3.6</v>
       </c>
-      <c r="H11" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2.68</v>
-      </c>
       <c r="J11" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="K11" t="n">
-        <v>3.35</v>
+        <v>3.8</v>
       </c>
       <c r="L11" t="n">
-        <v>1.52</v>
+        <v>1.4</v>
       </c>
       <c r="M11" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>2.86</v>
+        <v>3.7</v>
       </c>
       <c r="O11" t="n">
-        <v>1.46</v>
+        <v>1.31</v>
       </c>
       <c r="P11" t="n">
-        <v>1.63</v>
+        <v>1.94</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.34</v>
+        <v>1.91</v>
       </c>
       <c r="R11" t="n">
-        <v>1.24</v>
+        <v>1.36</v>
       </c>
       <c r="S11" t="n">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="T11" t="n">
-        <v>1.96</v>
+        <v>1.73</v>
       </c>
       <c r="U11" t="n">
-        <v>1.9</v>
+        <v>2.16</v>
       </c>
       <c r="V11" t="n">
-        <v>1.59</v>
+        <v>1.38</v>
       </c>
       <c r="W11" t="n">
-        <v>1.39</v>
+        <v>1.69</v>
       </c>
       <c r="X11" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Y11" t="n">
-        <v>10.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AB11" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD11" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AF11" t="n">
-        <v>27</v>
+        <v>18.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM11" t="n">
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AO11" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2008,121 +2008,121 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>FC Halifax Town</t>
+          <t>Morton</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Dunfermline</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.61</v>
+        <v>3.2</v>
       </c>
       <c r="G12" t="n">
-        <v>1.68</v>
+        <v>3.6</v>
       </c>
       <c r="H12" t="n">
-        <v>5.5</v>
+        <v>2.48</v>
       </c>
       <c r="I12" t="n">
-        <v>6.4</v>
+        <v>2.68</v>
       </c>
       <c r="J12" t="n">
-        <v>4.3</v>
+        <v>3</v>
       </c>
       <c r="K12" t="n">
-        <v>4.8</v>
+        <v>3.3</v>
       </c>
       <c r="L12" t="n">
-        <v>1.28</v>
+        <v>1.52</v>
       </c>
       <c r="M12" t="n">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="N12" t="n">
-        <v>4.8</v>
+        <v>2.9</v>
       </c>
       <c r="O12" t="n">
-        <v>1.22</v>
+        <v>1.47</v>
       </c>
       <c r="P12" t="n">
-        <v>2.32</v>
+        <v>1.64</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.58</v>
+        <v>2.34</v>
       </c>
       <c r="R12" t="n">
-        <v>1.52</v>
+        <v>1.24</v>
       </c>
       <c r="S12" t="n">
-        <v>2.56</v>
+        <v>4.5</v>
       </c>
       <c r="T12" t="n">
-        <v>1.73</v>
+        <v>1.94</v>
       </c>
       <c r="U12" t="n">
-        <v>2.18</v>
+        <v>1.92</v>
       </c>
       <c r="V12" t="n">
-        <v>1.18</v>
+        <v>1.59</v>
       </c>
       <c r="W12" t="n">
-        <v>2.46</v>
+        <v>1.39</v>
       </c>
       <c r="X12" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="Y12" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="AA12" t="n">
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC12" t="n">
-        <v>12</v>
+        <v>8.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="AE12" t="n">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="AF12" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="AG12" t="n">
-        <v>10.5</v>
+        <v>18</v>
       </c>
       <c r="AH12" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AI12" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>80</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13">
@@ -2143,118 +2143,118 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>FC Halifax Town</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Scunthorpe</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.79</v>
+        <v>1.62</v>
       </c>
       <c r="G13" t="n">
-        <v>1.87</v>
+        <v>1.64</v>
       </c>
       <c r="H13" t="n">
-        <v>4.7</v>
+        <v>5.6</v>
       </c>
       <c r="I13" t="n">
-        <v>5.2</v>
+        <v>6.6</v>
       </c>
       <c r="J13" t="n">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="K13" t="n">
-        <v>4.1</v>
+        <v>4.9</v>
       </c>
       <c r="L13" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="O13" t="n">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="P13" t="n">
-        <v>2.04</v>
+        <v>2.32</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.81</v>
+        <v>1.58</v>
       </c>
       <c r="R13" t="n">
-        <v>1.41</v>
+        <v>1.52</v>
       </c>
       <c r="S13" t="n">
-        <v>3.05</v>
+        <v>2.56</v>
       </c>
       <c r="T13" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="U13" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="V13" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="W13" t="n">
-        <v>2.14</v>
+        <v>2.52</v>
       </c>
       <c r="X13" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Y13" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Z13" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AA13" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC13" t="n">
         <v>11</v>
       </c>
       <c r="AD13" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AE13" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AF13" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH13" t="n">
         <v>23</v>
       </c>
       <c r="AI13" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ13" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AK13" t="n">
-        <v>23</v>
+        <v>18.5</v>
       </c>
       <c r="AL13" t="n">
-        <v>42</v>
+        <v>970</v>
       </c>
       <c r="AM13" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AN13" t="n">
-        <v>13</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO13" t="n">
         <v>80</v>
@@ -2278,31 +2278,31 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Yeovil</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Hartlepool</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="F14" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="H14" t="n">
         <v>2.32</v>
       </c>
-      <c r="G14" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="H14" t="n">
-        <v>3</v>
-      </c>
       <c r="I14" t="n">
-        <v>3.4</v>
+        <v>2.46</v>
       </c>
       <c r="J14" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="K14" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="L14" t="n">
         <v>1.32</v>
@@ -2311,88 +2311,88 @@
         <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="O14" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P14" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="Q14" t="n">
         <v>1.9</v>
       </c>
       <c r="R14" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S14" t="n">
-        <v>2.94</v>
+        <v>3.2</v>
       </c>
       <c r="T14" t="n">
-        <v>1.71</v>
+        <v>1.59</v>
       </c>
       <c r="U14" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="V14" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="W14" t="n">
         <v>1.43</v>
-      </c>
-      <c r="W14" t="n">
-        <v>1.67</v>
       </c>
       <c r="X14" t="n">
         <v>18.5</v>
       </c>
       <c r="Y14" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB14" t="n">
         <v>16</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="AC14" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF14" t="n">
         <v>27</v>
       </c>
-      <c r="AA14" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>970</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>19</v>
-      </c>
       <c r="AG14" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AH14" t="n">
         <v>21</v>
       </c>
       <c r="AI14" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AM14" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN14" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15">
@@ -2413,121 +2413,121 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Sutton Utd</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Scunthorpe</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.48</v>
+        <v>1.8</v>
       </c>
       <c r="G15" t="n">
-        <v>2.72</v>
+        <v>1.86</v>
       </c>
       <c r="H15" t="n">
-        <v>2.84</v>
+        <v>4.7</v>
       </c>
       <c r="I15" t="n">
-        <v>3.15</v>
+        <v>5.2</v>
       </c>
       <c r="J15" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="K15" t="n">
-        <v>3.65</v>
+        <v>4.2</v>
       </c>
       <c r="L15" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="M15" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="O15" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="P15" t="n">
-        <v>1.89</v>
+        <v>2.04</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="R15" t="n">
-        <v>1.34</v>
+        <v>1.43</v>
       </c>
       <c r="S15" t="n">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="T15" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="U15" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W15" t="n">
         <v>2.14</v>
       </c>
-      <c r="V15" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="W15" t="n">
-        <v>1.58</v>
-      </c>
       <c r="X15" t="n">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="Y15" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>48</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN15" t="n">
         <v>13</v>
       </c>
-      <c r="Z15" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>25</v>
-      </c>
       <c r="AO15" t="n">
-        <v>36</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16">
@@ -2548,127 +2548,127 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Yeovil</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.2</v>
+        <v>2.32</v>
       </c>
       <c r="G16" t="n">
-        <v>3.35</v>
+        <v>2.42</v>
       </c>
       <c r="H16" t="n">
-        <v>2.32</v>
+        <v>3.25</v>
       </c>
       <c r="I16" t="n">
-        <v>2.42</v>
+        <v>3.4</v>
       </c>
       <c r="J16" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K16" t="n">
         <v>3.75</v>
       </c>
       <c r="L16" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="M16" t="n">
         <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>3.95</v>
+        <v>3.65</v>
       </c>
       <c r="O16" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="P16" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.86</v>
+        <v>1.94</v>
       </c>
       <c r="R16" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="S16" t="n">
         <v>3.2</v>
       </c>
       <c r="T16" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U16" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="V16" t="n">
-        <v>1.7</v>
+        <v>1.43</v>
       </c>
       <c r="W16" t="n">
-        <v>1.43</v>
+        <v>1.71</v>
       </c>
       <c r="X16" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="Y16" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="Z16" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AA16" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AB16" t="n">
-        <v>16</v>
+        <v>10.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD16" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="AE16" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AF16" t="n">
-        <v>27</v>
+        <v>970</v>
       </c>
       <c r="AG16" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AH16" t="n">
         <v>21</v>
       </c>
       <c r="AI16" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AK16" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AL16" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AM16" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Scottish League One</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Hamilton</t>
+          <t>Sutton Utd</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>East Fife</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.88</v>
+        <v>2.48</v>
       </c>
       <c r="G17" t="n">
-        <v>2.06</v>
+        <v>2.76</v>
       </c>
       <c r="H17" t="n">
-        <v>3.7</v>
+        <v>2.86</v>
       </c>
       <c r="I17" t="n">
-        <v>4.9</v>
+        <v>3.2</v>
       </c>
       <c r="J17" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K17" t="n">
-        <v>5</v>
+        <v>3.65</v>
       </c>
       <c r="L17" t="n">
-        <v>1.31</v>
+        <v>1.4</v>
       </c>
       <c r="M17" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N17" t="n">
         <v>3.45</v>
       </c>
       <c r="O17" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="P17" t="n">
-        <v>1.96</v>
+        <v>1.84</v>
       </c>
       <c r="Q17" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T17" t="n">
         <v>1.73</v>
       </c>
-      <c r="R17" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="S17" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.74</v>
-      </c>
       <c r="U17" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="V17" t="n">
-        <v>1.27</v>
+        <v>1.47</v>
       </c>
       <c r="W17" t="n">
-        <v>1.94</v>
+        <v>1.57</v>
       </c>
       <c r="X17" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z17" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AA17" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB17" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE17" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AF17" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AG17" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH17" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI17" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AK17" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AL17" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN17" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Scottish League One</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2818,121 +2818,121 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Hamilton</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>East Fife</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.14</v>
+        <v>1.85</v>
       </c>
       <c r="G18" t="n">
-        <v>2.18</v>
+        <v>1.99</v>
       </c>
       <c r="H18" t="n">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="I18" t="n">
-        <v>3.75</v>
+        <v>4.7</v>
       </c>
       <c r="J18" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="K18" t="n">
-        <v>3.8</v>
+        <v>4.9</v>
       </c>
       <c r="L18" t="n">
-        <v>1.37</v>
+        <v>1.31</v>
       </c>
       <c r="M18" t="n">
         <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>4.6</v>
+        <v>3.7</v>
       </c>
       <c r="O18" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="P18" t="n">
-        <v>2.22</v>
+        <v>1.98</v>
       </c>
       <c r="Q18" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T18" t="n">
         <v>1.8</v>
       </c>
-      <c r="R18" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S18" t="n">
-        <v>3</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.68</v>
-      </c>
       <c r="U18" t="n">
-        <v>2.4</v>
+        <v>2.12</v>
       </c>
       <c r="V18" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="W18" t="n">
-        <v>1.84</v>
+        <v>2</v>
       </c>
       <c r="X18" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Y18" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Z18" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AA18" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AC18" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AD18" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AE18" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AG18" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH18" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AI18" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL18" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
@@ -2953,121 +2953,121 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>6.4</v>
+        <v>2.16</v>
       </c>
       <c r="G19" t="n">
-        <v>6.6</v>
+        <v>2.18</v>
       </c>
       <c r="H19" t="n">
-        <v>1.55</v>
+        <v>3.65</v>
       </c>
       <c r="I19" t="n">
-        <v>1.56</v>
+        <v>3.7</v>
       </c>
       <c r="J19" t="n">
-        <v>4.9</v>
+        <v>3.7</v>
       </c>
       <c r="K19" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="L19" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="M19" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>6.2</v>
+        <v>4.6</v>
       </c>
       <c r="O19" t="n">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="P19" t="n">
-        <v>2.78</v>
+        <v>2.24</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.55</v>
+        <v>1.78</v>
       </c>
       <c r="R19" t="n">
-        <v>1.72</v>
+        <v>1.49</v>
       </c>
       <c r="S19" t="n">
-        <v>2.34</v>
+        <v>2.98</v>
       </c>
       <c r="T19" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="U19" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="V19" t="n">
-        <v>2.78</v>
+        <v>1.37</v>
       </c>
       <c r="W19" t="n">
-        <v>1.18</v>
+        <v>1.83</v>
       </c>
       <c r="X19" t="n">
-        <v>26</v>
+        <v>17.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="AA19" t="n">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="AB19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AO19" t="n">
         <v>30</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>24</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>150</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>70</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>55</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>5.6</v>
       </c>
     </row>
     <row r="20">
@@ -3088,127 +3088,127 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Paris St-G</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.95</v>
+        <v>6.8</v>
       </c>
       <c r="G20" t="n">
-        <v>4</v>
+        <v>7.2</v>
       </c>
       <c r="H20" t="n">
-        <v>1.97</v>
+        <v>1.52</v>
       </c>
       <c r="I20" t="n">
-        <v>1.98</v>
+        <v>1.53</v>
       </c>
       <c r="J20" t="n">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="K20" t="n">
-        <v>4.2</v>
+        <v>5.1</v>
       </c>
       <c r="L20" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="M20" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N20" t="n">
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="O20" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="P20" t="n">
-        <v>2.42</v>
+        <v>2.78</v>
       </c>
       <c r="Q20" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="T20" t="n">
         <v>1.69</v>
       </c>
-      <c r="R20" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S20" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.63</v>
-      </c>
       <c r="U20" t="n">
-        <v>2.48</v>
+        <v>2.38</v>
       </c>
       <c r="V20" t="n">
-        <v>2.02</v>
+        <v>2.88</v>
       </c>
       <c r="W20" t="n">
-        <v>1.33</v>
+        <v>1.16</v>
       </c>
       <c r="X20" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="Y20" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="AA20" t="n">
-        <v>23</v>
+        <v>14.5</v>
       </c>
       <c r="AB20" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="AC20" t="n">
-        <v>9</v>
+        <v>11.5</v>
       </c>
       <c r="AD20" t="n">
         <v>10</v>
       </c>
       <c r="AE20" t="n">
-        <v>17.5</v>
+        <v>14</v>
       </c>
       <c r="AF20" t="n">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="AG20" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AH20" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AI20" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AJ20" t="n">
+        <v>170</v>
+      </c>
+      <c r="AK20" t="n">
         <v>75</v>
       </c>
-      <c r="AK20" t="n">
-        <v>42</v>
-      </c>
       <c r="AL20" t="n">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="AM20" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN20" t="n">
         <v>70</v>
       </c>
-      <c r="AN20" t="n">
-        <v>34</v>
-      </c>
       <c r="AO20" t="n">
-        <v>9.6</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Dutch Eredivisie</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>17:01:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Sparta Rotterdam</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>NEC Nijmegen</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="G21" t="n">
-        <v>2.56</v>
+        <v>4.1</v>
       </c>
       <c r="H21" t="n">
-        <v>3.05</v>
+        <v>1.93</v>
       </c>
       <c r="I21" t="n">
-        <v>3.1</v>
+        <v>1.94</v>
       </c>
       <c r="J21" t="n">
-        <v>3.55</v>
+        <v>4.1</v>
       </c>
       <c r="K21" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="L21" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M21" t="n">
         <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>2.24</v>
+        <v>5.3</v>
       </c>
       <c r="O21" t="n">
         <v>1.22</v>
       </c>
       <c r="P21" t="n">
-        <v>2.24</v>
+        <v>2.42</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="R21" t="n">
-        <v>1.11</v>
+        <v>1.57</v>
       </c>
       <c r="S21" t="n">
-        <v>1.72</v>
+        <v>2.7</v>
       </c>
       <c r="T21" t="n">
-        <v>1.05</v>
+        <v>1.63</v>
       </c>
       <c r="U21" t="n">
-        <v>1.05</v>
+        <v>2.5</v>
       </c>
       <c r="V21" t="n">
-        <v>1.47</v>
+        <v>2.06</v>
       </c>
       <c r="W21" t="n">
-        <v>1.64</v>
+        <v>1.32</v>
       </c>
       <c r="X21" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="Y21" t="n">
-        <v>16.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>26</v>
+        <v>13.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AB21" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AC21" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD21" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AE21" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AF21" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AG21" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AH21" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AI21" t="n">
+        <v>27</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK21" t="n">
         <v>42</v>
       </c>
-      <c r="AJ21" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>28</v>
-      </c>
       <c r="AL21" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AM21" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AN21" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AO21" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Dutch Eredivisie</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,123 +3353,123 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>17:01:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Alianza FC Valledupar</t>
+          <t>Sparta Rotterdam</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Cucuta Deportivo</t>
+          <t>NEC Nijmegen</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.95</v>
+        <v>2.52</v>
       </c>
       <c r="G22" t="n">
-        <v>2.06</v>
+        <v>2.56</v>
       </c>
       <c r="H22" t="n">
-        <v>4.6</v>
+        <v>3</v>
       </c>
       <c r="I22" t="n">
-        <v>5.2</v>
+        <v>3.1</v>
       </c>
       <c r="J22" t="n">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="K22" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L22" t="n">
         <v>1.01</v>
       </c>
       <c r="M22" t="n">
-        <v>1.12</v>
+        <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>2.66</v>
+        <v>2.32</v>
       </c>
       <c r="O22" t="n">
-        <v>1.52</v>
+        <v>1.22</v>
       </c>
       <c r="P22" t="n">
-        <v>1.56</v>
+        <v>2.24</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.38</v>
+        <v>1.71</v>
       </c>
       <c r="R22" t="n">
-        <v>1.21</v>
+        <v>1.14</v>
       </c>
       <c r="S22" t="n">
-        <v>5</v>
+        <v>1.71</v>
       </c>
       <c r="T22" t="n">
-        <v>1.97</v>
+        <v>1.07</v>
       </c>
       <c r="U22" t="n">
-        <v>1.74</v>
+        <v>1.07</v>
       </c>
       <c r="V22" t="n">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="W22" t="n">
-        <v>1.94</v>
+        <v>1.64</v>
       </c>
       <c r="X22" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="Y22" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI22" t="n">
         <v>42</v>
       </c>
-      <c r="AA22" t="n">
-        <v>160</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>120</v>
-      </c>
       <c r="AJ22" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK22" t="n">
         <v>28</v>
       </c>
-      <c r="AK22" t="n">
-        <v>30</v>
-      </c>
       <c r="AL22" t="n">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="AM22" t="n">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="AN22" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AO22" t="n">
         <v>1000</v>
@@ -3488,30 +3488,30 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Jaguares de Cordoba</t>
+          <t>Alianza FC Valledupar</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Cucuta Deportivo</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.6</v>
+        <v>1.96</v>
       </c>
       <c r="G23" t="n">
-        <v>4.1</v>
+        <v>2</v>
       </c>
       <c r="H23" t="n">
-        <v>2.22</v>
+        <v>4.6</v>
       </c>
       <c r="I23" t="n">
-        <v>2.36</v>
+        <v>5.2</v>
       </c>
       <c r="J23" t="n">
         <v>3.25</v>
@@ -3526,13 +3526,13 @@
         <v>1.11</v>
       </c>
       <c r="N23" t="n">
-        <v>2.6</v>
+        <v>2.68</v>
       </c>
       <c r="O23" t="n">
         <v>1.51</v>
       </c>
       <c r="P23" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="Q23" t="n">
         <v>2.5</v>
@@ -3541,70 +3541,70 @@
         <v>1.2</v>
       </c>
       <c r="S23" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="T23" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="U23" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="V23" t="n">
-        <v>1.73</v>
+        <v>1.25</v>
       </c>
       <c r="W23" t="n">
-        <v>1.32</v>
+        <v>2</v>
       </c>
       <c r="X23" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Y23" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AA23" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AB23" t="n">
-        <v>11</v>
+        <v>7.8</v>
       </c>
       <c r="AC23" t="n">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD23" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE23" t="n">
         <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>19.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AI23" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ23" t="n">
-        <v>110</v>
+        <v>28</v>
       </c>
       <c r="AK23" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AL23" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AM23" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AN23" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AO23" t="n">
         <v>1000</v>
@@ -3613,7 +3613,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,125 +3623,260 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>22:10:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Boca Juniors de Cali</t>
+          <t>Jaguares de Cordoba</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Orsomarso</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="F24" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G24" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H24" t="n">
         <v>2.22</v>
       </c>
-      <c r="G24" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="H24" t="n">
-        <v>3.6</v>
-      </c>
       <c r="I24" t="n">
-        <v>4.1</v>
+        <v>2.36</v>
       </c>
       <c r="J24" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="K24" t="n">
         <v>3.45</v>
       </c>
       <c r="L24" t="n">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="M24" t="n">
         <v>1.11</v>
       </c>
       <c r="N24" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="O24" t="n">
         <v>1.52</v>
       </c>
       <c r="P24" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="R24" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="S24" t="n">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="T24" t="n">
         <v>2.08</v>
       </c>
       <c r="U24" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V24" t="n">
         <v>1.73</v>
       </c>
-      <c r="V24" t="n">
+      <c r="W24" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>110</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>210</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Colombian Primera B</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>22:10:00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Boca Juniors de Cali</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Orsomarso</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I25" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K25" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N25" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V25" t="n">
         <v>1.33</v>
       </c>
-      <c r="W24" t="n">
+      <c r="W25" t="n">
         <v>1.7</v>
       </c>
-      <c r="X24" t="n">
+      <c r="X25" t="n">
         <v>11</v>
       </c>
-      <c r="Y24" t="n">
+      <c r="Y25" t="n">
         <v>12.5</v>
       </c>
-      <c r="Z24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB24" t="n">
+      <c r="Z25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB25" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="AC24" t="n">
+      <c r="AC25" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="AD24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO24" t="n">
+      <c r="AD25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO25" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-17.xlsx
@@ -667,25 +667,25 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
         <v>3.05</v>
       </c>
       <c r="H2" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="I2" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="J2" t="n">
         <v>3.6</v>
       </c>
       <c r="K2" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L2" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
@@ -697,28 +697,28 @@
         <v>1.24</v>
       </c>
       <c r="P2" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="R2" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="S2" t="n">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="T2" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="U2" t="n">
         <v>2.5</v>
       </c>
       <c r="V2" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="W2" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="X2" t="n">
         <v>18.5</v>
@@ -730,13 +730,13 @@
         <v>17.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AB2" t="n">
         <v>15</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD2" t="n">
         <v>11.5</v>
@@ -745,28 +745,28 @@
         <v>24</v>
       </c>
       <c r="AF2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG2" t="n">
         <v>12.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ2" t="n">
         <v>46</v>
       </c>
       <c r="AK2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL2" t="n">
         <v>36</v>
       </c>
       <c r="AM2" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AN2" t="n">
         <v>22</v>
@@ -808,49 +808,49 @@
         <v>27</v>
       </c>
       <c r="H3" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="I3" t="n">
         <v>1.19</v>
       </c>
       <c r="J3" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="K3" t="n">
-        <v>14.5</v>
+        <v>11.5</v>
       </c>
       <c r="L3" t="n">
         <v>1.19</v>
       </c>
       <c r="M3" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="O3" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P3" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="R3" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="S3" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="T3" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="U3" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="V3" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="W3" t="n">
         <v>1.04</v>
@@ -859,13 +859,13 @@
         <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>14</v>
+        <v>970</v>
       </c>
       <c r="Z3" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>10.5</v>
+        <v>23</v>
       </c>
       <c r="AB3" t="n">
         <v>1000</v>
@@ -874,10 +874,10 @@
         <v>980</v>
       </c>
       <c r="AD3" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
         <v>1000</v>
@@ -907,7 +907,7 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="4">
@@ -937,19 +937,19 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.5</v>
+        <v>4.8</v>
       </c>
       <c r="G4" t="n">
         <v>990</v>
       </c>
       <c r="H4" t="n">
-        <v>1.04</v>
+        <v>1.19</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>1.53</v>
       </c>
       <c r="J4" t="n">
-        <v>2.04</v>
+        <v>3.85</v>
       </c>
       <c r="K4" t="n">
         <v>950</v>
@@ -958,25 +958,25 @@
         <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>1.1</v>
+        <v>1.28</v>
       </c>
       <c r="O4" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="P4" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="R4" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="S4" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="T4" t="n">
         <v>1.05</v>
@@ -988,7 +988,7 @@
         <v>2</v>
       </c>
       <c r="W4" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1042,7 +1042,7 @@
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
@@ -1072,25 +1072,25 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="G5" t="n">
         <v>3.05</v>
       </c>
       <c r="H5" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="I5" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="J5" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K5" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="L5" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
@@ -1102,10 +1102,10 @@
         <v>1.32</v>
       </c>
       <c r="P5" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="R5" t="n">
         <v>1.33</v>
@@ -1114,70 +1114,70 @@
         <v>3.45</v>
       </c>
       <c r="T5" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="U5" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V5" t="n">
         <v>1.54</v>
       </c>
       <c r="W5" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="X5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD5" t="n">
         <v>13.5</v>
       </c>
-      <c r="Z5" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>50</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AE5" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AF5" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="AG5" t="n">
         <v>14</v>
       </c>
       <c r="AH5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI5" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="AJ5" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AK5" t="n">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="AL5" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN5" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="AO5" t="n">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6">
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="G6" t="n">
-        <v>4.5</v>
+        <v>5.3</v>
       </c>
       <c r="H6" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="I6" t="n">
         <v>1.94</v>
       </c>
       <c r="J6" t="n">
-        <v>3.8</v>
+        <v>3.45</v>
       </c>
       <c r="K6" t="n">
-        <v>4.3</v>
+        <v>5.5</v>
       </c>
       <c r="L6" t="n">
         <v>1.27</v>
@@ -1234,85 +1234,85 @@
         <v>4.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="P6" t="n">
-        <v>2.2</v>
+        <v>2.04</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="R6" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S6" t="n">
         <v>2.68</v>
       </c>
       <c r="T6" t="n">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="U6" t="n">
-        <v>2.26</v>
+        <v>1.05</v>
       </c>
       <c r="V6" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="W6" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="X6" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="AD6" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>19.5</v>
+        <v>980</v>
       </c>
       <c r="AF6" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="AI6" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="AK6" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AL6" t="n">
-        <v>50</v>
+        <v>970</v>
       </c>
       <c r="AM6" t="n">
-        <v>80</v>
+        <v>580</v>
       </c>
       <c r="AN6" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>12.5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="G7" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="H7" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="I7" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="J7" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K7" t="n">
         <v>3.65</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.7</v>
       </c>
       <c r="L7" t="n">
         <v>1.38</v>
@@ -1366,7 +1366,7 @@
         <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O7" t="n">
         <v>1.27</v>
@@ -1378,7 +1378,7 @@
         <v>1.85</v>
       </c>
       <c r="R7" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="S7" t="n">
         <v>3.15</v>
@@ -1390,25 +1390,25 @@
         <v>2.34</v>
       </c>
       <c r="V7" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="W7" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="X7" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y7" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AB7" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC7" t="n">
         <v>8.199999999999999</v>
@@ -1417,37 +1417,37 @@
         <v>10.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG7" t="n">
         <v>14.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AI7" t="n">
         <v>32</v>
       </c>
       <c r="AJ7" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AK7" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL7" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM7" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN7" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AO7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="G8" t="n">
-        <v>4.4</v>
+        <v>3.75</v>
       </c>
       <c r="H8" t="n">
-        <v>2.12</v>
+        <v>2.26</v>
       </c>
       <c r="I8" t="n">
-        <v>2.62</v>
+        <v>2.52</v>
       </c>
       <c r="J8" t="n">
         <v>3.15</v>
@@ -1495,19 +1495,19 @@
         <v>3.55</v>
       </c>
       <c r="L8" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="M8" t="n">
         <v>1.09</v>
       </c>
       <c r="N8" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="O8" t="n">
         <v>1.42</v>
       </c>
       <c r="P8" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="Q8" t="n">
         <v>2.2</v>
@@ -1531,46 +1531,46 @@
         <v>1.01</v>
       </c>
       <c r="X8" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="Y8" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z8" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="AA8" t="n">
+        <v>500</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE8" t="n">
         <v>980</v>
       </c>
-      <c r="AB8" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>36</v>
-      </c>
       <c r="AF8" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AG8" t="n">
-        <v>18.5</v>
+        <v>34</v>
       </c>
       <c r="AH8" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="AI8" t="n">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK8" t="n">
-        <v>55</v>
+        <v>500</v>
       </c>
       <c r="AL8" t="n">
         <v>1000</v>
@@ -1579,7 +1579,7 @@
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>65</v>
+        <v>500</v>
       </c>
       <c r="AO8" t="n">
         <v>980</v>
@@ -1612,13 +1612,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="G9" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="H9" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="I9" t="n">
         <v>2.56</v>
@@ -1654,7 +1654,7 @@
         <v>2.66</v>
       </c>
       <c r="T9" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="U9" t="n">
         <v>2.4</v>
@@ -1663,43 +1663,43 @@
         <v>1.64</v>
       </c>
       <c r="W9" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AC9" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AE9" t="n">
         <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AJ9" t="n">
         <v>1000</v>
@@ -1711,13 +1711,13 @@
         <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN9" t="n">
         <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10">
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G10" t="n">
         <v>4.4</v>
@@ -1756,13 +1756,13 @@
         <v>1.98</v>
       </c>
       <c r="I10" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="J10" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K10" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="L10" t="n">
         <v>1.32</v>
@@ -1771,7 +1771,7 @@
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>2.74</v>
+        <v>2.88</v>
       </c>
       <c r="O10" t="n">
         <v>1.01</v>
@@ -1780,25 +1780,25 @@
         <v>1.73</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.59</v>
+        <v>1.8</v>
       </c>
       <c r="R10" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S10" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="T10" t="n">
         <v>1.05</v>
       </c>
       <c r="U10" t="n">
-        <v>1.05</v>
+        <v>1.94</v>
       </c>
       <c r="V10" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="W10" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X10" t="n">
         <v>970</v>
@@ -1816,7 +1816,7 @@
         <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AD10" t="n">
         <v>1000</v>
@@ -1831,7 +1831,7 @@
         <v>1000</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AI10" t="n">
         <v>1000</v>
@@ -1846,7 +1846,7 @@
         <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN10" t="n">
         <v>1000</v>
@@ -1900,10 +1900,10 @@
         <v>3.8</v>
       </c>
       <c r="L11" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M11" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
         <v>3.7</v>
@@ -1915,10 +1915,10 @@
         <v>1.94</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="R11" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S11" t="n">
         <v>3.3</v>
@@ -1936,7 +1936,7 @@
         <v>1.69</v>
       </c>
       <c r="X11" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="Y11" t="n">
         <v>16.5</v>
@@ -1945,7 +1945,7 @@
         <v>30</v>
       </c>
       <c r="AA11" t="n">
-        <v>75</v>
+        <v>440</v>
       </c>
       <c r="AB11" t="n">
         <v>12.5</v>
@@ -1966,7 +1966,7 @@
         <v>13.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AI11" t="n">
         <v>60</v>
@@ -1981,10 +1981,10 @@
         <v>46</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>390</v>
       </c>
       <c r="AN11" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="AO11" t="n">
         <v>46</v>
@@ -2017,13 +2017,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="G12" t="n">
         <v>3.6</v>
       </c>
       <c r="H12" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="I12" t="n">
         <v>2.68</v>
@@ -2041,10 +2041,10 @@
         <v>1.11</v>
       </c>
       <c r="N12" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="O12" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="P12" t="n">
         <v>1.64</v>
@@ -2059,7 +2059,7 @@
         <v>4.5</v>
       </c>
       <c r="T12" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="U12" t="n">
         <v>1.92</v>
@@ -2071,37 +2071,37 @@
         <v>1.39</v>
       </c>
       <c r="X12" t="n">
-        <v>10</v>
+        <v>17.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>10.5</v>
+        <v>18</v>
       </c>
       <c r="Z12" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="AA12" t="n">
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AE12" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AF12" t="n">
-        <v>27</v>
+        <v>970</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="AH12" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AI12" t="n">
         <v>1000</v>
@@ -2122,7 +2122,7 @@
         <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
@@ -2185,13 +2185,13 @@
         <v>2.32</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="R13" t="n">
         <v>1.52</v>
       </c>
       <c r="S13" t="n">
-        <v>2.56</v>
+        <v>2.64</v>
       </c>
       <c r="T13" t="n">
         <v>1.74</v>
@@ -2200,64 +2200,64 @@
         <v>2.16</v>
       </c>
       <c r="V13" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W13" t="n">
         <v>2.52</v>
       </c>
       <c r="X13" t="n">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="Y13" t="n">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="Z13" t="n">
-        <v>55</v>
+        <v>500</v>
       </c>
       <c r="AA13" t="n">
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="AD13" t="n">
-        <v>26</v>
+        <v>970</v>
       </c>
       <c r="AE13" t="n">
-        <v>80</v>
+        <v>700</v>
       </c>
       <c r="AF13" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH13" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AI13" t="n">
-        <v>75</v>
+        <v>700</v>
       </c>
       <c r="AJ13" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="AK13" t="n">
-        <v>18.5</v>
+        <v>32</v>
       </c>
       <c r="AL13" t="n">
         <v>970</v>
       </c>
       <c r="AM13" t="n">
-        <v>100</v>
+        <v>580</v>
       </c>
       <c r="AN13" t="n">
-        <v>8.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="AO13" t="n">
-        <v>80</v>
+        <v>700</v>
       </c>
     </row>
     <row r="14">
@@ -2287,13 +2287,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="G14" t="n">
         <v>3.35</v>
       </c>
       <c r="H14" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="I14" t="n">
         <v>2.46</v>
@@ -2305,34 +2305,34 @@
         <v>3.75</v>
       </c>
       <c r="L14" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M14" t="n">
         <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="O14" t="n">
         <v>1.31</v>
       </c>
       <c r="P14" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="Q14" t="n">
         <v>1.9</v>
       </c>
       <c r="R14" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S14" t="n">
         <v>3.2</v>
       </c>
       <c r="T14" t="n">
-        <v>1.59</v>
+        <v>1.73</v>
       </c>
       <c r="U14" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="V14" t="n">
         <v>1.68</v>
@@ -2341,43 +2341,43 @@
         <v>1.43</v>
       </c>
       <c r="X14" t="n">
+        <v>65</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>900</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD14" t="n">
         <v>18.5</v>
       </c>
-      <c r="Y14" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>980</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>14</v>
-      </c>
       <c r="AE14" t="n">
         <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="AG14" t="n">
-        <v>16.5</v>
+        <v>30</v>
       </c>
       <c r="AH14" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AI14" t="n">
         <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AK14" t="n">
         <v>1000</v>
@@ -2386,13 +2386,13 @@
         <v>1000</v>
       </c>
       <c r="AM14" t="n">
-        <v>100</v>
+        <v>580</v>
       </c>
       <c r="AN14" t="n">
         <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>22</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15">
@@ -2422,28 +2422,28 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="G15" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="H15" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I15" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="J15" t="n">
         <v>3.75</v>
       </c>
       <c r="K15" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L15" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
         <v>4.1</v>
@@ -2452,10 +2452,10 @@
         <v>1.27</v>
       </c>
       <c r="P15" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="R15" t="n">
         <v>1.43</v>
@@ -2467,67 +2467,67 @@
         <v>1.78</v>
       </c>
       <c r="U15" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V15" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="W15" t="n">
         <v>2.14</v>
       </c>
       <c r="X15" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Y15" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="Z15" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AA15" t="n">
-        <v>140</v>
+        <v>900</v>
       </c>
       <c r="AB15" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AC15" t="n">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="AD15" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AE15" t="n">
-        <v>75</v>
+        <v>700</v>
       </c>
       <c r="AF15" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AG15" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH15" t="n">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="AI15" t="n">
-        <v>80</v>
+        <v>700</v>
       </c>
       <c r="AJ15" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AK15" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AL15" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AM15" t="n">
-        <v>120</v>
+        <v>580</v>
       </c>
       <c r="AN15" t="n">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="AO15" t="n">
-        <v>80</v>
+        <v>700</v>
       </c>
     </row>
     <row r="16">
@@ -2557,40 +2557,40 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="G16" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="H16" t="n">
         <v>3.25</v>
       </c>
       <c r="I16" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="J16" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K16" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="L16" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="M16" t="n">
         <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="O16" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P16" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="Q16" t="n">
         <v>1.92</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.94</v>
       </c>
       <c r="R16" t="n">
         <v>1.36</v>
@@ -2599,67 +2599,67 @@
         <v>3.2</v>
       </c>
       <c r="T16" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="U16" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V16" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="W16" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="X16" t="n">
-        <v>970</v>
+        <v>29</v>
       </c>
       <c r="Y16" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="AA16" t="n">
-        <v>70</v>
+        <v>900</v>
       </c>
       <c r="AB16" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="AE16" t="n">
         <v>970</v>
       </c>
       <c r="AF16" t="n">
-        <v>970</v>
+        <v>28</v>
       </c>
       <c r="AG16" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AH16" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AI16" t="n">
         <v>970</v>
       </c>
       <c r="AJ16" t="n">
-        <v>970</v>
+        <v>120</v>
       </c>
       <c r="AK16" t="n">
-        <v>970</v>
+        <v>60</v>
       </c>
       <c r="AL16" t="n">
         <v>970</v>
       </c>
       <c r="AM16" t="n">
-        <v>110</v>
+        <v>580</v>
       </c>
       <c r="AN16" t="n">
-        <v>970</v>
+        <v>38</v>
       </c>
       <c r="AO16" t="n">
         <v>970</v>
@@ -2701,10 +2701,10 @@
         <v>2.86</v>
       </c>
       <c r="I17" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J17" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K17" t="n">
         <v>3.65</v>
@@ -2722,10 +2722,10 @@
         <v>1.32</v>
       </c>
       <c r="P17" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="R17" t="n">
         <v>1.34</v>
@@ -2740,16 +2740,16 @@
         <v>2.14</v>
       </c>
       <c r="V17" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="W17" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="X17" t="n">
         <v>14.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z17" t="n">
         <v>22</v>
@@ -2761,7 +2761,7 @@
         <v>11.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD17" t="n">
         <v>14</v>
@@ -2773,7 +2773,7 @@
         <v>18</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH17" t="n">
         <v>18</v>
@@ -2827,25 +2827,25 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="G18" t="n">
         <v>1.99</v>
       </c>
       <c r="H18" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I18" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="J18" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K18" t="n">
-        <v>4.9</v>
+        <v>4.2</v>
       </c>
       <c r="L18" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M18" t="n">
         <v>1.06</v>
@@ -2866,7 +2866,7 @@
         <v>1.38</v>
       </c>
       <c r="S18" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="T18" t="n">
         <v>1.8</v>
@@ -2884,7 +2884,7 @@
         <v>1000</v>
       </c>
       <c r="Y18" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Z18" t="n">
         <v>1000</v>
@@ -2893,43 +2893,43 @@
         <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AD18" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AE18" t="n">
         <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AG18" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AH18" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AI18" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AJ18" t="n">
         <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL18" t="n">
         <v>1000</v>
       </c>
       <c r="AM18" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN18" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO18" t="n">
         <v>1000</v>
@@ -2962,10 +2962,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="G19" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="H19" t="n">
         <v>3.65</v>
@@ -2986,25 +2986,25 @@
         <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="O19" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P19" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="R19" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="S19" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="T19" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="U19" t="n">
         <v>2.4</v>
@@ -3016,10 +3016,10 @@
         <v>1.83</v>
       </c>
       <c r="X19" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y19" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z19" t="n">
         <v>27</v>
@@ -3028,10 +3028,10 @@
         <v>70</v>
       </c>
       <c r="AB19" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AD19" t="n">
         <v>14.5</v>
@@ -3040,7 +3040,7 @@
         <v>38</v>
       </c>
       <c r="AF19" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG19" t="n">
         <v>10.5</v>
@@ -3052,7 +3052,7 @@
         <v>44</v>
       </c>
       <c r="AJ19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK19" t="n">
         <v>20</v>
@@ -3061,13 +3061,13 @@
         <v>32</v>
       </c>
       <c r="AM19" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN19" t="n">
         <v>13.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20">
@@ -3097,16 +3097,16 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="G20" t="n">
         <v>7.2</v>
       </c>
       <c r="H20" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="I20" t="n">
         <v>1.52</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1.53</v>
       </c>
       <c r="J20" t="n">
         <v>5</v>
@@ -3124,10 +3124,10 @@
         <v>6.2</v>
       </c>
       <c r="O20" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P20" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="Q20" t="n">
         <v>1.54</v>
@@ -3136,16 +3136,16 @@
         <v>1.72</v>
       </c>
       <c r="S20" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="T20" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="U20" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="V20" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="W20" t="n">
         <v>1.16</v>
@@ -3154,7 +3154,7 @@
         <v>27</v>
       </c>
       <c r="Y20" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z20" t="n">
         <v>11</v>
@@ -3163,7 +3163,7 @@
         <v>14.5</v>
       </c>
       <c r="AB20" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AC20" t="n">
         <v>11.5</v>
@@ -3184,25 +3184,25 @@
         <v>19</v>
       </c>
       <c r="AI20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ20" t="n">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="AK20" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AL20" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM20" t="n">
         <v>75</v>
       </c>
       <c r="AN20" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AO20" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="21">
@@ -3232,16 +3232,16 @@
         </is>
       </c>
       <c r="F21" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="G21" t="n">
         <v>4</v>
       </c>
-      <c r="G21" t="n">
-        <v>4.1</v>
-      </c>
       <c r="H21" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="I21" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="J21" t="n">
         <v>4.1</v>
@@ -3262,37 +3262,37 @@
         <v>1.22</v>
       </c>
       <c r="P21" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="R21" t="n">
         <v>1.57</v>
       </c>
       <c r="S21" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="T21" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="U21" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="V21" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="W21" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="X21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y21" t="n">
         <v>12.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AA21" t="n">
         <v>23</v>
@@ -3313,7 +3313,7 @@
         <v>32</v>
       </c>
       <c r="AG21" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH21" t="n">
         <v>16</v>
@@ -3325,13 +3325,13 @@
         <v>75</v>
       </c>
       <c r="AK21" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL21" t="n">
         <v>42</v>
       </c>
-      <c r="AL21" t="n">
-        <v>44</v>
-      </c>
       <c r="AM21" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN21" t="n">
         <v>34</v>
@@ -3367,10 +3367,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="G22" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="H22" t="n">
         <v>3</v>
@@ -3391,10 +3391,10 @@
         <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="O22" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P22" t="n">
         <v>2.24</v>
@@ -3412,10 +3412,10 @@
         <v>1.07</v>
       </c>
       <c r="U22" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="V22" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="W22" t="n">
         <v>1.64</v>
@@ -3427,7 +3427,7 @@
         <v>16.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AA22" t="n">
         <v>1000</v>
@@ -3442,10 +3442,10 @@
         <v>15</v>
       </c>
       <c r="AE22" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AF22" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AG22" t="n">
         <v>13</v>
@@ -3469,7 +3469,7 @@
         <v>80</v>
       </c>
       <c r="AN22" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO22" t="n">
         <v>1000</v>
@@ -3505,7 +3505,7 @@
         <v>1.96</v>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="H23" t="n">
         <v>4.6</v>
@@ -3514,7 +3514,7 @@
         <v>5.2</v>
       </c>
       <c r="J23" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K23" t="n">
         <v>3.45</v>
@@ -3532,7 +3532,7 @@
         <v>1.51</v>
       </c>
       <c r="P23" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="Q23" t="n">
         <v>2.5</v>
@@ -3541,70 +3541,70 @@
         <v>1.2</v>
       </c>
       <c r="S23" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="T23" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="U23" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="V23" t="n">
         <v>1.25</v>
       </c>
       <c r="W23" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="X23" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="Y23" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z23" t="n">
-        <v>42</v>
+        <v>150</v>
       </c>
       <c r="AA23" t="n">
-        <v>160</v>
+        <v>700</v>
       </c>
       <c r="AB23" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AC23" t="n">
         <v>7.8</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>8.800000000000001</v>
       </c>
       <c r="AD23" t="n">
         <v>22</v>
       </c>
       <c r="AE23" t="n">
-        <v>1000</v>
+        <v>480</v>
       </c>
       <c r="AF23" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AG23" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="AI23" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="AJ23" t="n">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="AK23" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="AL23" t="n">
-        <v>65</v>
+        <v>180</v>
       </c>
       <c r="AM23" t="n">
-        <v>220</v>
+        <v>580</v>
       </c>
       <c r="AN23" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AO23" t="n">
         <v>1000</v>
@@ -3637,13 +3637,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="G24" t="n">
         <v>4.1</v>
       </c>
       <c r="H24" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="I24" t="n">
         <v>2.36</v>
@@ -3652,22 +3652,22 @@
         <v>3.25</v>
       </c>
       <c r="K24" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L24" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="M24" t="n">
         <v>1.11</v>
       </c>
       <c r="N24" t="n">
-        <v>2.6</v>
+        <v>2.68</v>
       </c>
       <c r="O24" t="n">
         <v>1.52</v>
       </c>
       <c r="P24" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="Q24" t="n">
         <v>2.5</v>
@@ -3682,7 +3682,7 @@
         <v>2.08</v>
       </c>
       <c r="U24" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="V24" t="n">
         <v>1.73</v>
@@ -3691,52 +3691,52 @@
         <v>1.32</v>
       </c>
       <c r="X24" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="Z24" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AA24" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AB24" t="n">
-        <v>10.5</v>
+        <v>19</v>
       </c>
       <c r="AC24" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD24" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AE24" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AF24" t="n">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="AG24" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AI24" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AJ24" t="n">
-        <v>110</v>
+        <v>500</v>
       </c>
       <c r="AK24" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AL24" t="n">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="AM24" t="n">
-        <v>210</v>
+        <v>580</v>
       </c>
       <c r="AN24" t="n">
         <v>1000</v>
@@ -3826,10 +3826,10 @@
         <v>1.7</v>
       </c>
       <c r="X25" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Y25" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Z25" t="n">
         <v>1000</v>
@@ -3838,10 +3838,10 @@
         <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC25" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD25" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-17.xlsx
@@ -673,55 +673,55 @@
         <v>3.05</v>
       </c>
       <c r="H2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I2" t="n">
         <v>2.54</v>
       </c>
-      <c r="I2" t="n">
-        <v>2.56</v>
-      </c>
       <c r="J2" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K2" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L2" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O2" t="n">
         <v>1.24</v>
       </c>
       <c r="P2" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="R2" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="S2" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="T2" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="U2" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="V2" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="W2" t="n">
         <v>1.48</v>
       </c>
       <c r="X2" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Y2" t="n">
         <v>13.5</v>
@@ -733,7 +733,7 @@
         <v>34</v>
       </c>
       <c r="AB2" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC2" t="n">
         <v>8.199999999999999</v>
@@ -748,7 +748,7 @@
         <v>22</v>
       </c>
       <c r="AG2" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH2" t="n">
         <v>14.5</v>
@@ -805,7 +805,7 @@
         <v>16.5</v>
       </c>
       <c r="G3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" t="n">
         <v>1.16</v>
@@ -817,13 +817,13 @@
         <v>8.6</v>
       </c>
       <c r="K3" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N3" t="n">
         <v>7.2</v>
@@ -841,7 +841,7 @@
         <v>1.87</v>
       </c>
       <c r="S3" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="T3" t="n">
         <v>2.2</v>
@@ -859,13 +859,13 @@
         <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>970</v>
+        <v>150</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA3" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
         <v>1000</v>
@@ -937,70 +937,70 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.8</v>
+        <v>13.5</v>
       </c>
       <c r="G4" t="n">
-        <v>990</v>
+        <v>25</v>
       </c>
       <c r="H4" t="n">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="I4" t="n">
-        <v>1.53</v>
+        <v>1.31</v>
       </c>
       <c r="J4" t="n">
-        <v>3.85</v>
+        <v>5.1</v>
       </c>
       <c r="K4" t="n">
-        <v>950</v>
+        <v>6.6</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>1.28</v>
+        <v>3.5</v>
       </c>
       <c r="O4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="V4" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="W4" t="n">
         <v>1.05</v>
       </c>
-      <c r="P4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="V4" t="n">
-        <v>2</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.04</v>
-      </c>
       <c r="X4" t="n">
         <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AB4" t="n">
         <v>1000</v>
@@ -1075,55 +1075,55 @@
         <v>2.72</v>
       </c>
       <c r="G5" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="I5" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="J5" t="n">
         <v>3.3</v>
       </c>
       <c r="K5" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O5" t="n">
         <v>1.32</v>
       </c>
       <c r="P5" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="R5" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="S5" t="n">
         <v>3.45</v>
       </c>
       <c r="T5" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U5" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V5" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="W5" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="X5" t="n">
         <v>15</v>
@@ -1156,7 +1156,7 @@
         <v>14</v>
       </c>
       <c r="AH5" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AI5" t="n">
         <v>130</v>
@@ -1210,10 +1210,10 @@
         <v>3.65</v>
       </c>
       <c r="G6" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="H6" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="I6" t="n">
         <v>1.94</v>
@@ -1222,7 +1222,7 @@
         <v>3.45</v>
       </c>
       <c r="K6" t="n">
-        <v>5.5</v>
+        <v>4.8</v>
       </c>
       <c r="L6" t="n">
         <v>1.27</v>
@@ -1255,10 +1255,10 @@
         <v>1.05</v>
       </c>
       <c r="V6" t="n">
-        <v>1.92</v>
+        <v>1.84</v>
       </c>
       <c r="W6" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1270,7 +1270,7 @@
         <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB6" t="n">
         <v>1000</v>
@@ -1348,19 +1348,19 @@
         <v>3.6</v>
       </c>
       <c r="H7" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="I7" t="n">
         <v>2.28</v>
       </c>
       <c r="J7" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K7" t="n">
         <v>3.65</v>
       </c>
       <c r="L7" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M7" t="n">
         <v>1.06</v>
@@ -1372,10 +1372,10 @@
         <v>1.27</v>
       </c>
       <c r="P7" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="R7" t="n">
         <v>1.44</v>
@@ -1387,7 +1387,7 @@
         <v>1.7</v>
       </c>
       <c r="U7" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="V7" t="n">
         <v>1.78</v>
@@ -1411,19 +1411,19 @@
         <v>15</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD7" t="n">
         <v>10.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF7" t="n">
         <v>25</v>
       </c>
       <c r="AG7" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH7" t="n">
         <v>15.5</v>
@@ -1438,7 +1438,7 @@
         <v>36</v>
       </c>
       <c r="AL7" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM7" t="n">
         <v>75</v>
@@ -1477,13 +1477,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="G8" t="n">
         <v>3.75</v>
       </c>
       <c r="H8" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="I8" t="n">
         <v>2.52</v>
@@ -1495,7 +1495,7 @@
         <v>3.55</v>
       </c>
       <c r="L8" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="M8" t="n">
         <v>1.09</v>
@@ -1534,13 +1534,13 @@
         <v>20</v>
       </c>
       <c r="Y8" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z8" t="n">
         <v>30</v>
       </c>
       <c r="AA8" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="AB8" t="n">
         <v>24</v>
@@ -1615,10 +1615,10 @@
         <v>2.88</v>
       </c>
       <c r="G9" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H9" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="I9" t="n">
         <v>2.56</v>
@@ -1663,7 +1663,7 @@
         <v>1.64</v>
       </c>
       <c r="W9" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="X9" t="n">
         <v>90</v>
@@ -1900,7 +1900,7 @@
         <v>3.8</v>
       </c>
       <c r="L11" t="n">
-        <v>1.39</v>
+        <v>1.31</v>
       </c>
       <c r="M11" t="n">
         <v>1.05</v>
@@ -1915,7 +1915,7 @@
         <v>1.94</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="R11" t="n">
         <v>1.37</v>
@@ -2020,10 +2020,10 @@
         <v>3.25</v>
       </c>
       <c r="G12" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="H12" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="I12" t="n">
         <v>2.68</v>
@@ -2041,7 +2041,7 @@
         <v>1.11</v>
       </c>
       <c r="N12" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="O12" t="n">
         <v>1.46</v>
@@ -2059,7 +2059,7 @@
         <v>4.5</v>
       </c>
       <c r="T12" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="U12" t="n">
         <v>1.92</v>
@@ -2077,7 +2077,7 @@
         <v>18</v>
       </c>
       <c r="Z12" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AA12" t="n">
         <v>1000</v>
@@ -2098,10 +2098,10 @@
         <v>970</v>
       </c>
       <c r="AG12" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI12" t="n">
         <v>1000</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="G13" t="n">
         <v>1.64</v>
@@ -2200,7 +2200,7 @@
         <v>2.16</v>
       </c>
       <c r="V13" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="W13" t="n">
         <v>2.52</v>
@@ -2209,7 +2209,7 @@
         <v>44</v>
       </c>
       <c r="Y13" t="n">
-        <v>65</v>
+        <v>970</v>
       </c>
       <c r="Z13" t="n">
         <v>500</v>
@@ -2302,10 +2302,10 @@
         <v>3.6</v>
       </c>
       <c r="K14" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L14" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M14" t="n">
         <v>1.06</v>
@@ -2323,7 +2323,7 @@
         <v>1.9</v>
       </c>
       <c r="R14" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="S14" t="n">
         <v>3.2</v>
@@ -2377,7 +2377,7 @@
         <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>290</v>
+        <v>900</v>
       </c>
       <c r="AK14" t="n">
         <v>1000</v>
@@ -2389,10 +2389,10 @@
         <v>580</v>
       </c>
       <c r="AN14" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AO14" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
@@ -2422,61 +2422,61 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="G15" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="H15" t="n">
         <v>4.8</v>
       </c>
       <c r="I15" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="J15" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K15" t="n">
         <v>4.1</v>
       </c>
       <c r="L15" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O15" t="n">
         <v>1.27</v>
       </c>
       <c r="P15" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="R15" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S15" t="n">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="T15" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="U15" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V15" t="n">
         <v>1.23</v>
       </c>
       <c r="W15" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="X15" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y15" t="n">
         <v>980</v>
@@ -2572,10 +2572,10 @@
         <v>3.5</v>
       </c>
       <c r="K16" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L16" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="M16" t="n">
         <v>1.06</v>
@@ -2587,7 +2587,7 @@
         <v>1.3</v>
       </c>
       <c r="P16" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="Q16" t="n">
         <v>1.92</v>
@@ -2602,7 +2602,7 @@
         <v>1.75</v>
       </c>
       <c r="U16" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="V16" t="n">
         <v>1.41</v>
@@ -2614,7 +2614,7 @@
         <v>29</v>
       </c>
       <c r="Y16" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="Z16" t="n">
         <v>55</v>
@@ -2641,7 +2641,7 @@
         <v>17</v>
       </c>
       <c r="AH16" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AI16" t="n">
         <v>970</v>
@@ -2701,16 +2701,16 @@
         <v>2.86</v>
       </c>
       <c r="I17" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="J17" t="n">
         <v>3.3</v>
       </c>
       <c r="K17" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="L17" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="M17" t="n">
         <v>1.07</v>
@@ -2722,7 +2722,7 @@
         <v>1.32</v>
       </c>
       <c r="P17" t="n">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="Q17" t="n">
         <v>2</v>
@@ -2827,16 +2827,16 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="G18" t="n">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="H18" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I18" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="J18" t="n">
         <v>3.6</v>
@@ -2860,7 +2860,7 @@
         <v>1.98</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R18" t="n">
         <v>1.38</v>
@@ -2875,16 +2875,16 @@
         <v>2.12</v>
       </c>
       <c r="V18" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W18" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="X18" t="n">
         <v>1000</v>
       </c>
       <c r="Y18" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="Z18" t="n">
         <v>1000</v>
@@ -2899,13 +2899,13 @@
         <v>14</v>
       </c>
       <c r="AD18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF18" t="n">
         <v>500</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>25</v>
       </c>
       <c r="AG18" t="n">
         <v>20</v>
@@ -2914,7 +2914,7 @@
         <v>40</v>
       </c>
       <c r="AI18" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AJ18" t="n">
         <v>1000</v>
@@ -2962,16 +2962,16 @@
         </is>
       </c>
       <c r="F19" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="G19" t="n">
         <v>2.18</v>
-      </c>
-      <c r="G19" t="n">
-        <v>2.2</v>
       </c>
       <c r="H19" t="n">
         <v>3.65</v>
       </c>
       <c r="I19" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J19" t="n">
         <v>3.7</v>
@@ -2989,13 +2989,13 @@
         <v>4.5</v>
       </c>
       <c r="O19" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P19" t="n">
         <v>2.2</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="R19" t="n">
         <v>1.47</v>
@@ -3004,25 +3004,25 @@
         <v>3.05</v>
       </c>
       <c r="T19" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="U19" t="n">
         <v>2.4</v>
       </c>
       <c r="V19" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="W19" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="X19" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA19" t="n">
         <v>70</v>
@@ -3052,16 +3052,16 @@
         <v>44</v>
       </c>
       <c r="AJ19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK19" t="n">
         <v>20</v>
       </c>
       <c r="AL19" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM19" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AN19" t="n">
         <v>13.5</v>
@@ -3118,7 +3118,7 @@
         <v>1.28</v>
       </c>
       <c r="M20" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N20" t="n">
         <v>6.2</v>
@@ -3127,10 +3127,10 @@
         <v>1.18</v>
       </c>
       <c r="P20" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="R20" t="n">
         <v>1.72</v>
@@ -3142,7 +3142,7 @@
         <v>1.7</v>
       </c>
       <c r="U20" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="V20" t="n">
         <v>2.92</v>
@@ -3184,7 +3184,7 @@
         <v>19</v>
       </c>
       <c r="AI20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ20" t="n">
         <v>220</v>
@@ -3193,16 +3193,16 @@
         <v>80</v>
       </c>
       <c r="AL20" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM20" t="n">
         <v>75</v>
       </c>
       <c r="AN20" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AO20" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="21">
@@ -3232,16 +3232,16 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="G21" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H21" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="I21" t="n">
         <v>1.96</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1.98</v>
       </c>
       <c r="J21" t="n">
         <v>4.1</v>
@@ -3256,16 +3256,16 @@
         <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="O21" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P21" t="n">
         <v>2.44</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="R21" t="n">
         <v>1.57</v>
@@ -3274,16 +3274,16 @@
         <v>2.68</v>
       </c>
       <c r="T21" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="U21" t="n">
         <v>2.52</v>
       </c>
       <c r="V21" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="W21" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="X21" t="n">
         <v>22</v>
@@ -3292,13 +3292,13 @@
         <v>12.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AA21" t="n">
         <v>23</v>
       </c>
       <c r="AB21" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AC21" t="n">
         <v>9.199999999999999</v>
@@ -3313,10 +3313,10 @@
         <v>32</v>
       </c>
       <c r="AG21" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH21" t="n">
         <v>15.5</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>16</v>
       </c>
       <c r="AI21" t="n">
         <v>27</v>
@@ -3334,7 +3334,7 @@
         <v>65</v>
       </c>
       <c r="AN21" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AO21" t="n">
         <v>9.6</v>
@@ -3367,10 +3367,10 @@
         </is>
       </c>
       <c r="F22" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="G22" t="n">
         <v>2.56</v>
-      </c>
-      <c r="G22" t="n">
-        <v>2.58</v>
       </c>
       <c r="H22" t="n">
         <v>3</v>
@@ -3379,7 +3379,7 @@
         <v>3.1</v>
       </c>
       <c r="J22" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K22" t="n">
         <v>3.6</v>
@@ -3391,7 +3391,7 @@
         <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>2.34</v>
+        <v>4</v>
       </c>
       <c r="O22" t="n">
         <v>1.23</v>
@@ -3403,19 +3403,19 @@
         <v>1.71</v>
       </c>
       <c r="R22" t="n">
-        <v>1.14</v>
+        <v>1.4</v>
       </c>
       <c r="S22" t="n">
         <v>1.71</v>
       </c>
       <c r="T22" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="U22" t="n">
         <v>1.08</v>
       </c>
       <c r="V22" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="W22" t="n">
         <v>1.64</v>
@@ -3460,10 +3460,10 @@
         <v>40</v>
       </c>
       <c r="AK22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL22" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM22" t="n">
         <v>80</v>
@@ -3505,7 +3505,7 @@
         <v>1.96</v>
       </c>
       <c r="G23" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="H23" t="n">
         <v>4.6</v>
@@ -3517,7 +3517,7 @@
         <v>3.2</v>
       </c>
       <c r="K23" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L23" t="n">
         <v>1.01</v>
@@ -3532,7 +3532,7 @@
         <v>1.51</v>
       </c>
       <c r="P23" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="Q23" t="n">
         <v>2.5</v>
@@ -3544,7 +3544,7 @@
         <v>5.1</v>
       </c>
       <c r="T23" t="n">
-        <v>1.94</v>
+        <v>2.12</v>
       </c>
       <c r="U23" t="n">
         <v>1.75</v>
@@ -3553,7 +3553,7 @@
         <v>1.25</v>
       </c>
       <c r="W23" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="X23" t="n">
         <v>9.4</v>
@@ -3574,7 +3574,7 @@
         <v>7.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="AE23" t="n">
         <v>480</v>
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="G24" t="n">
         <v>4.1</v>
@@ -3652,10 +3652,10 @@
         <v>3.25</v>
       </c>
       <c r="K24" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L24" t="n">
-        <v>1.54</v>
+        <v>1.01</v>
       </c>
       <c r="M24" t="n">
         <v>1.11</v>
@@ -3772,13 +3772,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="G25" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="H25" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I25" t="n">
         <v>4.1</v>
@@ -3787,7 +3787,7 @@
         <v>3.05</v>
       </c>
       <c r="K25" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="L25" t="n">
         <v>1.01</v>
@@ -3796,13 +3796,13 @@
         <v>1.11</v>
       </c>
       <c r="N25" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="O25" t="n">
         <v>1.52</v>
       </c>
       <c r="P25" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="Q25" t="n">
         <v>2.52</v>
@@ -3811,19 +3811,19 @@
         <v>1.19</v>
       </c>
       <c r="S25" t="n">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="T25" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="U25" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="V25" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="W25" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="X25" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-17.xlsx
@@ -697,31 +697,31 @@
         <v>1.24</v>
       </c>
       <c r="P2" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="R2" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="S2" t="n">
         <v>2.92</v>
       </c>
       <c r="T2" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="U2" t="n">
         <v>2.54</v>
       </c>
       <c r="V2" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="W2" t="n">
         <v>1.48</v>
       </c>
       <c r="X2" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Y2" t="n">
         <v>13.5</v>
@@ -814,31 +814,31 @@
         <v>1.19</v>
       </c>
       <c r="J3" t="n">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="K3" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M3" t="n">
         <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="O3" t="n">
         <v>1.13</v>
       </c>
       <c r="P3" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="Q3" t="n">
         <v>1.4</v>
       </c>
       <c r="R3" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="S3" t="n">
         <v>2.02</v>
@@ -859,10 +859,10 @@
         <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>150</v>
+        <v>29</v>
       </c>
       <c r="Z3" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
@@ -874,7 +874,7 @@
         <v>980</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
@@ -907,7 +907,7 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="4">
@@ -937,37 +937,37 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>13.5</v>
+        <v>23</v>
       </c>
       <c r="G4" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="H4" t="n">
         <v>1.27</v>
       </c>
       <c r="I4" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="J4" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="K4" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="L4" t="n">
-        <v>1.32</v>
+        <v>1.41</v>
       </c>
       <c r="M4" t="n">
         <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O4" t="n">
         <v>1.33</v>
       </c>
       <c r="P4" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="Q4" t="n">
         <v>2</v>
@@ -976,28 +976,28 @@
         <v>1.33</v>
       </c>
       <c r="S4" t="n">
-        <v>3.1</v>
+        <v>3.55</v>
       </c>
       <c r="T4" t="n">
-        <v>2.74</v>
+        <v>2.88</v>
       </c>
       <c r="U4" t="n">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="V4" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="W4" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
         <v>17.5</v>
@@ -1072,55 +1072,55 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="H5" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="I5" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="J5" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K5" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="L5" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="O5" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P5" t="n">
-        <v>1.87</v>
+        <v>1.96</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="R5" t="n">
         <v>1.39</v>
       </c>
       <c r="S5" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="T5" t="n">
         <v>1.79</v>
       </c>
       <c r="U5" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="V5" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="W5" t="n">
         <v>1.5</v>
@@ -1132,13 +1132,13 @@
         <v>11.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AA5" t="n">
-        <v>130</v>
+        <v>900</v>
       </c>
       <c r="AB5" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC5" t="n">
         <v>8.199999999999999</v>
@@ -1147,22 +1147,22 @@
         <v>13.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="AF5" t="n">
         <v>42</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI5" t="n">
-        <v>130</v>
+        <v>980</v>
       </c>
       <c r="AJ5" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="AK5" t="n">
         <v>95</v>
@@ -1177,7 +1177,7 @@
         <v>44</v>
       </c>
       <c r="AO5" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
@@ -1207,58 +1207,58 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
       <c r="G6" t="n">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="H6" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="I6" t="n">
         <v>1.94</v>
       </c>
       <c r="J6" t="n">
-        <v>3.45</v>
+        <v>3.8</v>
       </c>
       <c r="K6" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="M6" t="n">
         <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P6" t="n">
-        <v>2.04</v>
+        <v>2.28</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.61</v>
+        <v>1.72</v>
       </c>
       <c r="R6" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S6" t="n">
-        <v>2.68</v>
+        <v>2.84</v>
       </c>
       <c r="T6" t="n">
-        <v>1.57</v>
+        <v>1.71</v>
       </c>
       <c r="U6" t="n">
         <v>1.05</v>
       </c>
       <c r="V6" t="n">
-        <v>1.84</v>
+        <v>2.04</v>
       </c>
       <c r="W6" t="n">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="F7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G7" t="n">
         <v>3.55</v>
-      </c>
-      <c r="G7" t="n">
-        <v>3.6</v>
       </c>
       <c r="H7" t="n">
         <v>2.26</v>
@@ -1369,13 +1369,13 @@
         <v>4.4</v>
       </c>
       <c r="O7" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P7" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="R7" t="n">
         <v>1.44</v>
@@ -1387,19 +1387,19 @@
         <v>1.7</v>
       </c>
       <c r="U7" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="V7" t="n">
         <v>1.78</v>
       </c>
       <c r="W7" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="X7" t="n">
         <v>16</v>
       </c>
       <c r="Y7" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z7" t="n">
         <v>14.5</v>
@@ -1417,7 +1417,7 @@
         <v>10.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF7" t="n">
         <v>25</v>
@@ -1438,7 +1438,7 @@
         <v>36</v>
       </c>
       <c r="AL7" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AM7" t="n">
         <v>75</v>
@@ -1477,49 +1477,49 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="H8" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="I8" t="n">
-        <v>2.52</v>
+        <v>2.42</v>
       </c>
       <c r="J8" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K8" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="L8" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="O8" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P8" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="R8" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S8" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="T8" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="U8" t="n">
         <v>1.92</v>
@@ -1531,13 +1531,13 @@
         <v>1.01</v>
       </c>
       <c r="X8" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Y8" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="Z8" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AA8" t="n">
         <v>900</v>
@@ -1546,13 +1546,13 @@
         <v>24</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.8</v>
+        <v>14</v>
       </c>
       <c r="AD8" t="n">
         <v>22</v>
       </c>
       <c r="AE8" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AF8" t="n">
         <v>80</v>
@@ -1615,55 +1615,55 @@
         <v>2.88</v>
       </c>
       <c r="G9" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="H9" t="n">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="I9" t="n">
         <v>2.56</v>
       </c>
       <c r="J9" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="K9" t="n">
         <v>4.1</v>
       </c>
       <c r="L9" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="M9" t="n">
         <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="O9" t="n">
         <v>1.22</v>
       </c>
       <c r="P9" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="R9" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S9" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="T9" t="n">
         <v>1.6</v>
       </c>
       <c r="U9" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="V9" t="n">
         <v>1.64</v>
       </c>
       <c r="W9" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="X9" t="n">
         <v>90</v>
@@ -1747,46 +1747,46 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="G10" t="n">
-        <v>4.4</v>
+        <v>3.75</v>
       </c>
       <c r="H10" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Q10" t="n">
         <v>1.98</v>
       </c>
-      <c r="I10" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>6</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N10" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.8</v>
-      </c>
       <c r="R10" t="n">
-        <v>1.25</v>
+        <v>1.34</v>
       </c>
       <c r="S10" t="n">
-        <v>2.62</v>
+        <v>3.5</v>
       </c>
       <c r="T10" t="n">
         <v>1.05</v>
@@ -1795,10 +1795,10 @@
         <v>1.94</v>
       </c>
       <c r="V10" t="n">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="W10" t="n">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="X10" t="n">
         <v>970</v>
@@ -1822,7 +1822,7 @@
         <v>1000</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AF10" t="n">
         <v>1000</v>
@@ -1852,7 +1852,7 @@
         <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="11">
@@ -1885,10 +1885,10 @@
         <v>2.22</v>
       </c>
       <c r="G11" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="H11" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I11" t="n">
         <v>3.6</v>
@@ -1900,28 +1900,28 @@
         <v>3.8</v>
       </c>
       <c r="L11" t="n">
-        <v>1.31</v>
+        <v>1.4</v>
       </c>
       <c r="M11" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="O11" t="n">
         <v>1.31</v>
       </c>
       <c r="P11" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Q11" t="n">
         <v>1.94</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.91</v>
       </c>
       <c r="R11" t="n">
         <v>1.37</v>
       </c>
       <c r="S11" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T11" t="n">
         <v>1.73</v>
@@ -1930,10 +1930,10 @@
         <v>2.16</v>
       </c>
       <c r="V11" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="W11" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="X11" t="n">
         <v>15</v>
@@ -2023,7 +2023,7 @@
         <v>3.55</v>
       </c>
       <c r="H12" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="I12" t="n">
         <v>2.68</v>
@@ -2032,7 +2032,7 @@
         <v>3</v>
       </c>
       <c r="K12" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L12" t="n">
         <v>1.52</v>
@@ -2041,7 +2041,7 @@
         <v>1.11</v>
       </c>
       <c r="N12" t="n">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="O12" t="n">
         <v>1.46</v>
@@ -2050,7 +2050,7 @@
         <v>1.64</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="R12" t="n">
         <v>1.24</v>
@@ -2068,7 +2068,7 @@
         <v>1.59</v>
       </c>
       <c r="W12" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="X12" t="n">
         <v>17.5</v>
@@ -2098,7 +2098,7 @@
         <v>970</v>
       </c>
       <c r="AG12" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AH12" t="n">
         <v>1000</v>
@@ -2152,58 +2152,58 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="G13" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="H13" t="n">
         <v>5.6</v>
       </c>
       <c r="I13" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="J13" t="n">
         <v>4.4</v>
       </c>
       <c r="K13" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L13" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="M13" t="n">
         <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O13" t="n">
         <v>1.22</v>
       </c>
       <c r="P13" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R13" t="n">
         <v>1.52</v>
       </c>
       <c r="S13" t="n">
-        <v>2.64</v>
+        <v>2.72</v>
       </c>
       <c r="T13" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="U13" t="n">
         <v>2.16</v>
       </c>
       <c r="V13" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="W13" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="X13" t="n">
         <v>44</v>
@@ -2230,7 +2230,7 @@
         <v>700</v>
       </c>
       <c r="AF13" t="n">
-        <v>11.5</v>
+        <v>23</v>
       </c>
       <c r="AG13" t="n">
         <v>10</v>
@@ -2287,55 +2287,55 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="G14" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="H14" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="I14" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="J14" t="n">
         <v>3.6</v>
       </c>
       <c r="K14" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L14" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="M14" t="n">
         <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="O14" t="n">
         <v>1.31</v>
       </c>
       <c r="P14" t="n">
-        <v>1.93</v>
+        <v>2.04</v>
       </c>
       <c r="Q14" t="n">
         <v>1.9</v>
       </c>
       <c r="R14" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="S14" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T14" t="n">
         <v>1.73</v>
       </c>
       <c r="U14" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="V14" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="W14" t="n">
         <v>1.43</v>
@@ -2389,7 +2389,7 @@
         <v>580</v>
       </c>
       <c r="AN14" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
         <v>25</v>
@@ -2425,7 +2425,7 @@
         <v>1.77</v>
       </c>
       <c r="G15" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="H15" t="n">
         <v>4.8</v>
@@ -2434,40 +2434,40 @@
         <v>5.4</v>
       </c>
       <c r="J15" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K15" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L15" t="n">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="M15" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O15" t="n">
         <v>1.27</v>
       </c>
       <c r="P15" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="R15" t="n">
         <v>1.44</v>
       </c>
       <c r="S15" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="T15" t="n">
         <v>1.75</v>
       </c>
       <c r="U15" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V15" t="n">
         <v>1.23</v>
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="G16" t="n">
         <v>2.44</v>
       </c>
       <c r="H16" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I16" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="J16" t="n">
         <v>3.5</v>
@@ -2581,28 +2581,28 @@
         <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="O16" t="n">
         <v>1.3</v>
       </c>
       <c r="P16" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q16" t="n">
         <v>1.93</v>
       </c>
-      <c r="Q16" t="n">
-        <v>1.92</v>
-      </c>
       <c r="R16" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="S16" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="T16" t="n">
         <v>1.75</v>
       </c>
       <c r="U16" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V16" t="n">
         <v>1.41</v>
@@ -2692,13 +2692,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="G17" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="H17" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="I17" t="n">
         <v>3.15</v>
@@ -2707,31 +2707,31 @@
         <v>3.3</v>
       </c>
       <c r="K17" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="L17" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="M17" t="n">
         <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>3.45</v>
+        <v>3.85</v>
       </c>
       <c r="O17" t="n">
         <v>1.32</v>
       </c>
       <c r="P17" t="n">
-        <v>1.84</v>
+        <v>1.92</v>
       </c>
       <c r="Q17" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R17" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S17" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T17" t="n">
         <v>1.73</v>
@@ -2740,10 +2740,10 @@
         <v>2.14</v>
       </c>
       <c r="V17" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="W17" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="X17" t="n">
         <v>14.5</v>
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="G18" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="H18" t="n">
         <v>4.2</v>
@@ -2839,34 +2839,34 @@
         <v>5</v>
       </c>
       <c r="J18" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K18" t="n">
         <v>4.2</v>
       </c>
       <c r="L18" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="M18" t="n">
         <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="O18" t="n">
         <v>1.29</v>
       </c>
       <c r="P18" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="R18" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="S18" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="T18" t="n">
         <v>1.8</v>
@@ -2875,7 +2875,7 @@
         <v>2.12</v>
       </c>
       <c r="V18" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W18" t="n">
         <v>2.04</v>
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="G19" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="H19" t="n">
         <v>3.65</v>
       </c>
       <c r="I19" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J19" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K19" t="n">
         <v>3.7</v>
-      </c>
-      <c r="K19" t="n">
-        <v>3.75</v>
       </c>
       <c r="L19" t="n">
         <v>1.37</v>
@@ -2986,7 +2986,7 @@
         <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O19" t="n">
         <v>1.26</v>
@@ -2995,7 +2995,7 @@
         <v>2.2</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="R19" t="n">
         <v>1.47</v>
@@ -3010,7 +3010,7 @@
         <v>2.4</v>
       </c>
       <c r="V19" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W19" t="n">
         <v>1.84</v>
@@ -3019,13 +3019,13 @@
         <v>16.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Z19" t="n">
         <v>26</v>
       </c>
       <c r="AA19" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB19" t="n">
         <v>11.5</v>
@@ -3055,7 +3055,7 @@
         <v>25</v>
       </c>
       <c r="AK19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL19" t="n">
         <v>30</v>
@@ -3124,7 +3124,7 @@
         <v>6.2</v>
       </c>
       <c r="O20" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P20" t="n">
         <v>2.78</v>
@@ -3163,7 +3163,7 @@
         <v>14.5</v>
       </c>
       <c r="AB20" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AC20" t="n">
         <v>11.5</v>
@@ -3172,7 +3172,7 @@
         <v>10</v>
       </c>
       <c r="AE20" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AF20" t="n">
         <v>65</v>
@@ -3181,13 +3181,13 @@
         <v>25</v>
       </c>
       <c r="AH20" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ20" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="AK20" t="n">
         <v>80</v>
@@ -3202,7 +3202,7 @@
         <v>70</v>
       </c>
       <c r="AO20" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="21">
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="G21" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="J21" t="n">
         <v>4</v>
       </c>
-      <c r="G21" t="n">
+      <c r="K21" t="n">
         <v>4.1</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="J21" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K21" t="n">
-        <v>4.2</v>
       </c>
       <c r="L21" t="n">
         <v>1.32</v>
@@ -3265,25 +3265,25 @@
         <v>2.44</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="R21" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="S21" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="T21" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="U21" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="V21" t="n">
-        <v>2.04</v>
+        <v>1.97</v>
       </c>
       <c r="W21" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="X21" t="n">
         <v>22</v>
@@ -3292,13 +3292,13 @@
         <v>12.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AA21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AB21" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AC21" t="n">
         <v>9.199999999999999</v>
@@ -3307,13 +3307,13 @@
         <v>10</v>
       </c>
       <c r="AE21" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AF21" t="n">
         <v>32</v>
       </c>
       <c r="AG21" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH21" t="n">
         <v>15.5</v>
@@ -3328,13 +3328,13 @@
         <v>40</v>
       </c>
       <c r="AL21" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM21" t="n">
         <v>65</v>
       </c>
       <c r="AN21" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AO21" t="n">
         <v>9.6</v>
@@ -3394,7 +3394,7 @@
         <v>4</v>
       </c>
       <c r="O22" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P22" t="n">
         <v>2.24</v>
@@ -3409,7 +3409,7 @@
         <v>1.71</v>
       </c>
       <c r="T22" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="U22" t="n">
         <v>1.08</v>
@@ -3502,46 +3502,46 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="G23" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="H23" t="n">
         <v>4.6</v>
       </c>
       <c r="I23" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="J23" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K23" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L23" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="M23" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N23" t="n">
-        <v>2.68</v>
+        <v>2.8</v>
       </c>
       <c r="O23" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="P23" t="n">
         <v>1.57</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="R23" t="n">
         <v>1.2</v>
       </c>
       <c r="S23" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="T23" t="n">
         <v>2.12</v>
@@ -3553,10 +3553,10 @@
         <v>1.25</v>
       </c>
       <c r="W23" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="X23" t="n">
-        <v>9.4</v>
+        <v>24</v>
       </c>
       <c r="Y23" t="n">
         <v>13</v>
@@ -3604,7 +3604,7 @@
         <v>580</v>
       </c>
       <c r="AN23" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AO23" t="n">
         <v>1000</v>
@@ -3637,58 +3637,58 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="G24" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H24" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="I24" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="J24" t="n">
         <v>3.25</v>
       </c>
       <c r="K24" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L24" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="M24" t="n">
         <v>1.11</v>
       </c>
       <c r="N24" t="n">
-        <v>2.68</v>
+        <v>2.78</v>
       </c>
       <c r="O24" t="n">
         <v>1.52</v>
       </c>
       <c r="P24" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R24" t="n">
         <v>1.2</v>
       </c>
       <c r="S24" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="T24" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="U24" t="n">
         <v>1.75</v>
       </c>
       <c r="V24" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="W24" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="X24" t="n">
         <v>17.5</v>
@@ -3706,7 +3706,7 @@
         <v>19</v>
       </c>
       <c r="AC24" t="n">
-        <v>8.199999999999999</v>
+        <v>13</v>
       </c>
       <c r="AD24" t="n">
         <v>23</v>
@@ -3775,55 +3775,55 @@
         <v>2.2</v>
       </c>
       <c r="G25" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="H25" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I25" t="n">
         <v>4.1</v>
       </c>
       <c r="J25" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K25" t="n">
         <v>3.35</v>
       </c>
       <c r="L25" t="n">
-        <v>1.01</v>
+        <v>1.57</v>
       </c>
       <c r="M25" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N25" t="n">
-        <v>2.64</v>
+        <v>2.72</v>
       </c>
       <c r="O25" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="P25" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="R25" t="n">
         <v>1.19</v>
       </c>
       <c r="S25" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="T25" t="n">
         <v>2.06</v>
       </c>
       <c r="U25" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="V25" t="n">
         <v>1.32</v>
       </c>
       <c r="W25" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="X25" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-17.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="G2" t="n">
         <v>3.05</v>
@@ -685,43 +685,43 @@
         <v>3.7</v>
       </c>
       <c r="L2" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O2" t="n">
         <v>1.24</v>
       </c>
       <c r="P2" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="R2" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="S2" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="T2" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="U2" t="n">
         <v>2.54</v>
       </c>
       <c r="V2" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="W2" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="X2" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Y2" t="n">
         <v>13.5</v>
@@ -766,13 +766,13 @@
         <v>36</v>
       </c>
       <c r="AM2" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN2" t="n">
         <v>22</v>
       </c>
       <c r="AO2" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -805,19 +805,19 @@
         <v>16.5</v>
       </c>
       <c r="G3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H3" t="n">
         <v>1.16</v>
       </c>
       <c r="I3" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="J3" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="K3" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="L3" t="n">
         <v>1.22</v>
@@ -826,31 +826,31 @@
         <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="P3" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="Q3" t="n">
         <v>1.4</v>
       </c>
       <c r="R3" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="S3" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="T3" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="U3" t="n">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="V3" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="W3" t="n">
         <v>1.04</v>
@@ -862,7 +862,7 @@
         <v>29</v>
       </c>
       <c r="Z3" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
@@ -874,7 +874,7 @@
         <v>980</v>
       </c>
       <c r="AD3" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
@@ -907,7 +907,7 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="4">
@@ -937,37 +937,37 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G4" t="n">
         <v>70</v>
       </c>
       <c r="H4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="I4" t="n">
         <v>1.27</v>
       </c>
-      <c r="I4" t="n">
-        <v>1.28</v>
-      </c>
       <c r="J4" t="n">
-        <v>4.9</v>
+        <v>5.4</v>
       </c>
       <c r="K4" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="L4" t="n">
         <v>1.41</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="O4" t="n">
         <v>1.33</v>
       </c>
       <c r="P4" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="Q4" t="n">
         <v>2</v>
@@ -982,13 +982,13 @@
         <v>2.88</v>
       </c>
       <c r="U4" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="V4" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="W4" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1000,7 +1000,7 @@
         <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>17.5</v>
+        <v>900</v>
       </c>
       <c r="AB4" t="n">
         <v>1000</v>
@@ -1075,10 +1075,10 @@
         <v>2.78</v>
       </c>
       <c r="G5" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="I5" t="n">
         <v>2.84</v>
@@ -1090,25 +1090,25 @@
         <v>3.55</v>
       </c>
       <c r="L5" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O5" t="n">
         <v>1.31</v>
       </c>
       <c r="P5" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="R5" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="S5" t="n">
         <v>3.4</v>
@@ -1123,7 +1123,7 @@
         <v>1.54</v>
       </c>
       <c r="W5" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X5" t="n">
         <v>15</v>
@@ -1132,10 +1132,10 @@
         <v>11.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AA5" t="n">
-        <v>900</v>
+        <v>130</v>
       </c>
       <c r="AB5" t="n">
         <v>12.5</v>
@@ -1147,10 +1147,10 @@
         <v>13.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AF5" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="AG5" t="n">
         <v>13.5</v>
@@ -1159,22 +1159,22 @@
         <v>18</v>
       </c>
       <c r="AI5" t="n">
-        <v>980</v>
+        <v>130</v>
       </c>
       <c r="AJ5" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="AK5" t="n">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AL5" t="n">
-        <v>980</v>
+        <v>130</v>
       </c>
       <c r="AM5" t="n">
-        <v>580</v>
+        <v>500</v>
       </c>
       <c r="AN5" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AO5" t="n">
         <v>25</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="G6" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="H6" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="I6" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="J6" t="n">
         <v>3.8</v>
       </c>
       <c r="K6" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L6" t="n">
         <v>1.35</v>
@@ -1231,7 +1231,7 @@
         <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O6" t="n">
         <v>1.23</v>
@@ -1246,73 +1246,73 @@
         <v>1.5</v>
       </c>
       <c r="S6" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="T6" t="n">
-        <v>1.71</v>
+        <v>1.65</v>
       </c>
       <c r="U6" t="n">
-        <v>1.05</v>
+        <v>2.24</v>
       </c>
       <c r="V6" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="W6" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>900</v>
+        <v>22</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>42</v>
+        <v>9.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AE6" t="n">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="AF6" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AH6" t="n">
-        <v>60</v>
+        <v>17.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AJ6" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="AK6" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AL6" t="n">
-        <v>970</v>
+        <v>50</v>
       </c>
       <c r="AM6" t="n">
-        <v>580</v>
+        <v>330</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AO6" t="n">
-        <v>85</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="7">
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="G7" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="H7" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="I7" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="J7" t="n">
         <v>3.6</v>
@@ -1369,13 +1369,13 @@
         <v>4.4</v>
       </c>
       <c r="O7" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P7" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="R7" t="n">
         <v>1.44</v>
@@ -1384,28 +1384,28 @@
         <v>3.15</v>
       </c>
       <c r="T7" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="U7" t="n">
         <v>2.34</v>
       </c>
       <c r="V7" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="W7" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="X7" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y7" t="n">
         <v>11</v>
       </c>
       <c r="Z7" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AA7" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AB7" t="n">
         <v>15</v>
@@ -1420,10 +1420,10 @@
         <v>22</v>
       </c>
       <c r="AF7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH7" t="n">
         <v>15.5</v>
@@ -1435,10 +1435,10 @@
         <v>60</v>
       </c>
       <c r="AK7" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AL7" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AM7" t="n">
         <v>75</v>
@@ -1447,7 +1447,7 @@
         <v>32</v>
       </c>
       <c r="AO7" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="8">
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="G8" t="n">
         <v>3.7</v>
@@ -1489,13 +1489,13 @@
         <v>2.42</v>
       </c>
       <c r="J8" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K8" t="n">
         <v>3.45</v>
       </c>
       <c r="L8" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="M8" t="n">
         <v>1.1</v>
@@ -1504,19 +1504,19 @@
         <v>3.1</v>
       </c>
       <c r="O8" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P8" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="R8" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S8" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T8" t="n">
         <v>1.92</v>
@@ -1534,13 +1534,13 @@
         <v>23</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.800000000000001</v>
+        <v>16.5</v>
       </c>
       <c r="Z8" t="n">
         <v>34</v>
       </c>
       <c r="AA8" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="AB8" t="n">
         <v>24</v>
@@ -1552,7 +1552,7 @@
         <v>22</v>
       </c>
       <c r="AE8" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="AF8" t="n">
         <v>80</v>
@@ -1579,7 +1579,7 @@
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AO8" t="n">
         <v>980</v>
@@ -1612,67 +1612,67 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="H9" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="I9" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="J9" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="K9" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="L9" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="O9" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="P9" t="n">
-        <v>2.28</v>
+        <v>2.18</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.68</v>
+        <v>1.74</v>
       </c>
       <c r="R9" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="S9" t="n">
-        <v>2.72</v>
+        <v>2.84</v>
       </c>
       <c r="T9" t="n">
         <v>1.6</v>
       </c>
       <c r="U9" t="n">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="V9" t="n">
         <v>1.64</v>
       </c>
       <c r="W9" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="X9" t="n">
         <v>90</v>
       </c>
       <c r="Y9" t="n">
-        <v>500</v>
+        <v>25</v>
       </c>
       <c r="Z9" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
@@ -1681,16 +1681,16 @@
         <v>500</v>
       </c>
       <c r="AC9" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>18.5</v>
+        <v>23</v>
       </c>
       <c r="AE9" t="n">
         <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
         <v>500</v>
@@ -1699,7 +1699,7 @@
         <v>28</v>
       </c>
       <c r="AI9" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
         <v>1000</v>
@@ -1750,109 +1750,109 @@
         <v>3.25</v>
       </c>
       <c r="G10" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="H10" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="I10" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="J10" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K10" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N10" t="n">
         <v>4</v>
       </c>
-      <c r="L10" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N10" t="n">
-        <v>3.7</v>
-      </c>
       <c r="O10" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="P10" t="n">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.98</v>
+        <v>1.86</v>
       </c>
       <c r="R10" t="n">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="S10" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="T10" t="n">
-        <v>1.05</v>
+        <v>1.7</v>
       </c>
       <c r="U10" t="n">
-        <v>1.94</v>
+        <v>2.12</v>
       </c>
       <c r="V10" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="W10" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="X10" t="n">
-        <v>970</v>
+        <v>17.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AB10" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AC10" t="n">
-        <v>25</v>
+        <v>8.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AE10" t="n">
-        <v>500</v>
+        <v>26</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AG10" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AM10" t="n">
-        <v>580</v>
+        <v>200</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AO10" t="n">
-        <v>500</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="11">
@@ -1882,25 +1882,25 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="G11" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="H11" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I11" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="J11" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="K11" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="L11" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M11" t="n">
         <v>1.06</v>
@@ -1912,7 +1912,7 @@
         <v>1.31</v>
       </c>
       <c r="P11" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="Q11" t="n">
         <v>1.94</v>
@@ -1921,73 +1921,73 @@
         <v>1.37</v>
       </c>
       <c r="S11" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T11" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="U11" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="V11" t="n">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="W11" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="X11" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z11" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA11" t="n">
-        <v>440</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG11" t="n">
         <v>12.5</v>
       </c>
-      <c r="AC11" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AH11" t="n">
-        <v>17.5</v>
+        <v>25</v>
       </c>
       <c r="AI11" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ11" t="n">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="AK11" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AL11" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AM11" t="n">
         <v>390</v>
       </c>
       <c r="AN11" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="AO11" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12">
@@ -2020,7 +2020,7 @@
         <v>3.25</v>
       </c>
       <c r="G12" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="H12" t="n">
         <v>2.5</v>
@@ -2029,10 +2029,10 @@
         <v>2.68</v>
       </c>
       <c r="J12" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K12" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L12" t="n">
         <v>1.52</v>
@@ -2056,7 +2056,7 @@
         <v>1.24</v>
       </c>
       <c r="S12" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="T12" t="n">
         <v>1.94</v>
@@ -2077,13 +2077,13 @@
         <v>18</v>
       </c>
       <c r="Z12" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AA12" t="n">
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AC12" t="n">
         <v>7.2</v>
@@ -2098,7 +2098,7 @@
         <v>970</v>
       </c>
       <c r="AG12" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AH12" t="n">
         <v>1000</v>
@@ -2185,7 +2185,7 @@
         <v>2.34</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="R13" t="n">
         <v>1.52</v>
@@ -2194,7 +2194,7 @@
         <v>2.72</v>
       </c>
       <c r="T13" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U13" t="n">
         <v>2.16</v>
@@ -2203,7 +2203,7 @@
         <v>1.2</v>
       </c>
       <c r="W13" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="X13" t="n">
         <v>44</v>
@@ -2233,7 +2233,7 @@
         <v>23</v>
       </c>
       <c r="AG13" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AH13" t="n">
         <v>970</v>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="G14" t="n">
         <v>3.3</v>
@@ -2296,7 +2296,7 @@
         <v>2.36</v>
       </c>
       <c r="I14" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="J14" t="n">
         <v>3.6</v>
@@ -2305,7 +2305,7 @@
         <v>3.75</v>
       </c>
       <c r="L14" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M14" t="n">
         <v>1.06</v>
@@ -2314,13 +2314,13 @@
         <v>4.1</v>
       </c>
       <c r="O14" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P14" t="n">
         <v>2.04</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R14" t="n">
         <v>1.4</v>
@@ -2329,13 +2329,13 @@
         <v>3.25</v>
       </c>
       <c r="T14" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="U14" t="n">
         <v>2.2</v>
       </c>
       <c r="V14" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="W14" t="n">
         <v>1.43</v>
@@ -2344,7 +2344,7 @@
         <v>65</v>
       </c>
       <c r="Y14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z14" t="n">
         <v>36</v>
@@ -2353,7 +2353,7 @@
         <v>900</v>
       </c>
       <c r="AB14" t="n">
-        <v>40</v>
+        <v>15.5</v>
       </c>
       <c r="AC14" t="n">
         <v>12</v>
@@ -2365,7 +2365,7 @@
         <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AG14" t="n">
         <v>30</v>
@@ -2377,10 +2377,10 @@
         <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>900</v>
+        <v>290</v>
       </c>
       <c r="AK14" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AL14" t="n">
         <v>1000</v>
@@ -2392,7 +2392,7 @@
         <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15">
@@ -2422,10 +2422,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="G15" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="H15" t="n">
         <v>4.8</v>
@@ -2434,16 +2434,16 @@
         <v>5.4</v>
       </c>
       <c r="J15" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K15" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="L15" t="n">
         <v>1.37</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
         <v>4.3</v>
@@ -2476,58 +2476,58 @@
         <v>2.16</v>
       </c>
       <c r="X15" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>980</v>
+        <v>100</v>
       </c>
       <c r="AA15" t="n">
         <v>900</v>
       </c>
       <c r="AB15" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AC15" t="n">
-        <v>42</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD15" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AE15" t="n">
-        <v>700</v>
+        <v>65</v>
       </c>
       <c r="AF15" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AG15" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>60</v>
+        <v>18.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>700</v>
+        <v>65</v>
       </c>
       <c r="AJ15" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AK15" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AL15" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AM15" t="n">
-        <v>580</v>
+        <v>200</v>
       </c>
       <c r="AN15" t="n">
-        <v>85</v>
+        <v>10.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>700</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16">
@@ -2590,7 +2590,7 @@
         <v>2</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="R16" t="n">
         <v>1.38</v>
@@ -2662,7 +2662,7 @@
         <v>38</v>
       </c>
       <c r="AO16" t="n">
-        <v>970</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="G17" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="H17" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="I17" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J17" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K17" t="n">
         <v>3.65</v>
@@ -2716,22 +2716,22 @@
         <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="O17" t="n">
         <v>1.32</v>
       </c>
       <c r="P17" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R17" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="S17" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="T17" t="n">
         <v>1.73</v>
@@ -2743,7 +2743,7 @@
         <v>1.47</v>
       </c>
       <c r="W17" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="X17" t="n">
         <v>14.5</v>
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="G18" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="H18" t="n">
         <v>4.2</v>
@@ -2842,7 +2842,7 @@
         <v>3.75</v>
       </c>
       <c r="K18" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L18" t="n">
         <v>1.37</v>
@@ -2857,13 +2857,13 @@
         <v>1.29</v>
       </c>
       <c r="P18" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q18" t="n">
         <v>1.85</v>
       </c>
       <c r="R18" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S18" t="n">
         <v>3.15</v>
@@ -2878,7 +2878,7 @@
         <v>1.27</v>
       </c>
       <c r="W18" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="X18" t="n">
         <v>1000</v>
@@ -2914,7 +2914,7 @@
         <v>40</v>
       </c>
       <c r="AI18" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AJ18" t="n">
         <v>1000</v>
@@ -2962,16 +2962,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="G19" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="H19" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I19" t="n">
         <v>3.65</v>
-      </c>
-      <c r="I19" t="n">
-        <v>3.7</v>
       </c>
       <c r="J19" t="n">
         <v>3.65</v>
@@ -2980,7 +2980,7 @@
         <v>3.7</v>
       </c>
       <c r="L19" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M19" t="n">
         <v>1.06</v>
@@ -3001,7 +3001,7 @@
         <v>1.47</v>
       </c>
       <c r="S19" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="T19" t="n">
         <v>1.68</v>
@@ -3013,13 +3013,13 @@
         <v>1.37</v>
       </c>
       <c r="W19" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="X19" t="n">
         <v>16.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z19" t="n">
         <v>26</v>
@@ -3031,7 +3031,7 @@
         <v>11.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD19" t="n">
         <v>14.5</v>
@@ -3040,13 +3040,13 @@
         <v>38</v>
       </c>
       <c r="AF19" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AG19" t="n">
         <v>10.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI19" t="n">
         <v>44</v>
@@ -3097,28 +3097,28 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="G20" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="H20" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="I20" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="K20" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="L20" t="n">
         <v>1.28</v>
       </c>
       <c r="M20" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N20" t="n">
         <v>6.2</v>
@@ -3136,19 +3136,19 @@
         <v>1.72</v>
       </c>
       <c r="S20" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="T20" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U20" t="n">
         <v>2.34</v>
       </c>
       <c r="V20" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="W20" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="X20" t="n">
         <v>27</v>
@@ -3163,7 +3163,7 @@
         <v>14.5</v>
       </c>
       <c r="AB20" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AC20" t="n">
         <v>11.5</v>
@@ -3178,10 +3178,10 @@
         <v>65</v>
       </c>
       <c r="AG20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH20" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AI20" t="n">
         <v>26</v>
@@ -3232,88 +3232,88 @@
         </is>
       </c>
       <c r="F21" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="G21" t="n">
         <v>3.8</v>
       </c>
-      <c r="G21" t="n">
-        <v>3.85</v>
-      </c>
       <c r="H21" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="I21" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="J21" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K21" t="n">
         <v>4</v>
       </c>
-      <c r="K21" t="n">
-        <v>4.1</v>
-      </c>
       <c r="L21" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M21" t="n">
         <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="O21" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P21" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="R21" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="S21" t="n">
-        <v>2.66</v>
+        <v>2.74</v>
       </c>
       <c r="T21" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="U21" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="V21" t="n">
-        <v>1.97</v>
+        <v>1.92</v>
       </c>
       <c r="W21" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="X21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y21" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z21" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AB21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AC21" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD21" t="n">
         <v>10</v>
       </c>
       <c r="AE21" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AF21" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AG21" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH21" t="n">
         <v>15.5</v>
@@ -3322,10 +3322,10 @@
         <v>27</v>
       </c>
       <c r="AJ21" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AK21" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AL21" t="n">
         <v>40</v>
@@ -3334,10 +3334,10 @@
         <v>65</v>
       </c>
       <c r="AN21" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AO21" t="n">
-        <v>9.6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22">
@@ -3406,10 +3406,10 @@
         <v>1.4</v>
       </c>
       <c r="S22" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="T22" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="U22" t="n">
         <v>1.08</v>
@@ -3433,7 +3433,7 @@
         <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AC22" t="n">
         <v>8.6</v>
@@ -3451,10 +3451,10 @@
         <v>13</v>
       </c>
       <c r="AH22" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AI22" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AJ22" t="n">
         <v>40</v>
@@ -3463,7 +3463,7 @@
         <v>27</v>
       </c>
       <c r="AL22" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AM22" t="n">
         <v>80</v>
@@ -3532,19 +3532,19 @@
         <v>1.52</v>
       </c>
       <c r="P23" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="R23" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S23" t="n">
         <v>5.3</v>
       </c>
       <c r="T23" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="U23" t="n">
         <v>1.75</v>
@@ -3556,7 +3556,7 @@
         <v>1.96</v>
       </c>
       <c r="X23" t="n">
-        <v>24</v>
+        <v>9.4</v>
       </c>
       <c r="Y23" t="n">
         <v>13</v>
@@ -3598,7 +3598,7 @@
         <v>65</v>
       </c>
       <c r="AL23" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="AM23" t="n">
         <v>580</v>
@@ -3640,22 +3640,22 @@
         <v>3.65</v>
       </c>
       <c r="G24" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="H24" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="I24" t="n">
         <v>2.3</v>
       </c>
       <c r="J24" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K24" t="n">
         <v>3.5</v>
       </c>
       <c r="L24" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="M24" t="n">
         <v>1.11</v>
@@ -3676,19 +3676,19 @@
         <v>1.2</v>
       </c>
       <c r="S24" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="T24" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U24" t="n">
         <v>1.75</v>
       </c>
       <c r="V24" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="W24" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="X24" t="n">
         <v>17.5</v>
@@ -3772,64 +3772,64 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="G25" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="H25" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I25" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J25" t="n">
         <v>3.15</v>
       </c>
       <c r="K25" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="L25" t="n">
         <v>1.57</v>
       </c>
       <c r="M25" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="N25" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="O25" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="P25" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="R25" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="S25" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="T25" t="n">
-        <v>2.06</v>
+        <v>1.05</v>
       </c>
       <c r="U25" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="V25" t="n">
         <v>1.32</v>
       </c>
       <c r="W25" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="X25" t="n">
         <v>1000</v>
       </c>
       <c r="Y25" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Z25" t="n">
         <v>1000</v>
@@ -3838,22 +3838,22 @@
         <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AE25" t="n">
         <v>1000</v>
       </c>
       <c r="AF25" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AG25" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AH25" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-17.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.98</v>
+        <v>2.8</v>
       </c>
       <c r="G2" t="n">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="H2" t="n">
-        <v>2.5</v>
+        <v>2.92</v>
       </c>
       <c r="I2" t="n">
-        <v>2.54</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>3.65</v>
+        <v>3.15</v>
       </c>
       <c r="K2" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="L2" t="n">
-        <v>1.36</v>
+        <v>34</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>2.22</v>
       </c>
       <c r="O2" t="n">
-        <v>1.24</v>
+        <v>1.74</v>
       </c>
       <c r="P2" t="n">
-        <v>2.28</v>
+        <v>1.41</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="R2" t="n">
-        <v>1.52</v>
+        <v>1.13</v>
       </c>
       <c r="S2" t="n">
-        <v>2.88</v>
+        <v>7.8</v>
       </c>
       <c r="T2" t="n">
-        <v>1.61</v>
+        <v>2.4</v>
       </c>
       <c r="U2" t="n">
-        <v>2.54</v>
+        <v>1.58</v>
       </c>
       <c r="V2" t="n">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="W2" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="X2" t="n">
-        <v>19</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y2" t="n">
-        <v>13.5</v>
+        <v>8</v>
       </c>
       <c r="Z2" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AA2" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="AB2" t="n">
-        <v>15.5</v>
+        <v>7.2</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="AD2" t="n">
-        <v>11.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="AF2" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AH2" t="n">
-        <v>14.5</v>
+        <v>36</v>
       </c>
       <c r="AI2" t="n">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="AJ2" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AK2" t="n">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="AL2" t="n">
-        <v>36</v>
+        <v>140</v>
       </c>
       <c r="AM2" t="n">
-        <v>65</v>
+        <v>460</v>
       </c>
       <c r="AN2" t="n">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="AO2" t="n">
-        <v>16</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3">
@@ -805,16 +805,16 @@
         <v>16.5</v>
       </c>
       <c r="G3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H3" t="n">
         <v>1.16</v>
       </c>
       <c r="I3" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="J3" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="K3" t="n">
         <v>11</v>
@@ -826,7 +826,7 @@
         <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
         <v>1.12</v>
@@ -835,34 +835,34 @@
         <v>3.35</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="R3" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="S3" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="T3" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="U3" t="n">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="V3" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="W3" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>29</v>
+        <v>13.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>27</v>
+        <v>17.5</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
@@ -874,10 +874,10 @@
         <v>980</v>
       </c>
       <c r="AD3" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF3" t="n">
         <v>1000</v>
@@ -907,7 +907,7 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="4">
@@ -937,28 +937,28 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>18</v>
+        <v>14.5</v>
       </c>
       <c r="G4" t="n">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="H4" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="I4" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="J4" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="K4" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="L4" t="n">
         <v>1.41</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
         <v>3.65</v>
@@ -967,70 +967,70 @@
         <v>1.33</v>
       </c>
       <c r="P4" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R4" t="n">
         <v>1.33</v>
       </c>
       <c r="S4" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="T4" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="U4" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="V4" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="W4" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="AA4" t="n">
-        <v>900</v>
+        <v>17.5</v>
       </c>
       <c r="AB4" t="n">
         <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AF4" t="n">
         <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AH4" t="n">
         <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="AL4" t="n">
         <v>1000</v>
@@ -1042,7 +1042,7 @@
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="G5" t="n">
         <v>3</v>
@@ -1081,7 +1081,7 @@
         <v>2.66</v>
       </c>
       <c r="I5" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="J5" t="n">
         <v>3.35</v>
@@ -1096,7 +1096,7 @@
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="O5" t="n">
         <v>1.31</v>
@@ -1108,13 +1108,13 @@
         <v>1.98</v>
       </c>
       <c r="R5" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S5" t="n">
         <v>3.4</v>
       </c>
       <c r="T5" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U5" t="n">
         <v>2.16</v>
@@ -1123,10 +1123,10 @@
         <v>1.54</v>
       </c>
       <c r="W5" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="X5" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y5" t="n">
         <v>11.5</v>
@@ -1144,7 +1144,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD5" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE5" t="n">
         <v>70</v>
@@ -1207,19 +1207,19 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="G6" t="n">
         <v>4.7</v>
       </c>
       <c r="H6" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="I6" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="J6" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K6" t="n">
         <v>4.3</v>
@@ -1246,16 +1246,16 @@
         <v>1.5</v>
       </c>
       <c r="S6" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="T6" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="U6" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="V6" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="W6" t="n">
         <v>1.27</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="G7" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="H7" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="I7" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="J7" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K7" t="n">
         <v>3.6</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.65</v>
       </c>
       <c r="L7" t="n">
         <v>1.39</v>
@@ -1366,7 +1366,7 @@
         <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.27</v>
@@ -1378,25 +1378,25 @@
         <v>1.85</v>
       </c>
       <c r="R7" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S7" t="n">
         <v>3.15</v>
       </c>
       <c r="T7" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="U7" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="V7" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="W7" t="n">
         <v>1.4</v>
       </c>
       <c r="X7" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y7" t="n">
         <v>11</v>
@@ -1426,7 +1426,7 @@
         <v>13.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI7" t="n">
         <v>32</v>
@@ -1444,10 +1444,10 @@
         <v>75</v>
       </c>
       <c r="AN7" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AO7" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
@@ -1489,7 +1489,7 @@
         <v>2.42</v>
       </c>
       <c r="J8" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K8" t="n">
         <v>3.45</v>
@@ -1507,10 +1507,10 @@
         <v>1.44</v>
       </c>
       <c r="P8" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="R8" t="n">
         <v>1.25</v>
@@ -1540,10 +1540,10 @@
         <v>34</v>
       </c>
       <c r="AA8" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="AB8" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AC8" t="n">
         <v>14</v>
@@ -1582,7 +1582,7 @@
         <v>600</v>
       </c>
       <c r="AO8" t="n">
-        <v>980</v>
+        <v>600</v>
       </c>
     </row>
     <row r="9">
@@ -1612,58 +1612,58 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="G9" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="H9" t="n">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="I9" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="J9" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K9" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="L9" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="M9" t="n">
         <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="O9" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="P9" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="R9" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="S9" t="n">
-        <v>2.84</v>
+        <v>2.78</v>
       </c>
       <c r="T9" t="n">
         <v>1.6</v>
       </c>
       <c r="U9" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="V9" t="n">
         <v>1.64</v>
       </c>
       <c r="W9" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="X9" t="n">
         <v>90</v>
@@ -1672,13 +1672,13 @@
         <v>25</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="AC9" t="n">
         <v>13.5</v>
@@ -1690,10 +1690,10 @@
         <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AG9" t="n">
-        <v>500</v>
+        <v>26</v>
       </c>
       <c r="AH9" t="n">
         <v>28</v>
@@ -1750,16 +1750,16 @@
         <v>3.25</v>
       </c>
       <c r="G10" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="H10" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="I10" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="J10" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="K10" t="n">
         <v>3.95</v>
@@ -1768,7 +1768,7 @@
         <v>1.4</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
         <v>4</v>
@@ -1780,7 +1780,7 @@
         <v>2.02</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R10" t="n">
         <v>1.39</v>
@@ -1792,16 +1792,16 @@
         <v>1.7</v>
       </c>
       <c r="U10" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V10" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="W10" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="X10" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y10" t="n">
         <v>11</v>
@@ -1813,7 +1813,7 @@
         <v>32</v>
       </c>
       <c r="AB10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC10" t="n">
         <v>8.4</v>
@@ -1822,7 +1822,7 @@
         <v>12</v>
       </c>
       <c r="AE10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF10" t="n">
         <v>26</v>
@@ -1834,7 +1834,7 @@
         <v>18</v>
       </c>
       <c r="AI10" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AJ10" t="n">
         <v>170</v>
@@ -1852,7 +1852,7 @@
         <v>40</v>
       </c>
       <c r="AO10" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -1885,10 +1885,10 @@
         <v>2.26</v>
       </c>
       <c r="G11" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H11" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I11" t="n">
         <v>3.3</v>
@@ -1906,22 +1906,22 @@
         <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O11" t="n">
         <v>1.31</v>
       </c>
       <c r="P11" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="R11" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S11" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="T11" t="n">
         <v>1.72</v>
@@ -1933,16 +1933,16 @@
         <v>1.43</v>
       </c>
       <c r="W11" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="X11" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Y11" t="n">
         <v>16</v>
       </c>
       <c r="Z11" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AA11" t="n">
         <v>1000</v>
@@ -1954,7 +1954,7 @@
         <v>9.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AE11" t="n">
         <v>44</v>
@@ -1969,10 +1969,10 @@
         <v>25</v>
       </c>
       <c r="AI11" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AJ11" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AK11" t="n">
         <v>28</v>
@@ -1984,7 +1984,7 @@
         <v>390</v>
       </c>
       <c r="AN11" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="AO11" t="n">
         <v>38</v>
@@ -2023,7 +2023,7 @@
         <v>3.5</v>
       </c>
       <c r="H12" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="I12" t="n">
         <v>2.68</v>
@@ -2041,28 +2041,28 @@
         <v>1.11</v>
       </c>
       <c r="N12" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="O12" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="P12" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="R12" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S12" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="T12" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="U12" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="V12" t="n">
         <v>1.59</v>
@@ -2074,10 +2074,10 @@
         <v>17.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Z12" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AA12" t="n">
         <v>1000</v>
@@ -2086,7 +2086,7 @@
         <v>20</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.2</v>
+        <v>12</v>
       </c>
       <c r="AD12" t="n">
         <v>26</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="G13" t="n">
         <v>1.64</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1.67</v>
       </c>
       <c r="H13" t="n">
         <v>5.6</v>
       </c>
       <c r="I13" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="J13" t="n">
         <v>4.4</v>
       </c>
       <c r="K13" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="L13" t="n">
         <v>1.32</v>
@@ -2179,13 +2179,13 @@
         <v>4.9</v>
       </c>
       <c r="O13" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P13" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="R13" t="n">
         <v>1.52</v>
@@ -2203,10 +2203,10 @@
         <v>1.2</v>
       </c>
       <c r="W13" t="n">
-        <v>2.48</v>
+        <v>2.56</v>
       </c>
       <c r="X13" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="Y13" t="n">
         <v>970</v>
@@ -2233,7 +2233,7 @@
         <v>23</v>
       </c>
       <c r="AG13" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AH13" t="n">
         <v>970</v>
@@ -2296,7 +2296,7 @@
         <v>2.36</v>
       </c>
       <c r="I14" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="J14" t="n">
         <v>3.6</v>
@@ -2353,7 +2353,7 @@
         <v>900</v>
       </c>
       <c r="AB14" t="n">
-        <v>15.5</v>
+        <v>22</v>
       </c>
       <c r="AC14" t="n">
         <v>12</v>
@@ -2371,7 +2371,7 @@
         <v>30</v>
       </c>
       <c r="AH14" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="AI14" t="n">
         <v>1000</v>
@@ -2380,7 +2380,7 @@
         <v>290</v>
       </c>
       <c r="AK14" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
         <v>1000</v>
@@ -2431,7 +2431,7 @@
         <v>4.8</v>
       </c>
       <c r="I15" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="J15" t="n">
         <v>3.8</v>
@@ -2455,7 +2455,7 @@
         <v>2.1</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="R15" t="n">
         <v>1.44</v>
@@ -2464,7 +2464,7 @@
         <v>3.05</v>
       </c>
       <c r="T15" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U15" t="n">
         <v>2.14</v>
@@ -2488,10 +2488,10 @@
         <v>900</v>
       </c>
       <c r="AB15" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD15" t="n">
         <v>20</v>
@@ -2512,7 +2512,7 @@
         <v>65</v>
       </c>
       <c r="AJ15" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AK15" t="n">
         <v>18.5</v>
@@ -2521,13 +2521,13 @@
         <v>34</v>
       </c>
       <c r="AM15" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="AN15" t="n">
         <v>10.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>160</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16">
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="G16" t="n">
         <v>2.44</v>
@@ -2572,7 +2572,7 @@
         <v>3.5</v>
       </c>
       <c r="K16" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="L16" t="n">
         <v>1.39</v>
@@ -2593,7 +2593,7 @@
         <v>1.92</v>
       </c>
       <c r="R16" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S16" t="n">
         <v>3.35</v>
@@ -2698,7 +2698,7 @@
         <v>2.7</v>
       </c>
       <c r="H17" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="I17" t="n">
         <v>3.1</v>
@@ -2716,16 +2716,16 @@
         <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O17" t="n">
         <v>1.32</v>
       </c>
       <c r="P17" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="Q17" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="R17" t="n">
         <v>1.37</v>
@@ -2734,10 +2734,10 @@
         <v>3.45</v>
       </c>
       <c r="T17" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="U17" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="V17" t="n">
         <v>1.47</v>
@@ -2779,7 +2779,7 @@
         <v>18</v>
       </c>
       <c r="AI17" t="n">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="AJ17" t="n">
         <v>40</v>
@@ -2788,16 +2788,16 @@
         <v>30</v>
       </c>
       <c r="AL17" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AM17" t="n">
         <v>110</v>
       </c>
       <c r="AN17" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO17" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18">
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="G18" t="n">
         <v>1.93</v>
@@ -2839,10 +2839,10 @@
         <v>5</v>
       </c>
       <c r="J18" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K18" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L18" t="n">
         <v>1.37</v>
@@ -2860,7 +2860,7 @@
         <v>2.06</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="R18" t="n">
         <v>1.41</v>
@@ -2962,10 +2962,10 @@
         </is>
       </c>
       <c r="F19" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="G19" t="n">
         <v>2.2</v>
-      </c>
-      <c r="G19" t="n">
-        <v>2.22</v>
       </c>
       <c r="H19" t="n">
         <v>3.6</v>
@@ -2974,10 +2974,10 @@
         <v>3.65</v>
       </c>
       <c r="J19" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K19" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L19" t="n">
         <v>1.38</v>
@@ -2986,25 +2986,25 @@
         <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="O19" t="n">
         <v>1.26</v>
       </c>
       <c r="P19" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="R19" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="S19" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T19" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="U19" t="n">
         <v>2.4</v>
@@ -3013,10 +3013,10 @@
         <v>1.37</v>
       </c>
       <c r="W19" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="X19" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Y19" t="n">
         <v>15.5</v>
@@ -3052,13 +3052,13 @@
         <v>44</v>
       </c>
       <c r="AJ19" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AK19" t="n">
         <v>21</v>
       </c>
       <c r="AL19" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AM19" t="n">
         <v>65</v>
@@ -3067,7 +3067,7 @@
         <v>13.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20">
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
+        <v>7</v>
+      </c>
+      <c r="G20" t="n">
         <v>7.2</v>
       </c>
-      <c r="G20" t="n">
-        <v>7.4</v>
-      </c>
       <c r="H20" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="I20" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="J20" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="K20" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="L20" t="n">
         <v>1.28</v>
@@ -3127,49 +3127,49 @@
         <v>1.17</v>
       </c>
       <c r="P20" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="R20" t="n">
         <v>1.72</v>
       </c>
       <c r="S20" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="T20" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U20" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="V20" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="W20" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="X20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Y20" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z20" t="n">
         <v>11</v>
       </c>
       <c r="AA20" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AB20" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AC20" t="n">
         <v>11.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE20" t="n">
         <v>13.5</v>
@@ -3178,7 +3178,7 @@
         <v>65</v>
       </c>
       <c r="AG20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH20" t="n">
         <v>19</v>
@@ -3196,13 +3196,13 @@
         <v>65</v>
       </c>
       <c r="AM20" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AN20" t="n">
         <v>70</v>
       </c>
       <c r="AO20" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="21">
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="G21" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="H21" t="n">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="I21" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="J21" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K21" t="n">
         <v>3.95</v>
-      </c>
-      <c r="K21" t="n">
-        <v>4</v>
       </c>
       <c r="L21" t="n">
         <v>1.33</v>
@@ -3256,88 +3256,88 @@
         <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="O21" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P21" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="R21" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="S21" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="T21" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="U21" t="n">
         <v>2.52</v>
       </c>
       <c r="V21" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="W21" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="X21" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z21" t="n">
         <v>14.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB21" t="n">
         <v>17</v>
       </c>
       <c r="AC21" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AF21" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AG21" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH21" t="n">
         <v>15.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AJ21" t="n">
         <v>65</v>
       </c>
       <c r="AK21" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL21" t="n">
         <v>38</v>
       </c>
-      <c r="AL21" t="n">
-        <v>40</v>
-      </c>
       <c r="AM21" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN21" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AO21" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="22">
@@ -3367,10 +3367,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="G22" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="H22" t="n">
         <v>3</v>
@@ -3391,25 +3391,25 @@
         <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="O22" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P22" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q22" t="n">
         <v>1.71</v>
       </c>
       <c r="R22" t="n">
-        <v>1.4</v>
+        <v>1.51</v>
       </c>
       <c r="S22" t="n">
-        <v>1.72</v>
+        <v>2.74</v>
       </c>
       <c r="T22" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="U22" t="n">
         <v>1.08</v>
@@ -3418,10 +3418,10 @@
         <v>1.47</v>
       </c>
       <c r="W22" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="X22" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="Y22" t="n">
         <v>16.5</v>
@@ -3430,25 +3430,25 @@
         <v>25</v>
       </c>
       <c r="AA22" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AB22" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AC22" t="n">
         <v>8.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE22" t="n">
-        <v>500</v>
+        <v>290</v>
       </c>
       <c r="AF22" t="n">
         <v>18</v>
       </c>
       <c r="AG22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH22" t="n">
         <v>15</v>
@@ -3457,10 +3457,10 @@
         <v>36</v>
       </c>
       <c r="AJ22" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AK22" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AL22" t="n">
         <v>32</v>
@@ -3469,7 +3469,7 @@
         <v>80</v>
       </c>
       <c r="AN22" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AO22" t="n">
         <v>1000</v>
@@ -3502,64 +3502,64 @@
         </is>
       </c>
       <c r="F23" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="G23" t="n">
         <v>1.98</v>
       </c>
-      <c r="G23" t="n">
-        <v>2.04</v>
-      </c>
       <c r="H23" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="I23" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="J23" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K23" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="L23" t="n">
         <v>1.56</v>
       </c>
       <c r="M23" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="N23" t="n">
-        <v>2.8</v>
+        <v>2.86</v>
       </c>
       <c r="O23" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="P23" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="R23" t="n">
         <v>1.21</v>
       </c>
       <c r="S23" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="T23" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="U23" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="V23" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="W23" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="X23" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y23" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z23" t="n">
         <v>150</v>
@@ -3580,13 +3580,13 @@
         <v>480</v>
       </c>
       <c r="AF23" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG23" t="n">
         <v>11</v>
       </c>
-      <c r="AG23" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AH23" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AI23" t="n">
         <v>500</v>
@@ -3595,16 +3595,16 @@
         <v>130</v>
       </c>
       <c r="AK23" t="n">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="AL23" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="AM23" t="n">
-        <v>580</v>
+        <v>500</v>
       </c>
       <c r="AN23" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AO23" t="n">
         <v>1000</v>
@@ -3640,13 +3640,13 @@
         <v>3.65</v>
       </c>
       <c r="G24" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="H24" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="I24" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="J24" t="n">
         <v>3.3</v>
@@ -3679,7 +3679,7 @@
         <v>5.4</v>
       </c>
       <c r="T24" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="U24" t="n">
         <v>1.75</v>
@@ -3691,13 +3691,13 @@
         <v>1.34</v>
       </c>
       <c r="X24" t="n">
-        <v>17.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y24" t="n">
         <v>8</v>
       </c>
       <c r="Z24" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="AA24" t="n">
         <v>160</v>
@@ -3712,7 +3712,7 @@
         <v>23</v>
       </c>
       <c r="AE24" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AF24" t="n">
         <v>120</v>
@@ -3721,7 +3721,7 @@
         <v>16.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="AI24" t="n">
         <v>290</v>
@@ -3736,7 +3736,7 @@
         <v>500</v>
       </c>
       <c r="AM24" t="n">
-        <v>580</v>
+        <v>500</v>
       </c>
       <c r="AN24" t="n">
         <v>1000</v>
@@ -3772,64 +3772,64 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="G25" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="H25" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I25" t="n">
         <v>4.2</v>
       </c>
       <c r="J25" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="K25" t="n">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="L25" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="M25" t="n">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="N25" t="n">
-        <v>2.74</v>
+        <v>2.48</v>
       </c>
       <c r="O25" t="n">
-        <v>1.52</v>
+        <v>1.65</v>
       </c>
       <c r="P25" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.62</v>
+        <v>2.96</v>
       </c>
       <c r="R25" t="n">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="S25" t="n">
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="T25" t="n">
-        <v>1.05</v>
+        <v>2.28</v>
       </c>
       <c r="U25" t="n">
-        <v>1.78</v>
+        <v>1.62</v>
       </c>
       <c r="V25" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="W25" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="X25" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="Y25" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Z25" t="n">
         <v>1000</v>
@@ -3838,22 +3838,22 @@
         <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>10.5</v>
+        <v>7.4</v>
       </c>
       <c r="AC25" t="n">
-        <v>10.5</v>
+        <v>7.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AE25" t="n">
         <v>1000</v>
       </c>
       <c r="AF25" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AG25" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AH25" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO25"/>
+  <dimension ref="A1:AO24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Australian A-League Men</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>05:00:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Sydney FC</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Auckland FC</t>
+          <t>76 Igdir Belediyespor</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.8</v>
+        <v>16</v>
       </c>
       <c r="G2" t="n">
-        <v>2.96</v>
+        <v>18.5</v>
       </c>
       <c r="H2" t="n">
-        <v>2.92</v>
+        <v>1.17</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>1.19</v>
       </c>
       <c r="J2" t="n">
-        <v>3.15</v>
+        <v>9.6</v>
       </c>
       <c r="K2" t="n">
-        <v>3.3</v>
+        <v>11.5</v>
       </c>
       <c r="L2" t="n">
-        <v>34</v>
+        <v>1.2</v>
       </c>
       <c r="M2" t="n">
-        <v>1.14</v>
+        <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>2.22</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="O2" t="n">
-        <v>1.74</v>
+        <v>1.11</v>
       </c>
       <c r="P2" t="n">
-        <v>1.41</v>
+        <v>3.7</v>
       </c>
       <c r="Q2" t="n">
-        <v>3</v>
+        <v>1.36</v>
       </c>
       <c r="R2" t="n">
-        <v>1.13</v>
+        <v>2.06</v>
       </c>
       <c r="S2" t="n">
-        <v>7.8</v>
+        <v>1.89</v>
       </c>
       <c r="T2" t="n">
-        <v>2.4</v>
+        <v>2.04</v>
       </c>
       <c r="U2" t="n">
-        <v>1.58</v>
+        <v>1.84</v>
       </c>
       <c r="V2" t="n">
-        <v>1.5</v>
+        <v>6.2</v>
       </c>
       <c r="W2" t="n">
-        <v>1.51</v>
+        <v>1.05</v>
       </c>
       <c r="X2" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="Z2" t="n">
-        <v>17</v>
+        <v>11.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>60</v>
+        <v>10.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="AD2" t="n">
-        <v>16.5</v>
+        <v>22</v>
       </c>
       <c r="AE2" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="AF2" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="AJ2" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>460</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>90</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Tunisian Ligue Professionelle 1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,108 +788,108 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>AS Solimane</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>76 Igdir Belediyespor</t>
+          <t>Sportive De Tunis</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="G3" t="n">
         <v>24</v>
       </c>
       <c r="H3" t="n">
-        <v>1.16</v>
+        <v>1.27</v>
       </c>
       <c r="I3" t="n">
-        <v>1.19</v>
+        <v>1.3</v>
       </c>
       <c r="J3" t="n">
-        <v>9.4</v>
+        <v>5.3</v>
       </c>
       <c r="K3" t="n">
-        <v>11</v>
+        <v>6.4</v>
       </c>
       <c r="L3" t="n">
-        <v>1.22</v>
+        <v>1.41</v>
       </c>
       <c r="M3" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.12</v>
+        <v>1.33</v>
       </c>
       <c r="P3" t="n">
-        <v>3.35</v>
+        <v>1.87</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.41</v>
+        <v>2.02</v>
       </c>
       <c r="R3" t="n">
-        <v>1.96</v>
+        <v>1.33</v>
       </c>
       <c r="S3" t="n">
-        <v>2.02</v>
+        <v>3.7</v>
       </c>
       <c r="T3" t="n">
-        <v>2.06</v>
+        <v>2.88</v>
       </c>
       <c r="U3" t="n">
-        <v>1.81</v>
+        <v>1.45</v>
       </c>
       <c r="V3" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="X3" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="Z3" t="n">
         <v>6.2</v>
       </c>
-      <c r="W3" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="X3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AC3" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AD3" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="AE3" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AF3" t="n">
         <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
@@ -907,13 +907,13 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>3.05</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Tunisian Ligue Professionelle 1</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,126 +923,126 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>AS Solimane</t>
+          <t>Umraniyespor</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Sportive De Tunis</t>
+          <t>Boluspor</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>14.5</v>
+        <v>2.86</v>
       </c>
       <c r="G4" t="n">
-        <v>24</v>
+        <v>3.05</v>
       </c>
       <c r="H4" t="n">
-        <v>1.28</v>
+        <v>2.64</v>
       </c>
       <c r="I4" t="n">
-        <v>1.31</v>
+        <v>2.8</v>
       </c>
       <c r="J4" t="n">
-        <v>5.5</v>
+        <v>3.35</v>
       </c>
       <c r="K4" t="n">
-        <v>6.2</v>
+        <v>3.6</v>
       </c>
       <c r="L4" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="M4" t="n">
         <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="P4" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R4" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S4" t="n">
         <v>3.7</v>
       </c>
       <c r="T4" t="n">
-        <v>2.84</v>
+        <v>1.84</v>
       </c>
       <c r="U4" t="n">
-        <v>1.46</v>
+        <v>2.08</v>
       </c>
       <c r="V4" t="n">
-        <v>4.2</v>
+        <v>1.56</v>
       </c>
       <c r="W4" t="n">
-        <v>1.04</v>
+        <v>1.48</v>
       </c>
       <c r="X4" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y4" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG4" t="n">
         <v>13.5</v>
       </c>
-      <c r="Z4" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>27</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>80</v>
-      </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI4" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AK4" t="n">
-        <v>700</v>
+        <v>75</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO4" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Umraniyespor</t>
+          <t>Istanbulspor</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Boluspor</t>
+          <t>Erokspor A.S</t>
         </is>
       </c>
       <c r="F5" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N5" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="S5" t="n">
         <v>2.82</v>
       </c>
-      <c r="G5" t="n">
-        <v>3</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="S5" t="n">
-        <v>3.4</v>
-      </c>
       <c r="T5" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="U5" t="n">
-        <v>2.16</v>
+        <v>2.26</v>
       </c>
       <c r="V5" t="n">
-        <v>1.54</v>
+        <v>2.02</v>
       </c>
       <c r="W5" t="n">
-        <v>1.5</v>
+        <v>1.28</v>
       </c>
       <c r="X5" t="n">
-        <v>15.5</v>
+        <v>20</v>
       </c>
       <c r="Y5" t="n">
         <v>11.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>28</v>
+        <v>13.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>130</v>
+        <v>22</v>
       </c>
       <c r="AB5" t="n">
-        <v>12.5</v>
+        <v>19.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE5" t="n">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="AF5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI5" t="n">
         <v>32</v>
       </c>
-      <c r="AG5" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>130</v>
-      </c>
       <c r="AJ5" t="n">
-        <v>130</v>
+        <v>300</v>
       </c>
       <c r="AK5" t="n">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="AL5" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="AM5" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="AN5" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AO5" t="n">
-        <v>25</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Istanbulspor</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Erokspor A.S</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="G6" t="n">
-        <v>4.7</v>
+        <v>3.45</v>
       </c>
       <c r="H6" t="n">
-        <v>1.87</v>
+        <v>2.32</v>
       </c>
       <c r="I6" t="n">
-        <v>1.93</v>
+        <v>2.34</v>
       </c>
       <c r="J6" t="n">
-        <v>3.85</v>
+        <v>3.55</v>
       </c>
       <c r="K6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N6" t="n">
         <v>4.3</v>
       </c>
-      <c r="L6" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N6" t="n">
-        <v>4.8</v>
-      </c>
       <c r="O6" t="n">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="P6" t="n">
-        <v>2.28</v>
+        <v>2.08</v>
       </c>
       <c r="Q6" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T6" t="n">
         <v>1.72</v>
       </c>
-      <c r="R6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.7</v>
-      </c>
       <c r="U6" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="V6" t="n">
-        <v>2.06</v>
+        <v>1.74</v>
       </c>
       <c r="W6" t="n">
-        <v>1.27</v>
+        <v>1.4</v>
       </c>
       <c r="X6" t="n">
-        <v>21</v>
+        <v>15.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z6" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="AB6" t="n">
-        <v>19.5</v>
+        <v>14</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AF6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI6" t="n">
         <v>34</v>
       </c>
-      <c r="AG6" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>32</v>
-      </c>
       <c r="AJ6" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="AK6" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AL6" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AM6" t="n">
-        <v>330</v>
+        <v>75</v>
       </c>
       <c r="AN6" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="AO6" t="n">
-        <v>10.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Stade Briochin</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Fleury Merogis</t>
         </is>
       </c>
       <c r="F7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K7" t="n">
         <v>3.45</v>
       </c>
-      <c r="G7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.6</v>
-      </c>
       <c r="L7" t="n">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="N7" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S7" t="n">
         <v>4.5</v>
       </c>
-      <c r="O7" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="S7" t="n">
-        <v>3.15</v>
-      </c>
       <c r="T7" t="n">
-        <v>1.71</v>
+        <v>1.92</v>
       </c>
       <c r="U7" t="n">
-        <v>2.36</v>
+        <v>1.94</v>
       </c>
       <c r="V7" t="n">
-        <v>1.74</v>
+        <v>1.01</v>
       </c>
       <c r="W7" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="X7" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="Y7" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="AA7" t="n">
-        <v>29</v>
+        <v>900</v>
       </c>
       <c r="AB7" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AC7" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AD7" t="n">
-        <v>10.5</v>
+        <v>21</v>
       </c>
       <c r="AE7" t="n">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="AF7" t="n">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="AG7" t="n">
-        <v>13.5</v>
+        <v>34</v>
       </c>
       <c r="AH7" t="n">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="AI7" t="n">
-        <v>32</v>
+        <v>500</v>
       </c>
       <c r="AJ7" t="n">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="AK7" t="n">
-        <v>42</v>
+        <v>250</v>
       </c>
       <c r="AL7" t="n">
-        <v>46</v>
+        <v>500</v>
       </c>
       <c r="AM7" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>34</v>
+        <v>600</v>
       </c>
       <c r="AO7" t="n">
-        <v>16</v>
+        <v>500</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>French National</t>
+          <t>Dutch Eredivisie</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,126 +1463,126 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Stade Briochin</t>
+          <t>Sparta Rotterdam</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Fleury Merogis</t>
+          <t>NEC Nijmegen</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.5</v>
+        <v>2.56</v>
       </c>
       <c r="G8" t="n">
-        <v>3.7</v>
+        <v>2.58</v>
       </c>
       <c r="H8" t="n">
-        <v>2.32</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>2.42</v>
+        <v>3.05</v>
       </c>
       <c r="J8" t="n">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="K8" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="L8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N8" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R8" t="n">
         <v>1.51</v>
       </c>
-      <c r="M8" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N8" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.25</v>
-      </c>
       <c r="S8" t="n">
-        <v>4.5</v>
+        <v>2.82</v>
       </c>
       <c r="T8" t="n">
-        <v>1.92</v>
+        <v>1.53</v>
       </c>
       <c r="U8" t="n">
-        <v>1.92</v>
+        <v>1.08</v>
       </c>
       <c r="V8" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="W8" t="n">
-        <v>1.01</v>
+        <v>1.63</v>
       </c>
       <c r="X8" t="n">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="Y8" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="AA8" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="AB8" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="AC8" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD8" t="n">
         <v>14</v>
       </c>
-      <c r="AD8" t="n">
-        <v>22</v>
-      </c>
       <c r="AE8" t="n">
-        <v>110</v>
+        <v>290</v>
       </c>
       <c r="AF8" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM8" t="n">
         <v>80</v>
       </c>
-      <c r="AG8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>60</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>500</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>900</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>500</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>1000</v>
-      </c>
       <c r="AN8" t="n">
-        <v>600</v>
+        <v>55</v>
       </c>
       <c r="AO8" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1618,19 +1618,19 @@
         <v>3.25</v>
       </c>
       <c r="H9" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="I9" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="J9" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K9" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L9" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="M9" t="n">
         <v>1.05</v>
@@ -1639,34 +1639,34 @@
         <v>4.7</v>
       </c>
       <c r="O9" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P9" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="R9" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="S9" t="n">
-        <v>2.78</v>
+        <v>2.72</v>
       </c>
       <c r="T9" t="n">
         <v>1.6</v>
       </c>
       <c r="U9" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="V9" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="W9" t="n">
         <v>1.45</v>
       </c>
       <c r="X9" t="n">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="Y9" t="n">
         <v>25</v>
@@ -1678,10 +1678,10 @@
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="AC9" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AD9" t="n">
         <v>23</v>
@@ -1696,7 +1696,7 @@
         <v>26</v>
       </c>
       <c r="AH9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
@@ -1747,112 +1747,112 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.25</v>
+        <v>2.94</v>
       </c>
       <c r="G10" t="n">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="H10" t="n">
-        <v>2.18</v>
+        <v>2.38</v>
       </c>
       <c r="I10" t="n">
-        <v>2.38</v>
+        <v>2.58</v>
       </c>
       <c r="J10" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K10" t="n">
         <v>3.95</v>
       </c>
       <c r="L10" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="M10" t="n">
         <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O10" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P10" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="R10" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="S10" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="T10" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="U10" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.73</v>
+        <v>1.64</v>
       </c>
       <c r="W10" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="X10" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="Y10" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AB10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AF10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG10" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AH10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI10" t="n">
         <v>38</v>
       </c>
       <c r="AJ10" t="n">
-        <v>170</v>
+        <v>55</v>
       </c>
       <c r="AK10" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AL10" t="n">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="AM10" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="AN10" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="AO10" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11">
@@ -1897,7 +1897,7 @@
         <v>3.55</v>
       </c>
       <c r="K11" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L11" t="n">
         <v>1.41</v>
@@ -1909,19 +1909,19 @@
         <v>3.85</v>
       </c>
       <c r="O11" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P11" t="n">
         <v>2.02</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="R11" t="n">
         <v>1.38</v>
       </c>
       <c r="S11" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="T11" t="n">
         <v>1.72</v>
@@ -1957,7 +1957,7 @@
         <v>16</v>
       </c>
       <c r="AE11" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AF11" t="n">
         <v>18</v>
@@ -1969,16 +1969,16 @@
         <v>25</v>
       </c>
       <c r="AI11" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AK11" t="n">
         <v>28</v>
       </c>
       <c r="AL11" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AM11" t="n">
         <v>390</v>
@@ -1987,7 +1987,7 @@
         <v>36</v>
       </c>
       <c r="AO11" t="n">
-        <v>38</v>
+        <v>600</v>
       </c>
     </row>
     <row r="12">
@@ -2017,13 +2017,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="G12" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="H12" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="I12" t="n">
         <v>2.68</v>
@@ -2044,10 +2044,10 @@
         <v>3.05</v>
       </c>
       <c r="O12" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P12" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="Q12" t="n">
         <v>2.34</v>
@@ -2068,7 +2068,7 @@
         <v>1.59</v>
       </c>
       <c r="W12" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="X12" t="n">
         <v>17.5</v>
@@ -2086,7 +2086,7 @@
         <v>20</v>
       </c>
       <c r="AC12" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AD12" t="n">
         <v>26</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="G13" t="n">
         <v>1.63</v>
       </c>
-      <c r="G13" t="n">
-        <v>1.64</v>
-      </c>
       <c r="H13" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="I13" t="n">
         <v>6.2</v>
       </c>
       <c r="J13" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K13" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="L13" t="n">
         <v>1.32</v>
@@ -2176,88 +2176,88 @@
         <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P13" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="R13" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S13" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="T13" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="U13" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V13" t="n">
         <v>1.2</v>
       </c>
       <c r="W13" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="X13" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y13" t="n">
         <v>970</v>
       </c>
       <c r="Z13" t="n">
-        <v>500</v>
+        <v>130</v>
       </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AB13" t="n">
         <v>10.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>20</v>
+        <v>10.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="AE13" t="n">
-        <v>700</v>
+        <v>190</v>
       </c>
       <c r="AF13" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="AG13" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH13" t="n">
-        <v>970</v>
+        <v>36</v>
       </c>
       <c r="AI13" t="n">
-        <v>700</v>
+        <v>70</v>
       </c>
       <c r="AJ13" t="n">
-        <v>50</v>
+        <v>16.5</v>
       </c>
       <c r="AK13" t="n">
-        <v>32</v>
+        <v>15.5</v>
       </c>
       <c r="AL13" t="n">
-        <v>970</v>
+        <v>29</v>
       </c>
       <c r="AM13" t="n">
-        <v>580</v>
+        <v>90</v>
       </c>
       <c r="AN13" t="n">
         <v>7.6</v>
       </c>
       <c r="AO13" t="n">
-        <v>700</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14">
@@ -2287,25 +2287,25 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="G14" t="n">
         <v>3.3</v>
       </c>
       <c r="H14" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="I14" t="n">
         <v>2.48</v>
       </c>
       <c r="J14" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K14" t="n">
         <v>3.75</v>
       </c>
       <c r="L14" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M14" t="n">
         <v>1.06</v>
@@ -2317,7 +2317,7 @@
         <v>1.3</v>
       </c>
       <c r="P14" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q14" t="n">
         <v>1.88</v>
@@ -2422,13 +2422,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="G15" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="H15" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="I15" t="n">
         <v>5.3</v>
@@ -2455,7 +2455,7 @@
         <v>2.1</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R15" t="n">
         <v>1.44</v>
@@ -2467,7 +2467,7 @@
         <v>1.76</v>
       </c>
       <c r="U15" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V15" t="n">
         <v>1.23</v>
@@ -2476,7 +2476,7 @@
         <v>2.16</v>
       </c>
       <c r="X15" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y15" t="n">
         <v>19.5</v>
@@ -2506,7 +2506,7 @@
         <v>10.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI15" t="n">
         <v>65</v>
@@ -2569,7 +2569,7 @@
         <v>3.4</v>
       </c>
       <c r="J16" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K16" t="n">
         <v>3.7</v>
@@ -2596,16 +2596,16 @@
         <v>1.39</v>
       </c>
       <c r="S16" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="T16" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U16" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V16" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="W16" t="n">
         <v>1.69</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="G17" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="H17" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="I17" t="n">
         <v>3.1</v>
       </c>
       <c r="J17" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K17" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L17" t="n">
         <v>1.41</v>
@@ -2716,28 +2716,28 @@
         <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="O17" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="P17" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.97</v>
+        <v>1.91</v>
       </c>
       <c r="R17" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="S17" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="T17" t="n">
-        <v>1.76</v>
+        <v>1.69</v>
       </c>
       <c r="U17" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="V17" t="n">
         <v>1.47</v>
@@ -2746,16 +2746,16 @@
         <v>1.59</v>
       </c>
       <c r="X17" t="n">
-        <v>14.5</v>
+        <v>18</v>
       </c>
       <c r="Y17" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z17" t="n">
         <v>22</v>
       </c>
       <c r="AA17" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AB17" t="n">
         <v>11.5</v>
@@ -2767,7 +2767,7 @@
         <v>14</v>
       </c>
       <c r="AE17" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AF17" t="n">
         <v>18</v>
@@ -2776,7 +2776,7 @@
         <v>12.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI17" t="n">
         <v>120</v>
@@ -2785,19 +2785,19 @@
         <v>40</v>
       </c>
       <c r="AK17" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL17" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM17" t="n">
-        <v>110</v>
+        <v>330</v>
       </c>
       <c r="AN17" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AO17" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18">
@@ -2827,22 +2827,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="G18" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="H18" t="n">
         <v>4.2</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="J18" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="K18" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L18" t="n">
         <v>1.37</v>
@@ -2869,7 +2869,7 @@
         <v>3.15</v>
       </c>
       <c r="T18" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="U18" t="n">
         <v>2.12</v>
@@ -2878,13 +2878,13 @@
         <v>1.27</v>
       </c>
       <c r="W18" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="X18" t="n">
         <v>1000</v>
       </c>
       <c r="Y18" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Z18" t="n">
         <v>1000</v>
@@ -2893,7 +2893,7 @@
         <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>17.5</v>
+        <v>11</v>
       </c>
       <c r="AC18" t="n">
         <v>14</v>
@@ -2932,7 +2932,7 @@
         <v>55</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="19">
@@ -2962,16 +2962,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="G19" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="H19" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I19" t="n">
         <v>3.6</v>
-      </c>
-      <c r="I19" t="n">
-        <v>3.65</v>
       </c>
       <c r="J19" t="n">
         <v>3.7</v>
@@ -2980,7 +2980,7 @@
         <v>3.75</v>
       </c>
       <c r="L19" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M19" t="n">
         <v>1.06</v>
@@ -2989,34 +2989,34 @@
         <v>4.5</v>
       </c>
       <c r="O19" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P19" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q19" t="n">
         <v>1.82</v>
       </c>
       <c r="R19" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S19" t="n">
         <v>3.05</v>
       </c>
       <c r="T19" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="U19" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="V19" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W19" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="X19" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y19" t="n">
         <v>15.5</v>
@@ -3067,7 +3067,7 @@
         <v>13.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="G20" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="H20" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I20" t="n">
         <v>1.5</v>
       </c>
-      <c r="I20" t="n">
-        <v>1.51</v>
-      </c>
       <c r="J20" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K20" t="n">
         <v>5.2</v>
-      </c>
-      <c r="K20" t="n">
-        <v>5.3</v>
       </c>
       <c r="L20" t="n">
         <v>1.28</v>
@@ -3121,34 +3121,34 @@
         <v>1.03</v>
       </c>
       <c r="N20" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="O20" t="n">
         <v>1.17</v>
       </c>
       <c r="P20" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="R20" t="n">
         <v>1.72</v>
       </c>
       <c r="S20" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="T20" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="U20" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="V20" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="W20" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="X20" t="n">
         <v>28</v>
@@ -3163,13 +3163,13 @@
         <v>14</v>
       </c>
       <c r="AB20" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AC20" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AD20" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AE20" t="n">
         <v>13.5</v>
@@ -3178,13 +3178,13 @@
         <v>65</v>
       </c>
       <c r="AG20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH20" t="n">
         <v>19</v>
       </c>
       <c r="AI20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ20" t="n">
         <v>180</v>
@@ -3196,10 +3196,10 @@
         <v>65</v>
       </c>
       <c r="AM20" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AN20" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AO20" t="n">
         <v>5.2</v>
@@ -3232,25 +3232,25 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="G21" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="H21" t="n">
-        <v>2.14</v>
+        <v>2.32</v>
       </c>
       <c r="I21" t="n">
-        <v>2.16</v>
+        <v>2.34</v>
       </c>
       <c r="J21" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="K21" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="L21" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M21" t="n">
         <v>1.05</v>
@@ -3268,82 +3268,82 @@
         <v>1.73</v>
       </c>
       <c r="R21" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="S21" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="T21" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="U21" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="V21" t="n">
-        <v>1.86</v>
+        <v>1.74</v>
       </c>
       <c r="W21" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="X21" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Y21" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z21" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AA21" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AB21" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AE21" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AF21" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG21" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI21" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AJ21" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AK21" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL21" t="n">
         <v>36</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>38</v>
       </c>
       <c r="AM21" t="n">
         <v>60</v>
       </c>
       <c r="AN21" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AO21" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Dutch Eredivisie</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,123 +3353,123 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>17:01:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Sparta Rotterdam</t>
+          <t>Alianza FC Valledupar</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>NEC Nijmegen</t>
+          <t>Cucuta Deportivo</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.56</v>
+        <v>1.92</v>
       </c>
       <c r="G22" t="n">
-        <v>2.58</v>
+        <v>1.97</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>4.9</v>
       </c>
       <c r="I22" t="n">
-        <v>3.1</v>
+        <v>5.3</v>
       </c>
       <c r="J22" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="K22" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L22" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="M22" t="n">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="N22" t="n">
-        <v>4.7</v>
+        <v>2.88</v>
       </c>
       <c r="O22" t="n">
-        <v>1.23</v>
+        <v>1.5</v>
       </c>
       <c r="P22" t="n">
-        <v>2.26</v>
+        <v>1.6</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.71</v>
+        <v>2.54</v>
       </c>
       <c r="R22" t="n">
-        <v>1.51</v>
+        <v>1.21</v>
       </c>
       <c r="S22" t="n">
-        <v>2.74</v>
+        <v>5.1</v>
       </c>
       <c r="T22" t="n">
-        <v>1.09</v>
+        <v>2.2</v>
       </c>
       <c r="U22" t="n">
-        <v>1.08</v>
+        <v>1.76</v>
       </c>
       <c r="V22" t="n">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="W22" t="n">
-        <v>1.63</v>
+        <v>2.02</v>
       </c>
       <c r="X22" t="n">
-        <v>75</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y22" t="n">
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="AA22" t="n">
+        <v>700</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>38</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>480</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI22" t="n">
         <v>500</v>
       </c>
-      <c r="AB22" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>290</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>36</v>
-      </c>
       <c r="AJ22" t="n">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="AK22" t="n">
+        <v>130</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>180</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>500</v>
+      </c>
+      <c r="AN22" t="n">
         <v>24</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>42</v>
       </c>
       <c r="AO22" t="n">
         <v>1000</v>
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Alianza FC Valledupar</t>
+          <t>Jaguares de Cordoba</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Cucuta Deportivo</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.93</v>
+        <v>3.65</v>
       </c>
       <c r="G23" t="n">
-        <v>1.98</v>
+        <v>3.95</v>
       </c>
       <c r="H23" t="n">
-        <v>4.9</v>
+        <v>2.26</v>
       </c>
       <c r="I23" t="n">
-        <v>5.4</v>
+        <v>2.32</v>
       </c>
       <c r="J23" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K23" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L23" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="M23" t="n">
         <v>1.11</v>
       </c>
       <c r="N23" t="n">
-        <v>2.86</v>
+        <v>2.78</v>
       </c>
       <c r="O23" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="P23" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="R23" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="S23" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="T23" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="U23" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V23" t="n">
         <v>1.76</v>
       </c>
-      <c r="V23" t="n">
-        <v>1.23</v>
-      </c>
       <c r="W23" t="n">
-        <v>2.02</v>
+        <v>1.34</v>
       </c>
       <c r="X23" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>13.5</v>
+        <v>8</v>
       </c>
       <c r="Z23" t="n">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="AA23" t="n">
-        <v>700</v>
+        <v>36</v>
       </c>
       <c r="AB23" t="n">
-        <v>6.8</v>
+        <v>16</v>
       </c>
       <c r="AC23" t="n">
-        <v>7.8</v>
+        <v>12.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="AE23" t="n">
-        <v>480</v>
+        <v>80</v>
       </c>
       <c r="AF23" t="n">
-        <v>10.5</v>
+        <v>120</v>
       </c>
       <c r="AG23" t="n">
-        <v>11</v>
+        <v>16.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="AI23" t="n">
+        <v>290</v>
+      </c>
+      <c r="AJ23" t="n">
         <v>500</v>
       </c>
-      <c r="AJ23" t="n">
-        <v>130</v>
-      </c>
       <c r="AK23" t="n">
-        <v>130</v>
+        <v>370</v>
       </c>
       <c r="AL23" t="n">
-        <v>180</v>
+        <v>380</v>
       </c>
       <c r="AM23" t="n">
         <v>500</v>
       </c>
       <c r="AN23" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AO23" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,260 +3623,125 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>22:10:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Jaguares de Cordoba</t>
+          <t>Boca Juniors de Cali</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Orsomarso</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.65</v>
+        <v>2.44</v>
       </c>
       <c r="G24" t="n">
-        <v>3.9</v>
+        <v>2.56</v>
       </c>
       <c r="H24" t="n">
-        <v>2.26</v>
+        <v>3.4</v>
       </c>
       <c r="I24" t="n">
-        <v>2.32</v>
+        <v>3.75</v>
       </c>
       <c r="J24" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="K24" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="L24" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="M24" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="N24" t="n">
-        <v>2.78</v>
+        <v>2.46</v>
       </c>
       <c r="O24" t="n">
-        <v>1.52</v>
+        <v>1.62</v>
       </c>
       <c r="P24" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="R24" t="n">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="S24" t="n">
-        <v>5.4</v>
+        <v>6.2</v>
       </c>
       <c r="T24" t="n">
-        <v>2.06</v>
+        <v>2.18</v>
       </c>
       <c r="U24" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="V24" t="n">
-        <v>1.76</v>
+        <v>1.36</v>
       </c>
       <c r="W24" t="n">
-        <v>1.34</v>
+        <v>1.64</v>
       </c>
       <c r="X24" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="Y24" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Z24" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AA24" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>19</v>
+        <v>7.4</v>
       </c>
       <c r="AC24" t="n">
-        <v>13</v>
+        <v>7.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AE24" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AG24" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AH24" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AI24" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AK24" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AL24" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AM24" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AN24" t="n">
         <v>1000</v>
       </c>
       <c r="AO24" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Colombian Primera B</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>2026-02-17</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>22:10:00</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Boca Juniors de Cali</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Orsomarso</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="G25" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="H25" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="I25" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J25" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K25" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="N25" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="P25" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="S25" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="T25" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="W25" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="X25" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO25" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-17.xlsx
@@ -653,7 +653,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>08:31:24</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -667,82 +667,82 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="G2" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="H2" t="n">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
       <c r="I2" t="n">
-        <v>1.19</v>
+        <v>1.02</v>
       </c>
       <c r="J2" t="n">
-        <v>9.6</v>
+        <v>100</v>
       </c>
       <c r="K2" t="n">
-        <v>11.5</v>
+        <v>950</v>
       </c>
       <c r="L2" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="T2" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="V2" t="n">
+        <v>50</v>
+      </c>
+      <c r="W2" t="n">
         <v>1.01</v>
-      </c>
-      <c r="N2" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="R2" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="V2" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.05</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>11.5</v>
+        <v>4.2</v>
       </c>
       <c r="AA2" t="n">
-        <v>10.5</v>
+        <v>3.6</v>
       </c>
       <c r="AB2" t="n">
         <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>22</v>
+        <v>14.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AF2" t="n">
         <v>1000</v>
@@ -751,10 +751,10 @@
         <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AI2" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
@@ -772,7 +772,7 @@
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="3">
@@ -802,19 +802,19 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>14.5</v>
+        <v>22</v>
       </c>
       <c r="G3" t="n">
         <v>24</v>
       </c>
       <c r="H3" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="I3" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="J3" t="n">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="K3" t="n">
         <v>6.4</v>
@@ -823,43 +823,43 @@
         <v>1.41</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
         <v>3.6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="P3" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="R3" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="S3" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T3" t="n">
-        <v>2.88</v>
+        <v>2.98</v>
       </c>
       <c r="U3" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="V3" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="W3" t="n">
         <v>1.04</v>
       </c>
       <c r="X3" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y3" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="Z3" t="n">
         <v>6.2</v>
@@ -868,25 +868,25 @@
         <v>8.6</v>
       </c>
       <c r="AB3" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AC3" t="n">
-        <v>25</v>
+        <v>15.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="AF3" t="n">
         <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>85</v>
+        <v>320</v>
       </c>
       <c r="AH3" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AI3" t="n">
         <v>85</v>
@@ -907,7 +907,7 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="4">
@@ -946,7 +946,7 @@
         <v>2.64</v>
       </c>
       <c r="I4" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="J4" t="n">
         <v>3.35</v>
@@ -961,13 +961,13 @@
         <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="O4" t="n">
         <v>1.35</v>
       </c>
       <c r="P4" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="Q4" t="n">
         <v>2.04</v>
@@ -976,13 +976,13 @@
         <v>1.34</v>
       </c>
       <c r="S4" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="T4" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="U4" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="V4" t="n">
         <v>1.56</v>
@@ -991,13 +991,13 @@
         <v>1.48</v>
       </c>
       <c r="X4" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y4" t="n">
         <v>11</v>
       </c>
       <c r="Z4" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AA4" t="n">
         <v>120</v>
@@ -1012,10 +1012,10 @@
         <v>13</v>
       </c>
       <c r="AE4" t="n">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="AF4" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="AG4" t="n">
         <v>13.5</v>
@@ -1036,13 +1036,13 @@
         <v>120</v>
       </c>
       <c r="AM4" t="n">
-        <v>500</v>
+        <v>330</v>
       </c>
       <c r="AN4" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="AO4" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
@@ -1075,22 +1075,22 @@
         <v>4.1</v>
       </c>
       <c r="G5" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="H5" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="I5" t="n">
         <v>1.97</v>
       </c>
       <c r="J5" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K5" t="n">
         <v>4.2</v>
       </c>
       <c r="L5" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
@@ -1099,34 +1099,34 @@
         <v>4.7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P5" t="n">
         <v>2.28</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R5" t="n">
         <v>1.49</v>
       </c>
       <c r="S5" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="T5" t="n">
         <v>1.7</v>
       </c>
       <c r="U5" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="V5" t="n">
         <v>2.02</v>
       </c>
       <c r="W5" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="X5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y5" t="n">
         <v>11.5</v>
@@ -1138,7 +1138,7 @@
         <v>22</v>
       </c>
       <c r="AB5" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AC5" t="n">
         <v>9.6</v>
@@ -1153,7 +1153,7 @@
         <v>34</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AH5" t="n">
         <v>17.5</v>
@@ -1162,10 +1162,10 @@
         <v>32</v>
       </c>
       <c r="AJ5" t="n">
-        <v>300</v>
+        <v>85</v>
       </c>
       <c r="AK5" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AL5" t="n">
         <v>50</v>
@@ -1174,10 +1174,10 @@
         <v>200</v>
       </c>
       <c r="AN5" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AO5" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -1261,7 +1261,7 @@
         <v>1.4</v>
       </c>
       <c r="X6" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y6" t="n">
         <v>11</v>
@@ -1279,7 +1279,7 @@
         <v>7.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AE6" t="n">
         <v>23</v>
@@ -1306,7 +1306,7 @@
         <v>46</v>
       </c>
       <c r="AM6" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AN6" t="n">
         <v>34</v>
@@ -1345,10 +1345,10 @@
         <v>3.5</v>
       </c>
       <c r="G7" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="H7" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="I7" t="n">
         <v>2.42</v>
@@ -1357,10 +1357,10 @@
         <v>3.2</v>
       </c>
       <c r="K7" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L7" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="M7" t="n">
         <v>1.1</v>
@@ -1399,16 +1399,16 @@
         <v>20</v>
       </c>
       <c r="Y7" t="n">
-        <v>13.5</v>
+        <v>8.4</v>
       </c>
       <c r="Z7" t="n">
         <v>30</v>
       </c>
       <c r="AA7" t="n">
-        <v>900</v>
+        <v>130</v>
       </c>
       <c r="AB7" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AC7" t="n">
         <v>13</v>
@@ -1429,13 +1429,13 @@
         <v>44</v>
       </c>
       <c r="AI7" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AJ7" t="n">
         <v>500</v>
       </c>
       <c r="AK7" t="n">
-        <v>250</v>
+        <v>130</v>
       </c>
       <c r="AL7" t="n">
         <v>500</v>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:01:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1504,7 +1504,7 @@
         <v>4.8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P8" t="n">
         <v>2.3</v>
@@ -1513,16 +1513,16 @@
         <v>1.72</v>
       </c>
       <c r="R8" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="S8" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="T8" t="n">
-        <v>1.53</v>
+        <v>1.07</v>
       </c>
       <c r="U8" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="V8" t="n">
         <v>1.48</v>
@@ -1531,16 +1531,16 @@
         <v>1.63</v>
       </c>
       <c r="X8" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Z8" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AA8" t="n">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="AB8" t="n">
         <v>30</v>
@@ -1549,22 +1549,22 @@
         <v>8.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AE8" t="n">
         <v>290</v>
       </c>
       <c r="AF8" t="n">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH8" t="n">
         <v>15</v>
       </c>
       <c r="AI8" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AJ8" t="n">
         <v>36</v>
@@ -1582,7 +1582,7 @@
         <v>55</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="9">
@@ -1612,19 +1612,19 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="G9" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H9" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="I9" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="J9" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K9" t="n">
         <v>4</v>
@@ -1636,22 +1636,22 @@
         <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="O9" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="P9" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="R9" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S9" t="n">
-        <v>2.72</v>
+        <v>2.66</v>
       </c>
       <c r="T9" t="n">
         <v>1.6</v>
@@ -1660,28 +1660,28 @@
         <v>2.48</v>
       </c>
       <c r="V9" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="W9" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="X9" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="Y9" t="n">
         <v>25</v>
       </c>
       <c r="Z9" t="n">
-        <v>500</v>
+        <v>38</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB9" t="n">
         <v>500</v>
       </c>
       <c r="AC9" t="n">
-        <v>14</v>
+        <v>9.4</v>
       </c>
       <c r="AD9" t="n">
         <v>23</v>
@@ -1690,31 +1690,31 @@
         <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>500</v>
+        <v>55</v>
       </c>
       <c r="AG9" t="n">
         <v>26</v>
       </c>
       <c r="AH9" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AM9" t="n">
         <v>580</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO9" t="n">
         <v>55</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.94</v>
+        <v>2.88</v>
       </c>
       <c r="G10" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H10" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="I10" t="n">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="J10" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K10" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="L10" t="n">
         <v>1.38</v>
@@ -1771,37 +1771,37 @@
         <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O10" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P10" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R10" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="S10" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T10" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U10" t="n">
         <v>2.2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="W10" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="X10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y10" t="n">
         <v>12.5</v>
@@ -1819,7 +1819,7 @@
         <v>8.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AE10" t="n">
         <v>27</v>
@@ -1837,16 +1837,16 @@
         <v>38</v>
       </c>
       <c r="AJ10" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="AK10" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AL10" t="n">
         <v>44</v>
       </c>
       <c r="AM10" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN10" t="n">
         <v>29</v>
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="G11" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H11" t="n">
         <v>3.2</v>
@@ -1894,7 +1894,7 @@
         <v>3.3</v>
       </c>
       <c r="J11" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K11" t="n">
         <v>3.9</v>
@@ -1921,7 +1921,7 @@
         <v>1.38</v>
       </c>
       <c r="S11" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T11" t="n">
         <v>1.72</v>
@@ -1933,7 +1933,7 @@
         <v>1.43</v>
       </c>
       <c r="W11" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="X11" t="n">
         <v>16</v>
@@ -1942,52 +1942,52 @@
         <v>16</v>
       </c>
       <c r="Z11" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>440</v>
       </c>
       <c r="AB11" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC11" t="n">
         <v>9.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AF11" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AG11" t="n">
         <v>12.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AJ11" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AK11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN11" t="n">
         <v>28</v>
       </c>
-      <c r="AL11" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>390</v>
-      </c>
-      <c r="AN11" t="n">
+      <c r="AO11" t="n">
         <v>36</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>600</v>
       </c>
     </row>
     <row r="12">
@@ -2020,19 +2020,19 @@
         <v>3.15</v>
       </c>
       <c r="G12" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="H12" t="n">
         <v>2.5</v>
       </c>
       <c r="I12" t="n">
-        <v>2.68</v>
+        <v>2.62</v>
       </c>
       <c r="J12" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K12" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L12" t="n">
         <v>1.52</v>
@@ -2050,7 +2050,7 @@
         <v>1.67</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="R12" t="n">
         <v>1.25</v>
@@ -2065,28 +2065,28 @@
         <v>1.96</v>
       </c>
       <c r="V12" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="W12" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="X12" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB12" t="n">
         <v>17.5</v>
       </c>
-      <c r="Y12" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>20</v>
-      </c>
       <c r="AC12" t="n">
-        <v>14</v>
+        <v>7.4</v>
       </c>
       <c r="AD12" t="n">
         <v>26</v>
@@ -2095,22 +2095,22 @@
         <v>980</v>
       </c>
       <c r="AF12" t="n">
-        <v>970</v>
+        <v>48</v>
       </c>
       <c r="AG12" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AH12" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AL12" t="n">
         <v>1000</v>
@@ -2119,10 +2119,10 @@
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="13">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="G13" t="n">
         <v>1.63</v>
@@ -2167,7 +2167,7 @@
         <v>4.5</v>
       </c>
       <c r="K13" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="L13" t="n">
         <v>1.32</v>
@@ -2179,7 +2179,7 @@
         <v>5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P13" t="n">
         <v>2.38</v>
@@ -2188,7 +2188,7 @@
         <v>1.66</v>
       </c>
       <c r="R13" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S13" t="n">
         <v>2.7</v>
@@ -2197,10 +2197,10 @@
         <v>1.78</v>
       </c>
       <c r="U13" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V13" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="W13" t="n">
         <v>2.58</v>
@@ -2209,13 +2209,13 @@
         <v>21</v>
       </c>
       <c r="Y13" t="n">
-        <v>970</v>
+        <v>28</v>
       </c>
       <c r="Z13" t="n">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="AA13" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
         <v>10.5</v>
@@ -2227,37 +2227,37 @@
         <v>23</v>
       </c>
       <c r="AE13" t="n">
-        <v>190</v>
+        <v>75</v>
       </c>
       <c r="AF13" t="n">
         <v>11</v>
       </c>
       <c r="AG13" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AH13" t="n">
-        <v>36</v>
+        <v>19.5</v>
       </c>
       <c r="AI13" t="n">
         <v>70</v>
       </c>
       <c r="AJ13" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AK13" t="n">
         <v>15.5</v>
       </c>
       <c r="AL13" t="n">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="AM13" t="n">
-        <v>90</v>
+        <v>580</v>
       </c>
       <c r="AN13" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AO13" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14">
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="G14" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="H14" t="n">
-        <v>2.38</v>
+        <v>2.46</v>
       </c>
       <c r="I14" t="n">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="J14" t="n">
         <v>3.55</v>
       </c>
       <c r="K14" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L14" t="n">
         <v>1.38</v>
@@ -2311,85 +2311,85 @@
         <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O14" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P14" t="n">
         <v>2.06</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="R14" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S14" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T14" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="U14" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="V14" t="n">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="W14" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="X14" t="n">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="Y14" t="n">
         <v>19</v>
       </c>
       <c r="Z14" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA14" t="n">
-        <v>900</v>
+        <v>120</v>
       </c>
       <c r="AB14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC14" t="n">
-        <v>12</v>
+        <v>9.4</v>
       </c>
       <c r="AD14" t="n">
         <v>18.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF14" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AG14" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="AH14" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>220</v>
+      </c>
+      <c r="AK14" t="n">
         <v>38</v>
       </c>
-      <c r="AI14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>290</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>1000</v>
-      </c>
       <c r="AL14" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AM14" t="n">
         <v>580</v>
       </c>
       <c r="AN14" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AO14" t="n">
         <v>55</v>
@@ -2422,94 +2422,94 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="G15" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="H15" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="I15" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="J15" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="K15" t="n">
         <v>3.9</v>
       </c>
       <c r="L15" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="M15" t="n">
         <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="O15" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="P15" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="R15" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="S15" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="T15" t="n">
         <v>1.76</v>
       </c>
       <c r="U15" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V15" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="W15" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="X15" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Y15" t="n">
         <v>19.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AA15" t="n">
         <v>900</v>
       </c>
       <c r="AB15" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AC15" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AD15" t="n">
         <v>20</v>
       </c>
       <c r="AE15" t="n">
-        <v>65</v>
+        <v>190</v>
       </c>
       <c r="AF15" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH15" t="n">
         <v>18</v>
       </c>
       <c r="AI15" t="n">
-        <v>65</v>
+        <v>330</v>
       </c>
       <c r="AJ15" t="n">
         <v>19</v>
@@ -2518,16 +2518,16 @@
         <v>18.5</v>
       </c>
       <c r="AL15" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AM15" t="n">
-        <v>500</v>
+        <v>330</v>
       </c>
       <c r="AN15" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>65</v>
+        <v>290</v>
       </c>
     </row>
     <row r="16">
@@ -2557,19 +2557,19 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="G16" t="n">
-        <v>2.44</v>
+        <v>2.52</v>
       </c>
       <c r="H16" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="I16" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J16" t="n">
         <v>3.4</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3.55</v>
       </c>
       <c r="K16" t="n">
         <v>3.7</v>
@@ -2578,7 +2578,7 @@
         <v>1.39</v>
       </c>
       <c r="M16" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N16" t="n">
         <v>3.95</v>
@@ -2590,34 +2590,34 @@
         <v>2</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="R16" t="n">
         <v>1.39</v>
       </c>
       <c r="S16" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T16" t="n">
         <v>1.76</v>
       </c>
       <c r="U16" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="V16" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="W16" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="X16" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="Y16" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="Z16" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AA16" t="n">
         <v>900</v>
@@ -2626,40 +2626,40 @@
         <v>11.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD16" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AE16" t="n">
-        <v>970</v>
+        <v>100</v>
       </c>
       <c r="AF16" t="n">
-        <v>28</v>
+        <v>16.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>17</v>
+        <v>12.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AI16" t="n">
-        <v>970</v>
+        <v>130</v>
       </c>
       <c r="AJ16" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AK16" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="AL16" t="n">
-        <v>970</v>
+        <v>130</v>
       </c>
       <c r="AM16" t="n">
         <v>580</v>
       </c>
       <c r="AN16" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AO16" t="n">
         <v>50</v>
@@ -2698,106 +2698,106 @@
         <v>2.68</v>
       </c>
       <c r="H17" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="I17" t="n">
         <v>3.1</v>
       </c>
       <c r="J17" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K17" t="n">
         <v>3.7</v>
       </c>
       <c r="L17" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="M17" t="n">
         <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O17" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P17" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="R17" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S17" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T17" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="U17" t="n">
-        <v>2.22</v>
+        <v>2.38</v>
       </c>
       <c r="V17" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="W17" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="X17" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Z17" t="n">
         <v>22</v>
       </c>
       <c r="AA17" t="n">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="AB17" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC17" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD17" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE17" t="n">
         <v>34</v>
       </c>
       <c r="AF17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG17" t="n">
         <v>12.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="AJ17" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AK17" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AL17" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM17" t="n">
-        <v>330</v>
+        <v>200</v>
       </c>
       <c r="AN17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO17" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18">
@@ -2827,25 +2827,25 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="H18" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="I18" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="J18" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K18" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L18" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M18" t="n">
         <v>1.06</v>
@@ -2857,16 +2857,16 @@
         <v>1.29</v>
       </c>
       <c r="P18" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="R18" t="n">
         <v>1.41</v>
       </c>
       <c r="S18" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T18" t="n">
         <v>1.83</v>
@@ -2875,61 +2875,61 @@
         <v>2.12</v>
       </c>
       <c r="V18" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W18" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="X18" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y18" t="n">
-        <v>500</v>
+        <v>21</v>
       </c>
       <c r="Z18" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AA18" t="n">
         <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="AC18" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AE18" t="n">
         <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>500</v>
+        <v>23</v>
       </c>
       <c r="AG18" t="n">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AI18" t="n">
         <v>500</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AK18" t="n">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="AL18" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AM18" t="n">
         <v>580</v>
       </c>
       <c r="AN18" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="AO18" t="n">
         <v>500</v>
@@ -2968,16 +2968,16 @@
         <v>2.22</v>
       </c>
       <c r="H19" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I19" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="J19" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K19" t="n">
         <v>3.7</v>
-      </c>
-      <c r="K19" t="n">
-        <v>3.75</v>
       </c>
       <c r="L19" t="n">
         <v>1.37</v>
@@ -3007,16 +3007,16 @@
         <v>1.69</v>
       </c>
       <c r="U19" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="V19" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="W19" t="n">
         <v>1.81</v>
       </c>
       <c r="X19" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Y19" t="n">
         <v>15.5</v>
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="G20" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="H20" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="I20" t="n">
         <v>1.49</v>
       </c>
-      <c r="I20" t="n">
-        <v>1.5</v>
-      </c>
       <c r="J20" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="K20" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="L20" t="n">
         <v>1.28</v>
@@ -3124,25 +3124,25 @@
         <v>6.4</v>
       </c>
       <c r="O20" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P20" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="R20" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="T20" t="n">
         <v>1.72</v>
       </c>
-      <c r="S20" t="n">
+      <c r="U20" t="n">
         <v>2.34</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="U20" t="n">
-        <v>2.36</v>
       </c>
       <c r="V20" t="n">
         <v>3</v>
@@ -3151,7 +3151,7 @@
         <v>1.15</v>
       </c>
       <c r="X20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y20" t="n">
         <v>12.5</v>
@@ -3163,7 +3163,7 @@
         <v>14</v>
       </c>
       <c r="AB20" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AC20" t="n">
         <v>12</v>
@@ -3184,19 +3184,19 @@
         <v>19</v>
       </c>
       <c r="AI20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ20" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AK20" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AL20" t="n">
         <v>65</v>
       </c>
       <c r="AM20" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN20" t="n">
         <v>75</v>
@@ -3232,16 +3232,16 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="G21" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="H21" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="I21" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="J21" t="n">
         <v>3.8</v>
@@ -3268,22 +3268,22 @@
         <v>1.73</v>
       </c>
       <c r="R21" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S21" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="T21" t="n">
         <v>1.61</v>
       </c>
       <c r="U21" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="V21" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="W21" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="X21" t="n">
         <v>19</v>
@@ -3292,25 +3292,25 @@
         <v>13</v>
       </c>
       <c r="Z21" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB21" t="n">
         <v>15.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD21" t="n">
         <v>11</v>
       </c>
       <c r="AE21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG21" t="n">
         <v>13.5</v>
@@ -3319,7 +3319,7 @@
         <v>15</v>
       </c>
       <c r="AI21" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ21" t="n">
         <v>55</v>
@@ -3331,7 +3331,7 @@
         <v>36</v>
       </c>
       <c r="AM21" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AN21" t="n">
         <v>24</v>
@@ -3376,7 +3376,7 @@
         <v>4.9</v>
       </c>
       <c r="I22" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="J22" t="n">
         <v>3.35</v>
@@ -3400,7 +3400,7 @@
         <v>1.6</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="R22" t="n">
         <v>1.21</v>
@@ -3409,19 +3409,19 @@
         <v>5.1</v>
       </c>
       <c r="T22" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="U22" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="V22" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W22" t="n">
         <v>2.02</v>
       </c>
       <c r="X22" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Y22" t="n">
         <v>13.5</v>
@@ -3433,7 +3433,7 @@
         <v>700</v>
       </c>
       <c r="AB22" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AC22" t="n">
         <v>7.8</v>
@@ -3457,19 +3457,19 @@
         <v>500</v>
       </c>
       <c r="AJ22" t="n">
-        <v>130</v>
+        <v>46</v>
       </c>
       <c r="AK22" t="n">
         <v>130</v>
       </c>
       <c r="AL22" t="n">
-        <v>180</v>
+        <v>500</v>
       </c>
       <c r="AM22" t="n">
         <v>500</v>
       </c>
       <c r="AN22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO22" t="n">
         <v>1000</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="G23" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="H23" t="n">
         <v>2.26</v>
       </c>
       <c r="I23" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="J23" t="n">
         <v>3.3</v>
@@ -3526,7 +3526,7 @@
         <v>1.11</v>
       </c>
       <c r="N23" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="O23" t="n">
         <v>1.52</v>
@@ -3544,10 +3544,10 @@
         <v>5.4</v>
       </c>
       <c r="T23" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="U23" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="V23" t="n">
         <v>1.76</v>
@@ -3568,10 +3568,10 @@
         <v>36</v>
       </c>
       <c r="AB23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AC23" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AD23" t="n">
         <v>13</v>
@@ -3586,7 +3586,7 @@
         <v>16.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>27</v>
+        <v>150</v>
       </c>
       <c r="AI23" t="n">
         <v>290</v>
@@ -3607,7 +3607,7 @@
         <v>1000</v>
       </c>
       <c r="AO23" t="n">
-        <v>36</v>
+        <v>600</v>
       </c>
     </row>
     <row r="24">
@@ -3637,19 +3637,19 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="G24" t="n">
-        <v>2.56</v>
+        <v>2.66</v>
       </c>
       <c r="H24" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I24" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="J24" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="K24" t="n">
         <v>3.2</v>
@@ -3667,37 +3667,37 @@
         <v>1.62</v>
       </c>
       <c r="P24" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="R24" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="S24" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="T24" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="U24" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="V24" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="W24" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="X24" t="n">
         <v>9</v>
       </c>
       <c r="Y24" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AA24" t="n">
         <v>1000</v>
@@ -3718,7 +3718,7 @@
         <v>1000</v>
       </c>
       <c r="AG24" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH24" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO24"/>
+  <dimension ref="A1:AO23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Tunisian Ligue Professionelle 1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,33 +653,33 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>08:31:24</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>AS Solimane</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>76 Igdir Belediyespor</t>
+          <t>Sportive De Tunis</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>85</v>
+        <v>1.01</v>
       </c>
       <c r="G2" t="n">
-        <v>970</v>
+        <v>950</v>
       </c>
       <c r="H2" t="n">
         <v>1.01</v>
       </c>
       <c r="I2" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="J2" t="n">
-        <v>100</v>
+        <v>1.01</v>
       </c>
       <c r="K2" t="n">
         <v>950</v>
@@ -697,25 +697,25 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.5</v>
+        <v>1.02</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="R2" t="n">
-        <v>1.55</v>
+        <v>1.12</v>
       </c>
       <c r="S2" t="n">
-        <v>2.78</v>
+        <v>1.03</v>
       </c>
       <c r="T2" t="n">
-        <v>4.3</v>
+        <v>1.09</v>
       </c>
       <c r="U2" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>50</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
         <v>1.01</v>
@@ -727,10 +727,10 @@
         <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>4.2</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>3.6</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
         <v>1000</v>
@@ -739,10 +739,10 @@
         <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>13</v>
+        <v>990</v>
       </c>
       <c r="AF2" t="n">
         <v>1000</v>
@@ -751,10 +751,10 @@
         <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>150</v>
+        <v>970</v>
       </c>
       <c r="AI2" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
@@ -772,13 +772,13 @@
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>3.7</v>
+        <v>990</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Tunisian Ligue Professionelle 1</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,126 +788,126 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>10:59:18</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>AS Solimane</t>
+          <t>Umraniyespor</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Sportive De Tunis</t>
+          <t>Boluspor</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>22</v>
+        <v>1.6</v>
       </c>
       <c r="G3" t="n">
-        <v>24</v>
+        <v>1.65</v>
       </c>
       <c r="H3" t="n">
-        <v>1.26</v>
+        <v>8.4</v>
       </c>
       <c r="I3" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O3" t="n">
         <v>1.28</v>
       </c>
-      <c r="J3" t="n">
+      <c r="P3" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S3" t="n">
         <v>5.8</v>
       </c>
-      <c r="K3" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N3" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3.75</v>
-      </c>
       <c r="T3" t="n">
-        <v>2.98</v>
+        <v>1.71</v>
       </c>
       <c r="U3" t="n">
-        <v>1.46</v>
+        <v>2.24</v>
       </c>
       <c r="V3" t="n">
-        <v>4.5</v>
+        <v>1.12</v>
       </c>
       <c r="W3" t="n">
-        <v>1.04</v>
+        <v>2.56</v>
       </c>
       <c r="X3" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>6</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>6.2</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>46</v>
+        <v>4.7</v>
       </c>
       <c r="AC3" t="n">
-        <v>15.5</v>
+        <v>5</v>
       </c>
       <c r="AD3" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AE3" t="n">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AG3" t="n">
-        <v>320</v>
+        <v>8.4</v>
       </c>
       <c r="AH3" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="AI3" t="n">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>370</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO3" t="n">
-        <v>6.4</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Umraniyespor</t>
+          <t>Istanbulspor</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Boluspor</t>
+          <t>Erokspor A.S</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.86</v>
+        <v>4</v>
       </c>
       <c r="G4" t="n">
-        <v>3.05</v>
+        <v>4.3</v>
       </c>
       <c r="H4" t="n">
-        <v>2.64</v>
+        <v>1.94</v>
       </c>
       <c r="I4" t="n">
-        <v>2.78</v>
+        <v>2.02</v>
       </c>
       <c r="J4" t="n">
-        <v>3.35</v>
+        <v>3.8</v>
       </c>
       <c r="K4" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="L4" t="n">
-        <v>1.43</v>
+        <v>1.37</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>3.65</v>
+        <v>4.7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.35</v>
+        <v>1.24</v>
       </c>
       <c r="P4" t="n">
-        <v>1.89</v>
+        <v>2.28</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.04</v>
+        <v>1.74</v>
       </c>
       <c r="R4" t="n">
-        <v>1.34</v>
+        <v>1.49</v>
       </c>
       <c r="S4" t="n">
-        <v>3.65</v>
+        <v>2.88</v>
       </c>
       <c r="T4" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="U4" t="n">
-        <v>2.12</v>
+        <v>1.06</v>
       </c>
       <c r="V4" t="n">
-        <v>1.56</v>
+        <v>1.98</v>
       </c>
       <c r="W4" t="n">
-        <v>1.48</v>
+        <v>1.3</v>
       </c>
       <c r="X4" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>500</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG4" t="n">
         <v>17</v>
       </c>
-      <c r="AA4" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AH4" t="n">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="AI4" t="n">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="AJ4" t="n">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="AK4" t="n">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="AL4" t="n">
-        <v>120</v>
+        <v>970</v>
       </c>
       <c r="AM4" t="n">
         <v>330</v>
       </c>
       <c r="AN4" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Istanbulspor</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Erokspor A.S</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="G5" t="n">
-        <v>4.3</v>
+        <v>3.35</v>
       </c>
       <c r="H5" t="n">
-        <v>1.9</v>
+        <v>2.34</v>
       </c>
       <c r="I5" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N5" t="n">
+        <v>4</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q5" t="n">
         <v>1.97</v>
       </c>
-      <c r="J5" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N5" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.73</v>
-      </c>
       <c r="R5" t="n">
-        <v>1.49</v>
+        <v>1.4</v>
       </c>
       <c r="S5" t="n">
-        <v>2.88</v>
+        <v>3.4</v>
       </c>
       <c r="T5" t="n">
-        <v>1.7</v>
+        <v>1.76</v>
       </c>
       <c r="U5" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="V5" t="n">
-        <v>2.02</v>
+        <v>1.74</v>
       </c>
       <c r="W5" t="n">
-        <v>1.3</v>
+        <v>1.42</v>
       </c>
       <c r="X5" t="n">
-        <v>21</v>
+        <v>14.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z5" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="AB5" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.6</v>
+        <v>7.6</v>
       </c>
       <c r="AD5" t="n">
         <v>11</v>
       </c>
       <c r="AE5" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AF5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN5" t="n">
         <v>34</v>
       </c>
-      <c r="AG5" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>85</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>200</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>44</v>
-      </c>
       <c r="AO5" t="n">
-        <v>11</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Stade Briochin</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Fleury Merogis</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="G6" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="H6" t="n">
         <v>2.32</v>
       </c>
       <c r="I6" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Q6" t="n">
         <v>2.34</v>
       </c>
-      <c r="J6" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N6" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.9</v>
-      </c>
       <c r="R6" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="S6" t="n">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="T6" t="n">
-        <v>1.72</v>
+        <v>1.05</v>
       </c>
       <c r="U6" t="n">
-        <v>2.34</v>
+        <v>1.05</v>
       </c>
       <c r="V6" t="n">
-        <v>1.74</v>
+        <v>1.01</v>
       </c>
       <c r="W6" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="X6" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Y6" t="n">
-        <v>11</v>
+        <v>8.6</v>
       </c>
       <c r="Z6" t="n">
-        <v>14.5</v>
+        <v>30</v>
       </c>
       <c r="AA6" t="n">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="AB6" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE6" t="n">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="AF6" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="AH6" t="n">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="AI6" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="AJ6" t="n">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="AK6" t="n">
-        <v>42</v>
+        <v>500</v>
       </c>
       <c r="AL6" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>34</v>
+        <v>600</v>
       </c>
       <c r="AO6" t="n">
-        <v>16.5</v>
+        <v>600</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>French National</t>
+          <t>Dutch Eredivisie</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>16:01:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Stade Briochin</t>
+          <t>Sparta Rotterdam</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Fleury Merogis</t>
+          <t>NEC Nijmegen</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.5</v>
+        <v>2.56</v>
       </c>
       <c r="G7" t="n">
-        <v>3.75</v>
+        <v>2.58</v>
       </c>
       <c r="H7" t="n">
-        <v>2.32</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>2.42</v>
+        <v>3.05</v>
       </c>
       <c r="J7" t="n">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="K7" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L7" t="n">
-        <v>1.51</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>3.1</v>
+        <v>4.8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.43</v>
+        <v>1.23</v>
       </c>
       <c r="P7" t="n">
-        <v>1.68</v>
+        <v>2.3</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.36</v>
+        <v>1.71</v>
       </c>
       <c r="R7" t="n">
-        <v>1.25</v>
+        <v>1.55</v>
       </c>
       <c r="S7" t="n">
-        <v>4.5</v>
+        <v>2.72</v>
       </c>
       <c r="T7" t="n">
-        <v>1.92</v>
+        <v>1.07</v>
       </c>
       <c r="U7" t="n">
-        <v>1.94</v>
+        <v>1.07</v>
       </c>
       <c r="V7" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="W7" t="n">
-        <v>1.01</v>
+        <v>1.63</v>
       </c>
       <c r="X7" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Y7" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC7" t="n">
         <v>8.4</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="AD7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF7" t="n">
         <v>30</v>
       </c>
-      <c r="AA7" t="n">
-        <v>130</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>85</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>80</v>
-      </c>
       <c r="AG7" t="n">
-        <v>34</v>
+        <v>11.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="AI7" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="AJ7" t="n">
-        <v>500</v>
+        <v>36</v>
       </c>
       <c r="AK7" t="n">
-        <v>130</v>
+        <v>24</v>
       </c>
       <c r="AL7" t="n">
-        <v>500</v>
+        <v>32</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN7" t="n">
-        <v>600</v>
+        <v>28</v>
       </c>
       <c r="AO7" t="n">
-        <v>500</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Dutch Eredivisie</t>
+          <t>Scottish League Two</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,126 +1463,126 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:01:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Sparta Rotterdam</t>
+          <t>Elgin City FC</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>NEC Nijmegen</t>
+          <t>East Kilbride</t>
         </is>
       </c>
       <c r="F8" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="I8" t="n">
         <v>2.56</v>
-      </c>
-      <c r="G8" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3.05</v>
       </c>
       <c r="J8" t="n">
         <v>3.55</v>
       </c>
       <c r="K8" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O8" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P8" t="n">
         <v>2.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="R8" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="S8" t="n">
-        <v>2.9</v>
+        <v>2.66</v>
       </c>
       <c r="T8" t="n">
-        <v>1.07</v>
+        <v>1.6</v>
       </c>
       <c r="U8" t="n">
-        <v>1.07</v>
+        <v>2.48</v>
       </c>
       <c r="V8" t="n">
-        <v>1.48</v>
+        <v>1.64</v>
       </c>
       <c r="W8" t="n">
-        <v>1.63</v>
+        <v>1.46</v>
       </c>
       <c r="X8" t="n">
-        <v>75</v>
+        <v>500</v>
       </c>
       <c r="Y8" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.6</v>
+        <v>42</v>
       </c>
       <c r="AD8" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="AI8" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>36</v>
+        <v>500</v>
       </c>
       <c r="AK8" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>80</v>
+        <v>580</v>
       </c>
       <c r="AN8" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
     </row>
     <row r="9">
@@ -1603,127 +1603,127 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Elgin City FC</t>
+          <t>Stirling</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>East Kilbride</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="G9" t="n">
         <v>3.2</v>
       </c>
       <c r="H9" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="I9" t="n">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="J9" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K9" t="n">
         <v>4</v>
       </c>
       <c r="L9" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="M9" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N9" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T9" t="n">
         <v>1.05</v>
       </c>
-      <c r="N9" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.6</v>
-      </c>
       <c r="U9" t="n">
-        <v>2.48</v>
+        <v>2.12</v>
       </c>
       <c r="V9" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="W9" t="n">
         <v>1.46</v>
       </c>
       <c r="X9" t="n">
-        <v>38</v>
+        <v>970</v>
       </c>
       <c r="Y9" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>42</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH9" t="n">
         <v>500</v>
       </c>
-      <c r="AC9" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>25</v>
-      </c>
       <c r="AI9" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
         <v>500</v>
       </c>
       <c r="AK9" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Scottish League Two</t>
+          <t>Scottish League One</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,127 +1738,127 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Stirling</t>
+          <t>Cove Rangers</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Clyde</t>
+          <t>Montrose</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.88</v>
+        <v>2.26</v>
       </c>
       <c r="G10" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="H10" t="n">
         <v>3.2</v>
       </c>
-      <c r="H10" t="n">
-        <v>2.42</v>
-      </c>
       <c r="I10" t="n">
-        <v>2.66</v>
+        <v>3.3</v>
       </c>
       <c r="J10" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="K10" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="L10" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="M10" t="n">
         <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="O10" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P10" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="R10" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="S10" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="T10" t="n">
-        <v>1.66</v>
+        <v>1.05</v>
       </c>
       <c r="U10" t="n">
-        <v>2.2</v>
+        <v>1.05</v>
       </c>
       <c r="V10" t="n">
-        <v>1.6</v>
+        <v>1.43</v>
       </c>
       <c r="W10" t="n">
-        <v>1.46</v>
+        <v>1.7</v>
       </c>
       <c r="X10" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.6</v>
+        <v>42</v>
       </c>
       <c r="AD10" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH10" t="n">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="AI10" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>85</v>
+        <v>580</v>
       </c>
       <c r="AN10" t="n">
-        <v>29</v>
+        <v>600</v>
       </c>
       <c r="AO10" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Scottish League One</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,127 +1873,127 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Cove Rangers</t>
+          <t>Morton</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Montrose</t>
+          <t>Dunfermline</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.28</v>
+        <v>3.15</v>
       </c>
       <c r="G11" t="n">
-        <v>2.38</v>
+        <v>3.35</v>
       </c>
       <c r="H11" t="n">
-        <v>3.2</v>
+        <v>2.52</v>
       </c>
       <c r="I11" t="n">
-        <v>3.3</v>
+        <v>2.62</v>
       </c>
       <c r="J11" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="K11" t="n">
-        <v>3.9</v>
+        <v>3.35</v>
       </c>
       <c r="L11" t="n">
-        <v>1.41</v>
+        <v>1.52</v>
       </c>
       <c r="M11" t="n">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="N11" t="n">
-        <v>3.85</v>
+        <v>3.05</v>
       </c>
       <c r="O11" t="n">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="P11" t="n">
-        <v>2.02</v>
+        <v>1.67</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.9</v>
+        <v>2.36</v>
       </c>
       <c r="R11" t="n">
-        <v>1.38</v>
+        <v>1.24</v>
       </c>
       <c r="S11" t="n">
-        <v>3.35</v>
+        <v>4.5</v>
       </c>
       <c r="T11" t="n">
-        <v>1.72</v>
+        <v>1.05</v>
       </c>
       <c r="U11" t="n">
-        <v>2.2</v>
+        <v>1.05</v>
       </c>
       <c r="V11" t="n">
-        <v>1.43</v>
+        <v>1.61</v>
       </c>
       <c r="W11" t="n">
-        <v>1.72</v>
+        <v>1.42</v>
       </c>
       <c r="X11" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="Y11" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>440</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.6</v>
+        <v>42</v>
       </c>
       <c r="AD11" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AF11" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Scottish Championship</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2008,121 +2008,121 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Morton</t>
+          <t>FC Halifax Town</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Dunfermline</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.15</v>
+        <v>1.59</v>
       </c>
       <c r="G12" t="n">
-        <v>3.4</v>
+        <v>1.63</v>
       </c>
       <c r="H12" t="n">
-        <v>2.5</v>
+        <v>5.9</v>
       </c>
       <c r="I12" t="n">
-        <v>2.62</v>
+        <v>6.6</v>
       </c>
       <c r="J12" t="n">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="K12" t="n">
-        <v>3.35</v>
+        <v>4.8</v>
       </c>
       <c r="L12" t="n">
-        <v>1.52</v>
+        <v>1.32</v>
       </c>
       <c r="M12" t="n">
-        <v>1.11</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>3.05</v>
+        <v>5</v>
       </c>
       <c r="O12" t="n">
-        <v>1.45</v>
+        <v>1.21</v>
       </c>
       <c r="P12" t="n">
-        <v>1.67</v>
+        <v>2.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.36</v>
+        <v>1.65</v>
       </c>
       <c r="R12" t="n">
-        <v>1.25</v>
+        <v>1.54</v>
       </c>
       <c r="S12" t="n">
-        <v>4.5</v>
+        <v>2.68</v>
       </c>
       <c r="T12" t="n">
-        <v>1.92</v>
+        <v>1.81</v>
       </c>
       <c r="U12" t="n">
-        <v>1.96</v>
+        <v>1.05</v>
       </c>
       <c r="V12" t="n">
-        <v>1.61</v>
+        <v>1.17</v>
       </c>
       <c r="W12" t="n">
-        <v>1.42</v>
+        <v>2.58</v>
       </c>
       <c r="X12" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>170</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC12" t="n">
         <v>10.5</v>
       </c>
-      <c r="Y12" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>150</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>7.4</v>
-      </c>
       <c r="AD12" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="AE12" t="n">
-        <v>980</v>
+        <v>320</v>
       </c>
       <c r="AF12" t="n">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="AG12" t="n">
-        <v>32</v>
+        <v>9.6</v>
       </c>
       <c r="AH12" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AI12" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="AJ12" t="n">
-        <v>340</v>
+        <v>29</v>
       </c>
       <c r="AK12" t="n">
-        <v>190</v>
+        <v>15.5</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AN12" t="n">
-        <v>600</v>
+        <v>7.2</v>
       </c>
       <c r="AO12" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
     </row>
     <row r="13">
@@ -2143,121 +2143,121 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>FC Halifax Town</t>
+          <t>Yeovil</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.59</v>
+        <v>3</v>
       </c>
       <c r="G13" t="n">
-        <v>1.63</v>
+        <v>3.15</v>
       </c>
       <c r="H13" t="n">
-        <v>5.7</v>
+        <v>2.48</v>
       </c>
       <c r="I13" t="n">
-        <v>6.2</v>
+        <v>2.54</v>
       </c>
       <c r="J13" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="K13" t="n">
-        <v>4.9</v>
+        <v>3.8</v>
       </c>
       <c r="L13" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="O13" t="n">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="P13" t="n">
-        <v>2.38</v>
+        <v>2.06</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.66</v>
+        <v>1.85</v>
       </c>
       <c r="R13" t="n">
-        <v>1.54</v>
+        <v>1.41</v>
       </c>
       <c r="S13" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="T13" t="n">
-        <v>1.78</v>
+        <v>1.69</v>
       </c>
       <c r="U13" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="V13" t="n">
-        <v>1.19</v>
+        <v>1.64</v>
       </c>
       <c r="W13" t="n">
-        <v>2.58</v>
+        <v>1.46</v>
       </c>
       <c r="X13" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB13" t="n">
         <v>21</v>
       </c>
-      <c r="Y13" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z13" t="n">
+      <c r="AC13" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>500</v>
+      </c>
+      <c r="AF13" t="n">
         <v>55</v>
       </c>
-      <c r="AA13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>11</v>
-      </c>
       <c r="AG13" t="n">
-        <v>9.6</v>
+        <v>18.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>19.5</v>
+        <v>25</v>
       </c>
       <c r="AI13" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="AJ13" t="n">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="AK13" t="n">
-        <v>15.5</v>
+        <v>90</v>
       </c>
       <c r="AL13" t="n">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="AM13" t="n">
         <v>580</v>
       </c>
       <c r="AN13" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14">
@@ -2278,34 +2278,34 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Yeovil</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Scunthorpe</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="G14" t="n">
-        <v>3.1</v>
+        <v>1.83</v>
       </c>
       <c r="H14" t="n">
-        <v>2.46</v>
+        <v>5</v>
       </c>
       <c r="I14" t="n">
-        <v>2.54</v>
+        <v>5.4</v>
       </c>
       <c r="J14" t="n">
-        <v>3.55</v>
+        <v>3.9</v>
       </c>
       <c r="K14" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="L14" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M14" t="n">
         <v>1.06</v>
@@ -2317,10 +2317,10 @@
         <v>1.29</v>
       </c>
       <c r="P14" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="R14" t="n">
         <v>1.41</v>
@@ -2329,70 +2329,70 @@
         <v>3.2</v>
       </c>
       <c r="T14" t="n">
-        <v>1.69</v>
+        <v>1.05</v>
       </c>
       <c r="U14" t="n">
-        <v>2.3</v>
+        <v>2.16</v>
       </c>
       <c r="V14" t="n">
-        <v>1.64</v>
+        <v>1.23</v>
       </c>
       <c r="W14" t="n">
-        <v>1.47</v>
+        <v>2.2</v>
       </c>
       <c r="X14" t="n">
-        <v>28</v>
+        <v>15.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="Z14" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>170</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL14" t="n">
         <v>34</v>
       </c>
-      <c r="AA14" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>36</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>220</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>160</v>
-      </c>
       <c r="AM14" t="n">
-        <v>580</v>
+        <v>100</v>
       </c>
       <c r="AN14" t="n">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="AO14" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15">
@@ -2413,121 +2413,121 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Scunthorpe</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.79</v>
+        <v>2.38</v>
       </c>
       <c r="G15" t="n">
-        <v>1.84</v>
+        <v>2.54</v>
       </c>
       <c r="H15" t="n">
-        <v>5</v>
+        <v>3.05</v>
       </c>
       <c r="I15" t="n">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="J15" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="K15" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="L15" t="n">
         <v>1.39</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="O15" t="n">
         <v>1.29</v>
       </c>
       <c r="P15" t="n">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="R15" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="S15" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T15" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="U15" t="n">
-        <v>2.14</v>
+        <v>1.05</v>
       </c>
       <c r="V15" t="n">
-        <v>1.22</v>
+        <v>1.43</v>
       </c>
       <c r="W15" t="n">
-        <v>2.18</v>
+        <v>1.65</v>
       </c>
       <c r="X15" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.5</v>
+        <v>970</v>
       </c>
       <c r="Z15" t="n">
-        <v>70</v>
+        <v>970</v>
       </c>
       <c r="AA15" t="n">
         <v>900</v>
       </c>
       <c r="AB15" t="n">
-        <v>9.6</v>
+        <v>970</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.6</v>
+        <v>16</v>
       </c>
       <c r="AD15" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="AE15" t="n">
-        <v>190</v>
+        <v>970</v>
       </c>
       <c r="AF15" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="AG15" t="n">
-        <v>9.800000000000001</v>
+        <v>970</v>
       </c>
       <c r="AH15" t="n">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="AI15" t="n">
-        <v>330</v>
+        <v>970</v>
       </c>
       <c r="AJ15" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="AK15" t="n">
-        <v>18.5</v>
+        <v>65</v>
       </c>
       <c r="AL15" t="n">
-        <v>36</v>
+        <v>970</v>
       </c>
       <c r="AM15" t="n">
-        <v>330</v>
+        <v>580</v>
       </c>
       <c r="AN15" t="n">
-        <v>11.5</v>
+        <v>55</v>
       </c>
       <c r="AO15" t="n">
-        <v>290</v>
+        <v>970</v>
       </c>
     </row>
     <row r="16">
@@ -2548,12 +2548,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Sutton Utd</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Hartlepool</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -2563,16 +2563,16 @@
         <v>2.52</v>
       </c>
       <c r="H16" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="I16" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J16" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K16" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L16" t="n">
         <v>1.39</v>
@@ -2581,28 +2581,28 @@
         <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="O16" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P16" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="R16" t="n">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="S16" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="T16" t="n">
-        <v>1.76</v>
+        <v>1.06</v>
       </c>
       <c r="U16" t="n">
-        <v>2.12</v>
+        <v>2.42</v>
       </c>
       <c r="V16" t="n">
         <v>1.43</v>
@@ -2611,64 +2611,64 @@
         <v>1.66</v>
       </c>
       <c r="X16" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="Y16" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="Z16" t="n">
-        <v>46</v>
+        <v>970</v>
       </c>
       <c r="AA16" t="n">
         <v>900</v>
       </c>
       <c r="AB16" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.199999999999999</v>
+        <v>42</v>
       </c>
       <c r="AD16" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AE16" t="n">
-        <v>100</v>
+        <v>970</v>
       </c>
       <c r="AF16" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="AG16" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AH16" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="AI16" t="n">
-        <v>130</v>
+        <v>970</v>
       </c>
       <c r="AJ16" t="n">
-        <v>80</v>
+        <v>970</v>
       </c>
       <c r="AK16" t="n">
-        <v>46</v>
+        <v>970</v>
       </c>
       <c r="AL16" t="n">
-        <v>130</v>
+        <v>970</v>
       </c>
       <c r="AM16" t="n">
         <v>580</v>
       </c>
       <c r="AN16" t="n">
-        <v>32</v>
+        <v>600</v>
       </c>
       <c r="AO16" t="n">
-        <v>50</v>
+        <v>970</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Scottish League One</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Sutton Utd</t>
+          <t>Hamilton</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>East Fife</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.52</v>
+        <v>1.87</v>
       </c>
       <c r="G17" t="n">
-        <v>2.68</v>
+        <v>1.97</v>
       </c>
       <c r="H17" t="n">
-        <v>2.9</v>
+        <v>4.3</v>
       </c>
       <c r="I17" t="n">
-        <v>3.1</v>
+        <v>5.3</v>
       </c>
       <c r="J17" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K17" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="L17" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M17" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N17" t="n">
         <v>4.1</v>
       </c>
       <c r="O17" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P17" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="R17" t="n">
         <v>1.41</v>
       </c>
       <c r="S17" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T17" t="n">
-        <v>1.64</v>
+        <v>1.83</v>
       </c>
       <c r="U17" t="n">
-        <v>2.38</v>
+        <v>1.05</v>
       </c>
       <c r="V17" t="n">
-        <v>1.48</v>
+        <v>1.24</v>
       </c>
       <c r="W17" t="n">
-        <v>1.6</v>
+        <v>2.02</v>
       </c>
       <c r="X17" t="n">
-        <v>16.5</v>
+        <v>500</v>
       </c>
       <c r="Y17" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Z17" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AA17" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AB17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC17" t="n">
         <v>12.5</v>
       </c>
-      <c r="AC17" t="n">
-        <v>8.199999999999999</v>
-      </c>
       <c r="AD17" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AE17" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>12.5</v>
+        <v>500</v>
       </c>
       <c r="AH17" t="n">
-        <v>16.5</v>
+        <v>60</v>
       </c>
       <c r="AI17" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>27</v>
+        <v>500</v>
       </c>
       <c r="AL17" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AM17" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="AN17" t="n">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="AO17" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Scottish League One</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2818,121 +2818,121 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Hamilton</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>East Fife</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.88</v>
+        <v>2.2</v>
       </c>
       <c r="G18" t="n">
-        <v>1.97</v>
+        <v>2.22</v>
       </c>
       <c r="H18" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="I18" t="n">
-        <v>5.1</v>
+        <v>3.65</v>
       </c>
       <c r="J18" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K18" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="L18" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M18" t="n">
         <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="O18" t="n">
         <v>1.29</v>
       </c>
       <c r="P18" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="R18" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="S18" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T18" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="U18" t="n">
-        <v>2.12</v>
+        <v>2.34</v>
       </c>
       <c r="V18" t="n">
-        <v>1.26</v>
+        <v>1.37</v>
       </c>
       <c r="W18" t="n">
-        <v>2.02</v>
+        <v>1.81</v>
       </c>
       <c r="X18" t="n">
-        <v>90</v>
+        <v>15.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="Z18" t="n">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AB18" t="n">
-        <v>9.6</v>
+        <v>11</v>
       </c>
       <c r="AC18" t="n">
-        <v>12.5</v>
+        <v>8</v>
       </c>
       <c r="AD18" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="AE18" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AF18" t="n">
-        <v>23</v>
+        <v>14.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>16.5</v>
+        <v>11</v>
       </c>
       <c r="AH18" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="AI18" t="n">
-        <v>500</v>
+        <v>44</v>
       </c>
       <c r="AJ18" t="n">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="AK18" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="AL18" t="n">
-        <v>500</v>
+        <v>32</v>
       </c>
       <c r="AM18" t="n">
-        <v>580</v>
+        <v>80</v>
       </c>
       <c r="AN18" t="n">
-        <v>32</v>
+        <v>14.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>500</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19">
@@ -2953,121 +2953,121 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Paris St-G</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.2</v>
+        <v>7.2</v>
       </c>
       <c r="G19" t="n">
-        <v>2.22</v>
+        <v>7.6</v>
       </c>
       <c r="H19" t="n">
-        <v>3.6</v>
+        <v>1.48</v>
       </c>
       <c r="I19" t="n">
-        <v>3.65</v>
+        <v>1.49</v>
       </c>
       <c r="J19" t="n">
-        <v>3.65</v>
+        <v>5.1</v>
       </c>
       <c r="K19" t="n">
-        <v>3.7</v>
+        <v>5.2</v>
       </c>
       <c r="L19" t="n">
-        <v>1.37</v>
+        <v>1.27</v>
       </c>
       <c r="M19" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>4.5</v>
+        <v>6.4</v>
       </c>
       <c r="O19" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="P19" t="n">
-        <v>2.2</v>
+        <v>2.84</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.82</v>
+        <v>1.53</v>
       </c>
       <c r="R19" t="n">
-        <v>1.47</v>
+        <v>1.74</v>
       </c>
       <c r="S19" t="n">
-        <v>3.05</v>
+        <v>2.32</v>
       </c>
       <c r="T19" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="U19" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="V19" t="n">
-        <v>1.37</v>
+        <v>3</v>
       </c>
       <c r="W19" t="n">
-        <v>1.81</v>
+        <v>1.15</v>
       </c>
       <c r="X19" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="Y19" t="n">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG19" t="n">
         <v>26</v>
       </c>
-      <c r="AA19" t="n">
+      <c r="AH19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>220</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>85</v>
+      </c>
+      <c r="AL19" t="n">
         <v>65</v>
       </c>
-      <c r="AB19" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>27</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>32</v>
-      </c>
       <c r="AM19" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AN19" t="n">
-        <v>13.5</v>
+        <v>75</v>
       </c>
       <c r="AO19" t="n">
-        <v>34</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="20">
@@ -3088,127 +3088,127 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>7.4</v>
+        <v>3.3</v>
       </c>
       <c r="G20" t="n">
-        <v>7.6</v>
+        <v>3.35</v>
       </c>
       <c r="H20" t="n">
-        <v>1.48</v>
+        <v>2.26</v>
       </c>
       <c r="I20" t="n">
-        <v>1.49</v>
+        <v>2.28</v>
       </c>
       <c r="J20" t="n">
-        <v>5.2</v>
+        <v>3.8</v>
       </c>
       <c r="K20" t="n">
-        <v>5.3</v>
+        <v>3.85</v>
       </c>
       <c r="L20" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="M20" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>6.4</v>
+        <v>4.9</v>
       </c>
       <c r="O20" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="P20" t="n">
-        <v>2.78</v>
+        <v>2.3</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.54</v>
+        <v>1.75</v>
       </c>
       <c r="R20" t="n">
-        <v>1.73</v>
+        <v>1.51</v>
       </c>
       <c r="S20" t="n">
-        <v>2.36</v>
+        <v>2.84</v>
       </c>
       <c r="T20" t="n">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="U20" t="n">
-        <v>2.34</v>
+        <v>2.56</v>
       </c>
       <c r="V20" t="n">
-        <v>3</v>
+        <v>1.78</v>
       </c>
       <c r="W20" t="n">
-        <v>1.15</v>
+        <v>1.42</v>
       </c>
       <c r="X20" t="n">
-        <v>27</v>
+        <v>18.5</v>
       </c>
       <c r="Y20" t="n">
         <v>12.5</v>
       </c>
       <c r="Z20" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD20" t="n">
         <v>11</v>
       </c>
-      <c r="AA20" t="n">
-        <v>14</v>
-      </c>
-      <c r="AB20" t="n">
+      <c r="AE20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK20" t="n">
         <v>32</v>
       </c>
-      <c r="AC20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE20" t="n">
+      <c r="AL20" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>27</v>
+      </c>
+      <c r="AO20" t="n">
         <v>13.5</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>190</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>85</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>75</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>5.2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,126 +3218,126 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Alianza FC Valledupar</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Cucuta Deportivo</t>
         </is>
       </c>
       <c r="F21" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+      <c r="I21" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J21" t="n">
         <v>3.3</v>
       </c>
-      <c r="G21" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J21" t="n">
-        <v>3.8</v>
-      </c>
       <c r="K21" t="n">
-        <v>3.85</v>
+        <v>3.55</v>
       </c>
       <c r="L21" t="n">
-        <v>1.34</v>
+        <v>1.55</v>
       </c>
       <c r="M21" t="n">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="N21" t="n">
-        <v>5</v>
+        <v>2.92</v>
       </c>
       <c r="O21" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="V21" t="n">
         <v>1.23</v>
       </c>
-      <c r="P21" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="S21" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="U21" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.76</v>
-      </c>
       <c r="W21" t="n">
-        <v>1.42</v>
+        <v>2.02</v>
       </c>
       <c r="X21" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Y21" t="n">
-        <v>13</v>
+        <v>500</v>
       </c>
       <c r="Z21" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AA21" t="n">
-        <v>30</v>
+        <v>700</v>
       </c>
       <c r="AB21" t="n">
-        <v>15.5</v>
+        <v>40</v>
       </c>
       <c r="AC21" t="n">
-        <v>8.6</v>
+        <v>25</v>
       </c>
       <c r="AD21" t="n">
-        <v>11</v>
+        <v>500</v>
       </c>
       <c r="AE21" t="n">
-        <v>21</v>
+        <v>700</v>
       </c>
       <c r="AF21" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
       <c r="AG21" t="n">
-        <v>13.5</v>
+        <v>44</v>
       </c>
       <c r="AH21" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AI21" t="n">
-        <v>29</v>
+        <v>700</v>
       </c>
       <c r="AJ21" t="n">
-        <v>55</v>
+        <v>970</v>
       </c>
       <c r="AK21" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="AL21" t="n">
-        <v>36</v>
+        <v>500</v>
       </c>
       <c r="AM21" t="n">
-        <v>65</v>
+        <v>500</v>
       </c>
       <c r="AN21" t="n">
-        <v>24</v>
+        <v>600</v>
       </c>
       <c r="AO21" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22">
@@ -3353,114 +3353,114 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Alianza FC Valledupar</t>
+          <t>Jaguares de Cordoba</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Cucuta Deportivo</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.92</v>
+        <v>3.65</v>
       </c>
       <c r="G22" t="n">
-        <v>1.97</v>
+        <v>3.9</v>
       </c>
       <c r="H22" t="n">
-        <v>4.9</v>
+        <v>2.22</v>
       </c>
       <c r="I22" t="n">
-        <v>5.4</v>
+        <v>2.32</v>
       </c>
       <c r="J22" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K22" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L22" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="M22" t="n">
         <v>1.11</v>
       </c>
       <c r="N22" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="O22" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="P22" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="R22" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="S22" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="T22" t="n">
-        <v>2.18</v>
+        <v>1.05</v>
       </c>
       <c r="U22" t="n">
-        <v>1.75</v>
+        <v>1.05</v>
       </c>
       <c r="V22" t="n">
-        <v>1.23</v>
+        <v>1.76</v>
       </c>
       <c r="W22" t="n">
-        <v>2.02</v>
+        <v>1.34</v>
       </c>
       <c r="X22" t="n">
-        <v>9.6</v>
+        <v>32</v>
       </c>
       <c r="Y22" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Z22" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="AA22" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="AB22" t="n">
-        <v>6.6</v>
+        <v>19</v>
       </c>
       <c r="AC22" t="n">
-        <v>7.8</v>
+        <v>25</v>
       </c>
       <c r="AD22" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="AE22" t="n">
-        <v>480</v>
+        <v>90</v>
       </c>
       <c r="AF22" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AG22" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH22" t="n">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="AI22" t="n">
         <v>500</v>
       </c>
       <c r="AJ22" t="n">
-        <v>46</v>
+        <v>500</v>
       </c>
       <c r="AK22" t="n">
-        <v>130</v>
+        <v>500</v>
       </c>
       <c r="AL22" t="n">
         <v>500</v>
@@ -3469,7 +3469,7 @@
         <v>500</v>
       </c>
       <c r="AN22" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AO22" t="n">
         <v>1000</v>
@@ -3478,7 +3478,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,260 +3488,125 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>22:10:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Jaguares de Cordoba</t>
+          <t>Boca Juniors de Cali</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Orsomarso</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.7</v>
+        <v>2.52</v>
       </c>
       <c r="G23" t="n">
-        <v>3.9</v>
+        <v>2.74</v>
       </c>
       <c r="H23" t="n">
-        <v>2.26</v>
+        <v>3.25</v>
       </c>
       <c r="I23" t="n">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="J23" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="K23" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="L23" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="M23" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="N23" t="n">
-        <v>2.8</v>
+        <v>2.48</v>
       </c>
       <c r="O23" t="n">
-        <v>1.52</v>
+        <v>1.61</v>
       </c>
       <c r="P23" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S23" t="n">
+        <v>6</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="W23" t="n">
         <v>1.58</v>
       </c>
-      <c r="Q23" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S23" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="T23" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="W23" t="n">
-        <v>1.34</v>
-      </c>
       <c r="X23" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Y23" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="Z23" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AA23" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AC23" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AD23" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AE23" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AG23" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AH23" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AI23" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AK23" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
       <c r="AL23" t="n">
-        <v>380</v>
+        <v>1000</v>
       </c>
       <c r="AM23" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AN23" t="n">
         <v>1000</v>
       </c>
       <c r="AO23" t="n">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Colombian Primera B</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>2026-02-17</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>22:10:00</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Boca Juniors de Cali</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Orsomarso</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="G24" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="H24" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="I24" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="K24" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N24" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="S24" t="n">
-        <v>6</v>
-      </c>
-      <c r="T24" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="W24" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="X24" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>28</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO24" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO23"/>
+  <dimension ref="A1:AO21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Tunisian Ligue Professionelle 1</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>14:01:59</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>AS Solimane</t>
+          <t>Istanbulspor</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Sportive De Tunis</t>
+          <t>Erokspor A.S</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.01</v>
+        <v>4.7</v>
       </c>
       <c r="G2" t="n">
-        <v>950</v>
+        <v>4.9</v>
       </c>
       <c r="H2" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="I2" t="n">
-        <v>1.03</v>
+        <v>1.88</v>
       </c>
       <c r="J2" t="n">
-        <v>1.01</v>
+        <v>3.95</v>
       </c>
       <c r="K2" t="n">
-        <v>950</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="P2" t="n">
-        <v>1.02</v>
+        <v>2.06</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="R2" t="n">
-        <v>1.12</v>
+        <v>1.42</v>
       </c>
       <c r="S2" t="n">
-        <v>1.03</v>
+        <v>3.15</v>
       </c>
       <c r="T2" t="n">
-        <v>1.09</v>
+        <v>1.72</v>
       </c>
       <c r="U2" t="n">
-        <v>1.01</v>
+        <v>2.22</v>
       </c>
       <c r="V2" t="n">
-        <v>1.01</v>
+        <v>2.14</v>
       </c>
       <c r="W2" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>990</v>
+        <v>20</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AO2" t="n">
-        <v>990</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10:59:18</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Umraniyespor</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Boluspor</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.6</v>
+        <v>3.35</v>
       </c>
       <c r="G3" t="n">
-        <v>1.65</v>
+        <v>3.4</v>
       </c>
       <c r="H3" t="n">
-        <v>8.4</v>
+        <v>2.34</v>
       </c>
       <c r="I3" t="n">
-        <v>8.800000000000001</v>
+        <v>2.36</v>
       </c>
       <c r="J3" t="n">
         <v>3.6</v>
       </c>
       <c r="K3" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="O3" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="P3" t="n">
-        <v>1.7</v>
+        <v>2.06</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.38</v>
+        <v>1.93</v>
       </c>
       <c r="R3" t="n">
-        <v>1.19</v>
+        <v>1.41</v>
       </c>
       <c r="S3" t="n">
-        <v>5.8</v>
+        <v>3.35</v>
       </c>
       <c r="T3" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="U3" t="n">
-        <v>2.24</v>
+        <v>2.34</v>
       </c>
       <c r="V3" t="n">
-        <v>1.12</v>
+        <v>1.73</v>
       </c>
       <c r="W3" t="n">
-        <v>2.56</v>
+        <v>1.42</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AB3" t="n">
-        <v>4.7</v>
+        <v>13.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>5</v>
+        <v>7.8</v>
       </c>
       <c r="AD3" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AE3" t="n">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.2</v>
+        <v>23</v>
       </c>
       <c r="AG3" t="n">
-        <v>8.4</v>
+        <v>13.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AI3" t="n">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="AJ3" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="AK3" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AL3" t="n">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="AM3" t="n">
-        <v>370</v>
+        <v>80</v>
       </c>
       <c r="AN3" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="AO3" t="n">
-        <v>240</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Istanbulspor</t>
+          <t>Stade Briochin</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Erokspor A.S</t>
+          <t>Fleury Merogis</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>3.45</v>
       </c>
       <c r="G4" t="n">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="H4" t="n">
-        <v>1.94</v>
+        <v>2.36</v>
       </c>
       <c r="I4" t="n">
-        <v>2.02</v>
+        <v>2.46</v>
       </c>
       <c r="J4" t="n">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="K4" t="n">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.37</v>
+        <v>1.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>4.7</v>
+        <v>3.15</v>
       </c>
       <c r="O4" t="n">
-        <v>1.24</v>
+        <v>1.43</v>
       </c>
       <c r="P4" t="n">
-        <v>2.28</v>
+        <v>1.71</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.74</v>
+        <v>2.3</v>
       </c>
       <c r="R4" t="n">
-        <v>1.49</v>
+        <v>1.26</v>
       </c>
       <c r="S4" t="n">
-        <v>2.88</v>
+        <v>4.4</v>
       </c>
       <c r="T4" t="n">
-        <v>1.7</v>
+        <v>1.92</v>
       </c>
       <c r="U4" t="n">
-        <v>1.06</v>
+        <v>1.92</v>
       </c>
       <c r="V4" t="n">
-        <v>1.98</v>
+        <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AA4" t="n">
-        <v>500</v>
+        <v>130</v>
       </c>
       <c r="AB4" t="n">
         <v>19.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>14</v>
+        <v>7.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AE4" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="AF4" t="n">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="AH4" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AI4" t="n">
-        <v>32</v>
+        <v>290</v>
       </c>
       <c r="AJ4" t="n">
-        <v>190</v>
+        <v>290</v>
       </c>
       <c r="AK4" t="n">
-        <v>46</v>
+        <v>250</v>
       </c>
       <c r="AL4" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AM4" t="n">
-        <v>330</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AO4" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Dutch Eredivisie</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>16:01:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Sparta Rotterdam</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>NEC Nijmegen</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.3</v>
+        <v>2.56</v>
       </c>
       <c r="G5" t="n">
-        <v>3.35</v>
+        <v>2.58</v>
       </c>
       <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N5" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P5" t="n">
         <v>2.34</v>
       </c>
-      <c r="I5" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M5" t="n">
+      <c r="Q5" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="T5" t="n">
         <v>1.07</v>
       </c>
-      <c r="N5" t="n">
-        <v>4</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.76</v>
-      </c>
       <c r="U5" t="n">
-        <v>2.26</v>
+        <v>2.54</v>
       </c>
       <c r="V5" t="n">
-        <v>1.74</v>
+        <v>1.48</v>
       </c>
       <c r="W5" t="n">
-        <v>1.42</v>
+        <v>1.63</v>
       </c>
       <c r="X5" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB5" t="n">
         <v>14.5</v>
       </c>
-      <c r="Y5" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AA5" t="n">
+      <c r="AC5" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL5" t="n">
         <v>32</v>
       </c>
-      <c r="AB5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>46</v>
-      </c>
       <c r="AM5" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AN5" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="AO5" t="n">
-        <v>18.5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>French National</t>
+          <t>Scottish League Two</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Stade Briochin</t>
+          <t>Elgin City FC</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Fleury Merogis</t>
+          <t>East Kilbride</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.5</v>
+        <v>2.78</v>
       </c>
       <c r="G6" t="n">
-        <v>3.75</v>
+        <v>3.05</v>
       </c>
       <c r="H6" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="I6" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N6" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P6" t="n">
         <v>2.42</v>
       </c>
-      <c r="J6" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N6" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.69</v>
-      </c>
       <c r="Q6" t="n">
-        <v>2.34</v>
+        <v>1.62</v>
       </c>
       <c r="R6" t="n">
-        <v>1.25</v>
+        <v>1.58</v>
       </c>
       <c r="S6" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="T6" t="n">
-        <v>1.05</v>
+        <v>1.57</v>
       </c>
       <c r="U6" t="n">
-        <v>1.05</v>
+        <v>2.58</v>
       </c>
       <c r="V6" t="n">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="W6" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="X6" t="n">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.6</v>
+        <v>23</v>
       </c>
       <c r="Z6" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="AA6" t="n">
-        <v>500</v>
+        <v>40</v>
       </c>
       <c r="AB6" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.6</v>
+        <v>13</v>
       </c>
       <c r="AD6" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="AF6" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AG6" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="AH6" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AI6" t="n">
-        <v>970</v>
+        <v>70</v>
       </c>
       <c r="AJ6" t="n">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="AK6" t="n">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN6" t="n">
-        <v>600</v>
+        <v>20</v>
       </c>
       <c r="AO6" t="n">
-        <v>600</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Dutch Eredivisie</t>
+          <t>Scottish League Two</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:01:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Sparta Rotterdam</t>
+          <t>Stirling</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>NEC Nijmegen</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.56</v>
+        <v>2.98</v>
       </c>
       <c r="G7" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="I7" t="n">
         <v>2.58</v>
       </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N7" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S7" t="n">
         <v>3.05</v>
       </c>
-      <c r="J7" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N7" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2.72</v>
-      </c>
       <c r="T7" t="n">
-        <v>1.07</v>
+        <v>1.66</v>
       </c>
       <c r="U7" t="n">
-        <v>1.07</v>
+        <v>2.38</v>
       </c>
       <c r="V7" t="n">
-        <v>1.48</v>
+        <v>1.63</v>
       </c>
       <c r="W7" t="n">
-        <v>1.63</v>
+        <v>1.46</v>
       </c>
       <c r="X7" t="n">
-        <v>23</v>
+        <v>17.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>16.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>29</v>
+        <v>18.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AB7" t="n">
-        <v>18.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD7" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="AF7" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="AG7" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AI7" t="n">
         <v>40</v>
       </c>
       <c r="AJ7" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="AK7" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="AL7" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="AM7" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="AN7" t="n">
         <v>28</v>
       </c>
       <c r="AO7" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Scottish League Two</t>
+          <t>Scottish League One</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1468,127 +1468,127 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Elgin City FC</t>
+          <t>Cove Rangers</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>East Kilbride</t>
+          <t>Montrose</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.84</v>
+        <v>2.28</v>
       </c>
       <c r="G8" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="H8" t="n">
         <v>3.2</v>
       </c>
-      <c r="H8" t="n">
-        <v>2.38</v>
-      </c>
       <c r="I8" t="n">
-        <v>2.56</v>
+        <v>3.3</v>
       </c>
       <c r="J8" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K8" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L8" t="n">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>4.9</v>
+        <v>3.9</v>
       </c>
       <c r="O8" t="n">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="P8" t="n">
-        <v>2.3</v>
+        <v>2.04</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.68</v>
+        <v>1.91</v>
       </c>
       <c r="R8" t="n">
-        <v>1.52</v>
+        <v>1.38</v>
       </c>
       <c r="S8" t="n">
-        <v>2.66</v>
+        <v>3.35</v>
       </c>
       <c r="T8" t="n">
-        <v>1.6</v>
+        <v>1.77</v>
       </c>
       <c r="U8" t="n">
-        <v>2.48</v>
+        <v>2.2</v>
       </c>
       <c r="V8" t="n">
-        <v>1.64</v>
+        <v>1.43</v>
       </c>
       <c r="W8" t="n">
-        <v>1.46</v>
+        <v>1.71</v>
       </c>
       <c r="X8" t="n">
-        <v>500</v>
+        <v>16.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>440</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>42</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD8" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="AI8" t="n">
         <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>500</v>
+        <v>95</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AM8" t="n">
-        <v>580</v>
+        <v>390</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO8" t="n">
-        <v>500</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Scottish League Two</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1603,127 +1603,127 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Stirling</t>
+          <t>FC Halifax Town</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Clyde</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.84</v>
+        <v>1.58</v>
       </c>
       <c r="G9" t="n">
-        <v>3.2</v>
+        <v>1.61</v>
       </c>
       <c r="H9" t="n">
-        <v>2.42</v>
+        <v>6</v>
       </c>
       <c r="I9" t="n">
-        <v>2.66</v>
+        <v>6.6</v>
       </c>
       <c r="J9" t="n">
-        <v>3.45</v>
+        <v>4.5</v>
       </c>
       <c r="K9" t="n">
-        <v>4</v>
+        <v>4.9</v>
       </c>
       <c r="L9" t="n">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="M9" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="P9" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.84</v>
+        <v>1.66</v>
       </c>
       <c r="R9" t="n">
-        <v>1.41</v>
+        <v>1.54</v>
       </c>
       <c r="S9" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="T9" t="n">
-        <v>1.05</v>
+        <v>1.81</v>
       </c>
       <c r="U9" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="V9" t="n">
-        <v>1.61</v>
+        <v>1.18</v>
       </c>
       <c r="W9" t="n">
-        <v>1.46</v>
+        <v>2.64</v>
       </c>
       <c r="X9" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>42</v>
+        <v>10.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>500</v>
+        <v>19.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AJ9" t="n">
-        <v>500</v>
+        <v>15.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Scottish League One</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,127 +1738,127 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Cove Rangers</t>
+          <t>Morton</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Montrose</t>
+          <t>Dunfermline</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.26</v>
+        <v>3.2</v>
       </c>
       <c r="G10" t="n">
-        <v>2.44</v>
+        <v>3.4</v>
       </c>
       <c r="H10" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="J10" t="n">
         <v>3.2</v>
       </c>
-      <c r="I10" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.5</v>
-      </c>
       <c r="K10" t="n">
-        <v>3.9</v>
+        <v>3.35</v>
       </c>
       <c r="L10" t="n">
-        <v>1.41</v>
+        <v>1.52</v>
       </c>
       <c r="M10" t="n">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="N10" t="n">
-        <v>3.85</v>
+        <v>3.05</v>
       </c>
       <c r="O10" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="P10" t="n">
-        <v>2</v>
+        <v>1.68</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.9</v>
+        <v>2.36</v>
       </c>
       <c r="R10" t="n">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="S10" t="n">
-        <v>3.35</v>
+        <v>4.6</v>
       </c>
       <c r="T10" t="n">
-        <v>1.05</v>
+        <v>1.98</v>
       </c>
       <c r="U10" t="n">
-        <v>1.05</v>
+        <v>1.95</v>
       </c>
       <c r="V10" t="n">
-        <v>1.43</v>
+        <v>1.6</v>
       </c>
       <c r="W10" t="n">
-        <v>1.7</v>
+        <v>1.42</v>
       </c>
       <c r="X10" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AB10" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AC10" t="n">
-        <v>42</v>
+        <v>7.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AG10" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AH10" t="n">
         <v>60</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="AK10" t="n">
         <v>1000</v>
       </c>
       <c r="AL10" t="n">
+        <v>500</v>
+      </c>
+      <c r="AM10" t="n">
         <v>1000</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>580</v>
       </c>
       <c r="AN10" t="n">
         <v>600</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Scottish Championship</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,121 +1873,121 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Morton</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Dunfermline</t>
+          <t>Scunthorpe</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.15</v>
+        <v>1.81</v>
       </c>
       <c r="G11" t="n">
-        <v>3.35</v>
+        <v>1.83</v>
       </c>
       <c r="H11" t="n">
-        <v>2.52</v>
+        <v>5</v>
       </c>
       <c r="I11" t="n">
-        <v>2.62</v>
+        <v>5.3</v>
       </c>
       <c r="J11" t="n">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="K11" t="n">
-        <v>3.35</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
-        <v>1.52</v>
+        <v>1.37</v>
       </c>
       <c r="M11" t="n">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S11" t="n">
         <v>3.05</v>
       </c>
-      <c r="O11" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S11" t="n">
-        <v>4.5</v>
-      </c>
       <c r="T11" t="n">
-        <v>1.05</v>
+        <v>1.76</v>
       </c>
       <c r="U11" t="n">
-        <v>1.05</v>
+        <v>2.2</v>
       </c>
       <c r="V11" t="n">
-        <v>1.61</v>
+        <v>1.23</v>
       </c>
       <c r="W11" t="n">
-        <v>1.42</v>
+        <v>2.2</v>
       </c>
       <c r="X11" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>42</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12">
@@ -2008,121 +2008,121 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>FC Halifax Town</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.59</v>
+        <v>2.38</v>
       </c>
       <c r="G12" t="n">
-        <v>1.63</v>
+        <v>2.52</v>
       </c>
       <c r="H12" t="n">
-        <v>5.9</v>
+        <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>6.6</v>
+        <v>3.35</v>
       </c>
       <c r="J12" t="n">
-        <v>4.5</v>
+        <v>3.55</v>
       </c>
       <c r="K12" t="n">
-        <v>4.8</v>
+        <v>3.9</v>
       </c>
       <c r="L12" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="M12" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>5</v>
+        <v>3.9</v>
       </c>
       <c r="O12" t="n">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="P12" t="n">
-        <v>2.4</v>
+        <v>1.98</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.65</v>
+        <v>1.87</v>
       </c>
       <c r="R12" t="n">
-        <v>1.54</v>
+        <v>1.38</v>
       </c>
       <c r="S12" t="n">
-        <v>2.68</v>
+        <v>3.2</v>
       </c>
       <c r="T12" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="U12" t="n">
         <v>1.05</v>
       </c>
       <c r="V12" t="n">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
       <c r="W12" t="n">
-        <v>2.58</v>
+        <v>1.01</v>
       </c>
       <c r="X12" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="Y12" t="n">
-        <v>28</v>
+        <v>970</v>
       </c>
       <c r="Z12" t="n">
+        <v>970</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>900</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>970</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>970</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>38</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>970</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>900</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>970</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN12" t="n">
         <v>55</v>
       </c>
-      <c r="AA12" t="n">
-        <v>170</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>40</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>320</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>36</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>700</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>95</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>7.2</v>
-      </c>
       <c r="AO12" t="n">
-        <v>700</v>
+        <v>970</v>
       </c>
     </row>
     <row r="13">
@@ -2143,121 +2143,121 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Yeovil</t>
+          <t>Sutton Utd</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>2.42</v>
       </c>
       <c r="G13" t="n">
-        <v>3.15</v>
+        <v>2.44</v>
       </c>
       <c r="H13" t="n">
-        <v>2.48</v>
+        <v>3.35</v>
       </c>
       <c r="I13" t="n">
-        <v>2.54</v>
+        <v>3.4</v>
       </c>
       <c r="J13" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="K13" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="L13" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N13" t="n">
         <v>4.2</v>
       </c>
       <c r="O13" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P13" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="R13" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="S13" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="T13" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="W13" t="n">
         <v>1.69</v>
       </c>
-      <c r="U13" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="W13" t="n">
-        <v>1.46</v>
-      </c>
       <c r="X13" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="Y13" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AA13" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="AB13" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD13" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>500</v>
+        <v>36</v>
       </c>
       <c r="AF13" t="n">
-        <v>55</v>
+        <v>17.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>18.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="AI13" t="n">
-        <v>130</v>
+        <v>46</v>
       </c>
       <c r="AJ13" t="n">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="AK13" t="n">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="AL13" t="n">
-        <v>500</v>
+        <v>36</v>
       </c>
       <c r="AM13" t="n">
-        <v>580</v>
+        <v>80</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AO13" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14">
@@ -2278,34 +2278,34 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Yeovil</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Scunthorpe</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.8</v>
+        <v>3.05</v>
       </c>
       <c r="G14" t="n">
-        <v>1.83</v>
+        <v>3.15</v>
       </c>
       <c r="H14" t="n">
-        <v>5</v>
+        <v>2.48</v>
       </c>
       <c r="I14" t="n">
-        <v>5.4</v>
+        <v>2.54</v>
       </c>
       <c r="J14" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="K14" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="L14" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M14" t="n">
         <v>1.06</v>
@@ -2317,88 +2317,88 @@
         <v>1.29</v>
       </c>
       <c r="P14" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="R14" t="n">
         <v>1.41</v>
       </c>
       <c r="S14" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T14" t="n">
-        <v>1.05</v>
+        <v>1.68</v>
       </c>
       <c r="U14" t="n">
-        <v>2.16</v>
+        <v>2.3</v>
       </c>
       <c r="V14" t="n">
-        <v>1.23</v>
+        <v>1.65</v>
       </c>
       <c r="W14" t="n">
-        <v>2.2</v>
+        <v>1.46</v>
       </c>
       <c r="X14" t="n">
-        <v>15.5</v>
+        <v>26</v>
       </c>
       <c r="Y14" t="n">
-        <v>42</v>
+        <v>18.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AA14" t="n">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="AB14" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AC14" t="n">
-        <v>14</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD14" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF14" t="n">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="AG14" t="n">
-        <v>23</v>
+        <v>18.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AI14" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="AJ14" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="AK14" t="n">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="AL14" t="n">
-        <v>34</v>
+        <v>160</v>
       </c>
       <c r="AM14" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AN14" t="n">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="AO14" t="n">
-        <v>65</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Scottish League One</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Hamilton</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Hartlepool</t>
+          <t>East Fife</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.38</v>
+        <v>1.87</v>
       </c>
       <c r="G15" t="n">
-        <v>2.54</v>
+        <v>1.98</v>
       </c>
       <c r="H15" t="n">
-        <v>3.05</v>
+        <v>4.5</v>
       </c>
       <c r="I15" t="n">
-        <v>3.4</v>
+        <v>5.1</v>
       </c>
       <c r="J15" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K15" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="L15" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M15" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="O15" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P15" t="n">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="R15" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="S15" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T15" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U15" t="n">
-        <v>1.05</v>
+        <v>2.12</v>
       </c>
       <c r="V15" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="W15" t="n">
-        <v>1.65</v>
+        <v>2.02</v>
       </c>
       <c r="X15" t="n">
-        <v>970</v>
+        <v>27</v>
       </c>
       <c r="Y15" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="Z15" t="n">
-        <v>970</v>
+        <v>90</v>
       </c>
       <c r="AA15" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>970</v>
+        <v>16.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AD15" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="AE15" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AF15" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="AG15" t="n">
-        <v>970</v>
+        <v>16.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="AI15" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AJ15" t="n">
-        <v>970</v>
+        <v>90</v>
       </c>
       <c r="AK15" t="n">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="AL15" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AM15" t="n">
         <v>580</v>
       </c>
       <c r="AN15" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="AO15" t="n">
-        <v>970</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,33 +2543,33 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Sutton Utd</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.4</v>
+        <v>2.22</v>
       </c>
       <c r="G16" t="n">
-        <v>2.52</v>
+        <v>2.24</v>
       </c>
       <c r="H16" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="I16" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="J16" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="K16" t="n">
         <v>3.65</v>
@@ -2578,97 +2578,97 @@
         <v>1.39</v>
       </c>
       <c r="M16" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="O16" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="P16" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="R16" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="S16" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T16" t="n">
-        <v>1.06</v>
+        <v>1.7</v>
       </c>
       <c r="U16" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="V16" t="n">
-        <v>1.43</v>
+        <v>1.37</v>
       </c>
       <c r="W16" t="n">
-        <v>1.66</v>
+        <v>1.8</v>
       </c>
       <c r="X16" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="Z16" t="n">
-        <v>970</v>
+        <v>26</v>
       </c>
       <c r="AA16" t="n">
-        <v>900</v>
+        <v>70</v>
       </c>
       <c r="AB16" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="AC16" t="n">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="AD16" t="n">
-        <v>970</v>
+        <v>14.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>970</v>
+        <v>38</v>
       </c>
       <c r="AF16" t="n">
-        <v>970</v>
+        <v>14.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="AH16" t="n">
-        <v>60</v>
+        <v>15.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>970</v>
+        <v>44</v>
       </c>
       <c r="AJ16" t="n">
-        <v>970</v>
+        <v>27</v>
       </c>
       <c r="AK16" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AL16" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="AM16" t="n">
-        <v>580</v>
+        <v>75</v>
       </c>
       <c r="AN16" t="n">
-        <v>600</v>
+        <v>14.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>970</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Scottish League One</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Hamilton</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>East Fife</t>
+          <t>Paris St-G</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.87</v>
+        <v>7</v>
       </c>
       <c r="G17" t="n">
-        <v>1.97</v>
+        <v>7.2</v>
       </c>
       <c r="H17" t="n">
-        <v>4.3</v>
+        <v>1.5</v>
       </c>
       <c r="I17" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="J17" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="K17" t="n">
         <v>5.3</v>
       </c>
-      <c r="J17" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K17" t="n">
-        <v>4</v>
-      </c>
       <c r="L17" t="n">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
       <c r="M17" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N17" t="n">
-        <v>4.1</v>
+        <v>6.4</v>
       </c>
       <c r="O17" t="n">
-        <v>1.28</v>
+        <v>1.17</v>
       </c>
       <c r="P17" t="n">
-        <v>2.04</v>
+        <v>2.82</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.86</v>
+        <v>1.53</v>
       </c>
       <c r="R17" t="n">
-        <v>1.41</v>
+        <v>1.74</v>
       </c>
       <c r="S17" t="n">
-        <v>3.15</v>
+        <v>2.32</v>
       </c>
       <c r="T17" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="U17" t="n">
-        <v>1.05</v>
+        <v>2.38</v>
       </c>
       <c r="V17" t="n">
-        <v>1.24</v>
+        <v>2.98</v>
       </c>
       <c r="W17" t="n">
-        <v>2.02</v>
+        <v>1.16</v>
       </c>
       <c r="X17" t="n">
-        <v>500</v>
+        <v>26</v>
       </c>
       <c r="Y17" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AA17" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AB17" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AC17" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD17" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AF17" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AG17" t="n">
-        <v>500</v>
+        <v>26</v>
       </c>
       <c r="AH17" t="n">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="AI17" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AK17" t="n">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="AL17" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM17" t="n">
-        <v>580</v>
+        <v>75</v>
       </c>
       <c r="AN17" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="18">
@@ -2818,127 +2818,127 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="G18" t="n">
-        <v>2.22</v>
+        <v>3.35</v>
       </c>
       <c r="H18" t="n">
-        <v>3.6</v>
+        <v>2.26</v>
       </c>
       <c r="I18" t="n">
-        <v>3.65</v>
+        <v>2.28</v>
       </c>
       <c r="J18" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="K18" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="L18" t="n">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="M18" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="O18" t="n">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="P18" t="n">
-        <v>2.1</v>
+        <v>2.34</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.89</v>
+        <v>1.73</v>
       </c>
       <c r="R18" t="n">
-        <v>1.43</v>
+        <v>1.54</v>
       </c>
       <c r="S18" t="n">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="T18" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="U18" t="n">
-        <v>2.34</v>
+        <v>2.56</v>
       </c>
       <c r="V18" t="n">
-        <v>1.37</v>
+        <v>1.78</v>
       </c>
       <c r="W18" t="n">
-        <v>1.81</v>
+        <v>1.42</v>
       </c>
       <c r="X18" t="n">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y18" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z18" t="n">
         <v>15</v>
       </c>
-      <c r="Z18" t="n">
-        <v>25</v>
-      </c>
       <c r="AA18" t="n">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="AB18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD18" t="n">
         <v>11</v>
       </c>
-      <c r="AC18" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD18" t="n">
+      <c r="AE18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH18" t="n">
         <v>15</v>
       </c>
-      <c r="AE18" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>16</v>
-      </c>
       <c r="AI18" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="AJ18" t="n">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="AK18" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="AL18" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AM18" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AN18" t="n">
-        <v>14.5</v>
+        <v>26</v>
       </c>
       <c r="AO18" t="n">
-        <v>42</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Alianza FC Valledupar</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>Cucuta Deportivo</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>7.2</v>
+        <v>1.93</v>
       </c>
       <c r="G19" t="n">
-        <v>7.6</v>
+        <v>1.98</v>
       </c>
       <c r="H19" t="n">
-        <v>1.48</v>
+        <v>4.9</v>
       </c>
       <c r="I19" t="n">
-        <v>1.49</v>
+        <v>5.3</v>
       </c>
       <c r="J19" t="n">
-        <v>5.1</v>
+        <v>3.3</v>
       </c>
       <c r="K19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S19" t="n">
         <v>5.2</v>
       </c>
-      <c r="L19" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N19" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="S19" t="n">
-        <v>2.32</v>
-      </c>
       <c r="T19" t="n">
-        <v>1.72</v>
+        <v>2.16</v>
       </c>
       <c r="U19" t="n">
-        <v>2.36</v>
+        <v>1.76</v>
       </c>
       <c r="V19" t="n">
-        <v>3</v>
+        <v>1.23</v>
       </c>
       <c r="W19" t="n">
-        <v>1.15</v>
+        <v>2.02</v>
       </c>
       <c r="X19" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>700</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK19" t="n">
         <v>26</v>
       </c>
-      <c r="Y19" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>14</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>220</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>85</v>
-      </c>
       <c r="AL19" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM19" t="n">
-        <v>75</v>
+        <v>210</v>
       </c>
       <c r="AN19" t="n">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="AO19" t="n">
-        <v>5.1</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Jaguares de Cordoba</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="G20" t="n">
-        <v>3.35</v>
+        <v>3.9</v>
       </c>
       <c r="H20" t="n">
         <v>2.26</v>
       </c>
       <c r="I20" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="J20" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="K20" t="n">
-        <v>3.85</v>
+        <v>3.5</v>
       </c>
       <c r="L20" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="W20" t="n">
         <v>1.34</v>
       </c>
-      <c r="M20" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N20" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="S20" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="U20" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="W20" t="n">
-        <v>1.42</v>
-      </c>
       <c r="X20" t="n">
-        <v>18.5</v>
+        <v>9.6</v>
       </c>
       <c r="Y20" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD20" t="n">
         <v>12.5</v>
       </c>
-      <c r="Z20" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>11</v>
-      </c>
       <c r="AE20" t="n">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="AF20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG20" t="n">
-        <v>13.5</v>
+        <v>16.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="AI20" t="n">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="AJ20" t="n">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="AK20" t="n">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="AL20" t="n">
-        <v>36</v>
+        <v>360</v>
       </c>
       <c r="AM20" t="n">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="AN20" t="n">
-        <v>27</v>
+        <v>600</v>
       </c>
       <c r="AO20" t="n">
-        <v>13.5</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,396 +3218,126 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>22:10:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Alianza FC Valledupar</t>
+          <t>Boca Juniors de Cali</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Cucuta Deportivo</t>
+          <t>Orsomarso</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.91</v>
+        <v>2.34</v>
       </c>
       <c r="G21" t="n">
-        <v>1.97</v>
+        <v>2.42</v>
       </c>
       <c r="H21" t="n">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="I21" t="n">
-        <v>5.4</v>
+        <v>4.1</v>
       </c>
       <c r="J21" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="K21" t="n">
-        <v>3.55</v>
+        <v>3.1</v>
       </c>
       <c r="L21" t="n">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="M21" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="N21" t="n">
-        <v>2.92</v>
+        <v>2.52</v>
       </c>
       <c r="O21" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P21" t="n">
         <v>1.49</v>
       </c>
-      <c r="P21" t="n">
-        <v>1.61</v>
-      </c>
       <c r="Q21" t="n">
-        <v>2.52</v>
+        <v>2.84</v>
       </c>
       <c r="R21" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="S21" t="n">
-        <v>5.1</v>
+        <v>6</v>
       </c>
       <c r="T21" t="n">
         <v>2.16</v>
       </c>
       <c r="U21" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="V21" t="n">
-        <v>1.23</v>
+        <v>1.33</v>
       </c>
       <c r="W21" t="n">
-        <v>2.02</v>
+        <v>1.7</v>
       </c>
       <c r="X21" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>95</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ21" t="n">
         <v>36</v>
       </c>
-      <c r="Y21" t="n">
-        <v>500</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>970</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>700</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>40</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>25</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>500</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>700</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>970</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>44</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>970</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>700</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>970</v>
-      </c>
       <c r="AK21" t="n">
-        <v>970</v>
+        <v>36</v>
       </c>
       <c r="AL21" t="n">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="AM21" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="AN21" t="n">
-        <v>600</v>
+        <v>38</v>
       </c>
       <c r="AO21" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>2026-02-17</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Jaguares de Cordoba</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Santa Fe</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="G22" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="J22" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K22" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N22" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S22" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="W22" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="X22" t="n">
-        <v>32</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>500</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>500</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>25</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>50</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>90</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>500</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>500</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>500</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>500</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>500</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>500</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Colombian Primera B</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2026-02-17</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>22:10:00</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Boca Juniors de Cali</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Orsomarso</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="G23" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="H23" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I23" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3</v>
-      </c>
-      <c r="K23" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N23" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="S23" t="n">
-        <v>6</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="W23" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="X23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO21"/>
+  <dimension ref="A1:AO20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14:01:59</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Istanbulspor</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Erokspor A.S</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4.7</v>
+        <v>1.17</v>
       </c>
       <c r="G2" t="n">
-        <v>4.9</v>
+        <v>1.18</v>
       </c>
       <c r="H2" t="n">
-        <v>1.84</v>
+        <v>55</v>
       </c>
       <c r="I2" t="n">
-        <v>1.88</v>
+        <v>65</v>
       </c>
       <c r="J2" t="n">
-        <v>3.95</v>
+        <v>7.4</v>
       </c>
       <c r="K2" t="n">
-        <v>4</v>
+        <v>7.8</v>
       </c>
       <c r="L2" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>2.22</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>2.14</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>1.26</v>
+        <v>6.6</v>
       </c>
       <c r="X2" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AM2" t="n">
         <v>8.6</v>
       </c>
-      <c r="AD2" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>20</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>110</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL2" t="n">
+      <c r="AN2" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AO2" t="n">
         <v>65</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>75</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>15:30:20</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Stade Briochin</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Fleury Merogis</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.35</v>
+        <v>11</v>
       </c>
       <c r="G3" t="n">
-        <v>3.4</v>
+        <v>12.5</v>
       </c>
       <c r="H3" t="n">
-        <v>2.34</v>
+        <v>1.41</v>
       </c>
       <c r="I3" t="n">
-        <v>2.36</v>
+        <v>1.45</v>
       </c>
       <c r="J3" t="n">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="K3" t="n">
-        <v>3.65</v>
+        <v>4.9</v>
       </c>
       <c r="L3" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>4.2</v>
+        <v>5.7</v>
       </c>
       <c r="O3" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="R3" t="n">
         <v>1.3</v>
       </c>
-      <c r="P3" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.41</v>
-      </c>
       <c r="S3" t="n">
-        <v>3.35</v>
+        <v>4</v>
       </c>
       <c r="T3" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="U3" t="n">
-        <v>2.34</v>
+        <v>2.12</v>
       </c>
       <c r="V3" t="n">
-        <v>1.73</v>
+        <v>3.15</v>
       </c>
       <c r="W3" t="n">
-        <v>1.42</v>
+        <v>1.08</v>
       </c>
       <c r="X3" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>11</v>
+        <v>5.8</v>
       </c>
       <c r="Z3" t="n">
-        <v>14.5</v>
+        <v>6.4</v>
       </c>
       <c r="AA3" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="AB3" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="AD3" t="n">
-        <v>11</v>
+        <v>7.6</v>
       </c>
       <c r="AE3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG3" t="n">
         <v>22</v>
       </c>
-      <c r="AF3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AH3" t="n">
-        <v>16</v>
+        <v>19.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="AJ3" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="AL3" t="n">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AM3" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="AN3" t="n">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="AO3" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>French National</t>
+          <t>Dutch Eredivisie</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>16:01:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Stade Briochin</t>
+          <t>Sparta Rotterdam</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Fleury Merogis</t>
+          <t>NEC Nijmegen</t>
         </is>
       </c>
       <c r="F4" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K4" t="n">
         <v>3.45</v>
       </c>
-      <c r="G4" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.4</v>
-      </c>
       <c r="L4" t="n">
-        <v>1.5</v>
+        <v>1.73</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>3.15</v>
+        <v>4.2</v>
       </c>
       <c r="O4" t="n">
-        <v>1.43</v>
+        <v>1.29</v>
       </c>
       <c r="P4" t="n">
-        <v>1.71</v>
+        <v>1.87</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="R4" t="n">
-        <v>1.26</v>
+        <v>1.36</v>
       </c>
       <c r="S4" t="n">
-        <v>4.4</v>
+        <v>3.35</v>
       </c>
       <c r="T4" t="n">
-        <v>1.92</v>
+        <v>1.63</v>
       </c>
       <c r="U4" t="n">
-        <v>1.92</v>
+        <v>2.16</v>
       </c>
       <c r="V4" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="W4" t="n">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="X4" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>19.5</v>
+        <v>440</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.6</v>
+        <v>490</v>
       </c>
       <c r="AD4" t="n">
-        <v>12</v>
+        <v>490</v>
       </c>
       <c r="AE4" t="n">
-        <v>85</v>
+        <v>490</v>
       </c>
       <c r="AF4" t="n">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>490</v>
       </c>
       <c r="AH4" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="AI4" t="n">
-        <v>290</v>
+        <v>50</v>
       </c>
       <c r="AJ4" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>250</v>
+        <v>490</v>
       </c>
       <c r="AL4" t="n">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>500</v>
+        <v>85</v>
       </c>
       <c r="AO4" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Dutch Eredivisie</t>
+          <t>Scottish League Two</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,126 +1058,126 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>16:01:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Sparta Rotterdam</t>
+          <t>Elgin City FC</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>NEC Nijmegen</t>
+          <t>East Kilbride</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.56</v>
+        <v>2.8</v>
       </c>
       <c r="G5" t="n">
-        <v>2.58</v>
+        <v>3.1</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="I5" t="n">
-        <v>3.05</v>
+        <v>2.54</v>
       </c>
       <c r="J5" t="n">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="K5" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="P5" t="n">
-        <v>2.34</v>
+        <v>2.52</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.71</v>
+        <v>1.59</v>
       </c>
       <c r="R5" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="S5" t="n">
-        <v>2.76</v>
+        <v>2.48</v>
       </c>
       <c r="T5" t="n">
-        <v>1.07</v>
+        <v>1.57</v>
       </c>
       <c r="U5" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="V5" t="n">
-        <v>1.48</v>
+        <v>1.65</v>
       </c>
       <c r="W5" t="n">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="X5" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Y5" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Z5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA5" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="AB5" t="n">
-        <v>14.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.4</v>
+        <v>10</v>
       </c>
       <c r="AD5" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="AF5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH5" t="n">
         <v>18</v>
       </c>
-      <c r="AG5" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>15</v>
-      </c>
       <c r="AI5" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AJ5" t="n">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="AK5" t="n">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="AL5" t="n">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="AM5" t="n">
-        <v>65</v>
+        <v>580</v>
       </c>
       <c r="AN5" t="n">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="AO5" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
@@ -1198,127 +1198,127 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Elgin City FC</t>
+          <t>Stirling</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>East Kilbride</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.78</v>
+        <v>3.05</v>
       </c>
       <c r="G6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N6" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S6" t="n">
         <v>3.05</v>
       </c>
-      <c r="H6" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K6" t="n">
-        <v>4</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N6" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2.5</v>
-      </c>
       <c r="T6" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="U6" t="n">
-        <v>2.58</v>
+        <v>2.38</v>
       </c>
       <c r="V6" t="n">
-        <v>1.62</v>
+        <v>1.68</v>
       </c>
       <c r="W6" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="X6" t="n">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="Y6" t="n">
-        <v>23</v>
+        <v>12.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AA6" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AB6" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="AC6" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AD6" t="n">
         <v>12.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="AF6" t="n">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>13.5</v>
       </c>
       <c r="AH6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN6" t="n">
         <v>27</v>
       </c>
-      <c r="AI6" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>210</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>80</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>100</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>20</v>
-      </c>
       <c r="AO6" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Scottish League Two</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1333,127 +1333,127 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Stirling</t>
+          <t>Morton</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Clyde</t>
+          <t>Dunfermline</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.98</v>
+        <v>3.25</v>
       </c>
       <c r="G7" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="H7" t="n">
-        <v>2.42</v>
+        <v>2.54</v>
       </c>
       <c r="I7" t="n">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="J7" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="K7" t="n">
-        <v>3.95</v>
+        <v>3.25</v>
       </c>
       <c r="L7" t="n">
-        <v>1.38</v>
+        <v>1.52</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="N7" t="n">
-        <v>4.2</v>
+        <v>3.05</v>
       </c>
       <c r="O7" t="n">
-        <v>1.27</v>
+        <v>1.45</v>
       </c>
       <c r="P7" t="n">
-        <v>2.1</v>
+        <v>1.68</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.81</v>
+        <v>2.38</v>
       </c>
       <c r="R7" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S7" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="W7" t="n">
         <v>1.42</v>
       </c>
-      <c r="S7" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1.46</v>
-      </c>
       <c r="X7" t="n">
-        <v>17.5</v>
+        <v>10</v>
       </c>
       <c r="Y7" t="n">
-        <v>12.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z7" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AA7" t="n">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="AB7" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.800000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="AF7" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AG7" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>17.5</v>
+        <v>24</v>
       </c>
       <c r="AI7" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AJ7" t="n">
-        <v>50</v>
+        <v>190</v>
       </c>
       <c r="AK7" t="n">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="AL7" t="n">
-        <v>42</v>
+        <v>190</v>
       </c>
       <c r="AM7" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>28</v>
+        <v>500</v>
       </c>
       <c r="AO7" t="n">
-        <v>21</v>
+        <v>600</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Scottish League One</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1468,127 +1468,127 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Cove Rangers</t>
+          <t>FC Halifax Town</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Montrose</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.28</v>
+        <v>1.56</v>
       </c>
       <c r="G8" t="n">
-        <v>2.42</v>
+        <v>1.59</v>
       </c>
       <c r="H8" t="n">
-        <v>3.2</v>
+        <v>6.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3.3</v>
+        <v>6.6</v>
       </c>
       <c r="J8" t="n">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
       <c r="K8" t="n">
-        <v>3.9</v>
+        <v>4.9</v>
       </c>
       <c r="L8" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>3.9</v>
+        <v>5.1</v>
       </c>
       <c r="O8" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="P8" t="n">
-        <v>2.04</v>
+        <v>2.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.91</v>
+        <v>1.68</v>
       </c>
       <c r="R8" t="n">
-        <v>1.38</v>
+        <v>1.55</v>
       </c>
       <c r="S8" t="n">
-        <v>3.35</v>
+        <v>2.7</v>
       </c>
       <c r="T8" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="U8" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="V8" t="n">
-        <v>1.43</v>
+        <v>1.17</v>
       </c>
       <c r="W8" t="n">
-        <v>1.71</v>
+        <v>2.7</v>
       </c>
       <c r="X8" t="n">
-        <v>16.5</v>
+        <v>23</v>
       </c>
       <c r="Y8" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="Z8" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AA8" t="n">
-        <v>440</v>
+        <v>180</v>
       </c>
       <c r="AB8" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>13.5</v>
+        <v>25</v>
       </c>
       <c r="AE8" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="AF8" t="n">
-        <v>16.5</v>
+        <v>10.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH8" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ8" t="n">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="AK8" t="n">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="AL8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM8" t="n">
         <v>130</v>
       </c>
-      <c r="AM8" t="n">
-        <v>390</v>
-      </c>
       <c r="AN8" t="n">
-        <v>32</v>
+        <v>6.8</v>
       </c>
       <c r="AO8" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Scottish League One</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1603,118 +1603,118 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>FC Halifax Town</t>
+          <t>Cove Rangers</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Montrose</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.58</v>
+        <v>2.3</v>
       </c>
       <c r="G9" t="n">
-        <v>1.61</v>
+        <v>2.38</v>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="I9" t="n">
-        <v>6.6</v>
+        <v>3.35</v>
       </c>
       <c r="J9" t="n">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="K9" t="n">
-        <v>4.9</v>
+        <v>3.85</v>
       </c>
       <c r="L9" t="n">
-        <v>1.32</v>
+        <v>1.41</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>5</v>
+        <v>3.9</v>
       </c>
       <c r="O9" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="P9" t="n">
-        <v>2.4</v>
+        <v>2.04</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.66</v>
+        <v>1.92</v>
       </c>
       <c r="R9" t="n">
-        <v>1.54</v>
+        <v>1.38</v>
       </c>
       <c r="S9" t="n">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="T9" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="U9" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="V9" t="n">
-        <v>1.18</v>
+        <v>1.42</v>
       </c>
       <c r="W9" t="n">
-        <v>2.64</v>
+        <v>1.72</v>
       </c>
       <c r="X9" t="n">
-        <v>22</v>
+        <v>15.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="Z9" t="n">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="AA9" t="n">
-        <v>170</v>
+        <v>85</v>
       </c>
       <c r="AB9" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>10.5</v>
+        <v>8.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>23</v>
+        <v>13.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>190</v>
+        <v>36</v>
       </c>
       <c r="AF9" t="n">
-        <v>10.5</v>
+        <v>16</v>
       </c>
       <c r="AG9" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH9" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AI9" t="n">
-        <v>250</v>
+        <v>65</v>
       </c>
       <c r="AJ9" t="n">
-        <v>15.5</v>
+        <v>38</v>
       </c>
       <c r="AK9" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="AL9" t="n">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="AM9" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="AN9" t="n">
-        <v>7</v>
+        <v>18.5</v>
       </c>
       <c r="AO9" t="n">
         <v>70</v>
@@ -1723,7 +1723,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Scottish Championship</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,121 +1738,121 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Morton</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Dunfermline</t>
+          <t>Scunthorpe</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="G10" t="n">
-        <v>3.4</v>
+        <v>1.79</v>
       </c>
       <c r="H10" t="n">
-        <v>2.56</v>
+        <v>5</v>
       </c>
       <c r="I10" t="n">
-        <v>2.66</v>
+        <v>5.2</v>
       </c>
       <c r="J10" t="n">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="K10" t="n">
-        <v>3.35</v>
+        <v>4.2</v>
       </c>
       <c r="L10" t="n">
-        <v>1.52</v>
+        <v>1.36</v>
       </c>
       <c r="M10" t="n">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>3.05</v>
+        <v>4.4</v>
       </c>
       <c r="O10" t="n">
-        <v>1.45</v>
+        <v>1.28</v>
       </c>
       <c r="P10" t="n">
-        <v>1.68</v>
+        <v>2.16</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.36</v>
+        <v>1.82</v>
       </c>
       <c r="R10" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="S10" t="n">
-        <v>4.6</v>
+        <v>3.15</v>
       </c>
       <c r="T10" t="n">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="U10" t="n">
-        <v>1.95</v>
+        <v>2.16</v>
       </c>
       <c r="V10" t="n">
-        <v>1.6</v>
+        <v>1.23</v>
       </c>
       <c r="W10" t="n">
-        <v>1.42</v>
+        <v>2.28</v>
       </c>
       <c r="X10" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF10" t="n">
         <v>10.5</v>
       </c>
-      <c r="Y10" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>150</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>20</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>48</v>
-      </c>
       <c r="AG10" t="n">
-        <v>27</v>
+        <v>9.6</v>
       </c>
       <c r="AH10" t="n">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="AI10" t="n">
-        <v>290</v>
+        <v>80</v>
       </c>
       <c r="AJ10" t="n">
-        <v>340</v>
+        <v>18.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AL10" t="n">
-        <v>500</v>
+        <v>32</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN10" t="n">
-        <v>600</v>
+        <v>10</v>
       </c>
       <c r="AO10" t="n">
-        <v>600</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11">
@@ -1873,121 +1873,121 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Scunthorpe</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.81</v>
+        <v>2.38</v>
       </c>
       <c r="G11" t="n">
-        <v>1.83</v>
+        <v>2.54</v>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>2.96</v>
       </c>
       <c r="I11" t="n">
-        <v>5.3</v>
+        <v>3.35</v>
       </c>
       <c r="J11" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K11" t="n">
         <v>3.9</v>
       </c>
-      <c r="K11" t="n">
-        <v>4</v>
-      </c>
       <c r="L11" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M11" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="O11" t="n">
         <v>1.28</v>
       </c>
       <c r="P11" t="n">
-        <v>2.14</v>
+        <v>1.98</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
       <c r="R11" t="n">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="S11" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="T11" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="U11" t="n">
-        <v>2.2</v>
+        <v>1.05</v>
       </c>
       <c r="V11" t="n">
-        <v>1.23</v>
+        <v>1.01</v>
       </c>
       <c r="W11" t="n">
-        <v>2.2</v>
+        <v>1.01</v>
       </c>
       <c r="X11" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="Y11" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="Z11" t="n">
-        <v>42</v>
+        <v>970</v>
       </c>
       <c r="AA11" t="n">
-        <v>120</v>
+        <v>900</v>
       </c>
       <c r="AB11" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.800000000000001</v>
+        <v>14</v>
       </c>
       <c r="AD11" t="n">
-        <v>19.5</v>
+        <v>970</v>
       </c>
       <c r="AE11" t="n">
+        <v>970</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>38</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>970</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>900</v>
+      </c>
+      <c r="AK11" t="n">
         <v>65</v>
       </c>
-      <c r="AF11" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>18</v>
-      </c>
       <c r="AL11" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="AM11" t="n">
-        <v>95</v>
+        <v>580</v>
       </c>
       <c r="AN11" t="n">
-        <v>10.5</v>
+        <v>55</v>
       </c>
       <c r="AO11" t="n">
-        <v>70</v>
+        <v>970</v>
       </c>
     </row>
     <row r="12">
@@ -2008,22 +2008,22 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Sutton Utd</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Hartlepool</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="G12" t="n">
-        <v>2.52</v>
+        <v>2.42</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="I12" t="n">
         <v>3.35</v>
@@ -2032,97 +2032,97 @@
         <v>3.55</v>
       </c>
       <c r="K12" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="L12" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="M12" t="n">
         <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="O12" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P12" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="R12" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="S12" t="n">
         <v>3.2</v>
       </c>
       <c r="T12" t="n">
-        <v>1.78</v>
+        <v>1.64</v>
       </c>
       <c r="U12" t="n">
-        <v>1.05</v>
+        <v>2.34</v>
       </c>
       <c r="V12" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="W12" t="n">
-        <v>1.01</v>
+        <v>1.71</v>
       </c>
       <c r="X12" t="n">
-        <v>970</v>
+        <v>14.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>970</v>
+        <v>14</v>
       </c>
       <c r="Z12" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="AA12" t="n">
-        <v>900</v>
+        <v>60</v>
       </c>
       <c r="AB12" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>14</v>
+        <v>7.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>970</v>
+        <v>36</v>
       </c>
       <c r="AF12" t="n">
-        <v>970</v>
+        <v>16.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="AH12" t="n">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="AI12" t="n">
-        <v>970</v>
+        <v>46</v>
       </c>
       <c r="AJ12" t="n">
-        <v>900</v>
+        <v>32</v>
       </c>
       <c r="AK12" t="n">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="AL12" t="n">
-        <v>970</v>
+        <v>36</v>
       </c>
       <c r="AM12" t="n">
-        <v>580</v>
+        <v>110</v>
       </c>
       <c r="AN12" t="n">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="AO12" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13">
@@ -2143,127 +2143,127 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Sutton Utd</t>
+          <t>Yeovil</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.42</v>
+        <v>3</v>
       </c>
       <c r="G13" t="n">
-        <v>2.44</v>
+        <v>3.1</v>
       </c>
       <c r="H13" t="n">
-        <v>3.35</v>
+        <v>2.46</v>
       </c>
       <c r="I13" t="n">
-        <v>3.4</v>
+        <v>2.54</v>
       </c>
       <c r="J13" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="K13" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L13" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M13" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="O13" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P13" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="R13" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="S13" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="T13" t="n">
-        <v>1.65</v>
+        <v>1.76</v>
       </c>
       <c r="U13" t="n">
-        <v>2.36</v>
+        <v>2.16</v>
       </c>
       <c r="V13" t="n">
-        <v>1.42</v>
+        <v>1.64</v>
       </c>
       <c r="W13" t="n">
-        <v>1.69</v>
+        <v>1.47</v>
       </c>
       <c r="X13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>26</v>
+        <v>16.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="AB13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC13" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD13" t="n">
-        <v>14.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="AF13" t="n">
-        <v>17.5</v>
+        <v>22</v>
       </c>
       <c r="AG13" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AH13" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AJ13" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="AK13" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="AL13" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AM13" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AN13" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="AO13" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Scottish League One</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,36 +2273,36 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Yeovil</t>
+          <t>Hamilton</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>East Fife</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.05</v>
+        <v>1.88</v>
       </c>
       <c r="G14" t="n">
-        <v>3.15</v>
+        <v>1.92</v>
       </c>
       <c r="H14" t="n">
-        <v>2.48</v>
+        <v>4.5</v>
       </c>
       <c r="I14" t="n">
-        <v>2.54</v>
+        <v>4.9</v>
       </c>
       <c r="J14" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K14" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L14" t="n">
         <v>1.38</v>
@@ -2314,7 +2314,7 @@
         <v>4.2</v>
       </c>
       <c r="O14" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P14" t="n">
         <v>2.08</v>
@@ -2326,79 +2326,79 @@
         <v>1.41</v>
       </c>
       <c r="S14" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T14" t="n">
-        <v>1.68</v>
+        <v>1.8</v>
       </c>
       <c r="U14" t="n">
-        <v>2.3</v>
+        <v>2.16</v>
       </c>
       <c r="V14" t="n">
-        <v>1.65</v>
+        <v>1.26</v>
       </c>
       <c r="W14" t="n">
-        <v>1.46</v>
+        <v>2.04</v>
       </c>
       <c r="X14" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Y14" t="n">
         <v>18.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="AA14" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>22</v>
+        <v>16.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.199999999999999</v>
+        <v>12</v>
       </c>
       <c r="AD14" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>150</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG14" t="n">
         <v>16.5</v>
       </c>
-      <c r="AE14" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF14" t="n">
+      <c r="AH14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>500</v>
+      </c>
+      <c r="AJ14" t="n">
         <v>48</v>
       </c>
-      <c r="AG14" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>55</v>
-      </c>
       <c r="AK14" t="n">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="AL14" t="n">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="AM14" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="AN14" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="AO14" t="n">
-        <v>36</v>
+        <v>500</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Scottish League One</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2413,121 +2413,121 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Hamilton</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>East Fife</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.87</v>
+        <v>2.22</v>
       </c>
       <c r="G15" t="n">
-        <v>1.98</v>
+        <v>2.24</v>
       </c>
       <c r="H15" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="I15" t="n">
-        <v>5.1</v>
+        <v>3.7</v>
       </c>
       <c r="J15" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K15" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="L15" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N15" t="n">
         <v>4.1</v>
       </c>
       <c r="O15" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="P15" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.86</v>
+        <v>1.98</v>
       </c>
       <c r="R15" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="S15" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="T15" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="W15" t="n">
         <v>1.8</v>
       </c>
-      <c r="U15" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="W15" t="n">
-        <v>2.02</v>
-      </c>
       <c r="X15" t="n">
-        <v>27</v>
+        <v>14.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="Z15" t="n">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="AA15" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB15" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH15" t="n">
         <v>16.5</v>
       </c>
-      <c r="AC15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>32</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>500</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG15" t="n">
+      <c r="AI15" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN15" t="n">
         <v>16.5</v>
       </c>
-      <c r="AH15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>500</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>90</v>
-      </c>
-      <c r="AK15" t="n">
+      <c r="AO15" t="n">
         <v>44</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>500</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>32</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>110</v>
       </c>
     </row>
     <row r="16">
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Paris St-G</t>
         </is>
       </c>
       <c r="F16" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="G16" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="J16" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="K16" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N16" t="n">
+        <v>7</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S16" t="n">
         <v>2.22</v>
       </c>
-      <c r="G16" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="H16" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K16" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N16" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="S16" t="n">
-        <v>3.1</v>
-      </c>
       <c r="T16" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="U16" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="V16" t="n">
-        <v>1.37</v>
+        <v>3.05</v>
       </c>
       <c r="W16" t="n">
-        <v>1.8</v>
+        <v>1.15</v>
       </c>
       <c r="X16" t="n">
-        <v>15.5</v>
+        <v>29</v>
       </c>
       <c r="Y16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG16" t="n">
         <v>26</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AH16" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>190</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>80</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM16" t="n">
         <v>70</v>
       </c>
-      <c r="AB16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>27</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>75</v>
-      </c>
       <c r="AN16" t="n">
-        <v>14.5</v>
+        <v>65</v>
       </c>
       <c r="AO16" t="n">
-        <v>36</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="17">
@@ -2683,127 +2683,127 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="G17" t="n">
-        <v>7.2</v>
+        <v>3.25</v>
       </c>
       <c r="H17" t="n">
-        <v>1.5</v>
+        <v>2.32</v>
       </c>
       <c r="I17" t="n">
-        <v>1.51</v>
+        <v>2.34</v>
       </c>
       <c r="J17" t="n">
-        <v>5.2</v>
+        <v>3.85</v>
       </c>
       <c r="K17" t="n">
-        <v>5.3</v>
+        <v>3.9</v>
       </c>
       <c r="L17" t="n">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="M17" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>6.4</v>
+        <v>5.1</v>
       </c>
       <c r="O17" t="n">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="P17" t="n">
-        <v>2.82</v>
+        <v>2.36</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.53</v>
+        <v>1.72</v>
       </c>
       <c r="R17" t="n">
-        <v>1.74</v>
+        <v>1.55</v>
       </c>
       <c r="S17" t="n">
-        <v>2.32</v>
+        <v>2.8</v>
       </c>
       <c r="T17" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="U17" t="n">
-        <v>2.38</v>
+        <v>2.58</v>
       </c>
       <c r="V17" t="n">
-        <v>2.98</v>
+        <v>1.76</v>
       </c>
       <c r="W17" t="n">
-        <v>1.16</v>
+        <v>1.43</v>
       </c>
       <c r="X17" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="Y17" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD17" t="n">
         <v>11</v>
       </c>
-      <c r="AA17" t="n">
-        <v>14</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AE17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG17" t="n">
         <v>13.5</v>
       </c>
-      <c r="AF17" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>26</v>
-      </c>
       <c r="AH17" t="n">
-        <v>19</v>
+        <v>14.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AJ17" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="AK17" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="AL17" t="n">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="AM17" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AN17" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="AO17" t="n">
-        <v>5.1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,126 +2813,126 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Alianza FC Valledupar</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Cucuta Deportivo</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.3</v>
+        <v>1.91</v>
       </c>
       <c r="G18" t="n">
-        <v>3.35</v>
+        <v>1.95</v>
       </c>
       <c r="H18" t="n">
-        <v>2.26</v>
+        <v>5</v>
       </c>
       <c r="I18" t="n">
-        <v>2.28</v>
+        <v>5.3</v>
       </c>
       <c r="J18" t="n">
-        <v>3.85</v>
+        <v>3.4</v>
       </c>
       <c r="K18" t="n">
-        <v>3.9</v>
+        <v>3.55</v>
       </c>
       <c r="L18" t="n">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="M18" t="n">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="N18" t="n">
-        <v>5</v>
+        <v>2.92</v>
       </c>
       <c r="O18" t="n">
-        <v>1.24</v>
+        <v>1.49</v>
       </c>
       <c r="P18" t="n">
-        <v>2.34</v>
+        <v>1.61</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.73</v>
+        <v>2.52</v>
       </c>
       <c r="R18" t="n">
-        <v>1.54</v>
+        <v>1.22</v>
       </c>
       <c r="S18" t="n">
-        <v>2.8</v>
+        <v>5.2</v>
       </c>
       <c r="T18" t="n">
-        <v>1.63</v>
+        <v>2.18</v>
       </c>
       <c r="U18" t="n">
-        <v>2.56</v>
+        <v>1.76</v>
       </c>
       <c r="V18" t="n">
-        <v>1.78</v>
+        <v>1.23</v>
       </c>
       <c r="W18" t="n">
-        <v>1.42</v>
+        <v>2.04</v>
       </c>
       <c r="X18" t="n">
-        <v>18.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Z18" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="AA18" t="n">
-        <v>29</v>
+        <v>150</v>
       </c>
       <c r="AB18" t="n">
-        <v>16</v>
+        <v>6.8</v>
       </c>
       <c r="AC18" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD18" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG18" t="n">
         <v>11</v>
       </c>
-      <c r="AE18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AH18" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="AI18" t="n">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="AJ18" t="n">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="AK18" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="AL18" t="n">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="AM18" t="n">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="AN18" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="AO18" t="n">
-        <v>13</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19">
@@ -2948,30 +2948,30 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Alianza FC Valledupar</t>
+          <t>Jaguares de Cordoba</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Cucuta Deportivo</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.93</v>
+        <v>3.7</v>
       </c>
       <c r="G19" t="n">
-        <v>1.98</v>
+        <v>3.95</v>
       </c>
       <c r="H19" t="n">
-        <v>4.9</v>
+        <v>2.26</v>
       </c>
       <c r="I19" t="n">
-        <v>5.3</v>
+        <v>2.3</v>
       </c>
       <c r="J19" t="n">
         <v>3.3</v>
@@ -2980,70 +2980,70 @@
         <v>3.5</v>
       </c>
       <c r="L19" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="M19" t="n">
         <v>1.11</v>
       </c>
       <c r="N19" t="n">
-        <v>2.9</v>
+        <v>2.78</v>
       </c>
       <c r="O19" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="P19" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="R19" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="S19" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="T19" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="U19" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V19" t="n">
         <v>1.76</v>
       </c>
-      <c r="V19" t="n">
-        <v>1.23</v>
-      </c>
       <c r="W19" t="n">
-        <v>2.02</v>
+        <v>1.34</v>
       </c>
       <c r="X19" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="Y19" t="n">
-        <v>14</v>
+        <v>7.8</v>
       </c>
       <c r="Z19" t="n">
-        <v>36</v>
+        <v>13.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>700</v>
+        <v>80</v>
       </c>
       <c r="AB19" t="n">
-        <v>6.8</v>
+        <v>10.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD19" t="n">
-        <v>22</v>
+        <v>12.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="AF19" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="AG19" t="n">
-        <v>11</v>
+        <v>16.5</v>
       </c>
       <c r="AH19" t="n">
         <v>60</v>
@@ -3052,28 +3052,28 @@
         <v>120</v>
       </c>
       <c r="AJ19" t="n">
-        <v>22</v>
+        <v>500</v>
       </c>
       <c r="AK19" t="n">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="AL19" t="n">
-        <v>60</v>
+        <v>360</v>
       </c>
       <c r="AM19" t="n">
-        <v>210</v>
+        <v>500</v>
       </c>
       <c r="AN19" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,260 +3083,125 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>22:10:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Jaguares de Cordoba</t>
+          <t>Boca Juniors de Cali</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Orsomarso</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.7</v>
+        <v>2.4</v>
       </c>
       <c r="G20" t="n">
-        <v>3.9</v>
+        <v>2.44</v>
       </c>
       <c r="H20" t="n">
-        <v>2.26</v>
+        <v>3.75</v>
       </c>
       <c r="I20" t="n">
-        <v>2.3</v>
+        <v>3.95</v>
       </c>
       <c r="J20" t="n">
-        <v>3.3</v>
+        <v>2.98</v>
       </c>
       <c r="K20" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="L20" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="M20" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="N20" t="n">
-        <v>2.78</v>
+        <v>2.52</v>
       </c>
       <c r="O20" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="P20" t="n">
-        <v>1.58</v>
+        <v>1.49</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.62</v>
+        <v>2.84</v>
       </c>
       <c r="R20" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="S20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="T20" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="U20" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V20" t="n">
-        <v>1.76</v>
+        <v>1.34</v>
       </c>
       <c r="W20" t="n">
-        <v>1.34</v>
+        <v>1.69</v>
       </c>
       <c r="X20" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Y20" t="n">
         <v>9.6</v>
       </c>
-      <c r="Y20" t="n">
-        <v>7.8</v>
-      </c>
       <c r="Z20" t="n">
-        <v>13.5</v>
+        <v>27</v>
       </c>
       <c r="AA20" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AB20" t="n">
-        <v>10.5</v>
+        <v>7.2</v>
       </c>
       <c r="AC20" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD20" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF20" t="n">
         <v>12.5</v>
       </c>
-      <c r="AE20" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>26</v>
-      </c>
       <c r="AG20" t="n">
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="AI20" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ20" t="n">
-        <v>500</v>
+        <v>36</v>
       </c>
       <c r="AK20" t="n">
-        <v>160</v>
+        <v>36</v>
       </c>
       <c r="AL20" t="n">
-        <v>360</v>
+        <v>75</v>
       </c>
       <c r="AM20" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>600</v>
+        <v>40</v>
       </c>
       <c r="AO20" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Colombian Primera B</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>2026-02-17</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>22:10:00</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Boca Juniors de Cali</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Orsomarso</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="G21" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="H21" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I21" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J21" t="n">
-        <v>3</v>
-      </c>
-      <c r="K21" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N21" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="S21" t="n">
-        <v>6</v>
-      </c>
-      <c r="T21" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="W21" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="X21" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>95</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>36</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>240</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>38</v>
-      </c>
-      <c r="AO21" t="n">
         <v>110</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO20"/>
+  <dimension ref="A1:AO18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -715,70 +715,70 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="AM2" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>2.32</v>
+        <v>0</v>
       </c>
       <c r="AO2" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>French National</t>
+          <t>Scottish League One</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,36 +788,36 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>15:30:20</t>
+          <t>16:44:09</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Stade Briochin</t>
+          <t>Cove Rangers</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Fleury Merogis</t>
+          <t>Montrose</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>11</v>
+        <v>1.23</v>
       </c>
       <c r="G3" t="n">
-        <v>12.5</v>
+        <v>1.25</v>
       </c>
       <c r="H3" t="n">
-        <v>1.41</v>
+        <v>46</v>
       </c>
       <c r="I3" t="n">
-        <v>1.45</v>
+        <v>75</v>
       </c>
       <c r="J3" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="K3" t="n">
-        <v>4.9</v>
+        <v>6</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -826,94 +826,94 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>5.7</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.97</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.94</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.3</v>
+        <v>1.79</v>
       </c>
       <c r="S3" t="n">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="T3" t="n">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>3.15</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>1.08</v>
+        <v>4.7</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.8</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
         <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
         <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>1.82</v>
       </c>
       <c r="AH3" t="n">
-        <v>19.5</v>
+        <v>5.9</v>
       </c>
       <c r="AI3" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>95</v>
+        <v>6.6</v>
       </c>
       <c r="AL3" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="AM3" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="AN3" t="n">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="AO3" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Dutch Eredivisie</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>16:01:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Sparta Rotterdam</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>NEC Nijmegen</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.58</v>
+        <v>2.38</v>
       </c>
       <c r="G4" t="n">
-        <v>2.7</v>
+        <v>980</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>1.04</v>
       </c>
       <c r="I4" t="n">
-        <v>3.15</v>
+        <v>980</v>
       </c>
       <c r="J4" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="K4" t="n">
-        <v>3.45</v>
+        <v>3.9</v>
       </c>
       <c r="L4" t="n">
-        <v>1.73</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>4.2</v>
+        <v>1.1</v>
       </c>
       <c r="O4" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>1.87</v>
+        <v>1.02</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.1</v>
+        <v>1.01</v>
       </c>
       <c r="R4" t="n">
-        <v>1.36</v>
+        <v>1.03</v>
       </c>
       <c r="S4" t="n">
-        <v>3.35</v>
+        <v>1.05</v>
       </c>
       <c r="T4" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="U4" t="n">
-        <v>2.16</v>
+        <v>1.05</v>
       </c>
       <c r="V4" t="n">
-        <v>1.47</v>
+        <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>1.62</v>
+        <v>1.01</v>
       </c>
       <c r="X4" t="n">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>440</v>
+        <v>970</v>
       </c>
       <c r="AC4" t="n">
-        <v>490</v>
+        <v>970</v>
       </c>
       <c r="AD4" t="n">
-        <v>490</v>
+        <v>970</v>
       </c>
       <c r="AE4" t="n">
-        <v>490</v>
+        <v>970</v>
       </c>
       <c r="AF4" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AG4" t="n">
-        <v>490</v>
+        <v>970</v>
       </c>
       <c r="AH4" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AI4" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AK4" t="n">
-        <v>490</v>
+        <v>970</v>
       </c>
       <c r="AL4" t="n">
-        <v>50</v>
+        <v>970</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN4" t="n">
-        <v>85</v>
+        <v>970</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Scottish League Two</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1063,127 +1063,127 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Elgin City FC</t>
+          <t>Yeovil</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>East Kilbride</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.8</v>
+        <v>23</v>
       </c>
       <c r="G5" t="n">
-        <v>3.1</v>
+        <v>950</v>
       </c>
       <c r="H5" t="n">
-        <v>2.4</v>
+        <v>1.18</v>
       </c>
       <c r="I5" t="n">
-        <v>2.54</v>
+        <v>1.21</v>
       </c>
       <c r="J5" t="n">
-        <v>3.85</v>
+        <v>6.2</v>
       </c>
       <c r="K5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L5" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2.52</v>
+        <v>1.02</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.59</v>
+        <v>1.01</v>
       </c>
       <c r="R5" t="n">
-        <v>1.61</v>
+        <v>1.82</v>
       </c>
       <c r="S5" t="n">
-        <v>2.48</v>
+        <v>2.16</v>
       </c>
       <c r="T5" t="n">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>2.58</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>1.65</v>
+        <v>5.2</v>
       </c>
       <c r="W5" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="X5" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>12.5</v>
+        <v>900</v>
       </c>
       <c r="AE5" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>18</v>
+        <v>990</v>
       </c>
       <c r="AI5" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Scottish League Two</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:45:01</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Stirling</t>
+          <t>Sutton Utd</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Clyde</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.05</v>
+        <v>1.73</v>
       </c>
       <c r="G6" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+      <c r="I6" t="n">
+        <v>9</v>
+      </c>
+      <c r="J6" t="n">
         <v>3.2</v>
       </c>
-      <c r="H6" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.65</v>
-      </c>
       <c r="K6" t="n">
-        <v>3.95</v>
+        <v>3.3</v>
       </c>
       <c r="L6" t="n">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.82</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>1.43</v>
+        <v>2.36</v>
       </c>
       <c r="S6" t="n">
-        <v>3.05</v>
+        <v>1.68</v>
       </c>
       <c r="T6" t="n">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>1.68</v>
+        <v>1.13</v>
       </c>
       <c r="W6" t="n">
-        <v>1.46</v>
+        <v>2.2</v>
       </c>
       <c r="X6" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>13.5</v>
+        <v>2.6</v>
       </c>
       <c r="AH6" t="n">
-        <v>17</v>
+        <v>4.1</v>
       </c>
       <c r="AI6" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="AJ6" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
         <v>34</v>
       </c>
       <c r="AL6" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Scottish Championship</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:45:03</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Morton</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Dunfermline</t>
+          <t>Scunthorpe</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.25</v>
+        <v>2.98</v>
       </c>
       <c r="G7" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="H7" t="n">
-        <v>2.54</v>
+        <v>7.4</v>
       </c>
       <c r="I7" t="n">
-        <v>2.66</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J7" t="n">
-        <v>3.15</v>
+        <v>1.84</v>
       </c>
       <c r="K7" t="n">
-        <v>3.25</v>
+        <v>1.85</v>
       </c>
       <c r="L7" t="n">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="S7" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="W7" t="n">
         <v>1.45</v>
       </c>
-      <c r="P7" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S7" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1.42</v>
-      </c>
       <c r="X7" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE7" t="n">
         <v>120</v>
       </c>
-      <c r="AB7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>95</v>
-      </c>
       <c r="AF7" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>14.5</v>
+        <v>4.2</v>
       </c>
       <c r="AH7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI7" t="n">
-        <v>75</v>
+        <v>240</v>
       </c>
       <c r="AJ7" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="AL7" t="n">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="AM7" t="n">
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="AO7" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Scottish League Two</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:45:59</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>FC Halifax Town</t>
+          <t>Stirling</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.56</v>
+        <v>11.5</v>
       </c>
       <c r="G8" t="n">
-        <v>1.59</v>
+        <v>1000</v>
       </c>
       <c r="H8" t="n">
-        <v>6.4</v>
+        <v>1.01</v>
       </c>
       <c r="I8" t="n">
-        <v>6.6</v>
+        <v>1.02</v>
       </c>
       <c r="J8" t="n">
-        <v>4.6</v>
+        <v>12</v>
       </c>
       <c r="K8" t="n">
-        <v>4.9</v>
+        <v>1000</v>
       </c>
       <c r="L8" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>5.1</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>1.55</v>
+        <v>1.85</v>
       </c>
       <c r="S8" t="n">
-        <v>2.7</v>
+        <v>2.06</v>
       </c>
       <c r="T8" t="n">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="U8" t="n">
-        <v>2.18</v>
+        <v>1.24</v>
       </c>
       <c r="V8" t="n">
-        <v>1.17</v>
+        <v>50</v>
       </c>
       <c r="W8" t="n">
-        <v>2.7</v>
+        <v>1.01</v>
       </c>
       <c r="X8" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>180</v>
+        <v>2.12</v>
       </c>
       <c r="AB8" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>100</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AF8" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AJ8" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>140</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Scottish League One</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:46:11</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Cove Rangers</t>
+          <t>FC Halifax Town</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Montrose</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.3</v>
+        <v>10.5</v>
       </c>
       <c r="G9" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD9" t="n">
         <v>2.38</v>
       </c>
-      <c r="H9" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N9" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="S9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="X9" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>85</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AE9" t="n">
-        <v>36</v>
+        <v>9.4</v>
       </c>
       <c r="AF9" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>21</v>
+        <v>3.8</v>
       </c>
       <c r="AI9" t="n">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="AJ9" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="AM9" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="AN9" t="n">
-        <v>18.5</v>
+        <v>100</v>
       </c>
       <c r="AO9" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:46:41</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Morton</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Scunthorpe</t>
+          <t>Dunfermline</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.75</v>
+        <v>1.01</v>
       </c>
       <c r="G10" t="n">
-        <v>1.79</v>
+        <v>1.02</v>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>270</v>
       </c>
       <c r="I10" t="n">
-        <v>5.2</v>
+        <v>1000</v>
       </c>
       <c r="J10" t="n">
-        <v>4.1</v>
+        <v>50</v>
       </c>
       <c r="K10" t="n">
-        <v>4.2</v>
+        <v>130</v>
       </c>
       <c r="L10" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.16</v>
+        <v>1.73</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.82</v>
+        <v>2.18</v>
       </c>
       <c r="R10" t="n">
-        <v>1.44</v>
+        <v>1.09</v>
       </c>
       <c r="S10" t="n">
-        <v>3.15</v>
+        <v>10</v>
       </c>
       <c r="T10" t="n">
-        <v>1.8</v>
+        <v>6.2</v>
       </c>
       <c r="U10" t="n">
-        <v>2.16</v>
+        <v>1.16</v>
       </c>
       <c r="V10" t="n">
-        <v>1.23</v>
+        <v>1.01</v>
       </c>
       <c r="W10" t="n">
-        <v>2.28</v>
+        <v>46</v>
       </c>
       <c r="X10" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AD10" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>10.5</v>
+        <v>1.7</v>
       </c>
       <c r="AG10" t="n">
-        <v>9.6</v>
+        <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="AI10" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>18.5</v>
+        <v>4.9</v>
       </c>
       <c r="AK10" t="n">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="AL10" t="n">
+        <v>590</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN10" t="n">
         <v>32</v>
       </c>
-      <c r="AM10" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>10</v>
-      </c>
       <c r="AO10" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Scottish League Two</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:46:55</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Elgin City FC</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Hartlepool</t>
+          <t>East Kilbride</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.38</v>
+        <v>180</v>
       </c>
       <c r="G11" t="n">
-        <v>2.54</v>
+        <v>1000</v>
       </c>
       <c r="H11" t="n">
-        <v>2.96</v>
+        <v>1.01</v>
       </c>
       <c r="I11" t="n">
-        <v>3.35</v>
+        <v>1.01</v>
       </c>
       <c r="J11" t="n">
-        <v>3.55</v>
+        <v>12</v>
       </c>
       <c r="K11" t="n">
-        <v>3.9</v>
+        <v>1000</v>
       </c>
       <c r="L11" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>1.01</v>
+        <v>34</v>
       </c>
       <c r="W11" t="n">
         <v>1.01</v>
       </c>
       <c r="X11" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>970</v>
+        <v>990</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Sutton Utd</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Paris St-G</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.4</v>
+        <v>22</v>
       </c>
       <c r="G12" t="n">
-        <v>2.42</v>
+        <v>24</v>
       </c>
       <c r="H12" t="n">
-        <v>3.3</v>
+        <v>1.41</v>
       </c>
       <c r="I12" t="n">
-        <v>3.35</v>
+        <v>1.42</v>
       </c>
       <c r="J12" t="n">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="K12" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="L12" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
         <v>3.2</v>
       </c>
-      <c r="T12" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.43</v>
-      </c>
       <c r="W12" t="n">
-        <v>1.71</v>
+        <v>1.05</v>
       </c>
       <c r="X12" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AD12" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AE12" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>16</v>
+        <v>5.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>46</v>
+        <v>3.45</v>
       </c>
       <c r="AJ12" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AM12" t="n">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="AN12" t="n">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="AO12" t="n">
-        <v>32</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,126 +2138,126 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Yeovil</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>15.5</v>
       </c>
       <c r="G13" t="n">
-        <v>3.1</v>
+        <v>16.5</v>
       </c>
       <c r="H13" t="n">
-        <v>2.46</v>
+        <v>1.36</v>
       </c>
       <c r="I13" t="n">
-        <v>2.54</v>
+        <v>1.37</v>
       </c>
       <c r="J13" t="n">
-        <v>3.6</v>
+        <v>4.8</v>
       </c>
       <c r="K13" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="S13" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V13" t="n">
         <v>3.75</v>
       </c>
-      <c r="L13" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M13" t="n">
+      <c r="W13" t="n">
         <v>1.06</v>
       </c>
-      <c r="N13" t="n">
-        <v>4</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="S13" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="W13" t="n">
-        <v>1.47</v>
-      </c>
       <c r="X13" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Y13" t="n">
-        <v>11.5</v>
+        <v>3.95</v>
       </c>
       <c r="Z13" t="n">
-        <v>16.5</v>
+        <v>5.2</v>
       </c>
       <c r="AA13" t="n">
-        <v>36</v>
+        <v>14.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.199999999999999</v>
+        <v>6</v>
       </c>
       <c r="AD13" t="n">
-        <v>11.5</v>
+        <v>9.4</v>
       </c>
       <c r="AE13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG13" t="n">
         <v>22</v>
       </c>
-      <c r="AG13" t="n">
-        <v>13</v>
-      </c>
       <c r="AH13" t="n">
-        <v>16.5</v>
+        <v>30</v>
       </c>
       <c r="AI13" t="n">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="AJ13" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>34</v>
+        <v>140</v>
       </c>
       <c r="AL13" t="n">
-        <v>42</v>
+        <v>180</v>
       </c>
       <c r="AM13" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>28</v>
+        <v>580</v>
       </c>
       <c r="AO13" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14">
@@ -2273,7 +2273,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:01:18</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2287,112 +2287,112 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.88</v>
+        <v>1.34</v>
       </c>
       <c r="G14" t="n">
-        <v>1.92</v>
+        <v>1.37</v>
       </c>
       <c r="H14" t="n">
-        <v>4.5</v>
+        <v>18</v>
       </c>
       <c r="I14" t="n">
+        <v>22</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K14" t="n">
         <v>4.9</v>
       </c>
-      <c r="J14" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K14" t="n">
-        <v>4</v>
-      </c>
       <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P14" t="n">
         <v>1.38</v>
       </c>
-      <c r="M14" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N14" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2.08</v>
-      </c>
       <c r="Q14" t="n">
-        <v>1.85</v>
+        <v>3.5</v>
       </c>
       <c r="R14" t="n">
-        <v>1.41</v>
+        <v>1.09</v>
       </c>
       <c r="S14" t="n">
-        <v>3.2</v>
+        <v>11.5</v>
       </c>
       <c r="T14" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="U14" t="n">
-        <v>2.16</v>
+        <v>1.59</v>
       </c>
       <c r="V14" t="n">
-        <v>1.26</v>
+        <v>1.05</v>
       </c>
       <c r="W14" t="n">
-        <v>2.04</v>
+        <v>3.75</v>
       </c>
       <c r="X14" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="Y14" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="Z14" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AA14" t="n">
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>16.5</v>
+        <v>2.96</v>
       </c>
       <c r="AC14" t="n">
-        <v>12</v>
+        <v>5.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AE14" t="n">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="AF14" t="n">
-        <v>13</v>
+        <v>5.3</v>
       </c>
       <c r="AG14" t="n">
-        <v>16.5</v>
+        <v>11</v>
       </c>
       <c r="AH14" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="AI14" t="n">
-        <v>500</v>
+        <v>420</v>
       </c>
       <c r="AJ14" t="n">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="AK14" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AL14" t="n">
-        <v>500</v>
+        <v>230</v>
       </c>
       <c r="AM14" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AO14" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
@@ -2408,7 +2408,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2422,118 +2422,118 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.22</v>
+        <v>1.07</v>
       </c>
       <c r="G15" t="n">
-        <v>2.24</v>
+        <v>1.08</v>
       </c>
       <c r="H15" t="n">
-        <v>3.6</v>
+        <v>70</v>
       </c>
       <c r="I15" t="n">
-        <v>3.7</v>
+        <v>90</v>
       </c>
       <c r="J15" t="n">
-        <v>3.6</v>
+        <v>16</v>
       </c>
       <c r="K15" t="n">
-        <v>3.65</v>
+        <v>17.5</v>
       </c>
       <c r="L15" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.98</v>
+        <v>1.3</v>
       </c>
       <c r="R15" t="n">
-        <v>1.4</v>
+        <v>1.72</v>
       </c>
       <c r="S15" t="n">
-        <v>3.4</v>
+        <v>2.36</v>
       </c>
       <c r="T15" t="n">
-        <v>1.76</v>
+        <v>2.02</v>
       </c>
       <c r="U15" t="n">
-        <v>2.26</v>
+        <v>1.91</v>
       </c>
       <c r="V15" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="W15" t="n">
-        <v>1.8</v>
+        <v>13.5</v>
       </c>
       <c r="X15" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Y15" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Z15" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AA15" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC15" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AD15" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AE15" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>13.5</v>
+        <v>4.2</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>6.6</v>
       </c>
       <c r="AH15" t="n">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="AI15" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>26</v>
+        <v>5.4</v>
       </c>
       <c r="AK15" t="n">
-        <v>22</v>
+        <v>8.4</v>
       </c>
       <c r="AL15" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AM15" t="n">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="AN15" t="n">
-        <v>16.5</v>
+        <v>5.9</v>
       </c>
       <c r="AO15" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>18:00:11</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Alianza FC Valledupar</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>Cucuta Deportivo</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>7.2</v>
+        <v>1.06</v>
       </c>
       <c r="G16" t="n">
-        <v>7.4</v>
+        <v>1.43</v>
       </c>
       <c r="H16" t="n">
-        <v>1.47</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I16" t="n">
-        <v>1.48</v>
+        <v>950</v>
       </c>
       <c r="J16" t="n">
-        <v>5.3</v>
+        <v>1.91</v>
       </c>
       <c r="K16" t="n">
-        <v>5.4</v>
+        <v>12.5</v>
       </c>
       <c r="L16" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>7</v>
+        <v>5.1</v>
       </c>
       <c r="O16" t="n">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="P16" t="n">
-        <v>2.98</v>
+        <v>2.18</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.5</v>
+        <v>1.72</v>
       </c>
       <c r="R16" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="S16" t="n">
-        <v>2.22</v>
+        <v>1.01</v>
       </c>
       <c r="T16" t="n">
-        <v>1.68</v>
+        <v>1.06</v>
       </c>
       <c r="U16" t="n">
-        <v>2.42</v>
+        <v>2.04</v>
       </c>
       <c r="V16" t="n">
-        <v>3.05</v>
+        <v>1.01</v>
       </c>
       <c r="W16" t="n">
-        <v>1.15</v>
+        <v>1.01</v>
       </c>
       <c r="X16" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="Y16" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Z16" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AA16" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>34</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC16" t="n">
-        <v>12.5</v>
+        <v>180</v>
       </c>
       <c r="AD16" t="n">
-        <v>10</v>
+        <v>980</v>
       </c>
       <c r="AE16" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>65</v>
+        <v>280</v>
       </c>
       <c r="AG16" t="n">
-        <v>26</v>
+        <v>990</v>
       </c>
       <c r="AH16" t="n">
-        <v>18.5</v>
+        <v>990</v>
       </c>
       <c r="AI16" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AK16" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AL16" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM16" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>4.8</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Jaguares de Cordoba</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="G17" t="n">
-        <v>3.25</v>
+        <v>4.1</v>
       </c>
       <c r="H17" t="n">
-        <v>2.32</v>
+        <v>2.18</v>
       </c>
       <c r="I17" t="n">
-        <v>2.34</v>
+        <v>2.26</v>
       </c>
       <c r="J17" t="n">
-        <v>3.85</v>
+        <v>3.35</v>
       </c>
       <c r="K17" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="L17" t="n">
-        <v>1.34</v>
+        <v>1.55</v>
       </c>
       <c r="M17" t="n">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="N17" t="n">
-        <v>5.1</v>
+        <v>2.8</v>
       </c>
       <c r="O17" t="n">
-        <v>1.23</v>
+        <v>1.52</v>
       </c>
       <c r="P17" t="n">
-        <v>2.36</v>
+        <v>1.58</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.72</v>
+        <v>2.62</v>
       </c>
       <c r="R17" t="n">
-        <v>1.55</v>
+        <v>1.2</v>
       </c>
       <c r="S17" t="n">
-        <v>2.8</v>
+        <v>5.5</v>
       </c>
       <c r="T17" t="n">
-        <v>1.61</v>
+        <v>2.14</v>
       </c>
       <c r="U17" t="n">
-        <v>2.58</v>
+        <v>1.78</v>
       </c>
       <c r="V17" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="W17" t="n">
-        <v>1.43</v>
+        <v>1.32</v>
       </c>
       <c r="X17" t="n">
-        <v>21</v>
+        <v>9.6</v>
       </c>
       <c r="Y17" t="n">
-        <v>13.5</v>
+        <v>7.6</v>
       </c>
       <c r="Z17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA17" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AB17" t="n">
-        <v>15.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="AD17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE17" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="AF17" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AG17" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="AH17" t="n">
-        <v>14.5</v>
+        <v>32</v>
       </c>
       <c r="AI17" t="n">
-        <v>28</v>
+        <v>160</v>
       </c>
       <c r="AJ17" t="n">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="AK17" t="n">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="AL17" t="n">
-        <v>34</v>
+        <v>360</v>
       </c>
       <c r="AM17" t="n">
-        <v>55</v>
+        <v>500</v>
       </c>
       <c r="AN17" t="n">
-        <v>25</v>
+        <v>600</v>
       </c>
       <c r="AO17" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,396 +2813,126 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>22:10:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Alianza FC Valledupar</t>
+          <t>Boca Juniors de Cali</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Cucuta Deportivo</t>
+          <t>Orsomarso</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.91</v>
+        <v>2.4</v>
       </c>
       <c r="G18" t="n">
-        <v>1.95</v>
+        <v>2.44</v>
       </c>
       <c r="H18" t="n">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="I18" t="n">
-        <v>5.3</v>
+        <v>3.95</v>
       </c>
       <c r="J18" t="n">
-        <v>3.4</v>
+        <v>2.98</v>
       </c>
       <c r="K18" t="n">
-        <v>3.55</v>
+        <v>3.15</v>
       </c>
       <c r="L18" t="n">
-        <v>1.53</v>
+        <v>1.64</v>
       </c>
       <c r="M18" t="n">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="N18" t="n">
-        <v>2.92</v>
+        <v>2.52</v>
       </c>
       <c r="O18" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="P18" t="n">
         <v>1.49</v>
       </c>
-      <c r="P18" t="n">
-        <v>1.61</v>
-      </c>
       <c r="Q18" t="n">
-        <v>2.52</v>
+        <v>2.84</v>
       </c>
       <c r="R18" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="S18" t="n">
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="T18" t="n">
         <v>2.18</v>
       </c>
       <c r="U18" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="V18" t="n">
-        <v>1.23</v>
+        <v>1.33</v>
       </c>
       <c r="W18" t="n">
-        <v>2.04</v>
+        <v>1.69</v>
       </c>
       <c r="X18" t="n">
-        <v>9.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="Y18" t="n">
-        <v>14</v>
+        <v>9.6</v>
       </c>
       <c r="Z18" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="AA18" t="n">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="AB18" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="AC18" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>22</v>
+        <v>16.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="AF18" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="AI18" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ18" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="AK18" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AL18" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AM18" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="AO18" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2026-02-17</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Jaguares de Cordoba</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Santa Fe</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="G19" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K19" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N19" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S19" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="W19" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="X19" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>80</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>60</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>500</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>160</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>360</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>500</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Colombian Primera B</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2026-02-17</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>22:10:00</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Boca Juniors de Cali</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Orsomarso</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="G20" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="H20" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I20" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="K20" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N20" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S20" t="n">
-        <v>6</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="W20" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="X20" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>27</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>85</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>46</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>36</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>40</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-17.xlsx
@@ -653,7 +653,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>20:00:30</t>
+          <t>21:19:46</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -667,58 +667,58 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.04</v>
+        <v>1.16</v>
       </c>
       <c r="G2" t="n">
-        <v>4.3</v>
+        <v>1.17</v>
       </c>
       <c r="H2" t="n">
         <v>2.02</v>
       </c>
       <c r="I2" t="n">
-        <v>11.5</v>
+        <v>190</v>
       </c>
       <c r="J2" t="n">
-        <v>2.9</v>
+        <v>1.01</v>
       </c>
       <c r="K2" t="n">
-        <v>3</v>
+        <v>9.6</v>
       </c>
       <c r="L2" t="n">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.34</v>
+        <v>2.88</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.36</v>
+        <v>1.49</v>
       </c>
       <c r="R2" t="n">
-        <v>1.11</v>
+        <v>1.43</v>
       </c>
       <c r="S2" t="n">
-        <v>1.09</v>
+        <v>3.15</v>
       </c>
       <c r="T2" t="n">
-        <v>1.09</v>
+        <v>1.88</v>
       </c>
       <c r="U2" t="n">
-        <v>1.47</v>
+        <v>1.88</v>
       </c>
       <c r="V2" t="n">
         <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>1.01</v>
+        <v>6.8</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -727,7 +727,7 @@
         <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
@@ -736,43 +736,43 @@
         <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>2.98</v>
       </c>
       <c r="AG2" t="n">
-        <v>990</v>
+        <v>4.4</v>
       </c>
       <c r="AH2" t="n">
-        <v>990</v>
+        <v>14</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>380</v>
       </c>
     </row>
     <row r="3">
@@ -788,7 +788,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>22:10:00</t>
+          <t>22:10:06</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.4</v>
+        <v>2.86</v>
       </c>
       <c r="G3" t="n">
-        <v>2.48</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I3" t="n">
         <v>3.8</v>
       </c>
-      <c r="I3" t="n">
-        <v>3.9</v>
-      </c>
       <c r="J3" t="n">
-        <v>2.96</v>
+        <v>2.58</v>
       </c>
       <c r="K3" t="n">
-        <v>3.1</v>
+        <v>2.64</v>
       </c>
       <c r="L3" t="n">
-        <v>1.65</v>
+        <v>2.32</v>
       </c>
       <c r="M3" t="n">
-        <v>1.15</v>
+        <v>1.28</v>
       </c>
       <c r="N3" t="n">
-        <v>2.5</v>
+        <v>1.78</v>
       </c>
       <c r="O3" t="n">
-        <v>1.61</v>
+        <v>2.22</v>
       </c>
       <c r="P3" t="n">
-        <v>1.48</v>
+        <v>1.22</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.88</v>
+        <v>5.1</v>
       </c>
       <c r="R3" t="n">
-        <v>1.17</v>
+        <v>1.06</v>
       </c>
       <c r="S3" t="n">
-        <v>6.2</v>
+        <v>14</v>
       </c>
       <c r="T3" t="n">
-        <v>2.24</v>
+        <v>3.15</v>
       </c>
       <c r="U3" t="n">
-        <v>1.72</v>
+        <v>1.4</v>
       </c>
       <c r="V3" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="W3" t="n">
-        <v>1.68</v>
+        <v>1.51</v>
       </c>
       <c r="X3" t="n">
-        <v>8</v>
+        <v>4.6</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.6</v>
+        <v>7.8</v>
       </c>
       <c r="Z3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AA3" t="n">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="AB3" t="n">
-        <v>7.4</v>
+        <v>5.8</v>
       </c>
       <c r="AC3" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>17.5</v>
+        <v>25</v>
       </c>
       <c r="AE3" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="AF3" t="n">
-        <v>13.5</v>
+        <v>17</v>
       </c>
       <c r="AG3" t="n">
-        <v>12.5</v>
+        <v>20</v>
       </c>
       <c r="AH3" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="AI3" t="n">
-        <v>110</v>
+        <v>320</v>
       </c>
       <c r="AJ3" t="n">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="AK3" t="n">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="AL3" t="n">
-        <v>75</v>
+        <v>250</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>42</v>
+        <v>180</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
